--- a/lang/pt/headTags.xlsx
+++ b/lang/pt/headTags.xlsx
@@ -10,19 +10,19 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1165</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1169</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1170">
   <si>
     <t>en</t>
   </si>
   <si>
-    <t>pt</t>
+    <t>pt (Portuguese)</t>
   </si>
   <si>
     <t>101 Dalmatians</t>
@@ -511,6 +511,9 @@
     <t>Charlie and the Chocolate Factory</t>
   </si>
   <si>
+    <t>Chase the Skies</t>
+  </si>
+  <si>
     <t>Cheese</t>
   </si>
   <si>
@@ -982,6 +985,9 @@
     <t>Fairy Tales</t>
   </si>
   <si>
+    <t>Fall Drop</t>
+  </si>
+  <si>
     <t>Fall Guys</t>
   </si>
   <si>
@@ -1747,6 +1753,9 @@
     <t>Hypixel</t>
   </si>
   <si>
+    <t>Hypixel (Attribute Shard)</t>
+  </si>
+  <si>
     <t>Hypixel (Dyes)</t>
   </si>
   <si>
@@ -2638,6 +2647,9 @@
     <t>Quake</t>
   </si>
   <si>
+    <t>R.E.P.O.</t>
+  </si>
+  <si>
     <t>Rabbit</t>
   </si>
   <si>
@@ -2959,6 +2971,9 @@
     <t>Spooky's Jump Scare Mansion</t>
   </si>
   <si>
+    <t>Spore</t>
+  </si>
+  <si>
     <t>Sport</t>
   </si>
   <si>
@@ -3047,9 +3062,6 @@
   </si>
   <si>
     <t>Summer</t>
-  </si>
-  <si>
-    <t>Summer Drop 2025</t>
   </si>
   <si>
     <t>Sunglasses</t>
@@ -3861,7 +3873,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1165"/>
+  <dimension ref="A1:B1169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -9702,8 +9714,28 @@
         <v>1165</v>
       </c>
     </row>
+    <row r="1166" spans="1:2">
+      <c r="A1166" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:2">
+      <c r="A1167" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:2">
+      <c r="A1168" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:2">
+      <c r="A1169" t="s">
+        <v>1169</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1165"/>
+  <autoFilter ref="A1:B1169"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/pt/headTags.xlsx
+++ b/lang/pt/headTags.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1202">
   <si>
     <t>en</t>
   </si>
@@ -28,30 +28,54 @@
     <t>101 Dalmatians</t>
   </si>
   <si>
+    <t>101 Dálmatas</t>
+  </si>
+  <si>
     <t>A Clockwork Orange</t>
   </si>
   <si>
+    <t>Uma Laranja Mecânica</t>
+  </si>
+  <si>
     <t>A Hat in Time</t>
   </si>
   <si>
+    <t>Um chapéu no tempo</t>
+  </si>
+  <si>
     <t>A Nightmare on Elm Street</t>
   </si>
   <si>
+    <t>Um pesadelo em Elm Street</t>
+  </si>
+  <si>
     <t>A Series of Unfortunate Events</t>
   </si>
   <si>
+    <t>Uma série de acontecimentos infelizes</t>
+  </si>
+  <si>
     <t>Accessories</t>
   </si>
   <si>
+    <t>Acessórios</t>
+  </si>
+  <si>
     <t>Ace Attorney</t>
   </si>
   <si>
     <t>Adventure Time</t>
   </si>
   <si>
+    <t>Hora de Aventura</t>
+  </si>
+  <si>
     <t>Aether Mod</t>
   </si>
   <si>
+    <t>Mod. Aether</t>
+  </si>
+  <si>
     <t>Aggretsuko</t>
   </si>
   <si>
@@ -61,9 +85,15 @@
     <t>Aladdin</t>
   </si>
   <si>
+    <t>Aladino</t>
+  </si>
+  <si>
     <t>Alcohol</t>
   </si>
   <si>
+    <t>Álcool</t>
+  </si>
+  <si>
     <t>Alex</t>
   </si>
   <si>
@@ -73,82 +103,148 @@
     <t>Alice Band</t>
   </si>
   <si>
+    <t>Banda Alice</t>
+  </si>
+  <si>
     <t>Alice in Wonderland</t>
   </si>
   <si>
+    <t>Alice no País das Maravilhas</t>
+  </si>
+  <si>
     <t>Alien</t>
   </si>
   <si>
+    <t>Alienígena</t>
+  </si>
+  <si>
     <t>Alien (Movie)</t>
   </si>
   <si>
+    <t>Alienígena (Filme)</t>
+  </si>
+  <si>
     <t>Alphabet (Braille)</t>
   </si>
   <si>
+    <t>Alfabeto (Braille)</t>
+  </si>
+  <si>
     <t>Alphabet (Cyrillic)</t>
   </si>
   <si>
+    <t>Alfabeto (cirílico)</t>
+  </si>
+  <si>
     <t>Alphabet (Greek)</t>
   </si>
   <si>
+    <t>Alfabeto (grego)</t>
+  </si>
+  <si>
     <t>Alphabet (Hebrew)</t>
   </si>
   <si>
+    <t>Alfabeto (hebraico)</t>
+  </si>
+  <si>
     <t>Alphabet (Japanese)</t>
   </si>
   <si>
+    <t>Alfabeto (japonês)</t>
+  </si>
+  <si>
     <t>Alphabet (Standard Galactic)</t>
   </si>
   <si>
+    <t>Alfabeto (Standard Galactic)</t>
+  </si>
+  <si>
     <t>Alvin and the Chipmunks</t>
   </si>
   <si>
+    <t>Alvin e os Esquilos</t>
+  </si>
+  <si>
     <t>American Horror Story Asylum</t>
   </si>
   <si>
     <t>Amnesia</t>
   </si>
   <si>
+    <t>Amnésia</t>
+  </si>
+  <si>
     <t>Among Us</t>
   </si>
   <si>
+    <t>Entre nós</t>
+  </si>
+  <si>
     <t>Amphibia</t>
   </si>
   <si>
+    <t>Anfíbios</t>
+  </si>
+  <si>
     <t>Angry Birds</t>
   </si>
   <si>
     <t>Angry Creature</t>
   </si>
   <si>
+    <t>Criatura zangada</t>
+  </si>
+  <si>
     <t>Angry Person</t>
   </si>
   <si>
+    <t>Pessoa zangada</t>
+  </si>
+  <si>
     <t>Animal Crossing</t>
   </si>
   <si>
     <t>Animal Ear Headwear</t>
   </si>
   <si>
+    <t>Chapéus com orelhas de animais</t>
+  </si>
+  <si>
     <t>Animaniacs</t>
   </si>
   <si>
     <t>Another</t>
   </si>
   <si>
+    <t>Outro</t>
+  </si>
+  <si>
     <t>Anthropomorphism</t>
   </si>
   <si>
+    <t>Antropomorfismo</t>
+  </si>
+  <si>
     <t>Antiquity</t>
   </si>
   <si>
+    <t>Antiguidade</t>
+  </si>
+  <si>
     <t>Antman</t>
   </si>
   <si>
+    <t>Homem-Formiga</t>
+  </si>
+  <si>
     <t>Ao Oni</t>
   </si>
   <si>
     <t>Ape Escape</t>
+  </si>
+  <si>
+    <t>Fuga de macacos</t>
   </si>
   <si>
     <t>Apex Legends</t>
@@ -3898,5840 +3994,5966 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>33</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>35</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>37</v>
+      </c>
+      <c r="B22" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>39</v>
+      </c>
+      <c r="B23" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>41</v>
+      </c>
+      <c r="B24" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>43</v>
+      </c>
+      <c r="B25" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>45</v>
+      </c>
+      <c r="B26" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>47</v>
+      </c>
+      <c r="B27" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>49</v>
+      </c>
+      <c r="B28" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>50</v>
+      </c>
+      <c r="B29" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>52</v>
+      </c>
+      <c r="B30" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>54</v>
+      </c>
+      <c r="B31" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>56</v>
+      </c>
+      <c r="B32" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>57</v>
+      </c>
+      <c r="B33" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>59</v>
+      </c>
+      <c r="B34" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>61</v>
+      </c>
+      <c r="B35" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>62</v>
+      </c>
+      <c r="B36" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>64</v>
+      </c>
+      <c r="B37" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>65</v>
+      </c>
+      <c r="B38" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>67</v>
+      </c>
+      <c r="B39" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>69</v>
+      </c>
+      <c r="B40" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>71</v>
+      </c>
+      <c r="B41" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>73</v>
+      </c>
+      <c r="B42" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>74</v>
+      </c>
+      <c r="B43" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>112</v>
+        <v>144</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>117</v>
+        <v>149</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>118</v>
+        <v>150</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>120</v>
+        <v>152</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>121</v>
+        <v>153</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>122</v>
+        <v>154</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>124</v>
+        <v>156</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>130</v>
+        <v>162</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>131</v>
+        <v>163</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>132</v>
+        <v>164</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>134</v>
+        <v>166</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>135</v>
+        <v>167</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>136</v>
+        <v>168</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>137</v>
+        <v>169</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>138</v>
+        <v>170</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>140</v>
+        <v>172</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>152</v>
+        <v>184</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>157</v>
+        <v>189</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>158</v>
+        <v>190</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>159</v>
+        <v>191</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>160</v>
+        <v>192</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>161</v>
+        <v>193</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>162</v>
+        <v>194</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>163</v>
+        <v>195</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>164</v>
+        <v>196</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>165</v>
+        <v>197</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>166</v>
+        <v>198</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>167</v>
+        <v>199</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" t="s">
-        <v>168</v>
+        <v>200</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>169</v>
+        <v>201</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>170</v>
+        <v>202</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>171</v>
+        <v>203</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>172</v>
+        <v>204</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>173</v>
+        <v>205</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>174</v>
+        <v>206</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>175</v>
+        <v>207</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>176</v>
+        <v>208</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>177</v>
+        <v>209</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>178</v>
+        <v>210</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>179</v>
+        <v>211</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>180</v>
+        <v>212</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" t="s">
-        <v>181</v>
+        <v>213</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>182</v>
+        <v>214</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>183</v>
+        <v>215</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>184</v>
+        <v>216</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" t="s">
-        <v>185</v>
+        <v>217</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" t="s">
-        <v>186</v>
+        <v>218</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>187</v>
+        <v>219</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>189</v>
+        <v>221</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>192</v>
+        <v>224</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" t="s">
-        <v>193</v>
+        <v>225</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>195</v>
+        <v>227</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" t="s">
-        <v>196</v>
+        <v>228</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" t="s">
-        <v>197</v>
+        <v>229</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" t="s">
-        <v>198</v>
+        <v>230</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" t="s">
-        <v>199</v>
+        <v>231</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" t="s">
-        <v>200</v>
+        <v>232</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" t="s">
-        <v>201</v>
+        <v>233</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" t="s">
-        <v>202</v>
+        <v>234</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" t="s">
-        <v>203</v>
+        <v>235</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" t="s">
-        <v>204</v>
+        <v>236</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" t="s">
-        <v>206</v>
+        <v>238</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" t="s">
-        <v>207</v>
+        <v>239</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" t="s">
-        <v>208</v>
+        <v>240</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" t="s">
-        <v>209</v>
+        <v>241</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" t="s">
-        <v>210</v>
+        <v>242</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" t="s">
-        <v>211</v>
+        <v>243</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" t="s">
-        <v>212</v>
+        <v>244</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" t="s">
-        <v>213</v>
+        <v>245</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" t="s">
-        <v>214</v>
+        <v>246</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" t="s">
-        <v>215</v>
+        <v>247</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" t="s">
-        <v>216</v>
+        <v>248</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" t="s">
-        <v>217</v>
+        <v>249</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" t="s">
-        <v>218</v>
+        <v>250</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" t="s">
-        <v>220</v>
+        <v>252</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" t="s">
-        <v>221</v>
+        <v>253</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" t="s">
-        <v>222</v>
+        <v>254</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" t="s">
-        <v>223</v>
+        <v>255</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" t="s">
-        <v>224</v>
+        <v>256</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" t="s">
-        <v>226</v>
+        <v>258</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" t="s">
-        <v>227</v>
+        <v>259</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" t="s">
-        <v>230</v>
+        <v>262</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" t="s">
-        <v>233</v>
+        <v>265</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" t="s">
-        <v>234</v>
+        <v>266</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" t="s">
-        <v>236</v>
+        <v>268</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" t="s">
-        <v>239</v>
+        <v>271</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" t="s">
-        <v>240</v>
+        <v>272</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" t="s">
-        <v>241</v>
+        <v>273</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" t="s">
-        <v>242</v>
+        <v>274</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" t="s">
-        <v>244</v>
+        <v>276</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" t="s">
-        <v>246</v>
+        <v>278</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" t="s">
-        <v>248</v>
+        <v>280</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" t="s">
-        <v>249</v>
+        <v>281</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" t="s">
-        <v>250</v>
+        <v>282</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" t="s">
-        <v>251</v>
+        <v>283</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" t="s">
-        <v>252</v>
+        <v>284</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" t="s">
-        <v>253</v>
+        <v>285</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" t="s">
-        <v>254</v>
+        <v>286</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" t="s">
-        <v>255</v>
+        <v>287</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" t="s">
-        <v>256</v>
+        <v>288</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" t="s">
-        <v>257</v>
+        <v>289</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" t="s">
-        <v>258</v>
+        <v>290</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" t="s">
-        <v>259</v>
+        <v>291</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" t="s">
-        <v>260</v>
+        <v>292</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" t="s">
-        <v>261</v>
+        <v>293</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" t="s">
-        <v>262</v>
+        <v>294</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" t="s">
-        <v>263</v>
+        <v>295</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" t="s">
-        <v>264</v>
+        <v>296</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" t="s">
-        <v>265</v>
+        <v>297</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" t="s">
-        <v>266</v>
+        <v>298</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" t="s">
-        <v>267</v>
+        <v>299</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" t="s">
-        <v>268</v>
+        <v>300</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" t="s">
-        <v>269</v>
+        <v>301</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" t="s">
-        <v>271</v>
+        <v>303</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" t="s">
-        <v>272</v>
+        <v>304</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" t="s">
-        <v>273</v>
+        <v>305</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" t="s">
-        <v>274</v>
+        <v>306</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" t="s">
-        <v>275</v>
+        <v>307</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" t="s">
-        <v>276</v>
+        <v>308</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" t="s">
-        <v>277</v>
+        <v>309</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" t="s">
-        <v>278</v>
+        <v>310</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" t="s">
-        <v>279</v>
+        <v>311</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" t="s">
-        <v>280</v>
+        <v>312</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" t="s">
-        <v>281</v>
+        <v>313</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" t="s">
-        <v>282</v>
+        <v>314</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" t="s">
-        <v>283</v>
+        <v>315</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" t="s">
-        <v>284</v>
+        <v>316</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" t="s">
-        <v>285</v>
+        <v>317</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" t="s">
-        <v>286</v>
+        <v>318</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" t="s">
-        <v>287</v>
+        <v>319</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" t="s">
-        <v>288</v>
+        <v>320</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" t="s">
-        <v>289</v>
+        <v>321</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" t="s">
-        <v>290</v>
+        <v>322</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" t="s">
-        <v>291</v>
+        <v>323</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" t="s">
-        <v>292</v>
+        <v>324</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" t="s">
-        <v>293</v>
+        <v>325</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" t="s">
-        <v>294</v>
+        <v>326</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" t="s">
-        <v>295</v>
+        <v>327</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" t="s">
-        <v>296</v>
+        <v>328</v>
       </c>
     </row>
     <row r="297" spans="1:2">
       <c r="A297" t="s">
-        <v>297</v>
+        <v>329</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" t="s">
-        <v>298</v>
+        <v>330</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" t="s">
-        <v>300</v>
+        <v>332</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" t="s">
-        <v>301</v>
+        <v>333</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" t="s">
-        <v>302</v>
+        <v>334</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" t="s">
-        <v>303</v>
+        <v>335</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" t="s">
-        <v>304</v>
+        <v>336</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" t="s">
-        <v>306</v>
+        <v>338</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" t="s">
-        <v>307</v>
+        <v>339</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" t="s">
-        <v>308</v>
+        <v>340</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" t="s">
-        <v>309</v>
+        <v>341</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" t="s">
-        <v>310</v>
+        <v>342</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" t="s">
-        <v>311</v>
+        <v>343</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" t="s">
-        <v>312</v>
+        <v>344</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" t="s">
-        <v>313</v>
+        <v>345</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" t="s">
-        <v>314</v>
+        <v>346</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" t="s">
-        <v>315</v>
+        <v>347</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" t="s">
-        <v>316</v>
+        <v>348</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" t="s">
-        <v>317</v>
+        <v>349</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" t="s">
-        <v>318</v>
+        <v>350</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" t="s">
-        <v>319</v>
+        <v>351</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" t="s">
-        <v>320</v>
+        <v>352</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" t="s">
-        <v>321</v>
+        <v>353</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" t="s">
-        <v>322</v>
+        <v>354</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" t="s">
-        <v>323</v>
+        <v>355</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" t="s">
-        <v>324</v>
+        <v>356</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" t="s">
-        <v>325</v>
+        <v>357</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" t="s">
-        <v>326</v>
+        <v>358</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" t="s">
-        <v>327</v>
+        <v>359</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" t="s">
-        <v>328</v>
+        <v>360</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" t="s">
-        <v>329</v>
+        <v>361</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" t="s">
-        <v>330</v>
+        <v>362</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" t="s">
-        <v>331</v>
+        <v>363</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" t="s">
-        <v>332</v>
+        <v>364</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" t="s">
-        <v>333</v>
+        <v>365</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" t="s">
-        <v>334</v>
+        <v>366</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" t="s">
-        <v>335</v>
+        <v>367</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" t="s">
-        <v>336</v>
+        <v>368</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" t="s">
-        <v>337</v>
+        <v>369</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" t="s">
-        <v>338</v>
+        <v>370</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" t="s">
-        <v>339</v>
+        <v>371</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" t="s">
-        <v>340</v>
+        <v>372</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" t="s">
-        <v>341</v>
+        <v>373</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" t="s">
-        <v>342</v>
+        <v>374</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" t="s">
-        <v>343</v>
+        <v>375</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" t="s">
-        <v>344</v>
+        <v>376</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" t="s">
-        <v>345</v>
+        <v>377</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" t="s">
-        <v>346</v>
+        <v>378</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" t="s">
-        <v>347</v>
+        <v>379</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" t="s">
-        <v>348</v>
+        <v>380</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" t="s">
-        <v>349</v>
+        <v>381</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" t="s">
-        <v>350</v>
+        <v>382</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" t="s">
-        <v>351</v>
+        <v>383</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" t="s">
-        <v>352</v>
+        <v>384</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" t="s">
-        <v>353</v>
+        <v>385</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" t="s">
-        <v>354</v>
+        <v>386</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" t="s">
-        <v>355</v>
+        <v>387</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" t="s">
-        <v>356</v>
+        <v>388</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" t="s">
-        <v>357</v>
+        <v>389</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" t="s">
-        <v>358</v>
+        <v>390</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" t="s">
-        <v>359</v>
+        <v>391</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" t="s">
-        <v>360</v>
+        <v>392</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" t="s">
-        <v>361</v>
+        <v>393</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" t="s">
-        <v>362</v>
+        <v>394</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" t="s">
-        <v>363</v>
+        <v>395</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" t="s">
-        <v>364</v>
+        <v>396</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" t="s">
-        <v>365</v>
+        <v>397</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" t="s">
-        <v>366</v>
+        <v>398</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" t="s">
-        <v>367</v>
+        <v>399</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" t="s">
-        <v>368</v>
+        <v>400</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" t="s">
-        <v>369</v>
+        <v>401</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" t="s">
-        <v>370</v>
+        <v>402</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" t="s">
-        <v>371</v>
+        <v>403</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" t="s">
-        <v>372</v>
+        <v>404</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" t="s">
-        <v>373</v>
+        <v>405</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" t="s">
-        <v>374</v>
+        <v>406</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" t="s">
-        <v>375</v>
+        <v>407</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" t="s">
-        <v>376</v>
+        <v>408</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" t="s">
-        <v>377</v>
+        <v>409</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" t="s">
-        <v>378</v>
+        <v>410</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" t="s">
-        <v>379</v>
+        <v>411</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380" t="s">
-        <v>380</v>
+        <v>412</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" t="s">
-        <v>381</v>
+        <v>413</v>
       </c>
     </row>
     <row r="382" spans="1:2">
       <c r="A382" t="s">
-        <v>382</v>
+        <v>414</v>
       </c>
     </row>
     <row r="383" spans="1:2">
       <c r="A383" t="s">
-        <v>383</v>
+        <v>415</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" t="s">
-        <v>384</v>
+        <v>416</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" t="s">
-        <v>385</v>
+        <v>417</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" t="s">
-        <v>387</v>
+        <v>419</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" t="s">
-        <v>388</v>
+        <v>420</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" t="s">
-        <v>389</v>
+        <v>421</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" t="s">
-        <v>390</v>
+        <v>422</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391" t="s">
-        <v>391</v>
+        <v>423</v>
       </c>
     </row>
     <row r="392" spans="1:2">
       <c r="A392" t="s">
-        <v>392</v>
+        <v>424</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393" t="s">
-        <v>393</v>
+        <v>425</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" t="s">
-        <v>394</v>
+        <v>426</v>
       </c>
     </row>
     <row r="395" spans="1:2">
       <c r="A395" t="s">
-        <v>395</v>
+        <v>427</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" t="s">
-        <v>396</v>
+        <v>428</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" t="s">
-        <v>397</v>
+        <v>429</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" t="s">
-        <v>398</v>
+        <v>430</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" t="s">
-        <v>399</v>
+        <v>431</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400" t="s">
-        <v>400</v>
+        <v>432</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" t="s">
-        <v>401</v>
+        <v>433</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" t="s">
-        <v>402</v>
+        <v>434</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" t="s">
-        <v>403</v>
+        <v>435</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404" t="s">
-        <v>404</v>
+        <v>436</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
     </row>
     <row r="406" spans="1:2">
       <c r="A406" t="s">
-        <v>406</v>
+        <v>438</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" t="s">
-        <v>407</v>
+        <v>439</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" t="s">
-        <v>408</v>
+        <v>440</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409" t="s">
-        <v>409</v>
+        <v>441</v>
       </c>
     </row>
     <row r="410" spans="1:2">
       <c r="A410" t="s">
-        <v>410</v>
+        <v>442</v>
       </c>
     </row>
     <row r="411" spans="1:2">
       <c r="A411" t="s">
-        <v>411</v>
+        <v>443</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" t="s">
-        <v>412</v>
+        <v>444</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413" t="s">
-        <v>413</v>
+        <v>445</v>
       </c>
     </row>
     <row r="414" spans="1:2">
       <c r="A414" t="s">
-        <v>414</v>
+        <v>446</v>
       </c>
     </row>
     <row r="415" spans="1:2">
       <c r="A415" t="s">
-        <v>415</v>
+        <v>447</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416" t="s">
-        <v>416</v>
+        <v>448</v>
       </c>
     </row>
     <row r="417" spans="1:2">
       <c r="A417" t="s">
-        <v>417</v>
+        <v>449</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" t="s">
-        <v>418</v>
+        <v>450</v>
       </c>
     </row>
     <row r="419" spans="1:2">
       <c r="A419" t="s">
-        <v>419</v>
+        <v>451</v>
       </c>
     </row>
     <row r="420" spans="1:2">
       <c r="A420" t="s">
-        <v>420</v>
+        <v>452</v>
       </c>
     </row>
     <row r="421" spans="1:2">
       <c r="A421" t="s">
-        <v>421</v>
+        <v>453</v>
       </c>
     </row>
     <row r="422" spans="1:2">
       <c r="A422" t="s">
-        <v>422</v>
+        <v>454</v>
       </c>
     </row>
     <row r="423" spans="1:2">
       <c r="A423" t="s">
-        <v>423</v>
+        <v>455</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" t="s">
-        <v>424</v>
+        <v>456</v>
       </c>
     </row>
     <row r="425" spans="1:2">
       <c r="A425" t="s">
-        <v>425</v>
+        <v>457</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" t="s">
-        <v>426</v>
+        <v>458</v>
       </c>
     </row>
     <row r="427" spans="1:2">
       <c r="A427" t="s">
-        <v>427</v>
+        <v>459</v>
       </c>
     </row>
     <row r="428" spans="1:2">
       <c r="A428" t="s">
-        <v>428</v>
+        <v>460</v>
       </c>
     </row>
     <row r="429" spans="1:2">
       <c r="A429" t="s">
-        <v>429</v>
+        <v>461</v>
       </c>
     </row>
     <row r="430" spans="1:2">
       <c r="A430" t="s">
-        <v>430</v>
+        <v>462</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431" t="s">
-        <v>431</v>
+        <v>463</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" t="s">
-        <v>432</v>
+        <v>464</v>
       </c>
     </row>
     <row r="433" spans="1:2">
       <c r="A433" t="s">
-        <v>433</v>
+        <v>465</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" t="s">
-        <v>434</v>
+        <v>466</v>
       </c>
     </row>
     <row r="435" spans="1:2">
       <c r="A435" t="s">
-        <v>435</v>
+        <v>467</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436" t="s">
-        <v>436</v>
+        <v>468</v>
       </c>
     </row>
     <row r="437" spans="1:2">
       <c r="A437" t="s">
-        <v>437</v>
+        <v>469</v>
       </c>
     </row>
     <row r="438" spans="1:2">
       <c r="A438" t="s">
-        <v>438</v>
+        <v>470</v>
       </c>
     </row>
     <row r="439" spans="1:2">
       <c r="A439" t="s">
-        <v>439</v>
+        <v>471</v>
       </c>
     </row>
     <row r="440" spans="1:2">
       <c r="A440" t="s">
-        <v>440</v>
+        <v>472</v>
       </c>
     </row>
     <row r="441" spans="1:2">
       <c r="A441" t="s">
-        <v>441</v>
+        <v>473</v>
       </c>
     </row>
     <row r="442" spans="1:2">
       <c r="A442" t="s">
-        <v>442</v>
+        <v>474</v>
       </c>
     </row>
     <row r="443" spans="1:2">
       <c r="A443" t="s">
-        <v>443</v>
+        <v>475</v>
       </c>
     </row>
     <row r="444" spans="1:2">
       <c r="A444" t="s">
-        <v>444</v>
+        <v>476</v>
       </c>
     </row>
     <row r="445" spans="1:2">
       <c r="A445" t="s">
-        <v>445</v>
+        <v>477</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" t="s">
-        <v>446</v>
+        <v>478</v>
       </c>
     </row>
     <row r="447" spans="1:2">
       <c r="A447" t="s">
-        <v>447</v>
+        <v>479</v>
       </c>
     </row>
     <row r="448" spans="1:2">
       <c r="A448" t="s">
-        <v>448</v>
+        <v>480</v>
       </c>
     </row>
     <row r="449" spans="1:2">
       <c r="A449" t="s">
-        <v>449</v>
+        <v>481</v>
       </c>
     </row>
     <row r="450" spans="1:2">
       <c r="A450" t="s">
-        <v>450</v>
+        <v>482</v>
       </c>
     </row>
     <row r="451" spans="1:2">
       <c r="A451" t="s">
-        <v>451</v>
+        <v>483</v>
       </c>
     </row>
     <row r="452" spans="1:2">
       <c r="A452" t="s">
-        <v>452</v>
+        <v>484</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453" t="s">
-        <v>453</v>
+        <v>485</v>
       </c>
     </row>
     <row r="454" spans="1:2">
       <c r="A454" t="s">
-        <v>454</v>
+        <v>486</v>
       </c>
     </row>
     <row r="455" spans="1:2">
       <c r="A455" t="s">
-        <v>455</v>
+        <v>487</v>
       </c>
     </row>
     <row r="456" spans="1:2">
       <c r="A456" t="s">
-        <v>456</v>
+        <v>488</v>
       </c>
     </row>
     <row r="457" spans="1:2">
       <c r="A457" t="s">
-        <v>457</v>
+        <v>489</v>
       </c>
     </row>
     <row r="458" spans="1:2">
       <c r="A458" t="s">
-        <v>458</v>
+        <v>490</v>
       </c>
     </row>
     <row r="459" spans="1:2">
       <c r="A459" t="s">
-        <v>459</v>
+        <v>491</v>
       </c>
     </row>
     <row r="460" spans="1:2">
       <c r="A460" t="s">
-        <v>460</v>
+        <v>492</v>
       </c>
     </row>
     <row r="461" spans="1:2">
       <c r="A461" t="s">
-        <v>461</v>
+        <v>493</v>
       </c>
     </row>
     <row r="462" spans="1:2">
       <c r="A462" t="s">
-        <v>462</v>
+        <v>494</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" t="s">
-        <v>463</v>
+        <v>495</v>
       </c>
     </row>
     <row r="464" spans="1:2">
       <c r="A464" t="s">
-        <v>464</v>
+        <v>496</v>
       </c>
     </row>
     <row r="465" spans="1:2">
       <c r="A465" t="s">
-        <v>465</v>
+        <v>497</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" t="s">
-        <v>466</v>
+        <v>498</v>
       </c>
     </row>
     <row r="467" spans="1:2">
       <c r="A467" t="s">
-        <v>467</v>
+        <v>499</v>
       </c>
     </row>
     <row r="468" spans="1:2">
       <c r="A468" t="s">
-        <v>468</v>
+        <v>500</v>
       </c>
     </row>
     <row r="469" spans="1:2">
       <c r="A469" t="s">
-        <v>469</v>
+        <v>501</v>
       </c>
     </row>
     <row r="470" spans="1:2">
       <c r="A470" t="s">
-        <v>470</v>
+        <v>502</v>
       </c>
     </row>
     <row r="471" spans="1:2">
       <c r="A471" t="s">
-        <v>471</v>
+        <v>503</v>
       </c>
     </row>
     <row r="472" spans="1:2">
       <c r="A472" t="s">
-        <v>472</v>
+        <v>504</v>
       </c>
     </row>
     <row r="473" spans="1:2">
       <c r="A473" t="s">
-        <v>473</v>
+        <v>505</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" t="s">
-        <v>474</v>
+        <v>506</v>
       </c>
     </row>
     <row r="475" spans="1:2">
       <c r="A475" t="s">
-        <v>475</v>
+        <v>507</v>
       </c>
     </row>
     <row r="476" spans="1:2">
       <c r="A476" t="s">
-        <v>476</v>
+        <v>508</v>
       </c>
     </row>
     <row r="477" spans="1:2">
       <c r="A477" t="s">
-        <v>477</v>
+        <v>509</v>
       </c>
     </row>
     <row r="478" spans="1:2">
       <c r="A478" t="s">
-        <v>478</v>
+        <v>510</v>
       </c>
     </row>
     <row r="479" spans="1:2">
       <c r="A479" t="s">
-        <v>479</v>
+        <v>511</v>
       </c>
     </row>
     <row r="480" spans="1:2">
       <c r="A480" t="s">
-        <v>480</v>
+        <v>512</v>
       </c>
     </row>
     <row r="481" spans="1:2">
       <c r="A481" t="s">
-        <v>481</v>
+        <v>513</v>
       </c>
     </row>
     <row r="482" spans="1:2">
       <c r="A482" t="s">
-        <v>482</v>
+        <v>514</v>
       </c>
     </row>
     <row r="483" spans="1:2">
       <c r="A483" t="s">
-        <v>483</v>
+        <v>515</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" t="s">
-        <v>484</v>
+        <v>516</v>
       </c>
     </row>
     <row r="485" spans="1:2">
       <c r="A485" t="s">
-        <v>485</v>
+        <v>517</v>
       </c>
     </row>
     <row r="486" spans="1:2">
       <c r="A486" t="s">
-        <v>486</v>
+        <v>518</v>
       </c>
     </row>
     <row r="487" spans="1:2">
       <c r="A487" t="s">
-        <v>487</v>
+        <v>519</v>
       </c>
     </row>
     <row r="488" spans="1:2">
       <c r="A488" t="s">
-        <v>488</v>
+        <v>520</v>
       </c>
     </row>
     <row r="489" spans="1:2">
       <c r="A489" t="s">
-        <v>489</v>
+        <v>521</v>
       </c>
     </row>
     <row r="490" spans="1:2">
       <c r="A490" t="s">
-        <v>490</v>
+        <v>522</v>
       </c>
     </row>
     <row r="491" spans="1:2">
       <c r="A491" t="s">
-        <v>491</v>
+        <v>523</v>
       </c>
     </row>
     <row r="492" spans="1:2">
       <c r="A492" t="s">
-        <v>492</v>
+        <v>524</v>
       </c>
     </row>
     <row r="493" spans="1:2">
       <c r="A493" t="s">
-        <v>493</v>
+        <v>525</v>
       </c>
     </row>
     <row r="494" spans="1:2">
       <c r="A494" t="s">
-        <v>494</v>
+        <v>526</v>
       </c>
     </row>
     <row r="495" spans="1:2">
       <c r="A495" t="s">
-        <v>495</v>
+        <v>527</v>
       </c>
     </row>
     <row r="496" spans="1:2">
       <c r="A496" t="s">
-        <v>496</v>
+        <v>528</v>
       </c>
     </row>
     <row r="497" spans="1:2">
       <c r="A497" t="s">
-        <v>497</v>
+        <v>529</v>
       </c>
     </row>
     <row r="498" spans="1:2">
       <c r="A498" t="s">
-        <v>498</v>
+        <v>530</v>
       </c>
     </row>
     <row r="499" spans="1:2">
       <c r="A499" t="s">
-        <v>499</v>
+        <v>531</v>
       </c>
     </row>
     <row r="500" spans="1:2">
       <c r="A500" t="s">
-        <v>500</v>
+        <v>532</v>
       </c>
     </row>
     <row r="501" spans="1:2">
       <c r="A501" t="s">
-        <v>501</v>
+        <v>533</v>
       </c>
     </row>
     <row r="502" spans="1:2">
       <c r="A502" t="s">
-        <v>502</v>
+        <v>534</v>
       </c>
     </row>
     <row r="503" spans="1:2">
       <c r="A503" t="s">
-        <v>503</v>
+        <v>535</v>
       </c>
     </row>
     <row r="504" spans="1:2">
       <c r="A504" t="s">
-        <v>504</v>
+        <v>536</v>
       </c>
     </row>
     <row r="505" spans="1:2">
       <c r="A505" t="s">
-        <v>505</v>
+        <v>537</v>
       </c>
     </row>
     <row r="506" spans="1:2">
       <c r="A506" t="s">
-        <v>506</v>
+        <v>538</v>
       </c>
     </row>
     <row r="507" spans="1:2">
       <c r="A507" t="s">
-        <v>507</v>
+        <v>539</v>
       </c>
     </row>
     <row r="508" spans="1:2">
       <c r="A508" t="s">
-        <v>508</v>
+        <v>540</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" t="s">
-        <v>509</v>
+        <v>541</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" t="s">
-        <v>510</v>
+        <v>542</v>
       </c>
     </row>
     <row r="511" spans="1:2">
       <c r="A511" t="s">
-        <v>511</v>
+        <v>543</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" t="s">
-        <v>512</v>
+        <v>544</v>
       </c>
     </row>
     <row r="513" spans="1:2">
       <c r="A513" t="s">
-        <v>513</v>
+        <v>545</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" t="s">
-        <v>514</v>
+        <v>546</v>
       </c>
     </row>
     <row r="515" spans="1:2">
       <c r="A515" t="s">
-        <v>515</v>
+        <v>547</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516" t="s">
-        <v>516</v>
+        <v>548</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517" t="s">
-        <v>517</v>
+        <v>549</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" t="s">
-        <v>518</v>
+        <v>550</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" t="s">
-        <v>519</v>
+        <v>551</v>
       </c>
     </row>
     <row r="520" spans="1:2">
       <c r="A520" t="s">
-        <v>520</v>
+        <v>552</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" t="s">
-        <v>521</v>
+        <v>553</v>
       </c>
     </row>
     <row r="522" spans="1:2">
       <c r="A522" t="s">
-        <v>522</v>
+        <v>554</v>
       </c>
     </row>
     <row r="523" spans="1:2">
       <c r="A523" t="s">
-        <v>523</v>
+        <v>555</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524" t="s">
-        <v>524</v>
+        <v>556</v>
       </c>
     </row>
     <row r="525" spans="1:2">
       <c r="A525" t="s">
-        <v>525</v>
+        <v>557</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" t="s">
-        <v>526</v>
+        <v>558</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" t="s">
-        <v>527</v>
+        <v>559</v>
       </c>
     </row>
     <row r="528" spans="1:2">
       <c r="A528" t="s">
-        <v>528</v>
+        <v>560</v>
       </c>
     </row>
     <row r="529" spans="1:2">
       <c r="A529" t="s">
-        <v>529</v>
+        <v>561</v>
       </c>
     </row>
     <row r="530" spans="1:2">
       <c r="A530" t="s">
-        <v>530</v>
+        <v>562</v>
       </c>
     </row>
     <row r="531" spans="1:2">
       <c r="A531" t="s">
-        <v>531</v>
+        <v>563</v>
       </c>
     </row>
     <row r="532" spans="1:2">
       <c r="A532" t="s">
-        <v>532</v>
+        <v>564</v>
       </c>
     </row>
     <row r="533" spans="1:2">
       <c r="A533" t="s">
-        <v>533</v>
+        <v>565</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" t="s">
-        <v>534</v>
+        <v>566</v>
       </c>
     </row>
     <row r="535" spans="1:2">
       <c r="A535" t="s">
-        <v>535</v>
+        <v>567</v>
       </c>
     </row>
     <row r="536" spans="1:2">
       <c r="A536" t="s">
-        <v>536</v>
+        <v>568</v>
       </c>
     </row>
     <row r="537" spans="1:2">
       <c r="A537" t="s">
-        <v>537</v>
+        <v>569</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" t="s">
-        <v>538</v>
+        <v>570</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539" t="s">
-        <v>539</v>
+        <v>571</v>
       </c>
     </row>
     <row r="540" spans="1:2">
       <c r="A540" t="s">
-        <v>540</v>
+        <v>572</v>
       </c>
     </row>
     <row r="541" spans="1:2">
       <c r="A541" t="s">
-        <v>541</v>
+        <v>573</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" t="s">
-        <v>542</v>
+        <v>574</v>
       </c>
     </row>
     <row r="543" spans="1:2">
       <c r="A543" t="s">
-        <v>543</v>
+        <v>575</v>
       </c>
     </row>
     <row r="544" spans="1:2">
       <c r="A544" t="s">
-        <v>544</v>
+        <v>576</v>
       </c>
     </row>
     <row r="545" spans="1:2">
       <c r="A545" t="s">
-        <v>545</v>
+        <v>577</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" t="s">
-        <v>546</v>
+        <v>578</v>
       </c>
     </row>
     <row r="547" spans="1:2">
       <c r="A547" t="s">
-        <v>547</v>
+        <v>579</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" t="s">
-        <v>548</v>
+        <v>580</v>
       </c>
     </row>
     <row r="549" spans="1:2">
       <c r="A549" t="s">
-        <v>549</v>
+        <v>581</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" t="s">
-        <v>550</v>
+        <v>582</v>
       </c>
     </row>
     <row r="551" spans="1:2">
       <c r="A551" t="s">
-        <v>551</v>
+        <v>583</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" t="s">
-        <v>552</v>
+        <v>584</v>
       </c>
     </row>
     <row r="553" spans="1:2">
       <c r="A553" t="s">
-        <v>553</v>
+        <v>585</v>
       </c>
     </row>
     <row r="554" spans="1:2">
       <c r="A554" t="s">
-        <v>554</v>
+        <v>586</v>
       </c>
     </row>
     <row r="555" spans="1:2">
       <c r="A555" t="s">
-        <v>555</v>
+        <v>587</v>
       </c>
     </row>
     <row r="556" spans="1:2">
       <c r="A556" t="s">
-        <v>556</v>
+        <v>588</v>
       </c>
     </row>
     <row r="557" spans="1:2">
       <c r="A557" t="s">
-        <v>557</v>
+        <v>589</v>
       </c>
     </row>
     <row r="558" spans="1:2">
       <c r="A558" t="s">
-        <v>558</v>
+        <v>590</v>
       </c>
     </row>
     <row r="559" spans="1:2">
       <c r="A559" t="s">
-        <v>559</v>
+        <v>591</v>
       </c>
     </row>
     <row r="560" spans="1:2">
       <c r="A560" t="s">
-        <v>560</v>
+        <v>592</v>
       </c>
     </row>
     <row r="561" spans="1:2">
       <c r="A561" t="s">
-        <v>561</v>
+        <v>593</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" t="s">
-        <v>562</v>
+        <v>594</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" t="s">
-        <v>563</v>
+        <v>595</v>
       </c>
     </row>
     <row r="564" spans="1:2">
       <c r="A564" t="s">
-        <v>564</v>
+        <v>596</v>
       </c>
     </row>
     <row r="565" spans="1:2">
       <c r="A565" t="s">
-        <v>565</v>
+        <v>597</v>
       </c>
     </row>
     <row r="566" spans="1:2">
       <c r="A566" t="s">
-        <v>566</v>
+        <v>598</v>
       </c>
     </row>
     <row r="567" spans="1:2">
       <c r="A567" t="s">
-        <v>567</v>
+        <v>599</v>
       </c>
     </row>
     <row r="568" spans="1:2">
       <c r="A568" t="s">
-        <v>568</v>
+        <v>600</v>
       </c>
     </row>
     <row r="569" spans="1:2">
       <c r="A569" t="s">
-        <v>569</v>
+        <v>601</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" t="s">
-        <v>570</v>
+        <v>602</v>
       </c>
     </row>
     <row r="571" spans="1:2">
       <c r="A571" t="s">
-        <v>571</v>
+        <v>603</v>
       </c>
     </row>
     <row r="572" spans="1:2">
       <c r="A572" t="s">
-        <v>572</v>
+        <v>604</v>
       </c>
     </row>
     <row r="573" spans="1:2">
       <c r="A573" t="s">
-        <v>573</v>
+        <v>605</v>
       </c>
     </row>
     <row r="574" spans="1:2">
       <c r="A574" t="s">
-        <v>574</v>
+        <v>606</v>
       </c>
     </row>
     <row r="575" spans="1:2">
       <c r="A575" t="s">
-        <v>575</v>
+        <v>607</v>
       </c>
     </row>
     <row r="576" spans="1:2">
       <c r="A576" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
     </row>
     <row r="577" spans="1:2">
       <c r="A577" t="s">
-        <v>577</v>
+        <v>609</v>
       </c>
     </row>
     <row r="578" spans="1:2">
       <c r="A578" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
     </row>
     <row r="579" spans="1:2">
       <c r="A579" t="s">
-        <v>579</v>
+        <v>611</v>
       </c>
     </row>
     <row r="580" spans="1:2">
       <c r="A580" t="s">
-        <v>580</v>
+        <v>612</v>
       </c>
     </row>
     <row r="581" spans="1:2">
       <c r="A581" t="s">
-        <v>581</v>
+        <v>613</v>
       </c>
     </row>
     <row r="582" spans="1:2">
       <c r="A582" t="s">
-        <v>582</v>
+        <v>614</v>
       </c>
     </row>
     <row r="583" spans="1:2">
       <c r="A583" t="s">
-        <v>583</v>
+        <v>615</v>
       </c>
     </row>
     <row r="584" spans="1:2">
       <c r="A584" t="s">
-        <v>584</v>
+        <v>616</v>
       </c>
     </row>
     <row r="585" spans="1:2">
       <c r="A585" t="s">
-        <v>585</v>
+        <v>617</v>
       </c>
     </row>
     <row r="586" spans="1:2">
       <c r="A586" t="s">
-        <v>586</v>
+        <v>618</v>
       </c>
     </row>
     <row r="587" spans="1:2">
       <c r="A587" t="s">
-        <v>587</v>
+        <v>619</v>
       </c>
     </row>
     <row r="588" spans="1:2">
       <c r="A588" t="s">
-        <v>588</v>
+        <v>620</v>
       </c>
     </row>
     <row r="589" spans="1:2">
       <c r="A589" t="s">
-        <v>589</v>
+        <v>621</v>
       </c>
     </row>
     <row r="590" spans="1:2">
       <c r="A590" t="s">
-        <v>590</v>
+        <v>622</v>
       </c>
     </row>
     <row r="591" spans="1:2">
       <c r="A591" t="s">
-        <v>591</v>
+        <v>623</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592" t="s">
-        <v>592</v>
+        <v>624</v>
       </c>
     </row>
     <row r="593" spans="1:2">
       <c r="A593" t="s">
-        <v>593</v>
+        <v>625</v>
       </c>
     </row>
     <row r="594" spans="1:2">
       <c r="A594" t="s">
-        <v>594</v>
+        <v>626</v>
       </c>
     </row>
     <row r="595" spans="1:2">
       <c r="A595" t="s">
-        <v>595</v>
+        <v>627</v>
       </c>
     </row>
     <row r="596" spans="1:2">
       <c r="A596" t="s">
-        <v>596</v>
+        <v>628</v>
       </c>
     </row>
     <row r="597" spans="1:2">
       <c r="A597" t="s">
-        <v>597</v>
+        <v>629</v>
       </c>
     </row>
     <row r="598" spans="1:2">
       <c r="A598" t="s">
-        <v>598</v>
+        <v>630</v>
       </c>
     </row>
     <row r="599" spans="1:2">
       <c r="A599" t="s">
-        <v>599</v>
+        <v>631</v>
       </c>
     </row>
     <row r="600" spans="1:2">
       <c r="A600" t="s">
-        <v>600</v>
+        <v>632</v>
       </c>
     </row>
     <row r="601" spans="1:2">
       <c r="A601" t="s">
-        <v>601</v>
+        <v>633</v>
       </c>
     </row>
     <row r="602" spans="1:2">
       <c r="A602" t="s">
-        <v>602</v>
+        <v>634</v>
       </c>
     </row>
     <row r="603" spans="1:2">
       <c r="A603" t="s">
-        <v>603</v>
+        <v>635</v>
       </c>
     </row>
     <row r="604" spans="1:2">
       <c r="A604" t="s">
-        <v>604</v>
+        <v>636</v>
       </c>
     </row>
     <row r="605" spans="1:2">
       <c r="A605" t="s">
-        <v>605</v>
+        <v>637</v>
       </c>
     </row>
     <row r="606" spans="1:2">
       <c r="A606" t="s">
-        <v>606</v>
+        <v>638</v>
       </c>
     </row>
     <row r="607" spans="1:2">
       <c r="A607" t="s">
-        <v>607</v>
+        <v>639</v>
       </c>
     </row>
     <row r="608" spans="1:2">
       <c r="A608" t="s">
-        <v>608</v>
+        <v>640</v>
       </c>
     </row>
     <row r="609" spans="1:2">
       <c r="A609" t="s">
-        <v>609</v>
+        <v>641</v>
       </c>
     </row>
     <row r="610" spans="1:2">
       <c r="A610" t="s">
-        <v>610</v>
+        <v>642</v>
       </c>
     </row>
     <row r="611" spans="1:2">
       <c r="A611" t="s">
-        <v>611</v>
+        <v>643</v>
       </c>
     </row>
     <row r="612" spans="1:2">
       <c r="A612" t="s">
-        <v>612</v>
+        <v>644</v>
       </c>
     </row>
     <row r="613" spans="1:2">
       <c r="A613" t="s">
-        <v>613</v>
+        <v>645</v>
       </c>
     </row>
     <row r="614" spans="1:2">
       <c r="A614" t="s">
-        <v>614</v>
+        <v>646</v>
       </c>
     </row>
     <row r="615" spans="1:2">
       <c r="A615" t="s">
-        <v>615</v>
+        <v>647</v>
       </c>
     </row>
     <row r="616" spans="1:2">
       <c r="A616" t="s">
-        <v>616</v>
+        <v>648</v>
       </c>
     </row>
     <row r="617" spans="1:2">
       <c r="A617" t="s">
-        <v>617</v>
+        <v>649</v>
       </c>
     </row>
     <row r="618" spans="1:2">
       <c r="A618" t="s">
-        <v>618</v>
+        <v>650</v>
       </c>
     </row>
     <row r="619" spans="1:2">
       <c r="A619" t="s">
-        <v>619</v>
+        <v>651</v>
       </c>
     </row>
     <row r="620" spans="1:2">
       <c r="A620" t="s">
-        <v>620</v>
+        <v>652</v>
       </c>
     </row>
     <row r="621" spans="1:2">
       <c r="A621" t="s">
-        <v>621</v>
+        <v>653</v>
       </c>
     </row>
     <row r="622" spans="1:2">
       <c r="A622" t="s">
-        <v>622</v>
+        <v>654</v>
       </c>
     </row>
     <row r="623" spans="1:2">
       <c r="A623" t="s">
-        <v>623</v>
+        <v>655</v>
       </c>
     </row>
     <row r="624" spans="1:2">
       <c r="A624" t="s">
-        <v>624</v>
+        <v>656</v>
       </c>
     </row>
     <row r="625" spans="1:2">
       <c r="A625" t="s">
-        <v>625</v>
+        <v>657</v>
       </c>
     </row>
     <row r="626" spans="1:2">
       <c r="A626" t="s">
-        <v>626</v>
+        <v>658</v>
       </c>
     </row>
     <row r="627" spans="1:2">
       <c r="A627" t="s">
-        <v>627</v>
+        <v>659</v>
       </c>
     </row>
     <row r="628" spans="1:2">
       <c r="A628" t="s">
-        <v>628</v>
+        <v>660</v>
       </c>
     </row>
     <row r="629" spans="1:2">
       <c r="A629" t="s">
-        <v>629</v>
+        <v>661</v>
       </c>
     </row>
     <row r="630" spans="1:2">
       <c r="A630" t="s">
-        <v>630</v>
+        <v>662</v>
       </c>
     </row>
     <row r="631" spans="1:2">
       <c r="A631" t="s">
-        <v>631</v>
+        <v>663</v>
       </c>
     </row>
     <row r="632" spans="1:2">
       <c r="A632" t="s">
-        <v>632</v>
+        <v>664</v>
       </c>
     </row>
     <row r="633" spans="1:2">
       <c r="A633" t="s">
-        <v>633</v>
+        <v>665</v>
       </c>
     </row>
     <row r="634" spans="1:2">
       <c r="A634" t="s">
-        <v>634</v>
+        <v>666</v>
       </c>
     </row>
     <row r="635" spans="1:2">
       <c r="A635" t="s">
-        <v>635</v>
+        <v>667</v>
       </c>
     </row>
     <row r="636" spans="1:2">
       <c r="A636" t="s">
-        <v>636</v>
+        <v>668</v>
       </c>
     </row>
     <row r="637" spans="1:2">
       <c r="A637" t="s">
-        <v>637</v>
+        <v>669</v>
       </c>
     </row>
     <row r="638" spans="1:2">
       <c r="A638" t="s">
-        <v>638</v>
+        <v>670</v>
       </c>
     </row>
     <row r="639" spans="1:2">
       <c r="A639" t="s">
-        <v>639</v>
+        <v>671</v>
       </c>
     </row>
     <row r="640" spans="1:2">
       <c r="A640" t="s">
-        <v>640</v>
+        <v>672</v>
       </c>
     </row>
     <row r="641" spans="1:2">
       <c r="A641" t="s">
-        <v>641</v>
+        <v>673</v>
       </c>
     </row>
     <row r="642" spans="1:2">
       <c r="A642" t="s">
-        <v>642</v>
+        <v>674</v>
       </c>
     </row>
     <row r="643" spans="1:2">
       <c r="A643" t="s">
-        <v>643</v>
+        <v>675</v>
       </c>
     </row>
     <row r="644" spans="1:2">
       <c r="A644" t="s">
-        <v>644</v>
+        <v>676</v>
       </c>
     </row>
     <row r="645" spans="1:2">
       <c r="A645" t="s">
-        <v>645</v>
+        <v>677</v>
       </c>
     </row>
     <row r="646" spans="1:2">
       <c r="A646" t="s">
-        <v>646</v>
+        <v>678</v>
       </c>
     </row>
     <row r="647" spans="1:2">
       <c r="A647" t="s">
-        <v>647</v>
+        <v>679</v>
       </c>
     </row>
     <row r="648" spans="1:2">
       <c r="A648" t="s">
-        <v>648</v>
+        <v>680</v>
       </c>
     </row>
     <row r="649" spans="1:2">
       <c r="A649" t="s">
-        <v>649</v>
+        <v>681</v>
       </c>
     </row>
     <row r="650" spans="1:2">
       <c r="A650" t="s">
-        <v>650</v>
+        <v>682</v>
       </c>
     </row>
     <row r="651" spans="1:2">
       <c r="A651" t="s">
-        <v>651</v>
+        <v>683</v>
       </c>
     </row>
     <row r="652" spans="1:2">
       <c r="A652" t="s">
-        <v>652</v>
+        <v>684</v>
       </c>
     </row>
     <row r="653" spans="1:2">
       <c r="A653" t="s">
-        <v>653</v>
+        <v>685</v>
       </c>
     </row>
     <row r="654" spans="1:2">
       <c r="A654" t="s">
-        <v>654</v>
+        <v>686</v>
       </c>
     </row>
     <row r="655" spans="1:2">
       <c r="A655" t="s">
-        <v>655</v>
+        <v>687</v>
       </c>
     </row>
     <row r="656" spans="1:2">
       <c r="A656" t="s">
-        <v>656</v>
+        <v>688</v>
       </c>
     </row>
     <row r="657" spans="1:2">
       <c r="A657" t="s">
-        <v>657</v>
+        <v>689</v>
       </c>
     </row>
     <row r="658" spans="1:2">
       <c r="A658" t="s">
-        <v>658</v>
+        <v>690</v>
       </c>
     </row>
     <row r="659" spans="1:2">
       <c r="A659" t="s">
-        <v>659</v>
+        <v>691</v>
       </c>
     </row>
     <row r="660" spans="1:2">
       <c r="A660" t="s">
-        <v>660</v>
+        <v>692</v>
       </c>
     </row>
     <row r="661" spans="1:2">
       <c r="A661" t="s">
-        <v>661</v>
+        <v>693</v>
       </c>
     </row>
     <row r="662" spans="1:2">
       <c r="A662" t="s">
-        <v>662</v>
+        <v>694</v>
       </c>
     </row>
     <row r="663" spans="1:2">
       <c r="A663" t="s">
-        <v>663</v>
+        <v>695</v>
       </c>
     </row>
     <row r="664" spans="1:2">
       <c r="A664" t="s">
-        <v>664</v>
+        <v>696</v>
       </c>
     </row>
     <row r="665" spans="1:2">
       <c r="A665" t="s">
-        <v>665</v>
+        <v>697</v>
       </c>
     </row>
     <row r="666" spans="1:2">
       <c r="A666" t="s">
-        <v>666</v>
+        <v>698</v>
       </c>
     </row>
     <row r="667" spans="1:2">
       <c r="A667" t="s">
-        <v>667</v>
+        <v>699</v>
       </c>
     </row>
     <row r="668" spans="1:2">
       <c r="A668" t="s">
-        <v>668</v>
+        <v>700</v>
       </c>
     </row>
     <row r="669" spans="1:2">
       <c r="A669" t="s">
-        <v>669</v>
+        <v>701</v>
       </c>
     </row>
     <row r="670" spans="1:2">
       <c r="A670" t="s">
-        <v>670</v>
+        <v>702</v>
       </c>
     </row>
     <row r="671" spans="1:2">
       <c r="A671" t="s">
-        <v>671</v>
+        <v>703</v>
       </c>
     </row>
     <row r="672" spans="1:2">
       <c r="A672" t="s">
-        <v>672</v>
+        <v>704</v>
       </c>
     </row>
     <row r="673" spans="1:2">
       <c r="A673" t="s">
-        <v>673</v>
+        <v>705</v>
       </c>
     </row>
     <row r="674" spans="1:2">
       <c r="A674" t="s">
-        <v>674</v>
+        <v>706</v>
       </c>
     </row>
     <row r="675" spans="1:2">
       <c r="A675" t="s">
-        <v>675</v>
+        <v>707</v>
       </c>
     </row>
     <row r="676" spans="1:2">
       <c r="A676" t="s">
-        <v>676</v>
+        <v>708</v>
       </c>
     </row>
     <row r="677" spans="1:2">
       <c r="A677" t="s">
-        <v>677</v>
+        <v>709</v>
       </c>
     </row>
     <row r="678" spans="1:2">
       <c r="A678" t="s">
-        <v>678</v>
+        <v>710</v>
       </c>
     </row>
     <row r="679" spans="1:2">
       <c r="A679" t="s">
-        <v>679</v>
+        <v>711</v>
       </c>
     </row>
     <row r="680" spans="1:2">
       <c r="A680" t="s">
-        <v>680</v>
+        <v>712</v>
       </c>
     </row>
     <row r="681" spans="1:2">
       <c r="A681" t="s">
-        <v>681</v>
+        <v>713</v>
       </c>
     </row>
     <row r="682" spans="1:2">
       <c r="A682" t="s">
-        <v>682</v>
+        <v>714</v>
       </c>
     </row>
     <row r="683" spans="1:2">
       <c r="A683" t="s">
-        <v>683</v>
+        <v>715</v>
       </c>
     </row>
     <row r="684" spans="1:2">
       <c r="A684" t="s">
-        <v>684</v>
+        <v>716</v>
       </c>
     </row>
     <row r="685" spans="1:2">
       <c r="A685" t="s">
-        <v>685</v>
+        <v>717</v>
       </c>
     </row>
     <row r="686" spans="1:2">
       <c r="A686" t="s">
-        <v>686</v>
+        <v>718</v>
       </c>
     </row>
     <row r="687" spans="1:2">
       <c r="A687" t="s">
-        <v>687</v>
+        <v>719</v>
       </c>
     </row>
     <row r="688" spans="1:2">
       <c r="A688" t="s">
-        <v>688</v>
+        <v>720</v>
       </c>
     </row>
     <row r="689" spans="1:2">
       <c r="A689" t="s">
-        <v>689</v>
+        <v>721</v>
       </c>
     </row>
     <row r="690" spans="1:2">
       <c r="A690" t="s">
-        <v>690</v>
+        <v>722</v>
       </c>
     </row>
     <row r="691" spans="1:2">
       <c r="A691" t="s">
-        <v>691</v>
+        <v>723</v>
       </c>
     </row>
     <row r="692" spans="1:2">
       <c r="A692" t="s">
-        <v>692</v>
+        <v>724</v>
       </c>
     </row>
     <row r="693" spans="1:2">
       <c r="A693" t="s">
-        <v>693</v>
+        <v>725</v>
       </c>
     </row>
     <row r="694" spans="1:2">
       <c r="A694" t="s">
-        <v>694</v>
+        <v>726</v>
       </c>
     </row>
     <row r="695" spans="1:2">
       <c r="A695" t="s">
-        <v>695</v>
+        <v>727</v>
       </c>
     </row>
     <row r="696" spans="1:2">
       <c r="A696" t="s">
-        <v>696</v>
+        <v>728</v>
       </c>
     </row>
     <row r="697" spans="1:2">
       <c r="A697" t="s">
-        <v>697</v>
+        <v>729</v>
       </c>
     </row>
     <row r="698" spans="1:2">
       <c r="A698" t="s">
-        <v>698</v>
+        <v>730</v>
       </c>
     </row>
     <row r="699" spans="1:2">
       <c r="A699" t="s">
-        <v>699</v>
+        <v>731</v>
       </c>
     </row>
     <row r="700" spans="1:2">
       <c r="A700" t="s">
-        <v>700</v>
+        <v>732</v>
       </c>
     </row>
     <row r="701" spans="1:2">
       <c r="A701" t="s">
-        <v>701</v>
+        <v>733</v>
       </c>
     </row>
     <row r="702" spans="1:2">
       <c r="A702" t="s">
-        <v>702</v>
+        <v>734</v>
       </c>
     </row>
     <row r="703" spans="1:2">
       <c r="A703" t="s">
-        <v>703</v>
+        <v>735</v>
       </c>
     </row>
     <row r="704" spans="1:2">
       <c r="A704" t="s">
-        <v>704</v>
+        <v>736</v>
       </c>
     </row>
     <row r="705" spans="1:2">
       <c r="A705" t="s">
-        <v>705</v>
+        <v>737</v>
       </c>
     </row>
     <row r="706" spans="1:2">
       <c r="A706" t="s">
-        <v>706</v>
+        <v>738</v>
       </c>
     </row>
     <row r="707" spans="1:2">
       <c r="A707" t="s">
-        <v>707</v>
+        <v>739</v>
       </c>
     </row>
     <row r="708" spans="1:2">
       <c r="A708" t="s">
-        <v>708</v>
+        <v>740</v>
       </c>
     </row>
     <row r="709" spans="1:2">
       <c r="A709" t="s">
-        <v>709</v>
+        <v>741</v>
       </c>
     </row>
     <row r="710" spans="1:2">
       <c r="A710" t="s">
-        <v>710</v>
+        <v>742</v>
       </c>
     </row>
     <row r="711" spans="1:2">
       <c r="A711" t="s">
-        <v>711</v>
+        <v>743</v>
       </c>
     </row>
     <row r="712" spans="1:2">
       <c r="A712" t="s">
-        <v>712</v>
+        <v>744</v>
       </c>
     </row>
     <row r="713" spans="1:2">
       <c r="A713" t="s">
-        <v>713</v>
+        <v>745</v>
       </c>
     </row>
     <row r="714" spans="1:2">
       <c r="A714" t="s">
-        <v>714</v>
+        <v>746</v>
       </c>
     </row>
     <row r="715" spans="1:2">
       <c r="A715" t="s">
-        <v>715</v>
+        <v>747</v>
       </c>
     </row>
     <row r="716" spans="1:2">
       <c r="A716" t="s">
-        <v>716</v>
+        <v>748</v>
       </c>
     </row>
     <row r="717" spans="1:2">
       <c r="A717" t="s">
-        <v>717</v>
+        <v>749</v>
       </c>
     </row>
     <row r="718" spans="1:2">
       <c r="A718" t="s">
-        <v>718</v>
+        <v>750</v>
       </c>
     </row>
     <row r="719" spans="1:2">
       <c r="A719" t="s">
-        <v>719</v>
+        <v>751</v>
       </c>
     </row>
     <row r="720" spans="1:2">
       <c r="A720" t="s">
-        <v>720</v>
+        <v>752</v>
       </c>
     </row>
     <row r="721" spans="1:2">
       <c r="A721" t="s">
-        <v>721</v>
+        <v>753</v>
       </c>
     </row>
     <row r="722" spans="1:2">
       <c r="A722" t="s">
-        <v>722</v>
+        <v>754</v>
       </c>
     </row>
     <row r="723" spans="1:2">
       <c r="A723" t="s">
-        <v>723</v>
+        <v>755</v>
       </c>
     </row>
     <row r="724" spans="1:2">
       <c r="A724" t="s">
-        <v>724</v>
+        <v>756</v>
       </c>
     </row>
     <row r="725" spans="1:2">
       <c r="A725" t="s">
-        <v>725</v>
+        <v>757</v>
       </c>
     </row>
     <row r="726" spans="1:2">
       <c r="A726" t="s">
-        <v>726</v>
+        <v>758</v>
       </c>
     </row>
     <row r="727" spans="1:2">
       <c r="A727" t="s">
-        <v>727</v>
+        <v>759</v>
       </c>
     </row>
     <row r="728" spans="1:2">
       <c r="A728" t="s">
-        <v>728</v>
+        <v>760</v>
       </c>
     </row>
     <row r="729" spans="1:2">
       <c r="A729" t="s">
-        <v>729</v>
+        <v>761</v>
       </c>
     </row>
     <row r="730" spans="1:2">
       <c r="A730" t="s">
-        <v>730</v>
+        <v>762</v>
       </c>
     </row>
     <row r="731" spans="1:2">
       <c r="A731" t="s">
-        <v>731</v>
+        <v>763</v>
       </c>
     </row>
     <row r="732" spans="1:2">
       <c r="A732" t="s">
-        <v>732</v>
+        <v>764</v>
       </c>
     </row>
     <row r="733" spans="1:2">
       <c r="A733" t="s">
-        <v>733</v>
+        <v>765</v>
       </c>
     </row>
     <row r="734" spans="1:2">
       <c r="A734" t="s">
-        <v>734</v>
+        <v>766</v>
       </c>
     </row>
     <row r="735" spans="1:2">
       <c r="A735" t="s">
-        <v>735</v>
+        <v>767</v>
       </c>
     </row>
     <row r="736" spans="1:2">
       <c r="A736" t="s">
-        <v>736</v>
+        <v>768</v>
       </c>
     </row>
     <row r="737" spans="1:2">
       <c r="A737" t="s">
-        <v>737</v>
+        <v>769</v>
       </c>
     </row>
     <row r="738" spans="1:2">
       <c r="A738" t="s">
-        <v>738</v>
+        <v>770</v>
       </c>
     </row>
     <row r="739" spans="1:2">
       <c r="A739" t="s">
-        <v>739</v>
+        <v>771</v>
       </c>
     </row>
     <row r="740" spans="1:2">
       <c r="A740" t="s">
-        <v>740</v>
+        <v>772</v>
       </c>
     </row>
     <row r="741" spans="1:2">
       <c r="A741" t="s">
-        <v>741</v>
+        <v>773</v>
       </c>
     </row>
     <row r="742" spans="1:2">
       <c r="A742" t="s">
-        <v>742</v>
+        <v>774</v>
       </c>
     </row>
     <row r="743" spans="1:2">
       <c r="A743" t="s">
-        <v>743</v>
+        <v>775</v>
       </c>
     </row>
     <row r="744" spans="1:2">
       <c r="A744" t="s">
-        <v>744</v>
+        <v>776</v>
       </c>
     </row>
     <row r="745" spans="1:2">
       <c r="A745" t="s">
-        <v>745</v>
+        <v>777</v>
       </c>
     </row>
     <row r="746" spans="1:2">
       <c r="A746" t="s">
-        <v>746</v>
+        <v>778</v>
       </c>
     </row>
     <row r="747" spans="1:2">
       <c r="A747" t="s">
-        <v>747</v>
+        <v>779</v>
       </c>
     </row>
     <row r="748" spans="1:2">
       <c r="A748" t="s">
-        <v>748</v>
+        <v>780</v>
       </c>
     </row>
     <row r="749" spans="1:2">
       <c r="A749" t="s">
-        <v>749</v>
+        <v>781</v>
       </c>
     </row>
     <row r="750" spans="1:2">
       <c r="A750" t="s">
-        <v>750</v>
+        <v>782</v>
       </c>
     </row>
     <row r="751" spans="1:2">
       <c r="A751" t="s">
-        <v>751</v>
+        <v>783</v>
       </c>
     </row>
     <row r="752" spans="1:2">
       <c r="A752" t="s">
-        <v>752</v>
+        <v>784</v>
       </c>
     </row>
     <row r="753" spans="1:2">
       <c r="A753" t="s">
-        <v>753</v>
+        <v>785</v>
       </c>
     </row>
     <row r="754" spans="1:2">
       <c r="A754" t="s">
-        <v>754</v>
+        <v>786</v>
       </c>
     </row>
     <row r="755" spans="1:2">
       <c r="A755" t="s">
-        <v>755</v>
+        <v>787</v>
       </c>
     </row>
     <row r="756" spans="1:2">
       <c r="A756" t="s">
-        <v>756</v>
+        <v>788</v>
       </c>
     </row>
     <row r="757" spans="1:2">
       <c r="A757" t="s">
-        <v>757</v>
+        <v>789</v>
       </c>
     </row>
     <row r="758" spans="1:2">
       <c r="A758" t="s">
-        <v>758</v>
+        <v>790</v>
       </c>
     </row>
     <row r="759" spans="1:2">
       <c r="A759" t="s">
-        <v>759</v>
+        <v>791</v>
       </c>
     </row>
     <row r="760" spans="1:2">
       <c r="A760" t="s">
-        <v>760</v>
+        <v>792</v>
       </c>
     </row>
     <row r="761" spans="1:2">
       <c r="A761" t="s">
-        <v>761</v>
+        <v>793</v>
       </c>
     </row>
     <row r="762" spans="1:2">
       <c r="A762" t="s">
-        <v>762</v>
+        <v>794</v>
       </c>
     </row>
     <row r="763" spans="1:2">
       <c r="A763" t="s">
-        <v>763</v>
+        <v>795</v>
       </c>
     </row>
     <row r="764" spans="1:2">
       <c r="A764" t="s">
-        <v>764</v>
+        <v>796</v>
       </c>
     </row>
     <row r="765" spans="1:2">
       <c r="A765" t="s">
-        <v>765</v>
+        <v>797</v>
       </c>
     </row>
     <row r="766" spans="1:2">
       <c r="A766" t="s">
-        <v>766</v>
+        <v>798</v>
       </c>
     </row>
     <row r="767" spans="1:2">
       <c r="A767" t="s">
-        <v>767</v>
+        <v>799</v>
       </c>
     </row>
     <row r="768" spans="1:2">
       <c r="A768" t="s">
-        <v>768</v>
+        <v>800</v>
       </c>
     </row>
     <row r="769" spans="1:2">
       <c r="A769" t="s">
-        <v>769</v>
+        <v>801</v>
       </c>
     </row>
     <row r="770" spans="1:2">
       <c r="A770" t="s">
-        <v>770</v>
+        <v>802</v>
       </c>
     </row>
     <row r="771" spans="1:2">
       <c r="A771" t="s">
-        <v>771</v>
+        <v>803</v>
       </c>
     </row>
     <row r="772" spans="1:2">
       <c r="A772" t="s">
-        <v>772</v>
+        <v>804</v>
       </c>
     </row>
     <row r="773" spans="1:2">
       <c r="A773" t="s">
-        <v>773</v>
+        <v>805</v>
       </c>
     </row>
     <row r="774" spans="1:2">
       <c r="A774" t="s">
-        <v>774</v>
+        <v>806</v>
       </c>
     </row>
     <row r="775" spans="1:2">
       <c r="A775" t="s">
-        <v>775</v>
+        <v>807</v>
       </c>
     </row>
     <row r="776" spans="1:2">
       <c r="A776" t="s">
-        <v>776</v>
+        <v>808</v>
       </c>
     </row>
     <row r="777" spans="1:2">
       <c r="A777" t="s">
-        <v>777</v>
+        <v>809</v>
       </c>
     </row>
     <row r="778" spans="1:2">
       <c r="A778" t="s">
-        <v>778</v>
+        <v>810</v>
       </c>
     </row>
     <row r="779" spans="1:2">
       <c r="A779" t="s">
-        <v>779</v>
+        <v>811</v>
       </c>
     </row>
     <row r="780" spans="1:2">
       <c r="A780" t="s">
-        <v>780</v>
+        <v>812</v>
       </c>
     </row>
     <row r="781" spans="1:2">
       <c r="A781" t="s">
-        <v>781</v>
+        <v>813</v>
       </c>
     </row>
     <row r="782" spans="1:2">
       <c r="A782" t="s">
-        <v>782</v>
+        <v>814</v>
       </c>
     </row>
     <row r="783" spans="1:2">
       <c r="A783" t="s">
-        <v>783</v>
+        <v>815</v>
       </c>
     </row>
     <row r="784" spans="1:2">
       <c r="A784" t="s">
-        <v>784</v>
+        <v>816</v>
       </c>
     </row>
     <row r="785" spans="1:2">
       <c r="A785" t="s">
-        <v>785</v>
+        <v>817</v>
       </c>
     </row>
     <row r="786" spans="1:2">
       <c r="A786" t="s">
-        <v>786</v>
+        <v>818</v>
       </c>
     </row>
     <row r="787" spans="1:2">
       <c r="A787" t="s">
-        <v>787</v>
+        <v>819</v>
       </c>
     </row>
     <row r="788" spans="1:2">
       <c r="A788" t="s">
-        <v>788</v>
+        <v>820</v>
       </c>
     </row>
     <row r="789" spans="1:2">
       <c r="A789" t="s">
-        <v>789</v>
+        <v>821</v>
       </c>
     </row>
     <row r="790" spans="1:2">
       <c r="A790" t="s">
-        <v>790</v>
+        <v>822</v>
       </c>
     </row>
     <row r="791" spans="1:2">
       <c r="A791" t="s">
-        <v>791</v>
+        <v>823</v>
       </c>
     </row>
     <row r="792" spans="1:2">
       <c r="A792" t="s">
-        <v>792</v>
+        <v>824</v>
       </c>
     </row>
     <row r="793" spans="1:2">
       <c r="A793" t="s">
-        <v>793</v>
+        <v>825</v>
       </c>
     </row>
     <row r="794" spans="1:2">
       <c r="A794" t="s">
-        <v>794</v>
+        <v>826</v>
       </c>
     </row>
     <row r="795" spans="1:2">
       <c r="A795" t="s">
-        <v>795</v>
+        <v>827</v>
       </c>
     </row>
     <row r="796" spans="1:2">
       <c r="A796" t="s">
-        <v>796</v>
+        <v>828</v>
       </c>
     </row>
     <row r="797" spans="1:2">
       <c r="A797" t="s">
-        <v>797</v>
+        <v>829</v>
       </c>
     </row>
     <row r="798" spans="1:2">
       <c r="A798" t="s">
-        <v>798</v>
+        <v>830</v>
       </c>
     </row>
     <row r="799" spans="1:2">
       <c r="A799" t="s">
-        <v>799</v>
+        <v>831</v>
       </c>
     </row>
     <row r="800" spans="1:2">
       <c r="A800" t="s">
-        <v>800</v>
+        <v>832</v>
       </c>
     </row>
     <row r="801" spans="1:2">
       <c r="A801" t="s">
-        <v>801</v>
+        <v>833</v>
       </c>
     </row>
     <row r="802" spans="1:2">
       <c r="A802" t="s">
-        <v>802</v>
+        <v>834</v>
       </c>
     </row>
     <row r="803" spans="1:2">
       <c r="A803" t="s">
-        <v>803</v>
+        <v>835</v>
       </c>
     </row>
     <row r="804" spans="1:2">
       <c r="A804" t="s">
-        <v>804</v>
+        <v>836</v>
       </c>
     </row>
     <row r="805" spans="1:2">
       <c r="A805" t="s">
-        <v>805</v>
+        <v>837</v>
       </c>
     </row>
     <row r="806" spans="1:2">
       <c r="A806" t="s">
-        <v>806</v>
+        <v>838</v>
       </c>
     </row>
     <row r="807" spans="1:2">
       <c r="A807" t="s">
-        <v>807</v>
+        <v>839</v>
       </c>
     </row>
     <row r="808" spans="1:2">
       <c r="A808" t="s">
-        <v>808</v>
+        <v>840</v>
       </c>
     </row>
     <row r="809" spans="1:2">
       <c r="A809" t="s">
-        <v>809</v>
+        <v>841</v>
       </c>
     </row>
     <row r="810" spans="1:2">
       <c r="A810" t="s">
-        <v>810</v>
+        <v>842</v>
       </c>
     </row>
     <row r="811" spans="1:2">
       <c r="A811" t="s">
-        <v>811</v>
+        <v>843</v>
       </c>
     </row>
     <row r="812" spans="1:2">
       <c r="A812" t="s">
-        <v>812</v>
+        <v>844</v>
       </c>
     </row>
     <row r="813" spans="1:2">
       <c r="A813" t="s">
-        <v>813</v>
+        <v>845</v>
       </c>
     </row>
     <row r="814" spans="1:2">
       <c r="A814" t="s">
-        <v>814</v>
+        <v>846</v>
       </c>
     </row>
     <row r="815" spans="1:2">
       <c r="A815" t="s">
-        <v>815</v>
+        <v>847</v>
       </c>
     </row>
     <row r="816" spans="1:2">
       <c r="A816" t="s">
-        <v>816</v>
+        <v>848</v>
       </c>
     </row>
     <row r="817" spans="1:2">
       <c r="A817" t="s">
-        <v>817</v>
+        <v>849</v>
       </c>
     </row>
     <row r="818" spans="1:2">
       <c r="A818" t="s">
-        <v>818</v>
+        <v>850</v>
       </c>
     </row>
     <row r="819" spans="1:2">
       <c r="A819" t="s">
-        <v>819</v>
+        <v>851</v>
       </c>
     </row>
     <row r="820" spans="1:2">
       <c r="A820" t="s">
-        <v>820</v>
+        <v>852</v>
       </c>
     </row>
     <row r="821" spans="1:2">
       <c r="A821" t="s">
-        <v>821</v>
+        <v>853</v>
       </c>
     </row>
     <row r="822" spans="1:2">
       <c r="A822" t="s">
-        <v>822</v>
+        <v>854</v>
       </c>
     </row>
     <row r="823" spans="1:2">
       <c r="A823" t="s">
-        <v>823</v>
+        <v>855</v>
       </c>
     </row>
     <row r="824" spans="1:2">
       <c r="A824" t="s">
-        <v>824</v>
+        <v>856</v>
       </c>
     </row>
     <row r="825" spans="1:2">
       <c r="A825" t="s">
-        <v>825</v>
+        <v>857</v>
       </c>
     </row>
     <row r="826" spans="1:2">
       <c r="A826" t="s">
-        <v>826</v>
+        <v>858</v>
       </c>
     </row>
     <row r="827" spans="1:2">
       <c r="A827" t="s">
-        <v>827</v>
+        <v>859</v>
       </c>
     </row>
     <row r="828" spans="1:2">
       <c r="A828" t="s">
-        <v>828</v>
+        <v>860</v>
       </c>
     </row>
     <row r="829" spans="1:2">
       <c r="A829" t="s">
-        <v>829</v>
+        <v>861</v>
       </c>
     </row>
     <row r="830" spans="1:2">
       <c r="A830" t="s">
-        <v>830</v>
+        <v>862</v>
       </c>
     </row>
     <row r="831" spans="1:2">
       <c r="A831" t="s">
-        <v>831</v>
+        <v>863</v>
       </c>
     </row>
     <row r="832" spans="1:2">
       <c r="A832" t="s">
-        <v>832</v>
+        <v>864</v>
       </c>
     </row>
     <row r="833" spans="1:2">
       <c r="A833" t="s">
-        <v>833</v>
+        <v>865</v>
       </c>
     </row>
     <row r="834" spans="1:2">
       <c r="A834" t="s">
-        <v>834</v>
+        <v>866</v>
       </c>
     </row>
     <row r="835" spans="1:2">
       <c r="A835" t="s">
-        <v>835</v>
+        <v>867</v>
       </c>
     </row>
     <row r="836" spans="1:2">
       <c r="A836" t="s">
-        <v>836</v>
+        <v>868</v>
       </c>
     </row>
     <row r="837" spans="1:2">
       <c r="A837" t="s">
-        <v>837</v>
+        <v>869</v>
       </c>
     </row>
     <row r="838" spans="1:2">
       <c r="A838" t="s">
-        <v>838</v>
+        <v>870</v>
       </c>
     </row>
     <row r="839" spans="1:2">
       <c r="A839" t="s">
-        <v>839</v>
+        <v>871</v>
       </c>
     </row>
     <row r="840" spans="1:2">
       <c r="A840" t="s">
-        <v>840</v>
+        <v>872</v>
       </c>
     </row>
     <row r="841" spans="1:2">
       <c r="A841" t="s">
-        <v>841</v>
+        <v>873</v>
       </c>
     </row>
     <row r="842" spans="1:2">
       <c r="A842" t="s">
-        <v>842</v>
+        <v>874</v>
       </c>
     </row>
     <row r="843" spans="1:2">
       <c r="A843" t="s">
-        <v>843</v>
+        <v>875</v>
       </c>
     </row>
     <row r="844" spans="1:2">
       <c r="A844" t="s">
-        <v>844</v>
+        <v>876</v>
       </c>
     </row>
     <row r="845" spans="1:2">
       <c r="A845" t="s">
-        <v>845</v>
+        <v>877</v>
       </c>
     </row>
     <row r="846" spans="1:2">
       <c r="A846" t="s">
-        <v>846</v>
+        <v>878</v>
       </c>
     </row>
     <row r="847" spans="1:2">
       <c r="A847" t="s">
-        <v>847</v>
+        <v>879</v>
       </c>
     </row>
     <row r="848" spans="1:2">
       <c r="A848" t="s">
-        <v>848</v>
+        <v>880</v>
       </c>
     </row>
     <row r="849" spans="1:2">
       <c r="A849" t="s">
-        <v>849</v>
+        <v>881</v>
       </c>
     </row>
     <row r="850" spans="1:2">
       <c r="A850" t="s">
-        <v>850</v>
+        <v>882</v>
       </c>
     </row>
     <row r="851" spans="1:2">
       <c r="A851" t="s">
-        <v>851</v>
+        <v>883</v>
       </c>
     </row>
     <row r="852" spans="1:2">
       <c r="A852" t="s">
-        <v>852</v>
+        <v>884</v>
       </c>
     </row>
     <row r="853" spans="1:2">
       <c r="A853" t="s">
-        <v>853</v>
+        <v>885</v>
       </c>
     </row>
     <row r="854" spans="1:2">
       <c r="A854" t="s">
-        <v>854</v>
+        <v>886</v>
       </c>
     </row>
     <row r="855" spans="1:2">
       <c r="A855" t="s">
-        <v>855</v>
+        <v>887</v>
       </c>
     </row>
     <row r="856" spans="1:2">
       <c r="A856" t="s">
-        <v>856</v>
+        <v>888</v>
       </c>
     </row>
     <row r="857" spans="1:2">
       <c r="A857" t="s">
-        <v>857</v>
+        <v>889</v>
       </c>
     </row>
     <row r="858" spans="1:2">
       <c r="A858" t="s">
-        <v>858</v>
+        <v>890</v>
       </c>
     </row>
     <row r="859" spans="1:2">
       <c r="A859" t="s">
-        <v>859</v>
+        <v>891</v>
       </c>
     </row>
     <row r="860" spans="1:2">
       <c r="A860" t="s">
-        <v>860</v>
+        <v>892</v>
       </c>
     </row>
     <row r="861" spans="1:2">
       <c r="A861" t="s">
-        <v>861</v>
+        <v>893</v>
       </c>
     </row>
     <row r="862" spans="1:2">
       <c r="A862" t="s">
-        <v>862</v>
+        <v>894</v>
       </c>
     </row>
     <row r="863" spans="1:2">
       <c r="A863" t="s">
-        <v>863</v>
+        <v>895</v>
       </c>
     </row>
     <row r="864" spans="1:2">
       <c r="A864" t="s">
-        <v>864</v>
+        <v>896</v>
       </c>
     </row>
     <row r="865" spans="1:2">
       <c r="A865" t="s">
-        <v>865</v>
+        <v>897</v>
       </c>
     </row>
     <row r="866" spans="1:2">
       <c r="A866" t="s">
-        <v>866</v>
+        <v>898</v>
       </c>
     </row>
     <row r="867" spans="1:2">
       <c r="A867" t="s">
-        <v>867</v>
+        <v>899</v>
       </c>
     </row>
     <row r="868" spans="1:2">
       <c r="A868" t="s">
-        <v>868</v>
+        <v>900</v>
       </c>
     </row>
     <row r="869" spans="1:2">
       <c r="A869" t="s">
-        <v>869</v>
+        <v>901</v>
       </c>
     </row>
     <row r="870" spans="1:2">
       <c r="A870" t="s">
-        <v>870</v>
+        <v>902</v>
       </c>
     </row>
     <row r="871" spans="1:2">
       <c r="A871" t="s">
-        <v>871</v>
+        <v>903</v>
       </c>
     </row>
     <row r="872" spans="1:2">
       <c r="A872" t="s">
-        <v>872</v>
+        <v>904</v>
       </c>
     </row>
     <row r="873" spans="1:2">
       <c r="A873" t="s">
-        <v>873</v>
+        <v>905</v>
       </c>
     </row>
     <row r="874" spans="1:2">
       <c r="A874" t="s">
-        <v>874</v>
+        <v>906</v>
       </c>
     </row>
     <row r="875" spans="1:2">
       <c r="A875" t="s">
-        <v>875</v>
+        <v>907</v>
       </c>
     </row>
     <row r="876" spans="1:2">
       <c r="A876" t="s">
-        <v>876</v>
+        <v>908</v>
       </c>
     </row>
     <row r="877" spans="1:2">
       <c r="A877" t="s">
-        <v>877</v>
+        <v>909</v>
       </c>
     </row>
     <row r="878" spans="1:2">
       <c r="A878" t="s">
-        <v>878</v>
+        <v>910</v>
       </c>
     </row>
     <row r="879" spans="1:2">
       <c r="A879" t="s">
-        <v>879</v>
+        <v>911</v>
       </c>
     </row>
     <row r="880" spans="1:2">
       <c r="A880" t="s">
-        <v>880</v>
+        <v>912</v>
       </c>
     </row>
     <row r="881" spans="1:2">
       <c r="A881" t="s">
-        <v>881</v>
+        <v>913</v>
       </c>
     </row>
     <row r="882" spans="1:2">
       <c r="A882" t="s">
-        <v>882</v>
+        <v>914</v>
       </c>
     </row>
     <row r="883" spans="1:2">
       <c r="A883" t="s">
-        <v>883</v>
+        <v>915</v>
       </c>
     </row>
     <row r="884" spans="1:2">
       <c r="A884" t="s">
-        <v>884</v>
+        <v>916</v>
       </c>
     </row>
     <row r="885" spans="1:2">
       <c r="A885" t="s">
-        <v>885</v>
+        <v>917</v>
       </c>
     </row>
     <row r="886" spans="1:2">
       <c r="A886" t="s">
-        <v>886</v>
+        <v>918</v>
       </c>
     </row>
     <row r="887" spans="1:2">
       <c r="A887" t="s">
-        <v>887</v>
+        <v>919</v>
       </c>
     </row>
     <row r="888" spans="1:2">
       <c r="A888" t="s">
-        <v>888</v>
+        <v>920</v>
       </c>
     </row>
     <row r="889" spans="1:2">
       <c r="A889" t="s">
-        <v>889</v>
+        <v>921</v>
       </c>
     </row>
     <row r="890" spans="1:2">
       <c r="A890" t="s">
-        <v>890</v>
+        <v>922</v>
       </c>
     </row>
     <row r="891" spans="1:2">
       <c r="A891" t="s">
-        <v>891</v>
+        <v>923</v>
       </c>
     </row>
     <row r="892" spans="1:2">
       <c r="A892" t="s">
-        <v>892</v>
+        <v>924</v>
       </c>
     </row>
     <row r="893" spans="1:2">
       <c r="A893" t="s">
-        <v>893</v>
+        <v>925</v>
       </c>
     </row>
     <row r="894" spans="1:2">
       <c r="A894" t="s">
-        <v>894</v>
+        <v>926</v>
       </c>
     </row>
     <row r="895" spans="1:2">
       <c r="A895" t="s">
-        <v>895</v>
+        <v>927</v>
       </c>
     </row>
     <row r="896" spans="1:2">
       <c r="A896" t="s">
-        <v>896</v>
+        <v>928</v>
       </c>
     </row>
     <row r="897" spans="1:2">
       <c r="A897" t="s">
-        <v>897</v>
+        <v>929</v>
       </c>
     </row>
     <row r="898" spans="1:2">
       <c r="A898" t="s">
-        <v>898</v>
+        <v>930</v>
       </c>
     </row>
     <row r="899" spans="1:2">
       <c r="A899" t="s">
-        <v>899</v>
+        <v>931</v>
       </c>
     </row>
     <row r="900" spans="1:2">
       <c r="A900" t="s">
-        <v>900</v>
+        <v>932</v>
       </c>
     </row>
     <row r="901" spans="1:2">
       <c r="A901" t="s">
-        <v>901</v>
+        <v>933</v>
       </c>
     </row>
     <row r="902" spans="1:2">
       <c r="A902" t="s">
-        <v>902</v>
+        <v>934</v>
       </c>
     </row>
     <row r="903" spans="1:2">
       <c r="A903" t="s">
-        <v>903</v>
+        <v>935</v>
       </c>
     </row>
     <row r="904" spans="1:2">
       <c r="A904" t="s">
-        <v>904</v>
+        <v>936</v>
       </c>
     </row>
     <row r="905" spans="1:2">
       <c r="A905" t="s">
-        <v>905</v>
+        <v>937</v>
       </c>
     </row>
     <row r="906" spans="1:2">
       <c r="A906" t="s">
-        <v>906</v>
+        <v>938</v>
       </c>
     </row>
     <row r="907" spans="1:2">
       <c r="A907" t="s">
-        <v>907</v>
+        <v>939</v>
       </c>
     </row>
     <row r="908" spans="1:2">
       <c r="A908" t="s">
-        <v>908</v>
+        <v>940</v>
       </c>
     </row>
     <row r="909" spans="1:2">
       <c r="A909" t="s">
-        <v>909</v>
+        <v>941</v>
       </c>
     </row>
     <row r="910" spans="1:2">
       <c r="A910" t="s">
-        <v>910</v>
+        <v>942</v>
       </c>
     </row>
     <row r="911" spans="1:2">
       <c r="A911" t="s">
-        <v>911</v>
+        <v>943</v>
       </c>
     </row>
     <row r="912" spans="1:2">
       <c r="A912" t="s">
-        <v>912</v>
+        <v>944</v>
       </c>
     </row>
     <row r="913" spans="1:2">
       <c r="A913" t="s">
-        <v>913</v>
+        <v>945</v>
       </c>
     </row>
     <row r="914" spans="1:2">
       <c r="A914" t="s">
-        <v>914</v>
+        <v>946</v>
       </c>
     </row>
     <row r="915" spans="1:2">
       <c r="A915" t="s">
-        <v>915</v>
+        <v>947</v>
       </c>
     </row>
     <row r="916" spans="1:2">
       <c r="A916" t="s">
-        <v>916</v>
+        <v>948</v>
       </c>
     </row>
     <row r="917" spans="1:2">
       <c r="A917" t="s">
-        <v>917</v>
+        <v>949</v>
       </c>
     </row>
     <row r="918" spans="1:2">
       <c r="A918" t="s">
-        <v>918</v>
+        <v>950</v>
       </c>
     </row>
     <row r="919" spans="1:2">
       <c r="A919" t="s">
-        <v>919</v>
+        <v>951</v>
       </c>
     </row>
     <row r="920" spans="1:2">
       <c r="A920" t="s">
-        <v>920</v>
+        <v>952</v>
       </c>
     </row>
     <row r="921" spans="1:2">
       <c r="A921" t="s">
-        <v>921</v>
+        <v>953</v>
       </c>
     </row>
     <row r="922" spans="1:2">
       <c r="A922" t="s">
-        <v>922</v>
+        <v>954</v>
       </c>
     </row>
     <row r="923" spans="1:2">
       <c r="A923" t="s">
-        <v>923</v>
+        <v>955</v>
       </c>
     </row>
     <row r="924" spans="1:2">
       <c r="A924" t="s">
-        <v>924</v>
+        <v>956</v>
       </c>
     </row>
     <row r="925" spans="1:2">
       <c r="A925" t="s">
-        <v>925</v>
+        <v>957</v>
       </c>
     </row>
     <row r="926" spans="1:2">
       <c r="A926" t="s">
-        <v>926</v>
+        <v>958</v>
       </c>
     </row>
     <row r="927" spans="1:2">
       <c r="A927" t="s">
-        <v>927</v>
+        <v>959</v>
       </c>
     </row>
     <row r="928" spans="1:2">
       <c r="A928" t="s">
-        <v>928</v>
+        <v>960</v>
       </c>
     </row>
     <row r="929" spans="1:2">
       <c r="A929" t="s">
-        <v>929</v>
+        <v>961</v>
       </c>
     </row>
     <row r="930" spans="1:2">
       <c r="A930" t="s">
-        <v>930</v>
+        <v>962</v>
       </c>
     </row>
     <row r="931" spans="1:2">
       <c r="A931" t="s">
-        <v>931</v>
+        <v>963</v>
       </c>
     </row>
     <row r="932" spans="1:2">
       <c r="A932" t="s">
-        <v>932</v>
+        <v>964</v>
       </c>
     </row>
     <row r="933" spans="1:2">
       <c r="A933" t="s">
-        <v>933</v>
+        <v>965</v>
       </c>
     </row>
     <row r="934" spans="1:2">
       <c r="A934" t="s">
-        <v>934</v>
+        <v>966</v>
       </c>
     </row>
     <row r="935" spans="1:2">
       <c r="A935" t="s">
-        <v>935</v>
+        <v>967</v>
       </c>
     </row>
     <row r="936" spans="1:2">
       <c r="A936" t="s">
-        <v>936</v>
+        <v>968</v>
       </c>
     </row>
     <row r="937" spans="1:2">
       <c r="A937" t="s">
-        <v>937</v>
+        <v>969</v>
       </c>
     </row>
     <row r="938" spans="1:2">
       <c r="A938" t="s">
-        <v>938</v>
+        <v>970</v>
       </c>
     </row>
     <row r="939" spans="1:2">
       <c r="A939" t="s">
-        <v>939</v>
+        <v>971</v>
       </c>
     </row>
     <row r="940" spans="1:2">
       <c r="A940" t="s">
-        <v>940</v>
+        <v>972</v>
       </c>
     </row>
     <row r="941" spans="1:2">
       <c r="A941" t="s">
-        <v>941</v>
+        <v>973</v>
       </c>
     </row>
     <row r="942" spans="1:2">
       <c r="A942" t="s">
-        <v>942</v>
+        <v>974</v>
       </c>
     </row>
     <row r="943" spans="1:2">
       <c r="A943" t="s">
-        <v>943</v>
+        <v>975</v>
       </c>
     </row>
     <row r="944" spans="1:2">
       <c r="A944" t="s">
-        <v>944</v>
+        <v>976</v>
       </c>
     </row>
     <row r="945" spans="1:2">
       <c r="A945" t="s">
-        <v>945</v>
+        <v>977</v>
       </c>
     </row>
     <row r="946" spans="1:2">
       <c r="A946" t="s">
-        <v>946</v>
+        <v>978</v>
       </c>
     </row>
     <row r="947" spans="1:2">
       <c r="A947" t="s">
-        <v>947</v>
+        <v>979</v>
       </c>
     </row>
     <row r="948" spans="1:2">
       <c r="A948" t="s">
-        <v>948</v>
+        <v>980</v>
       </c>
     </row>
     <row r="949" spans="1:2">
       <c r="A949" t="s">
-        <v>949</v>
+        <v>981</v>
       </c>
     </row>
     <row r="950" spans="1:2">
       <c r="A950" t="s">
-        <v>950</v>
+        <v>982</v>
       </c>
     </row>
     <row r="951" spans="1:2">
       <c r="A951" t="s">
-        <v>951</v>
+        <v>983</v>
       </c>
     </row>
     <row r="952" spans="1:2">
       <c r="A952" t="s">
-        <v>952</v>
+        <v>984</v>
       </c>
     </row>
     <row r="953" spans="1:2">
       <c r="A953" t="s">
-        <v>953</v>
+        <v>985</v>
       </c>
     </row>
     <row r="954" spans="1:2">
       <c r="A954" t="s">
-        <v>954</v>
+        <v>986</v>
       </c>
     </row>
     <row r="955" spans="1:2">
       <c r="A955" t="s">
-        <v>955</v>
+        <v>987</v>
       </c>
     </row>
     <row r="956" spans="1:2">
       <c r="A956" t="s">
-        <v>956</v>
+        <v>988</v>
       </c>
     </row>
     <row r="957" spans="1:2">
       <c r="A957" t="s">
-        <v>957</v>
+        <v>989</v>
       </c>
     </row>
     <row r="958" spans="1:2">
       <c r="A958" t="s">
-        <v>958</v>
+        <v>990</v>
       </c>
     </row>
     <row r="959" spans="1:2">
       <c r="A959" t="s">
-        <v>959</v>
+        <v>991</v>
       </c>
     </row>
     <row r="960" spans="1:2">
       <c r="A960" t="s">
-        <v>960</v>
+        <v>992</v>
       </c>
     </row>
     <row r="961" spans="1:2">
       <c r="A961" t="s">
-        <v>961</v>
+        <v>993</v>
       </c>
     </row>
     <row r="962" spans="1:2">
       <c r="A962" t="s">
-        <v>962</v>
+        <v>994</v>
       </c>
     </row>
     <row r="963" spans="1:2">
       <c r="A963" t="s">
-        <v>963</v>
+        <v>995</v>
       </c>
     </row>
     <row r="964" spans="1:2">
       <c r="A964" t="s">
-        <v>964</v>
+        <v>996</v>
       </c>
     </row>
     <row r="965" spans="1:2">
       <c r="A965" t="s">
-        <v>965</v>
+        <v>997</v>
       </c>
     </row>
     <row r="966" spans="1:2">
       <c r="A966" t="s">
-        <v>966</v>
+        <v>998</v>
       </c>
     </row>
     <row r="967" spans="1:2">
       <c r="A967" t="s">
-        <v>967</v>
+        <v>999</v>
       </c>
     </row>
     <row r="968" spans="1:2">
       <c r="A968" t="s">
-        <v>968</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="969" spans="1:2">
       <c r="A969" t="s">
-        <v>969</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="970" spans="1:2">
       <c r="A970" t="s">
-        <v>970</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="971" spans="1:2">
       <c r="A971" t="s">
-        <v>971</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="972" spans="1:2">
       <c r="A972" t="s">
-        <v>972</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="973" spans="1:2">
       <c r="A973" t="s">
-        <v>973</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="974" spans="1:2">
       <c r="A974" t="s">
-        <v>974</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="975" spans="1:2">
       <c r="A975" t="s">
-        <v>975</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="976" spans="1:2">
       <c r="A976" t="s">
-        <v>976</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="977" spans="1:2">
       <c r="A977" t="s">
-        <v>977</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="978" spans="1:2">
       <c r="A978" t="s">
-        <v>978</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="979" spans="1:2">
       <c r="A979" t="s">
-        <v>979</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="980" spans="1:2">
       <c r="A980" t="s">
-        <v>980</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="981" spans="1:2">
       <c r="A981" t="s">
-        <v>981</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="982" spans="1:2">
       <c r="A982" t="s">
-        <v>982</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="983" spans="1:2">
       <c r="A983" t="s">
-        <v>983</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="984" spans="1:2">
       <c r="A984" t="s">
-        <v>984</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="985" spans="1:2">
       <c r="A985" t="s">
-        <v>985</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="986" spans="1:2">
       <c r="A986" t="s">
-        <v>986</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="987" spans="1:2">
       <c r="A987" t="s">
-        <v>987</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="988" spans="1:2">
       <c r="A988" t="s">
-        <v>988</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="989" spans="1:2">
       <c r="A989" t="s">
-        <v>989</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="990" spans="1:2">
       <c r="A990" t="s">
-        <v>990</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="991" spans="1:2">
       <c r="A991" t="s">
-        <v>991</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="992" spans="1:2">
       <c r="A992" t="s">
-        <v>992</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="993" spans="1:2">
       <c r="A993" t="s">
-        <v>993</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="994" spans="1:2">
       <c r="A994" t="s">
-        <v>994</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="995" spans="1:2">
       <c r="A995" t="s">
-        <v>995</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="996" spans="1:2">
       <c r="A996" t="s">
-        <v>996</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="997" spans="1:2">
       <c r="A997" t="s">
-        <v>997</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="998" spans="1:2">
       <c r="A998" t="s">
-        <v>998</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="999" spans="1:2">
       <c r="A999" t="s">
-        <v>999</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="1000" spans="1:2">
       <c r="A1000" t="s">
-        <v>1000</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="1001" spans="1:2">
       <c r="A1001" t="s">
-        <v>1001</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="1002" spans="1:2">
       <c r="A1002" t="s">
-        <v>1002</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="1003" spans="1:2">
       <c r="A1003" t="s">
-        <v>1003</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="1004" spans="1:2">
       <c r="A1004" t="s">
-        <v>1004</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="1005" spans="1:2">
       <c r="A1005" t="s">
-        <v>1005</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="1006" spans="1:2">
       <c r="A1006" t="s">
-        <v>1006</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="1007" spans="1:2">
       <c r="A1007" t="s">
-        <v>1007</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="1008" spans="1:2">
       <c r="A1008" t="s">
-        <v>1008</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="1009" spans="1:2">
       <c r="A1009" t="s">
-        <v>1009</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="1010" spans="1:2">
       <c r="A1010" t="s">
-        <v>1010</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="1011" spans="1:2">
       <c r="A1011" t="s">
-        <v>1011</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="1012" spans="1:2">
       <c r="A1012" t="s">
-        <v>1012</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="1013" spans="1:2">
       <c r="A1013" t="s">
-        <v>1013</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
       <c r="A1014" t="s">
-        <v>1014</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="1015" spans="1:2">
       <c r="A1015" t="s">
-        <v>1015</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="1016" spans="1:2">
       <c r="A1016" t="s">
-        <v>1016</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="1017" spans="1:2">
       <c r="A1017" t="s">
-        <v>1017</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="1018" spans="1:2">
       <c r="A1018" t="s">
-        <v>1018</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="1019" spans="1:2">
       <c r="A1019" t="s">
-        <v>1019</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="1020" spans="1:2">
       <c r="A1020" t="s">
-        <v>1020</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="1021" spans="1:2">
       <c r="A1021" t="s">
-        <v>1021</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="1022" spans="1:2">
       <c r="A1022" t="s">
-        <v>1022</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="1023" spans="1:2">
       <c r="A1023" t="s">
-        <v>1023</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="1024" spans="1:2">
       <c r="A1024" t="s">
-        <v>1024</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="1025" spans="1:2">
       <c r="A1025" t="s">
-        <v>1025</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="1026" spans="1:2">
       <c r="A1026" t="s">
-        <v>1026</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="1027" spans="1:2">
       <c r="A1027" t="s">
-        <v>1027</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="1028" spans="1:2">
       <c r="A1028" t="s">
-        <v>1028</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
       <c r="A1029" t="s">
-        <v>1029</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="1030" spans="1:2">
       <c r="A1030" t="s">
-        <v>1030</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
       <c r="A1031" t="s">
-        <v>1031</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="1032" spans="1:2">
       <c r="A1032" t="s">
-        <v>1032</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="1033" spans="1:2">
       <c r="A1033" t="s">
-        <v>1033</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="1034" spans="1:2">
       <c r="A1034" t="s">
-        <v>1034</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="1035" spans="1:2">
       <c r="A1035" t="s">
-        <v>1035</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="1036" spans="1:2">
       <c r="A1036" t="s">
-        <v>1036</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="1037" spans="1:2">
       <c r="A1037" t="s">
-        <v>1037</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="1038" spans="1:2">
       <c r="A1038" t="s">
-        <v>1038</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="1039" spans="1:2">
       <c r="A1039" t="s">
-        <v>1039</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="1040" spans="1:2">
       <c r="A1040" t="s">
-        <v>1040</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="1041" spans="1:2">
       <c r="A1041" t="s">
-        <v>1041</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="1042" spans="1:2">
       <c r="A1042" t="s">
-        <v>1042</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="1043" spans="1:2">
       <c r="A1043" t="s">
-        <v>1043</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="1044" spans="1:2">
       <c r="A1044" t="s">
-        <v>1044</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="1045" spans="1:2">
       <c r="A1045" t="s">
-        <v>1045</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="1046" spans="1:2">
       <c r="A1046" t="s">
-        <v>1046</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="1047" spans="1:2">
       <c r="A1047" t="s">
-        <v>1047</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="1048" spans="1:2">
       <c r="A1048" t="s">
-        <v>1048</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="1049" spans="1:2">
       <c r="A1049" t="s">
-        <v>1049</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="1050" spans="1:2">
       <c r="A1050" t="s">
-        <v>1050</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="1051" spans="1:2">
       <c r="A1051" t="s">
-        <v>1051</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="1052" spans="1:2">
       <c r="A1052" t="s">
-        <v>1052</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="1053" spans="1:2">
       <c r="A1053" t="s">
-        <v>1053</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="1054" spans="1:2">
       <c r="A1054" t="s">
-        <v>1054</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="1055" spans="1:2">
       <c r="A1055" t="s">
-        <v>1055</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="1056" spans="1:2">
       <c r="A1056" t="s">
-        <v>1056</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="1057" spans="1:2">
       <c r="A1057" t="s">
-        <v>1057</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="1058" spans="1:2">
       <c r="A1058" t="s">
-        <v>1058</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="1059" spans="1:2">
       <c r="A1059" t="s">
-        <v>1059</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="1060" spans="1:2">
       <c r="A1060" t="s">
-        <v>1060</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="1061" spans="1:2">
       <c r="A1061" t="s">
-        <v>1061</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="1062" spans="1:2">
       <c r="A1062" t="s">
-        <v>1062</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="1063" spans="1:2">
       <c r="A1063" t="s">
-        <v>1063</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="1064" spans="1:2">
       <c r="A1064" t="s">
-        <v>1064</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="1065" spans="1:2">
       <c r="A1065" t="s">
-        <v>1065</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="1066" spans="1:2">
       <c r="A1066" t="s">
-        <v>1066</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="1067" spans="1:2">
       <c r="A1067" t="s">
-        <v>1067</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="1068" spans="1:2">
       <c r="A1068" t="s">
-        <v>1068</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="1069" spans="1:2">
       <c r="A1069" t="s">
-        <v>1069</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="1070" spans="1:2">
       <c r="A1070" t="s">
-        <v>1070</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="1071" spans="1:2">
       <c r="A1071" t="s">
-        <v>1071</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="1072" spans="1:2">
       <c r="A1072" t="s">
-        <v>1072</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="1073" spans="1:2">
       <c r="A1073" t="s">
-        <v>1073</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="1074" spans="1:2">
       <c r="A1074" t="s">
-        <v>1074</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="1075" spans="1:2">
       <c r="A1075" t="s">
-        <v>1075</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="1076" spans="1:2">
       <c r="A1076" t="s">
-        <v>1076</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="1077" spans="1:2">
       <c r="A1077" t="s">
-        <v>1077</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="1078" spans="1:2">
       <c r="A1078" t="s">
-        <v>1078</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="1079" spans="1:2">
       <c r="A1079" t="s">
-        <v>1079</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="1080" spans="1:2">
       <c r="A1080" t="s">
-        <v>1080</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="1081" spans="1:2">
       <c r="A1081" t="s">
-        <v>1081</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="1082" spans="1:2">
       <c r="A1082" t="s">
-        <v>1082</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="1083" spans="1:2">
       <c r="A1083" t="s">
-        <v>1083</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="1084" spans="1:2">
       <c r="A1084" t="s">
-        <v>1084</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="1085" spans="1:2">
       <c r="A1085" t="s">
-        <v>1085</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="1086" spans="1:2">
       <c r="A1086" t="s">
-        <v>1086</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="1087" spans="1:2">
       <c r="A1087" t="s">
-        <v>1087</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="1088" spans="1:2">
       <c r="A1088" t="s">
-        <v>1088</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="1089" spans="1:2">
       <c r="A1089" t="s">
-        <v>1089</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="1090" spans="1:2">
       <c r="A1090" t="s">
-        <v>1090</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="1091" spans="1:2">
       <c r="A1091" t="s">
-        <v>1091</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="1092" spans="1:2">
       <c r="A1092" t="s">
-        <v>1092</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="1093" spans="1:2">
       <c r="A1093" t="s">
-        <v>1093</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="1094" spans="1:2">
       <c r="A1094" t="s">
-        <v>1094</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="1095" spans="1:2">
       <c r="A1095" t="s">
-        <v>1095</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="1096" spans="1:2">
       <c r="A1096" t="s">
-        <v>1096</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="1097" spans="1:2">
       <c r="A1097" t="s">
-        <v>1097</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="1098" spans="1:2">
       <c r="A1098" t="s">
-        <v>1098</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="1099" spans="1:2">
       <c r="A1099" t="s">
-        <v>1099</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="1100" spans="1:2">
       <c r="A1100" t="s">
-        <v>1100</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="1101" spans="1:2">
       <c r="A1101" t="s">
-        <v>1101</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="1102" spans="1:2">
       <c r="A1102" t="s">
-        <v>1102</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="1103" spans="1:2">
       <c r="A1103" t="s">
-        <v>1103</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="1104" spans="1:2">
       <c r="A1104" t="s">
-        <v>1104</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="1105" spans="1:2">
       <c r="A1105" t="s">
-        <v>1105</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="1106" spans="1:2">
       <c r="A1106" t="s">
-        <v>1106</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="1107" spans="1:2">
       <c r="A1107" t="s">
-        <v>1107</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="1108" spans="1:2">
       <c r="A1108" t="s">
-        <v>1108</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="1109" spans="1:2">
       <c r="A1109" t="s">
-        <v>1109</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="1110" spans="1:2">
       <c r="A1110" t="s">
-        <v>1110</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="1111" spans="1:2">
       <c r="A1111" t="s">
-        <v>1111</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="1112" spans="1:2">
       <c r="A1112" t="s">
-        <v>1112</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1113" spans="1:2">
       <c r="A1113" t="s">
-        <v>1113</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="1114" spans="1:2">
       <c r="A1114" t="s">
-        <v>1114</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="1115" spans="1:2">
       <c r="A1115" t="s">
-        <v>1115</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="1116" spans="1:2">
       <c r="A1116" t="s">
-        <v>1116</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="1117" spans="1:2">
       <c r="A1117" t="s">
-        <v>1117</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="1118" spans="1:2">
       <c r="A1118" t="s">
-        <v>1118</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="1119" spans="1:2">
       <c r="A1119" t="s">
-        <v>1119</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="1120" spans="1:2">
       <c r="A1120" t="s">
-        <v>1120</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="1121" spans="1:2">
       <c r="A1121" t="s">
-        <v>1121</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="1122" spans="1:2">
       <c r="A1122" t="s">
-        <v>1122</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="1123" spans="1:2">
       <c r="A1123" t="s">
-        <v>1123</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="1124" spans="1:2">
       <c r="A1124" t="s">
-        <v>1124</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="1125" spans="1:2">
       <c r="A1125" t="s">
-        <v>1125</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="1126" spans="1:2">
       <c r="A1126" t="s">
-        <v>1126</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="1127" spans="1:2">
       <c r="A1127" t="s">
-        <v>1127</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="1128" spans="1:2">
       <c r="A1128" t="s">
-        <v>1128</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="1129" spans="1:2">
       <c r="A1129" t="s">
-        <v>1129</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="1130" spans="1:2">
       <c r="A1130" t="s">
-        <v>1130</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="1131" spans="1:2">
       <c r="A1131" t="s">
-        <v>1131</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="1132" spans="1:2">
       <c r="A1132" t="s">
-        <v>1132</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="1133" spans="1:2">
       <c r="A1133" t="s">
-        <v>1133</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
       <c r="A1134" t="s">
-        <v>1134</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="1135" spans="1:2">
       <c r="A1135" t="s">
-        <v>1135</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="1136" spans="1:2">
       <c r="A1136" t="s">
-        <v>1136</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="1137" spans="1:2">
       <c r="A1137" t="s">
-        <v>1137</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="1138" spans="1:2">
       <c r="A1138" t="s">
-        <v>1138</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
       <c r="A1139" t="s">
-        <v>1139</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="1140" spans="1:2">
       <c r="A1140" t="s">
-        <v>1140</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="1141" spans="1:2">
       <c r="A1141" t="s">
-        <v>1141</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="1142" spans="1:2">
       <c r="A1142" t="s">
-        <v>1142</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="1143" spans="1:2">
       <c r="A1143" t="s">
-        <v>1143</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="1144" spans="1:2">
       <c r="A1144" t="s">
-        <v>1144</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="1145" spans="1:2">
       <c r="A1145" t="s">
-        <v>1145</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="1146" spans="1:2">
       <c r="A1146" t="s">
-        <v>1146</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="1147" spans="1:2">
       <c r="A1147" t="s">
-        <v>1147</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="1148" spans="1:2">
       <c r="A1148" t="s">
-        <v>1148</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="1149" spans="1:2">
       <c r="A1149" t="s">
-        <v>1149</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="1150" spans="1:2">
       <c r="A1150" t="s">
-        <v>1150</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="1151" spans="1:2">
       <c r="A1151" t="s">
-        <v>1151</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="1152" spans="1:2">
       <c r="A1152" t="s">
-        <v>1152</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="1153" spans="1:2">
       <c r="A1153" t="s">
-        <v>1153</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="1154" spans="1:2">
       <c r="A1154" t="s">
-        <v>1154</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="1155" spans="1:2">
       <c r="A1155" t="s">
-        <v>1155</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="1156" spans="1:2">
       <c r="A1156" t="s">
-        <v>1156</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="1157" spans="1:2">
       <c r="A1157" t="s">
-        <v>1157</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="1158" spans="1:2">
       <c r="A1158" t="s">
-        <v>1158</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="1159" spans="1:2">
       <c r="A1159" t="s">
-        <v>1159</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="1160" spans="1:2">
       <c r="A1160" t="s">
-        <v>1160</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="1161" spans="1:2">
       <c r="A1161" t="s">
-        <v>1161</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="1162" spans="1:2">
       <c r="A1162" t="s">
-        <v>1162</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="1163" spans="1:2">
       <c r="A1163" t="s">
-        <v>1163</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="1164" spans="1:2">
       <c r="A1164" t="s">
-        <v>1164</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
       <c r="A1165" t="s">
-        <v>1165</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="1166" spans="1:2">
       <c r="A1166" t="s">
-        <v>1166</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="1167" spans="1:2">
       <c r="A1167" t="s">
-        <v>1167</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
       <c r="A1168" t="s">
-        <v>1168</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="1169" spans="1:2">
       <c r="A1169" t="s">
-        <v>1169</v>
+        <v>1201</v>
       </c>
     </row>
   </sheetData>

--- a/lang/pt/headTags.xlsx
+++ b/lang/pt/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1169</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1170</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2009">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2011">
   <si>
     <t>en</t>
   </si>
@@ -1634,6 +1634,12 @@
   </si>
   <si>
     <t>Explosivo</t>
+  </si>
+  <si>
+    <t>Eye</t>
+  </si>
+  <si>
+    <t>Olho</t>
   </si>
   <si>
     <t>Eyepatch</t>
@@ -6390,7 +6396,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1169"/>
+  <dimension ref="A1:B1170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -8936,12 +8942,12 @@
         <v>543</v>
       </c>
       <c r="B317" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B318" t="s">
         <v>545</v>
@@ -8952,20 +8958,20 @@
         <v>546</v>
       </c>
       <c r="B319" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B320" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B321" t="s">
         <v>549</v>
@@ -8992,20 +8998,20 @@
         <v>554</v>
       </c>
       <c r="B324" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B325" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B326" t="s">
         <v>557</v>
@@ -9040,12 +9046,12 @@
         <v>564</v>
       </c>
       <c r="B330" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B331" t="s">
         <v>566</v>
@@ -9112,12 +9118,12 @@
         <v>581</v>
       </c>
       <c r="B339" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B340" t="s">
         <v>583</v>
@@ -9168,12 +9174,12 @@
         <v>594</v>
       </c>
       <c r="B346" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B347" t="s">
         <v>596</v>
@@ -9272,12 +9278,12 @@
         <v>619</v>
       </c>
       <c r="B359" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B360" t="s">
         <v>621</v>
@@ -9304,12 +9310,12 @@
         <v>626</v>
       </c>
       <c r="B363" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B364" t="s">
         <v>628</v>
@@ -9840,12 +9846,12 @@
         <v>759</v>
       </c>
       <c r="B430" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B431" t="s">
         <v>761</v>
@@ -9864,12 +9870,12 @@
         <v>764</v>
       </c>
       <c r="B433" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B434" t="s">
         <v>766</v>
@@ -9944,12 +9950,12 @@
         <v>783</v>
       </c>
       <c r="B443" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="444" spans="1:2">
       <c r="A444" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B444" t="s">
         <v>785</v>
@@ -9960,12 +9966,12 @@
         <v>786</v>
       </c>
       <c r="B445" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B446" t="s">
         <v>788</v>
@@ -9976,12 +9982,12 @@
         <v>789</v>
       </c>
       <c r="B447" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="448" spans="1:2">
       <c r="A448" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B448" t="s">
         <v>791</v>
@@ -9992,12 +9998,12 @@
         <v>792</v>
       </c>
       <c r="B449" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="450" spans="1:2">
       <c r="A450" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B450" t="s">
         <v>794</v>
@@ -10016,12 +10022,12 @@
         <v>797</v>
       </c>
       <c r="B452" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B453" t="s">
         <v>799</v>
@@ -10096,12 +10102,12 @@
         <v>816</v>
       </c>
       <c r="B462" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B463" t="s">
         <v>818</v>
@@ -10112,20 +10118,20 @@
         <v>819</v>
       </c>
       <c r="B464" t="s">
-        <v>542</v>
+        <v>820</v>
       </c>
     </row>
     <row r="465" spans="1:2">
       <c r="A465" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="B465" t="s">
-        <v>820</v>
+        <v>544</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="B466" t="s">
         <v>822</v>
@@ -10152,20 +10158,20 @@
         <v>827</v>
       </c>
       <c r="B469" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
     <row r="470" spans="1:2">
       <c r="A470" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B470" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="471" spans="1:2">
       <c r="A471" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B471" t="s">
         <v>830</v>
@@ -10176,20 +10182,20 @@
         <v>831</v>
       </c>
       <c r="B472" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="473" spans="1:2">
       <c r="A473" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B473" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B474" t="s">
         <v>834</v>
@@ -10200,12 +10206,12 @@
         <v>835</v>
       </c>
       <c r="B475" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="476" spans="1:2">
       <c r="A476" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B476" t="s">
         <v>837</v>
@@ -10224,12 +10230,12 @@
         <v>840</v>
       </c>
       <c r="B478" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="479" spans="1:2">
       <c r="A479" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B479" t="s">
         <v>842</v>
@@ -10240,12 +10246,12 @@
         <v>843</v>
       </c>
       <c r="B480" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
     <row r="481" spans="1:2">
       <c r="A481" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B481" t="s">
         <v>845</v>
@@ -10264,12 +10270,12 @@
         <v>848</v>
       </c>
       <c r="B483" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B484" t="s">
         <v>850</v>
@@ -10280,36 +10286,36 @@
         <v>851</v>
       </c>
       <c r="B485" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="486" spans="1:2">
       <c r="A486" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="B486" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
     <row r="487" spans="1:2">
       <c r="A487" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B487" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
     <row r="488" spans="1:2">
       <c r="A488" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B488" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
     </row>
     <row r="489" spans="1:2">
       <c r="A489" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B489" t="s">
         <v>856</v>
@@ -10464,12 +10470,12 @@
         <v>893</v>
       </c>
       <c r="B508" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B509" t="s">
         <v>895</v>
@@ -10488,12 +10494,12 @@
         <v>898</v>
       </c>
       <c r="B511" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B512" t="s">
         <v>900</v>
@@ -10504,12 +10510,12 @@
         <v>901</v>
       </c>
       <c r="B513" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B514" t="s">
         <v>903</v>
@@ -10544,12 +10550,12 @@
         <v>910</v>
       </c>
       <c r="B518" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B519" t="s">
         <v>912</v>
@@ -10664,20 +10670,20 @@
         <v>939</v>
       </c>
       <c r="B533" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B534" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
     </row>
     <row r="535" spans="1:2">
       <c r="A535" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B535" t="s">
         <v>942</v>
@@ -10696,12 +10702,12 @@
         <v>945</v>
       </c>
       <c r="B537" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B538" t="s">
         <v>947</v>
@@ -10752,20 +10758,20 @@
         <v>958</v>
       </c>
       <c r="B544" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
     </row>
     <row r="545" spans="1:2">
       <c r="A545" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B545" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="B546" t="s">
         <v>961</v>
@@ -10776,12 +10782,12 @@
         <v>962</v>
       </c>
       <c r="B547" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="B548" t="s">
         <v>964</v>
@@ -10792,12 +10798,12 @@
         <v>965</v>
       </c>
       <c r="B549" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="B550" t="s">
         <v>967</v>
@@ -10824,12 +10830,12 @@
         <v>972</v>
       </c>
       <c r="B553" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="554" spans="1:2">
       <c r="A554" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="B554" t="s">
         <v>974</v>
@@ -10888,20 +10894,20 @@
         <v>987</v>
       </c>
       <c r="B561" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="B562" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="B563" t="s">
         <v>990</v>
@@ -10952,12 +10958,12 @@
         <v>1001</v>
       </c>
       <c r="B569" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B570" t="s">
         <v>1003</v>
@@ -10976,20 +10982,20 @@
         <v>1006</v>
       </c>
       <c r="B572" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="573" spans="1:2">
       <c r="A573" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B573" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="574" spans="1:2">
       <c r="A574" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B574" t="s">
         <v>1009</v>
@@ -11008,20 +11014,20 @@
         <v>1012</v>
       </c>
       <c r="B576" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="577" spans="1:2">
       <c r="A577" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="B577" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="578" spans="1:2">
       <c r="A578" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B578" t="s">
         <v>1015</v>
@@ -11040,12 +11046,12 @@
         <v>1018</v>
       </c>
       <c r="B580" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="581" spans="1:2">
       <c r="A581" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="B581" t="s">
         <v>1020</v>
@@ -11056,20 +11062,20 @@
         <v>1021</v>
       </c>
       <c r="B582" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="583" spans="1:2">
       <c r="A583" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="B583" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="584" spans="1:2">
       <c r="A584" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B584" t="s">
         <v>1024</v>
@@ -11088,20 +11094,20 @@
         <v>1027</v>
       </c>
       <c r="B586" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="587" spans="1:2">
       <c r="A587" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="B587" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="588" spans="1:2">
       <c r="A588" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="B588" t="s">
         <v>1030</v>
@@ -11128,12 +11134,12 @@
         <v>1035</v>
       </c>
       <c r="B591" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="B592" t="s">
         <v>1037</v>
@@ -11200,12 +11206,12 @@
         <v>1052</v>
       </c>
       <c r="B600" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="601" spans="1:2">
       <c r="A601" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="B601" t="s">
         <v>1054</v>
@@ -11224,12 +11230,12 @@
         <v>1057</v>
       </c>
       <c r="B603" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="604" spans="1:2">
       <c r="A604" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="B604" t="s">
         <v>1059</v>
@@ -11280,20 +11286,20 @@
         <v>1070</v>
       </c>
       <c r="B610" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="611" spans="1:2">
       <c r="A611" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="B611" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="612" spans="1:2">
       <c r="A612" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="B612" t="s">
         <v>1073</v>
@@ -11360,12 +11366,12 @@
         <v>1088</v>
       </c>
       <c r="B620" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="621" spans="1:2">
       <c r="A621" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="B621" t="s">
         <v>1090</v>
@@ -11376,12 +11382,12 @@
         <v>1091</v>
       </c>
       <c r="B622" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="623" spans="1:2">
       <c r="A623" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="B623" t="s">
         <v>1093</v>
@@ -11416,12 +11422,12 @@
         <v>1100</v>
       </c>
       <c r="B627" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="628" spans="1:2">
       <c r="A628" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="B628" t="s">
         <v>1102</v>
@@ -11432,20 +11438,20 @@
         <v>1103</v>
       </c>
       <c r="B629" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="630" spans="1:2">
       <c r="A630" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="B630" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="631" spans="1:2">
       <c r="A631" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="B631" t="s">
         <v>1106</v>
@@ -11464,44 +11470,44 @@
         <v>1109</v>
       </c>
       <c r="B633" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="634" spans="1:2">
       <c r="A634" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="B634" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="635" spans="1:2">
       <c r="A635" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="B635" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="636" spans="1:2">
       <c r="A636" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="B636" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="637" spans="1:2">
       <c r="A637" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="B637" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="638" spans="1:2">
       <c r="A638" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="B638" t="s">
         <v>1115</v>
@@ -11512,36 +11518,36 @@
         <v>1116</v>
       </c>
       <c r="B639" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="640" spans="1:2">
       <c r="A640" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="B640" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="641" spans="1:2">
       <c r="A641" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="B641" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="642" spans="1:2">
       <c r="A642" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="B642" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="643" spans="1:2">
       <c r="A643" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="B643" t="s">
         <v>1121</v>
@@ -11584,20 +11590,20 @@
         <v>1130</v>
       </c>
       <c r="B648" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="649" spans="1:2">
       <c r="A649" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="B649" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="650" spans="1:2">
       <c r="A650" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="B650" t="s">
         <v>1133</v>
@@ -11608,12 +11614,12 @@
         <v>1134</v>
       </c>
       <c r="B651" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="652" spans="1:2">
       <c r="A652" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="B652" t="s">
         <v>1136</v>
@@ -11632,12 +11638,12 @@
         <v>1139</v>
       </c>
       <c r="B654" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="655" spans="1:2">
       <c r="A655" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="B655" t="s">
         <v>1141</v>
@@ -11696,12 +11702,12 @@
         <v>1154</v>
       </c>
       <c r="B662" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="663" spans="1:2">
       <c r="A663" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="B663" t="s">
         <v>1156</v>
@@ -11720,12 +11726,12 @@
         <v>1159</v>
       </c>
       <c r="B665" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="666" spans="1:2">
       <c r="A666" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="B666" t="s">
         <v>1161</v>
@@ -11760,12 +11766,12 @@
         <v>1168</v>
       </c>
       <c r="B670" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="671" spans="1:2">
       <c r="A671" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="B671" t="s">
         <v>1170</v>
@@ -11784,12 +11790,12 @@
         <v>1173</v>
       </c>
       <c r="B673" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="674" spans="1:2">
       <c r="A674" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="B674" t="s">
         <v>1175</v>
@@ -11808,12 +11814,12 @@
         <v>1178</v>
       </c>
       <c r="B676" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="677" spans="1:2">
       <c r="A677" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="B677" t="s">
         <v>1180</v>
@@ -11840,20 +11846,20 @@
         <v>1185</v>
       </c>
       <c r="B680" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="681" spans="1:2">
       <c r="A681" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="B681" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="682" spans="1:2">
       <c r="A682" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="B682" t="s">
         <v>1188</v>
@@ -11912,12 +11918,12 @@
         <v>1201</v>
       </c>
       <c r="B689" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="690" spans="1:2">
       <c r="A690" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="B690" t="s">
         <v>1203</v>
@@ -11936,12 +11942,12 @@
         <v>1206</v>
       </c>
       <c r="B692" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="693" spans="1:2">
       <c r="A693" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="B693" t="s">
         <v>1208</v>
@@ -11960,12 +11966,12 @@
         <v>1211</v>
       </c>
       <c r="B695" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="696" spans="1:2">
       <c r="A696" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="B696" t="s">
         <v>1213</v>
@@ -11984,12 +11990,12 @@
         <v>1216</v>
       </c>
       <c r="B698" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="699" spans="1:2">
       <c r="A699" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="B699" t="s">
         <v>1218</v>
@@ -12000,20 +12006,20 @@
         <v>1219</v>
       </c>
       <c r="B700" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="701" spans="1:2">
       <c r="A701" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="B701" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="702" spans="1:2">
       <c r="A702" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="B702" t="s">
         <v>1222</v>
@@ -12024,60 +12030,60 @@
         <v>1223</v>
       </c>
       <c r="B703" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="704" spans="1:2">
       <c r="A704" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="B704" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="705" spans="1:2">
       <c r="A705" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="B705" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="706" spans="1:2">
       <c r="A706" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B706" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="707" spans="1:2">
       <c r="A707" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="B707" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="708" spans="1:2">
       <c r="A708" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="B708" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="709" spans="1:2">
       <c r="A709" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="B709" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="710" spans="1:2">
       <c r="A710" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="B710" t="s">
         <v>1231</v>
@@ -12104,12 +12110,12 @@
         <v>1236</v>
       </c>
       <c r="B713" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="714" spans="1:2">
       <c r="A714" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="B714" t="s">
         <v>1238</v>
@@ -12136,12 +12142,12 @@
         <v>1243</v>
       </c>
       <c r="B717" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="718" spans="1:2">
       <c r="A718" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="B718" t="s">
         <v>1245</v>
@@ -12232,12 +12238,12 @@
         <v>1266</v>
       </c>
       <c r="B729" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="730" spans="1:2">
       <c r="A730" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="B730" t="s">
         <v>1268</v>
@@ -12264,12 +12270,12 @@
         <v>1273</v>
       </c>
       <c r="B733" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="734" spans="1:2">
       <c r="A734" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B734" t="s">
         <v>1275</v>
@@ -12288,12 +12294,12 @@
         <v>1278</v>
       </c>
       <c r="B736" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="737" spans="1:2">
       <c r="A737" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="B737" t="s">
         <v>1280</v>
@@ -12312,20 +12318,20 @@
         <v>1283</v>
       </c>
       <c r="B739" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="740" spans="1:2">
       <c r="A740" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B740" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="741" spans="1:2">
       <c r="A741" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="B741" t="s">
         <v>1286</v>
@@ -12336,28 +12342,28 @@
         <v>1287</v>
       </c>
       <c r="B742" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="743" spans="1:2">
       <c r="A743" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="B743" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="744" spans="1:2">
       <c r="A744" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="B744" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="745" spans="1:2">
       <c r="A745" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="B745" t="s">
         <v>1291</v>
@@ -12424,20 +12430,20 @@
         <v>1306</v>
       </c>
       <c r="B753" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="754" spans="1:2">
       <c r="A754" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="B754" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="755" spans="1:2">
       <c r="A755" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="B755" t="s">
         <v>1309</v>
@@ -12456,12 +12462,12 @@
         <v>1312</v>
       </c>
       <c r="B757" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="758" spans="1:2">
       <c r="A758" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="B758" t="s">
         <v>1314</v>
@@ -12472,20 +12478,20 @@
         <v>1315</v>
       </c>
       <c r="B759" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="760" spans="1:2">
       <c r="A760" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="B760" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="761" spans="1:2">
       <c r="A761" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="B761" t="s">
         <v>1318</v>
@@ -12528,12 +12534,12 @@
         <v>1327</v>
       </c>
       <c r="B766" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="767" spans="1:2">
       <c r="A767" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="B767" t="s">
         <v>1329</v>
@@ -12568,12 +12574,12 @@
         <v>1336</v>
       </c>
       <c r="B771" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="772" spans="1:2">
       <c r="A772" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="B772" t="s">
         <v>1338</v>
@@ -12640,20 +12646,20 @@
         <v>1353</v>
       </c>
       <c r="B780" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="781" spans="1:2">
       <c r="A781" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="B781" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="782" spans="1:2">
       <c r="A782" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="B782" t="s">
         <v>1356</v>
@@ -12680,12 +12686,12 @@
         <v>1361</v>
       </c>
       <c r="B785" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="786" spans="1:2">
       <c r="A786" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="B786" t="s">
         <v>1363</v>
@@ -12696,20 +12702,20 @@
         <v>1364</v>
       </c>
       <c r="B787" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="788" spans="1:2">
       <c r="A788" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="B788" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="789" spans="1:2">
       <c r="A789" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="B789" t="s">
         <v>1367</v>
@@ -12720,36 +12726,36 @@
         <v>1368</v>
       </c>
       <c r="B790" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="791" spans="1:2">
       <c r="A791" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="B791" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="792" spans="1:2">
       <c r="A792" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="B792" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="793" spans="1:2">
       <c r="A793" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="B793" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="794" spans="1:2">
       <c r="A794" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="B794" t="s">
         <v>1373</v>
@@ -12768,12 +12774,12 @@
         <v>1376</v>
       </c>
       <c r="B796" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="797" spans="1:2">
       <c r="A797" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="B797" t="s">
         <v>1378</v>
@@ -12832,20 +12838,20 @@
         <v>1391</v>
       </c>
       <c r="B804" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="805" spans="1:2">
       <c r="A805" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="B805" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="806" spans="1:2">
       <c r="A806" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="B806" t="s">
         <v>1394</v>
@@ -12944,12 +12950,12 @@
         <v>1417</v>
       </c>
       <c r="B818" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="819" spans="1:2">
       <c r="A819" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="B819" t="s">
         <v>1419</v>
@@ -12960,12 +12966,12 @@
         <v>1420</v>
       </c>
       <c r="B820" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="821" spans="1:2">
       <c r="A821" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="B821" t="s">
         <v>1422</v>
@@ -12976,12 +12982,12 @@
         <v>1423</v>
       </c>
       <c r="B822" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="823" spans="1:2">
       <c r="A823" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="B823" t="s">
         <v>1425</v>
@@ -12992,28 +12998,28 @@
         <v>1426</v>
       </c>
       <c r="B824" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="825" spans="1:2">
       <c r="A825" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="B825" t="s">
-        <v>807</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="826" spans="1:2">
       <c r="A826" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="B826" t="s">
-        <v>1428</v>
+        <v>809</v>
       </c>
     </row>
     <row r="827" spans="1:2">
       <c r="A827" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="B827" t="s">
         <v>1430</v>
@@ -13024,36 +13030,36 @@
         <v>1431</v>
       </c>
       <c r="B828" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="829" spans="1:2">
       <c r="A829" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="B829" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="830" spans="1:2">
       <c r="A830" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="B830" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="831" spans="1:2">
       <c r="A831" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="B831" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="832" spans="1:2">
       <c r="A832" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="B832" t="s">
         <v>1436</v>
@@ -13112,20 +13118,20 @@
         <v>1449</v>
       </c>
       <c r="B839" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="840" spans="1:2">
       <c r="A840" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="B840" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="841" spans="1:2">
       <c r="A841" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="B841" t="s">
         <v>1452</v>
@@ -13248,20 +13254,20 @@
         <v>1481</v>
       </c>
       <c r="B856" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="857" spans="1:2">
       <c r="A857" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="B857" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="858" spans="1:2">
       <c r="A858" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="B858" t="s">
         <v>1484</v>
@@ -13272,12 +13278,12 @@
         <v>1485</v>
       </c>
       <c r="B859" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="860" spans="1:2">
       <c r="A860" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="B860" t="s">
         <v>1487</v>
@@ -13288,20 +13294,20 @@
         <v>1488</v>
       </c>
       <c r="B861" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="862" spans="1:2">
       <c r="A862" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="B862" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="863" spans="1:2">
       <c r="A863" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="B863" t="s">
         <v>1491</v>
@@ -13312,12 +13318,12 @@
         <v>1492</v>
       </c>
       <c r="B864" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="865" spans="1:2">
       <c r="A865" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="B865" t="s">
         <v>1494</v>
@@ -13408,12 +13414,12 @@
         <v>1515</v>
       </c>
       <c r="B876" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="877" spans="1:2">
       <c r="A877" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="B877" t="s">
         <v>1517</v>
@@ -13440,20 +13446,20 @@
         <v>1522</v>
       </c>
       <c r="B880" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="881" spans="1:2">
       <c r="A881" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="B881" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="882" spans="1:2">
       <c r="A882" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="B882" t="s">
         <v>1525</v>
@@ -13464,12 +13470,12 @@
         <v>1526</v>
       </c>
       <c r="B883" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="884" spans="1:2">
       <c r="A884" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="B884" t="s">
         <v>1528</v>
@@ -13480,12 +13486,12 @@
         <v>1529</v>
       </c>
       <c r="B885" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="886" spans="1:2">
       <c r="A886" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="B886" t="s">
         <v>1531</v>
@@ -13496,12 +13502,12 @@
         <v>1532</v>
       </c>
       <c r="B887" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="888" spans="1:2">
       <c r="A888" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="B888" t="s">
         <v>1534</v>
@@ -13552,12 +13558,12 @@
         <v>1545</v>
       </c>
       <c r="B894" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="895" spans="1:2">
       <c r="A895" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="B895" t="s">
         <v>1547</v>
@@ -13608,12 +13614,12 @@
         <v>1558</v>
       </c>
       <c r="B901" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="902" spans="1:2">
       <c r="A902" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="B902" t="s">
         <v>1560</v>
@@ -13624,20 +13630,20 @@
         <v>1561</v>
       </c>
       <c r="B903" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="904" spans="1:2">
       <c r="A904" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="B904" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="905" spans="1:2">
       <c r="A905" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="B905" t="s">
         <v>1564</v>
@@ -13656,12 +13662,12 @@
         <v>1567</v>
       </c>
       <c r="B907" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="908" spans="1:2">
       <c r="A908" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="B908" t="s">
         <v>1569</v>
@@ -13696,20 +13702,20 @@
         <v>1576</v>
       </c>
       <c r="B912" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="913" spans="1:2">
       <c r="A913" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="B913" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="914" spans="1:2">
       <c r="A914" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="B914" t="s">
         <v>1579</v>
@@ -13752,20 +13758,20 @@
         <v>1588</v>
       </c>
       <c r="B919" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="920" spans="1:2">
       <c r="A920" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="B920" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="921" spans="1:2">
       <c r="A921" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="B921" t="s">
         <v>1591</v>
@@ -13800,12 +13806,12 @@
         <v>1598</v>
       </c>
       <c r="B925" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="926" spans="1:2">
       <c r="A926" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="B926" t="s">
         <v>1600</v>
@@ -13824,20 +13830,20 @@
         <v>1603</v>
       </c>
       <c r="B928" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="929" spans="1:2">
       <c r="A929" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="B929" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="930" spans="1:2">
       <c r="A930" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="B930" t="s">
         <v>1606</v>
@@ -13896,28 +13902,28 @@
         <v>1619</v>
       </c>
       <c r="B937" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="938" spans="1:2">
       <c r="A938" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="B938" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="939" spans="1:2">
       <c r="A939" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="B939" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="940" spans="1:2">
       <c r="A940" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="B940" t="s">
         <v>1623</v>
@@ -13944,44 +13950,44 @@
         <v>1628</v>
       </c>
       <c r="B943" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="944" spans="1:2">
       <c r="A944" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B944" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="945" spans="1:2">
       <c r="A945" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="B945" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="946" spans="1:2">
       <c r="A946" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="B946" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="947" spans="1:2">
       <c r="A947" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="B947" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="948" spans="1:2">
       <c r="A948" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="B948" t="s">
         <v>1634</v>
@@ -14016,20 +14022,20 @@
         <v>1641</v>
       </c>
       <c r="B952" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="953" spans="1:2">
       <c r="A953" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="B953" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="954" spans="1:2">
       <c r="A954" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="B954" t="s">
         <v>1644</v>
@@ -14088,20 +14094,20 @@
         <v>1657</v>
       </c>
       <c r="B961" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="962" spans="1:2">
       <c r="A962" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="B962" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="963" spans="1:2">
       <c r="A963" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="B963" t="s">
         <v>1660</v>
@@ -14120,12 +14126,12 @@
         <v>1663</v>
       </c>
       <c r="B965" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="966" spans="1:2">
       <c r="A966" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="B966" t="s">
         <v>1665</v>
@@ -14208,12 +14214,12 @@
         <v>1684</v>
       </c>
       <c r="B976" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="977" spans="1:2">
       <c r="A977" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="B977" t="s">
         <v>1686</v>
@@ -14248,20 +14254,20 @@
         <v>1693</v>
       </c>
       <c r="B981" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="982" spans="1:2">
       <c r="A982" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="B982" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="983" spans="1:2">
       <c r="A983" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="B983" t="s">
         <v>1696</v>
@@ -14288,12 +14294,12 @@
         <v>1701</v>
       </c>
       <c r="B986" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="987" spans="1:2">
       <c r="A987" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="B987" t="s">
         <v>1703</v>
@@ -14312,12 +14318,12 @@
         <v>1706</v>
       </c>
       <c r="B989" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="990" spans="1:2">
       <c r="A990" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="B990" t="s">
         <v>1708</v>
@@ -14392,28 +14398,28 @@
         <v>1725</v>
       </c>
       <c r="B999" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="1000" spans="1:2">
       <c r="A1000" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B1000" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="1001" spans="1:2">
       <c r="A1001" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="B1001" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="1002" spans="1:2">
       <c r="A1002" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="B1002" t="s">
         <v>1729</v>
@@ -14432,28 +14438,28 @@
         <v>1732</v>
       </c>
       <c r="B1004" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="1005" spans="1:2">
       <c r="A1005" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="B1005" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="1006" spans="1:2">
       <c r="A1006" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="B1006" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="1007" spans="1:2">
       <c r="A1007" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="B1007" t="s">
         <v>1736</v>
@@ -14480,12 +14486,12 @@
         <v>1741</v>
       </c>
       <c r="B1010" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="1011" spans="1:2">
       <c r="A1011" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="B1011" t="s">
         <v>1743</v>
@@ -14496,20 +14502,20 @@
         <v>1744</v>
       </c>
       <c r="B1012" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="1013" spans="1:2">
       <c r="A1013" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="B1013" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
       <c r="A1014" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="B1014" t="s">
         <v>1747</v>
@@ -14528,12 +14534,12 @@
         <v>1750</v>
       </c>
       <c r="B1016" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="1017" spans="1:2">
       <c r="A1017" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B1017" t="s">
         <v>1752</v>
@@ -14560,12 +14566,12 @@
         <v>1757</v>
       </c>
       <c r="B1020" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="1021" spans="1:2">
       <c r="A1021" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="B1021" t="s">
         <v>1759</v>
@@ -14576,20 +14582,20 @@
         <v>1760</v>
       </c>
       <c r="B1022" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="1023" spans="1:2">
       <c r="A1023" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="B1023" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="1024" spans="1:2">
       <c r="A1024" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="B1024" t="s">
         <v>1763</v>
@@ -14600,36 +14606,36 @@
         <v>1764</v>
       </c>
       <c r="B1025" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="1026" spans="1:2">
       <c r="A1026" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="B1026" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="1027" spans="1:2">
       <c r="A1027" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="B1027" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="1028" spans="1:2">
       <c r="A1028" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="B1028" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
       <c r="A1029" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="B1029" t="s">
         <v>1769</v>
@@ -14640,12 +14646,12 @@
         <v>1770</v>
       </c>
       <c r="B1030" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
       <c r="A1031" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="B1031" t="s">
         <v>1772</v>
@@ -14664,12 +14670,12 @@
         <v>1775</v>
       </c>
       <c r="B1033" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="1034" spans="1:2">
       <c r="A1034" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="B1034" t="s">
         <v>1777</v>
@@ -14696,12 +14702,12 @@
         <v>1782</v>
       </c>
       <c r="B1037" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="1038" spans="1:2">
       <c r="A1038" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
       <c r="B1038" t="s">
         <v>1784</v>
@@ -14744,12 +14750,12 @@
         <v>1793</v>
       </c>
       <c r="B1043" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="1044" spans="1:2">
       <c r="A1044" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
       <c r="B1044" t="s">
         <v>1795</v>
@@ -14840,12 +14846,12 @@
         <v>1816</v>
       </c>
       <c r="B1055" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="1056" spans="1:2">
       <c r="A1056" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="B1056" t="s">
         <v>1818</v>
@@ -14936,20 +14942,20 @@
         <v>1839</v>
       </c>
       <c r="B1067" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="1068" spans="1:2">
       <c r="A1068" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="B1068" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="1069" spans="1:2">
       <c r="A1069" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="B1069" t="s">
         <v>1842</v>
@@ -14968,20 +14974,20 @@
         <v>1845</v>
       </c>
       <c r="B1071" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="1072" spans="1:2">
       <c r="A1072" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="B1072" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="1073" spans="1:2">
       <c r="A1073" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="B1073" t="s">
         <v>1848</v>
@@ -14992,12 +14998,12 @@
         <v>1849</v>
       </c>
       <c r="B1074" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="1075" spans="1:2">
       <c r="A1075" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="B1075" t="s">
         <v>1851</v>
@@ -15016,12 +15022,12 @@
         <v>1854</v>
       </c>
       <c r="B1077" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="1078" spans="1:2">
       <c r="A1078" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="B1078" t="s">
         <v>1856</v>
@@ -15048,12 +15054,12 @@
         <v>1861</v>
       </c>
       <c r="B1081" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="1082" spans="1:2">
       <c r="A1082" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="B1082" t="s">
         <v>1863</v>
@@ -15096,12 +15102,12 @@
         <v>1872</v>
       </c>
       <c r="B1087" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="1088" spans="1:2">
       <c r="A1088" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
       <c r="B1088" t="s">
         <v>1874</v>
@@ -15144,12 +15150,12 @@
         <v>1883</v>
       </c>
       <c r="B1093" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="1094" spans="1:2">
       <c r="A1094" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="B1094" t="s">
         <v>1885</v>
@@ -15168,12 +15174,12 @@
         <v>1888</v>
       </c>
       <c r="B1096" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="1097" spans="1:2">
       <c r="A1097" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
       <c r="B1097" t="s">
         <v>1890</v>
@@ -15184,20 +15190,20 @@
         <v>1891</v>
       </c>
       <c r="B1098" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="1099" spans="1:2">
       <c r="A1099" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="B1099" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="1100" spans="1:2">
       <c r="A1100" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="B1100" t="s">
         <v>1894</v>
@@ -15296,12 +15302,12 @@
         <v>1917</v>
       </c>
       <c r="B1112" t="s">
-        <v>1917</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="1113" spans="1:2">
       <c r="A1113" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="B1113" t="s">
         <v>1919</v>
@@ -15328,12 +15334,12 @@
         <v>1924</v>
       </c>
       <c r="B1116" t="s">
-        <v>1924</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="1117" spans="1:2">
       <c r="A1117" t="s">
-        <v>1925</v>
+        <v>1926</v>
       </c>
       <c r="B1117" t="s">
         <v>1926</v>
@@ -15408,44 +15414,44 @@
         <v>1943</v>
       </c>
       <c r="B1126" t="s">
-        <v>1943</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="1127" spans="1:2">
       <c r="A1127" t="s">
-        <v>1944</v>
+        <v>1945</v>
       </c>
       <c r="B1127" t="s">
-        <v>1944</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="1128" spans="1:2">
       <c r="A1128" t="s">
-        <v>1945</v>
+        <v>1946</v>
       </c>
       <c r="B1128" t="s">
-        <v>1945</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="1129" spans="1:2">
       <c r="A1129" t="s">
-        <v>1946</v>
+        <v>1947</v>
       </c>
       <c r="B1129" t="s">
-        <v>1946</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="1130" spans="1:2">
       <c r="A1130" t="s">
-        <v>1947</v>
+        <v>1948</v>
       </c>
       <c r="B1130" t="s">
-        <v>1947</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="1131" spans="1:2">
       <c r="A1131" t="s">
-        <v>1948</v>
+        <v>1949</v>
       </c>
       <c r="B1131" t="s">
         <v>1949</v>
@@ -15464,20 +15470,20 @@
         <v>1952</v>
       </c>
       <c r="B1133" t="s">
-        <v>1952</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
       <c r="A1134" t="s">
-        <v>1953</v>
+        <v>1954</v>
       </c>
       <c r="B1134" t="s">
-        <v>1953</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="1135" spans="1:2">
       <c r="A1135" t="s">
-        <v>1954</v>
+        <v>1955</v>
       </c>
       <c r="B1135" t="s">
         <v>1955</v>
@@ -15552,12 +15558,12 @@
         <v>1972</v>
       </c>
       <c r="B1144" t="s">
-        <v>1972</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="1145" spans="1:2">
       <c r="A1145" t="s">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="B1145" t="s">
         <v>1974</v>
@@ -15568,12 +15574,12 @@
         <v>1975</v>
       </c>
       <c r="B1146" t="s">
-        <v>1975</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="1147" spans="1:2">
       <c r="A1147" t="s">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="B1147" t="s">
         <v>1977</v>
@@ -15608,44 +15614,44 @@
         <v>1984</v>
       </c>
       <c r="B1151" t="s">
-        <v>1984</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="1152" spans="1:2">
       <c r="A1152" t="s">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="B1152" t="s">
-        <v>1985</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="1153" spans="1:2">
       <c r="A1153" t="s">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="B1153" t="s">
-        <v>1986</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="1154" spans="1:2">
       <c r="A1154" t="s">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="B1154" t="s">
-        <v>1987</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="1155" spans="1:2">
       <c r="A1155" t="s">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="B1155" t="s">
-        <v>1988</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="1156" spans="1:2">
       <c r="A1156" t="s">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="B1156" t="s">
         <v>1990</v>
@@ -15664,20 +15670,20 @@
         <v>1993</v>
       </c>
       <c r="B1158" t="s">
-        <v>1993</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="1159" spans="1:2">
       <c r="A1159" t="s">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="B1159" t="s">
-        <v>1994</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="1160" spans="1:2">
       <c r="A1160" t="s">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="B1160" t="s">
         <v>1996</v>
@@ -15688,36 +15694,36 @@
         <v>1997</v>
       </c>
       <c r="B1161" t="s">
-        <v>1997</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="1162" spans="1:2">
       <c r="A1162" t="s">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="B1162" t="s">
-        <v>1998</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="1163" spans="1:2">
       <c r="A1163" t="s">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="B1163" t="s">
-        <v>1999</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="1164" spans="1:2">
       <c r="A1164" t="s">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="B1164" t="s">
-        <v>2000</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
       <c r="A1165" t="s">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B1165" t="s">
         <v>2002</v>
@@ -15736,12 +15742,12 @@
         <v>2005</v>
       </c>
       <c r="B1167" t="s">
-        <v>2005</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
       <c r="A1168" t="s">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B1168" t="s">
         <v>2007</v>
@@ -15752,11 +15758,19 @@
         <v>2008</v>
       </c>
       <c r="B1169" t="s">
-        <v>2008</v>
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:2">
+      <c r="A1170" t="s">
+        <v>2010</v>
+      </c>
+      <c r="B1170" t="s">
+        <v>2010</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1169"/>
+  <autoFilter ref="A1:B1170"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/pt/headTags.xlsx
+++ b/lang/pt/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1170</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1171</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2011">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2012">
   <si>
     <t>en</t>
   </si>
@@ -4868,6 +4868,9 @@
   </si>
   <si>
     <t>Sete Pecados Mortais</t>
+  </si>
+  <si>
+    <t>Shadow of the Colossus</t>
   </si>
   <si>
     <t>Shadows of Mordor</t>
@@ -6396,7 +6399,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1170"/>
+  <dimension ref="A1:B1171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -13894,20 +13897,20 @@
         <v>1617</v>
       </c>
       <c r="B936" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="937" spans="1:2">
       <c r="A937" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B937" t="s">
         <v>1619</v>
-      </c>
-      <c r="B937" t="s">
-        <v>1620</v>
       </c>
     </row>
     <row r="938" spans="1:2">
       <c r="A938" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="B938" t="s">
         <v>1621</v>
@@ -13934,28 +13937,28 @@
         <v>1624</v>
       </c>
       <c r="B941" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="942" spans="1:2">
       <c r="A942" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B942" t="s">
         <v>1626</v>
-      </c>
-      <c r="B942" t="s">
-        <v>1627</v>
       </c>
     </row>
     <row r="943" spans="1:2">
       <c r="A943" t="s">
+        <v>1627</v>
+      </c>
+      <c r="B943" t="s">
         <v>1628</v>
-      </c>
-      <c r="B943" t="s">
-        <v>1629</v>
       </c>
     </row>
     <row r="944" spans="1:2">
       <c r="A944" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="B944" t="s">
         <v>1630</v>
@@ -13998,36 +14001,36 @@
         <v>1635</v>
       </c>
       <c r="B949" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="950" spans="1:2">
       <c r="A950" t="s">
+        <v>1636</v>
+      </c>
+      <c r="B950" t="s">
         <v>1637</v>
-      </c>
-      <c r="B950" t="s">
-        <v>1638</v>
       </c>
     </row>
     <row r="951" spans="1:2">
       <c r="A951" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B951" t="s">
         <v>1639</v>
-      </c>
-      <c r="B951" t="s">
-        <v>1640</v>
       </c>
     </row>
     <row r="952" spans="1:2">
       <c r="A952" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B952" t="s">
         <v>1641</v>
-      </c>
-      <c r="B952" t="s">
-        <v>1642</v>
       </c>
     </row>
     <row r="953" spans="1:2">
       <c r="A953" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="B953" t="s">
         <v>1643</v>
@@ -14046,60 +14049,60 @@
         <v>1645</v>
       </c>
       <c r="B955" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="956" spans="1:2">
       <c r="A956" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B956" t="s">
         <v>1647</v>
-      </c>
-      <c r="B956" t="s">
-        <v>1648</v>
       </c>
     </row>
     <row r="957" spans="1:2">
       <c r="A957" t="s">
+        <v>1648</v>
+      </c>
+      <c r="B957" t="s">
         <v>1649</v>
-      </c>
-      <c r="B957" t="s">
-        <v>1650</v>
       </c>
     </row>
     <row r="958" spans="1:2">
       <c r="A958" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B958" t="s">
         <v>1651</v>
-      </c>
-      <c r="B958" t="s">
-        <v>1652</v>
       </c>
     </row>
     <row r="959" spans="1:2">
       <c r="A959" t="s">
+        <v>1652</v>
+      </c>
+      <c r="B959" t="s">
         <v>1653</v>
-      </c>
-      <c r="B959" t="s">
-        <v>1654</v>
       </c>
     </row>
     <row r="960" spans="1:2">
       <c r="A960" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B960" t="s">
         <v>1655</v>
-      </c>
-      <c r="B960" t="s">
-        <v>1656</v>
       </c>
     </row>
     <row r="961" spans="1:2">
       <c r="A961" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B961" t="s">
         <v>1657</v>
-      </c>
-      <c r="B961" t="s">
-        <v>1658</v>
       </c>
     </row>
     <row r="962" spans="1:2">
       <c r="A962" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="B962" t="s">
         <v>1659</v>
@@ -14118,20 +14121,20 @@
         <v>1661</v>
       </c>
       <c r="B964" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="965" spans="1:2">
       <c r="A965" t="s">
+        <v>1662</v>
+      </c>
+      <c r="B965" t="s">
         <v>1663</v>
-      </c>
-      <c r="B965" t="s">
-        <v>1664</v>
       </c>
     </row>
     <row r="966" spans="1:2">
       <c r="A966" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="B966" t="s">
         <v>1665</v>
@@ -14142,84 +14145,84 @@
         <v>1666</v>
       </c>
       <c r="B967" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="968" spans="1:2">
       <c r="A968" t="s">
+        <v>1667</v>
+      </c>
+      <c r="B968" t="s">
         <v>1668</v>
-      </c>
-      <c r="B968" t="s">
-        <v>1669</v>
       </c>
     </row>
     <row r="969" spans="1:2">
       <c r="A969" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B969" t="s">
         <v>1670</v>
-      </c>
-      <c r="B969" t="s">
-        <v>1671</v>
       </c>
     </row>
     <row r="970" spans="1:2">
       <c r="A970" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B970" t="s">
         <v>1672</v>
-      </c>
-      <c r="B970" t="s">
-        <v>1673</v>
       </c>
     </row>
     <row r="971" spans="1:2">
       <c r="A971" t="s">
+        <v>1673</v>
+      </c>
+      <c r="B971" t="s">
         <v>1674</v>
-      </c>
-      <c r="B971" t="s">
-        <v>1675</v>
       </c>
     </row>
     <row r="972" spans="1:2">
       <c r="A972" t="s">
+        <v>1675</v>
+      </c>
+      <c r="B972" t="s">
         <v>1676</v>
-      </c>
-      <c r="B972" t="s">
-        <v>1677</v>
       </c>
     </row>
     <row r="973" spans="1:2">
       <c r="A973" t="s">
+        <v>1677</v>
+      </c>
+      <c r="B973" t="s">
         <v>1678</v>
-      </c>
-      <c r="B973" t="s">
-        <v>1679</v>
       </c>
     </row>
     <row r="974" spans="1:2">
       <c r="A974" t="s">
+        <v>1679</v>
+      </c>
+      <c r="B974" t="s">
         <v>1680</v>
-      </c>
-      <c r="B974" t="s">
-        <v>1681</v>
       </c>
     </row>
     <row r="975" spans="1:2">
       <c r="A975" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B975" t="s">
         <v>1682</v>
-      </c>
-      <c r="B975" t="s">
-        <v>1683</v>
       </c>
     </row>
     <row r="976" spans="1:2">
       <c r="A976" t="s">
+        <v>1683</v>
+      </c>
+      <c r="B976" t="s">
         <v>1684</v>
-      </c>
-      <c r="B976" t="s">
-        <v>1685</v>
       </c>
     </row>
     <row r="977" spans="1:2">
       <c r="A977" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="B977" t="s">
         <v>1686</v>
@@ -14230,36 +14233,36 @@
         <v>1687</v>
       </c>
       <c r="B978" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="979" spans="1:2">
       <c r="A979" t="s">
+        <v>1688</v>
+      </c>
+      <c r="B979" t="s">
         <v>1689</v>
-      </c>
-      <c r="B979" t="s">
-        <v>1690</v>
       </c>
     </row>
     <row r="980" spans="1:2">
       <c r="A980" t="s">
+        <v>1690</v>
+      </c>
+      <c r="B980" t="s">
         <v>1691</v>
-      </c>
-      <c r="B980" t="s">
-        <v>1692</v>
       </c>
     </row>
     <row r="981" spans="1:2">
       <c r="A981" t="s">
+        <v>1692</v>
+      </c>
+      <c r="B981" t="s">
         <v>1693</v>
-      </c>
-      <c r="B981" t="s">
-        <v>1694</v>
       </c>
     </row>
     <row r="982" spans="1:2">
       <c r="A982" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="B982" t="s">
         <v>1695</v>
@@ -14278,28 +14281,28 @@
         <v>1697</v>
       </c>
       <c r="B984" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="985" spans="1:2">
       <c r="A985" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B985" t="s">
         <v>1699</v>
-      </c>
-      <c r="B985" t="s">
-        <v>1700</v>
       </c>
     </row>
     <row r="986" spans="1:2">
       <c r="A986" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B986" t="s">
         <v>1701</v>
-      </c>
-      <c r="B986" t="s">
-        <v>1702</v>
       </c>
     </row>
     <row r="987" spans="1:2">
       <c r="A987" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="B987" t="s">
         <v>1703</v>
@@ -14310,20 +14313,20 @@
         <v>1704</v>
       </c>
       <c r="B988" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="989" spans="1:2">
       <c r="A989" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B989" t="s">
         <v>1706</v>
-      </c>
-      <c r="B989" t="s">
-        <v>1707</v>
       </c>
     </row>
     <row r="990" spans="1:2">
       <c r="A990" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="B990" t="s">
         <v>1708</v>
@@ -14334,76 +14337,76 @@
         <v>1709</v>
       </c>
       <c r="B991" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="992" spans="1:2">
       <c r="A992" t="s">
+        <v>1710</v>
+      </c>
+      <c r="B992" t="s">
         <v>1711</v>
-      </c>
-      <c r="B992" t="s">
-        <v>1712</v>
       </c>
     </row>
     <row r="993" spans="1:2">
       <c r="A993" t="s">
+        <v>1712</v>
+      </c>
+      <c r="B993" t="s">
         <v>1713</v>
-      </c>
-      <c r="B993" t="s">
-        <v>1714</v>
       </c>
     </row>
     <row r="994" spans="1:2">
       <c r="A994" t="s">
+        <v>1714</v>
+      </c>
+      <c r="B994" t="s">
         <v>1715</v>
-      </c>
-      <c r="B994" t="s">
-        <v>1716</v>
       </c>
     </row>
     <row r="995" spans="1:2">
       <c r="A995" t="s">
+        <v>1716</v>
+      </c>
+      <c r="B995" t="s">
         <v>1717</v>
-      </c>
-      <c r="B995" t="s">
-        <v>1718</v>
       </c>
     </row>
     <row r="996" spans="1:2">
       <c r="A996" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B996" t="s">
         <v>1719</v>
-      </c>
-      <c r="B996" t="s">
-        <v>1720</v>
       </c>
     </row>
     <row r="997" spans="1:2">
       <c r="A997" t="s">
+        <v>1720</v>
+      </c>
+      <c r="B997" t="s">
         <v>1721</v>
-      </c>
-      <c r="B997" t="s">
-        <v>1722</v>
       </c>
     </row>
     <row r="998" spans="1:2">
       <c r="A998" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B998" t="s">
         <v>1723</v>
-      </c>
-      <c r="B998" t="s">
-        <v>1724</v>
       </c>
     </row>
     <row r="999" spans="1:2">
       <c r="A999" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B999" t="s">
         <v>1725</v>
-      </c>
-      <c r="B999" t="s">
-        <v>1726</v>
       </c>
     </row>
     <row r="1000" spans="1:2">
       <c r="A1000" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="B1000" t="s">
         <v>1727</v>
@@ -14430,20 +14433,20 @@
         <v>1730</v>
       </c>
       <c r="B1003" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="1004" spans="1:2">
       <c r="A1004" t="s">
+        <v>1731</v>
+      </c>
+      <c r="B1004" t="s">
         <v>1732</v>
-      </c>
-      <c r="B1004" t="s">
-        <v>1733</v>
       </c>
     </row>
     <row r="1005" spans="1:2">
       <c r="A1005" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="B1005" t="s">
         <v>1734</v>
@@ -14470,28 +14473,28 @@
         <v>1737</v>
       </c>
       <c r="B1008" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="1009" spans="1:2">
       <c r="A1009" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1009" t="s">
         <v>1739</v>
-      </c>
-      <c r="B1009" t="s">
-        <v>1740</v>
       </c>
     </row>
     <row r="1010" spans="1:2">
       <c r="A1010" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B1010" t="s">
         <v>1741</v>
-      </c>
-      <c r="B1010" t="s">
-        <v>1742</v>
       </c>
     </row>
     <row r="1011" spans="1:2">
       <c r="A1011" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="B1011" t="s">
         <v>1743</v>
@@ -14502,12 +14505,12 @@
         <v>1744</v>
       </c>
       <c r="B1012" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="1013" spans="1:2">
       <c r="A1013" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="B1013" t="s">
         <v>1746</v>
@@ -14526,20 +14529,20 @@
         <v>1748</v>
       </c>
       <c r="B1015" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="1016" spans="1:2">
       <c r="A1016" t="s">
+        <v>1749</v>
+      </c>
+      <c r="B1016" t="s">
         <v>1750</v>
-      </c>
-      <c r="B1016" t="s">
-        <v>1751</v>
       </c>
     </row>
     <row r="1017" spans="1:2">
       <c r="A1017" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="B1017" t="s">
         <v>1752</v>
@@ -14550,28 +14553,28 @@
         <v>1753</v>
       </c>
       <c r="B1018" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="1019" spans="1:2">
       <c r="A1019" t="s">
+        <v>1754</v>
+      </c>
+      <c r="B1019" t="s">
         <v>1755</v>
-      </c>
-      <c r="B1019" t="s">
-        <v>1756</v>
       </c>
     </row>
     <row r="1020" spans="1:2">
       <c r="A1020" t="s">
+        <v>1756</v>
+      </c>
+      <c r="B1020" t="s">
         <v>1757</v>
-      </c>
-      <c r="B1020" t="s">
-        <v>1758</v>
       </c>
     </row>
     <row r="1021" spans="1:2">
       <c r="A1021" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="B1021" t="s">
         <v>1759</v>
@@ -14582,12 +14585,12 @@
         <v>1760</v>
       </c>
       <c r="B1022" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="1023" spans="1:2">
       <c r="A1023" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="B1023" t="s">
         <v>1762</v>
@@ -14606,12 +14609,12 @@
         <v>1764</v>
       </c>
       <c r="B1025" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="1026" spans="1:2">
       <c r="A1026" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="B1026" t="s">
         <v>1766</v>
@@ -14646,12 +14649,12 @@
         <v>1770</v>
       </c>
       <c r="B1030" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
       <c r="A1031" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="B1031" t="s">
         <v>1772</v>
@@ -14662,20 +14665,20 @@
         <v>1773</v>
       </c>
       <c r="B1032" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="1033" spans="1:2">
       <c r="A1033" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B1033" t="s">
         <v>1775</v>
-      </c>
-      <c r="B1033" t="s">
-        <v>1776</v>
       </c>
     </row>
     <row r="1034" spans="1:2">
       <c r="A1034" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="B1034" t="s">
         <v>1777</v>
@@ -14686,28 +14689,28 @@
         <v>1778</v>
       </c>
       <c r="B1035" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="1036" spans="1:2">
       <c r="A1036" t="s">
+        <v>1779</v>
+      </c>
+      <c r="B1036" t="s">
         <v>1780</v>
-      </c>
-      <c r="B1036" t="s">
-        <v>1781</v>
       </c>
     </row>
     <row r="1037" spans="1:2">
       <c r="A1037" t="s">
+        <v>1781</v>
+      </c>
+      <c r="B1037" t="s">
         <v>1782</v>
-      </c>
-      <c r="B1037" t="s">
-        <v>1783</v>
       </c>
     </row>
     <row r="1038" spans="1:2">
       <c r="A1038" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="B1038" t="s">
         <v>1784</v>
@@ -14718,44 +14721,44 @@
         <v>1785</v>
       </c>
       <c r="B1039" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="1040" spans="1:2">
       <c r="A1040" t="s">
+        <v>1786</v>
+      </c>
+      <c r="B1040" t="s">
         <v>1787</v>
-      </c>
-      <c r="B1040" t="s">
-        <v>1788</v>
       </c>
     </row>
     <row r="1041" spans="1:2">
       <c r="A1041" t="s">
+        <v>1788</v>
+      </c>
+      <c r="B1041" t="s">
         <v>1789</v>
-      </c>
-      <c r="B1041" t="s">
-        <v>1790</v>
       </c>
     </row>
     <row r="1042" spans="1:2">
       <c r="A1042" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1042" t="s">
         <v>1791</v>
-      </c>
-      <c r="B1042" t="s">
-        <v>1792</v>
       </c>
     </row>
     <row r="1043" spans="1:2">
       <c r="A1043" t="s">
+        <v>1792</v>
+      </c>
+      <c r="B1043" t="s">
         <v>1793</v>
-      </c>
-      <c r="B1043" t="s">
-        <v>1794</v>
       </c>
     </row>
     <row r="1044" spans="1:2">
       <c r="A1044" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="B1044" t="s">
         <v>1795</v>
@@ -14766,92 +14769,92 @@
         <v>1796</v>
       </c>
       <c r="B1045" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="1046" spans="1:2">
       <c r="A1046" t="s">
+        <v>1797</v>
+      </c>
+      <c r="B1046" t="s">
         <v>1798</v>
-      </c>
-      <c r="B1046" t="s">
-        <v>1799</v>
       </c>
     </row>
     <row r="1047" spans="1:2">
       <c r="A1047" t="s">
+        <v>1799</v>
+      </c>
+      <c r="B1047" t="s">
         <v>1800</v>
-      </c>
-      <c r="B1047" t="s">
-        <v>1801</v>
       </c>
     </row>
     <row r="1048" spans="1:2">
       <c r="A1048" t="s">
+        <v>1801</v>
+      </c>
+      <c r="B1048" t="s">
         <v>1802</v>
-      </c>
-      <c r="B1048" t="s">
-        <v>1803</v>
       </c>
     </row>
     <row r="1049" spans="1:2">
       <c r="A1049" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B1049" t="s">
         <v>1804</v>
-      </c>
-      <c r="B1049" t="s">
-        <v>1805</v>
       </c>
     </row>
     <row r="1050" spans="1:2">
       <c r="A1050" t="s">
+        <v>1805</v>
+      </c>
+      <c r="B1050" t="s">
         <v>1806</v>
-      </c>
-      <c r="B1050" t="s">
-        <v>1807</v>
       </c>
     </row>
     <row r="1051" spans="1:2">
       <c r="A1051" t="s">
+        <v>1807</v>
+      </c>
+      <c r="B1051" t="s">
         <v>1808</v>
-      </c>
-      <c r="B1051" t="s">
-        <v>1809</v>
       </c>
     </row>
     <row r="1052" spans="1:2">
       <c r="A1052" t="s">
+        <v>1809</v>
+      </c>
+      <c r="B1052" t="s">
         <v>1810</v>
-      </c>
-      <c r="B1052" t="s">
-        <v>1811</v>
       </c>
     </row>
     <row r="1053" spans="1:2">
       <c r="A1053" t="s">
+        <v>1811</v>
+      </c>
+      <c r="B1053" t="s">
         <v>1812</v>
-      </c>
-      <c r="B1053" t="s">
-        <v>1813</v>
       </c>
     </row>
     <row r="1054" spans="1:2">
       <c r="A1054" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B1054" t="s">
         <v>1814</v>
-      </c>
-      <c r="B1054" t="s">
-        <v>1815</v>
       </c>
     </row>
     <row r="1055" spans="1:2">
       <c r="A1055" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B1055" t="s">
         <v>1816</v>
-      </c>
-      <c r="B1055" t="s">
-        <v>1817</v>
       </c>
     </row>
     <row r="1056" spans="1:2">
       <c r="A1056" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="B1056" t="s">
         <v>1818</v>
@@ -14862,92 +14865,92 @@
         <v>1819</v>
       </c>
       <c r="B1057" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="1058" spans="1:2">
       <c r="A1058" t="s">
+        <v>1820</v>
+      </c>
+      <c r="B1058" t="s">
         <v>1821</v>
-      </c>
-      <c r="B1058" t="s">
-        <v>1822</v>
       </c>
     </row>
     <row r="1059" spans="1:2">
       <c r="A1059" t="s">
+        <v>1822</v>
+      </c>
+      <c r="B1059" t="s">
         <v>1823</v>
-      </c>
-      <c r="B1059" t="s">
-        <v>1824</v>
       </c>
     </row>
     <row r="1060" spans="1:2">
       <c r="A1060" t="s">
+        <v>1824</v>
+      </c>
+      <c r="B1060" t="s">
         <v>1825</v>
-      </c>
-      <c r="B1060" t="s">
-        <v>1826</v>
       </c>
     </row>
     <row r="1061" spans="1:2">
       <c r="A1061" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B1061" t="s">
         <v>1827</v>
-      </c>
-      <c r="B1061" t="s">
-        <v>1828</v>
       </c>
     </row>
     <row r="1062" spans="1:2">
       <c r="A1062" t="s">
+        <v>1828</v>
+      </c>
+      <c r="B1062" t="s">
         <v>1829</v>
-      </c>
-      <c r="B1062" t="s">
-        <v>1830</v>
       </c>
     </row>
     <row r="1063" spans="1:2">
       <c r="A1063" t="s">
+        <v>1830</v>
+      </c>
+      <c r="B1063" t="s">
         <v>1831</v>
-      </c>
-      <c r="B1063" t="s">
-        <v>1832</v>
       </c>
     </row>
     <row r="1064" spans="1:2">
       <c r="A1064" t="s">
+        <v>1832</v>
+      </c>
+      <c r="B1064" t="s">
         <v>1833</v>
-      </c>
-      <c r="B1064" t="s">
-        <v>1834</v>
       </c>
     </row>
     <row r="1065" spans="1:2">
       <c r="A1065" t="s">
+        <v>1834</v>
+      </c>
+      <c r="B1065" t="s">
         <v>1835</v>
-      </c>
-      <c r="B1065" t="s">
-        <v>1836</v>
       </c>
     </row>
     <row r="1066" spans="1:2">
       <c r="A1066" t="s">
+        <v>1836</v>
+      </c>
+      <c r="B1066" t="s">
         <v>1837</v>
-      </c>
-      <c r="B1066" t="s">
-        <v>1838</v>
       </c>
     </row>
     <row r="1067" spans="1:2">
       <c r="A1067" t="s">
+        <v>1838</v>
+      </c>
+      <c r="B1067" t="s">
         <v>1839</v>
-      </c>
-      <c r="B1067" t="s">
-        <v>1840</v>
       </c>
     </row>
     <row r="1068" spans="1:2">
       <c r="A1068" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="B1068" t="s">
         <v>1841</v>
@@ -14966,20 +14969,20 @@
         <v>1843</v>
       </c>
       <c r="B1070" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="1071" spans="1:2">
       <c r="A1071" t="s">
+        <v>1844</v>
+      </c>
+      <c r="B1071" t="s">
         <v>1845</v>
-      </c>
-      <c r="B1071" t="s">
-        <v>1846</v>
       </c>
     </row>
     <row r="1072" spans="1:2">
       <c r="A1072" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="B1072" t="s">
         <v>1847</v>
@@ -14998,12 +15001,12 @@
         <v>1849</v>
       </c>
       <c r="B1074" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="1075" spans="1:2">
       <c r="A1075" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="B1075" t="s">
         <v>1851</v>
@@ -15014,20 +15017,20 @@
         <v>1852</v>
       </c>
       <c r="B1076" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="1077" spans="1:2">
       <c r="A1077" t="s">
+        <v>1853</v>
+      </c>
+      <c r="B1077" t="s">
         <v>1854</v>
-      </c>
-      <c r="B1077" t="s">
-        <v>1855</v>
       </c>
     </row>
     <row r="1078" spans="1:2">
       <c r="A1078" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="B1078" t="s">
         <v>1856</v>
@@ -15038,28 +15041,28 @@
         <v>1857</v>
       </c>
       <c r="B1079" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="1080" spans="1:2">
       <c r="A1080" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B1080" t="s">
         <v>1859</v>
-      </c>
-      <c r="B1080" t="s">
-        <v>1860</v>
       </c>
     </row>
     <row r="1081" spans="1:2">
       <c r="A1081" t="s">
+        <v>1860</v>
+      </c>
+      <c r="B1081" t="s">
         <v>1861</v>
-      </c>
-      <c r="B1081" t="s">
-        <v>1862</v>
       </c>
     </row>
     <row r="1082" spans="1:2">
       <c r="A1082" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="B1082" t="s">
         <v>1863</v>
@@ -15070,44 +15073,44 @@
         <v>1864</v>
       </c>
       <c r="B1083" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="1084" spans="1:2">
       <c r="A1084" t="s">
+        <v>1865</v>
+      </c>
+      <c r="B1084" t="s">
         <v>1866</v>
-      </c>
-      <c r="B1084" t="s">
-        <v>1867</v>
       </c>
     </row>
     <row r="1085" spans="1:2">
       <c r="A1085" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B1085" t="s">
         <v>1868</v>
-      </c>
-      <c r="B1085" t="s">
-        <v>1869</v>
       </c>
     </row>
     <row r="1086" spans="1:2">
       <c r="A1086" t="s">
+        <v>1869</v>
+      </c>
+      <c r="B1086" t="s">
         <v>1870</v>
-      </c>
-      <c r="B1086" t="s">
-        <v>1871</v>
       </c>
     </row>
     <row r="1087" spans="1:2">
       <c r="A1087" t="s">
+        <v>1871</v>
+      </c>
+      <c r="B1087" t="s">
         <v>1872</v>
-      </c>
-      <c r="B1087" t="s">
-        <v>1873</v>
       </c>
     </row>
     <row r="1088" spans="1:2">
       <c r="A1088" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="B1088" t="s">
         <v>1874</v>
@@ -15118,44 +15121,44 @@
         <v>1875</v>
       </c>
       <c r="B1089" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="1090" spans="1:2">
       <c r="A1090" t="s">
+        <v>1876</v>
+      </c>
+      <c r="B1090" t="s">
         <v>1877</v>
-      </c>
-      <c r="B1090" t="s">
-        <v>1878</v>
       </c>
     </row>
     <row r="1091" spans="1:2">
       <c r="A1091" t="s">
+        <v>1878</v>
+      </c>
+      <c r="B1091" t="s">
         <v>1879</v>
-      </c>
-      <c r="B1091" t="s">
-        <v>1880</v>
       </c>
     </row>
     <row r="1092" spans="1:2">
       <c r="A1092" t="s">
+        <v>1880</v>
+      </c>
+      <c r="B1092" t="s">
         <v>1881</v>
-      </c>
-      <c r="B1092" t="s">
-        <v>1882</v>
       </c>
     </row>
     <row r="1093" spans="1:2">
       <c r="A1093" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B1093" t="s">
         <v>1883</v>
-      </c>
-      <c r="B1093" t="s">
-        <v>1884</v>
       </c>
     </row>
     <row r="1094" spans="1:2">
       <c r="A1094" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="B1094" t="s">
         <v>1885</v>
@@ -15166,20 +15169,20 @@
         <v>1886</v>
       </c>
       <c r="B1095" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="1096" spans="1:2">
       <c r="A1096" t="s">
+        <v>1887</v>
+      </c>
+      <c r="B1096" t="s">
         <v>1888</v>
-      </c>
-      <c r="B1096" t="s">
-        <v>1889</v>
       </c>
     </row>
     <row r="1097" spans="1:2">
       <c r="A1097" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="B1097" t="s">
         <v>1890</v>
@@ -15190,12 +15193,12 @@
         <v>1891</v>
       </c>
       <c r="B1098" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="1099" spans="1:2">
       <c r="A1099" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="B1099" t="s">
         <v>1893</v>
@@ -15214,100 +15217,100 @@
         <v>1895</v>
       </c>
       <c r="B1101" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="1102" spans="1:2">
       <c r="A1102" t="s">
+        <v>1896</v>
+      </c>
+      <c r="B1102" t="s">
         <v>1897</v>
-      </c>
-      <c r="B1102" t="s">
-        <v>1898</v>
       </c>
     </row>
     <row r="1103" spans="1:2">
       <c r="A1103" t="s">
+        <v>1898</v>
+      </c>
+      <c r="B1103" t="s">
         <v>1899</v>
-      </c>
-      <c r="B1103" t="s">
-        <v>1900</v>
       </c>
     </row>
     <row r="1104" spans="1:2">
       <c r="A1104" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B1104" t="s">
         <v>1901</v>
-      </c>
-      <c r="B1104" t="s">
-        <v>1902</v>
       </c>
     </row>
     <row r="1105" spans="1:2">
       <c r="A1105" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1105" t="s">
         <v>1903</v>
-      </c>
-      <c r="B1105" t="s">
-        <v>1904</v>
       </c>
     </row>
     <row r="1106" spans="1:2">
       <c r="A1106" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B1106" t="s">
         <v>1905</v>
-      </c>
-      <c r="B1106" t="s">
-        <v>1906</v>
       </c>
     </row>
     <row r="1107" spans="1:2">
       <c r="A1107" t="s">
+        <v>1906</v>
+      </c>
+      <c r="B1107" t="s">
         <v>1907</v>
-      </c>
-      <c r="B1107" t="s">
-        <v>1908</v>
       </c>
     </row>
     <row r="1108" spans="1:2">
       <c r="A1108" t="s">
+        <v>1908</v>
+      </c>
+      <c r="B1108" t="s">
         <v>1909</v>
-      </c>
-      <c r="B1108" t="s">
-        <v>1910</v>
       </c>
     </row>
     <row r="1109" spans="1:2">
       <c r="A1109" t="s">
+        <v>1910</v>
+      </c>
+      <c r="B1109" t="s">
         <v>1911</v>
-      </c>
-      <c r="B1109" t="s">
-        <v>1912</v>
       </c>
     </row>
     <row r="1110" spans="1:2">
       <c r="A1110" t="s">
+        <v>1912</v>
+      </c>
+      <c r="B1110" t="s">
         <v>1913</v>
-      </c>
-      <c r="B1110" t="s">
-        <v>1914</v>
       </c>
     </row>
     <row r="1111" spans="1:2">
       <c r="A1111" t="s">
+        <v>1914</v>
+      </c>
+      <c r="B1111" t="s">
         <v>1915</v>
-      </c>
-      <c r="B1111" t="s">
-        <v>1916</v>
       </c>
     </row>
     <row r="1112" spans="1:2">
       <c r="A1112" t="s">
+        <v>1916</v>
+      </c>
+      <c r="B1112" t="s">
         <v>1917</v>
-      </c>
-      <c r="B1112" t="s">
-        <v>1918</v>
       </c>
     </row>
     <row r="1113" spans="1:2">
       <c r="A1113" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="B1113" t="s">
         <v>1919</v>
@@ -15318,28 +15321,28 @@
         <v>1920</v>
       </c>
       <c r="B1114" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="1115" spans="1:2">
       <c r="A1115" t="s">
+        <v>1921</v>
+      </c>
+      <c r="B1115" t="s">
         <v>1922</v>
-      </c>
-      <c r="B1115" t="s">
-        <v>1923</v>
       </c>
     </row>
     <row r="1116" spans="1:2">
       <c r="A1116" t="s">
+        <v>1923</v>
+      </c>
+      <c r="B1116" t="s">
         <v>1924</v>
-      </c>
-      <c r="B1116" t="s">
-        <v>1925</v>
       </c>
     </row>
     <row r="1117" spans="1:2">
       <c r="A1117" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="B1117" t="s">
         <v>1926</v>
@@ -15350,76 +15353,76 @@
         <v>1927</v>
       </c>
       <c r="B1118" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="1119" spans="1:2">
       <c r="A1119" t="s">
+        <v>1928</v>
+      </c>
+      <c r="B1119" t="s">
         <v>1929</v>
-      </c>
-      <c r="B1119" t="s">
-        <v>1930</v>
       </c>
     </row>
     <row r="1120" spans="1:2">
       <c r="A1120" t="s">
+        <v>1930</v>
+      </c>
+      <c r="B1120" t="s">
         <v>1931</v>
-      </c>
-      <c r="B1120" t="s">
-        <v>1932</v>
       </c>
     </row>
     <row r="1121" spans="1:2">
       <c r="A1121" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B1121" t="s">
         <v>1933</v>
-      </c>
-      <c r="B1121" t="s">
-        <v>1934</v>
       </c>
     </row>
     <row r="1122" spans="1:2">
       <c r="A1122" t="s">
+        <v>1934</v>
+      </c>
+      <c r="B1122" t="s">
         <v>1935</v>
-      </c>
-      <c r="B1122" t="s">
-        <v>1936</v>
       </c>
     </row>
     <row r="1123" spans="1:2">
       <c r="A1123" t="s">
+        <v>1936</v>
+      </c>
+      <c r="B1123" t="s">
         <v>1937</v>
-      </c>
-      <c r="B1123" t="s">
-        <v>1938</v>
       </c>
     </row>
     <row r="1124" spans="1:2">
       <c r="A1124" t="s">
+        <v>1938</v>
+      </c>
+      <c r="B1124" t="s">
         <v>1939</v>
-      </c>
-      <c r="B1124" t="s">
-        <v>1940</v>
       </c>
     </row>
     <row r="1125" spans="1:2">
       <c r="A1125" t="s">
+        <v>1940</v>
+      </c>
+      <c r="B1125" t="s">
         <v>1941</v>
-      </c>
-      <c r="B1125" t="s">
-        <v>1942</v>
       </c>
     </row>
     <row r="1126" spans="1:2">
       <c r="A1126" t="s">
+        <v>1942</v>
+      </c>
+      <c r="B1126" t="s">
         <v>1943</v>
-      </c>
-      <c r="B1126" t="s">
-        <v>1944</v>
       </c>
     </row>
     <row r="1127" spans="1:2">
       <c r="A1127" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="B1127" t="s">
         <v>1945</v>
@@ -15462,20 +15465,20 @@
         <v>1950</v>
       </c>
       <c r="B1132" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="1133" spans="1:2">
       <c r="A1133" t="s">
+        <v>1951</v>
+      </c>
+      <c r="B1133" t="s">
         <v>1952</v>
-      </c>
-      <c r="B1133" t="s">
-        <v>1953</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
       <c r="A1134" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="B1134" t="s">
         <v>1954</v>
@@ -15494,76 +15497,76 @@
         <v>1956</v>
       </c>
       <c r="B1136" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="1137" spans="1:2">
       <c r="A1137" t="s">
+        <v>1957</v>
+      </c>
+      <c r="B1137" t="s">
         <v>1958</v>
-      </c>
-      <c r="B1137" t="s">
-        <v>1959</v>
       </c>
     </row>
     <row r="1138" spans="1:2">
       <c r="A1138" t="s">
+        <v>1959</v>
+      </c>
+      <c r="B1138" t="s">
         <v>1960</v>
-      </c>
-      <c r="B1138" t="s">
-        <v>1961</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
       <c r="A1139" t="s">
+        <v>1961</v>
+      </c>
+      <c r="B1139" t="s">
         <v>1962</v>
-      </c>
-      <c r="B1139" t="s">
-        <v>1963</v>
       </c>
     </row>
     <row r="1140" spans="1:2">
       <c r="A1140" t="s">
+        <v>1963</v>
+      </c>
+      <c r="B1140" t="s">
         <v>1964</v>
-      </c>
-      <c r="B1140" t="s">
-        <v>1965</v>
       </c>
     </row>
     <row r="1141" spans="1:2">
       <c r="A1141" t="s">
+        <v>1965</v>
+      </c>
+      <c r="B1141" t="s">
         <v>1966</v>
-      </c>
-      <c r="B1141" t="s">
-        <v>1967</v>
       </c>
     </row>
     <row r="1142" spans="1:2">
       <c r="A1142" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B1142" t="s">
         <v>1968</v>
-      </c>
-      <c r="B1142" t="s">
-        <v>1969</v>
       </c>
     </row>
     <row r="1143" spans="1:2">
       <c r="A1143" t="s">
+        <v>1969</v>
+      </c>
+      <c r="B1143" t="s">
         <v>1970</v>
-      </c>
-      <c r="B1143" t="s">
-        <v>1971</v>
       </c>
     </row>
     <row r="1144" spans="1:2">
       <c r="A1144" t="s">
+        <v>1971</v>
+      </c>
+      <c r="B1144" t="s">
         <v>1972</v>
-      </c>
-      <c r="B1144" t="s">
-        <v>1973</v>
       </c>
     </row>
     <row r="1145" spans="1:2">
       <c r="A1145" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="B1145" t="s">
         <v>1974</v>
@@ -15574,12 +15577,12 @@
         <v>1975</v>
       </c>
       <c r="B1146" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="1147" spans="1:2">
       <c r="A1147" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="B1147" t="s">
         <v>1977</v>
@@ -15590,36 +15593,36 @@
         <v>1978</v>
       </c>
       <c r="B1148" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="1149" spans="1:2">
       <c r="A1149" t="s">
+        <v>1979</v>
+      </c>
+      <c r="B1149" t="s">
         <v>1980</v>
-      </c>
-      <c r="B1149" t="s">
-        <v>1981</v>
       </c>
     </row>
     <row r="1150" spans="1:2">
       <c r="A1150" t="s">
+        <v>1981</v>
+      </c>
+      <c r="B1150" t="s">
         <v>1982</v>
-      </c>
-      <c r="B1150" t="s">
-        <v>1983</v>
       </c>
     </row>
     <row r="1151" spans="1:2">
       <c r="A1151" t="s">
+        <v>1983</v>
+      </c>
+      <c r="B1151" t="s">
         <v>1984</v>
-      </c>
-      <c r="B1151" t="s">
-        <v>1985</v>
       </c>
     </row>
     <row r="1152" spans="1:2">
       <c r="A1152" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="B1152" t="s">
         <v>1986</v>
@@ -15662,20 +15665,20 @@
         <v>1991</v>
       </c>
       <c r="B1157" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="1158" spans="1:2">
       <c r="A1158" t="s">
+        <v>1992</v>
+      </c>
+      <c r="B1158" t="s">
         <v>1993</v>
-      </c>
-      <c r="B1158" t="s">
-        <v>1994</v>
       </c>
     </row>
     <row r="1159" spans="1:2">
       <c r="A1159" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="B1159" t="s">
         <v>1995</v>
@@ -15694,12 +15697,12 @@
         <v>1997</v>
       </c>
       <c r="B1161" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="1162" spans="1:2">
       <c r="A1162" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="B1162" t="s">
         <v>1999</v>
@@ -15734,20 +15737,20 @@
         <v>2003</v>
       </c>
       <c r="B1166" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="1167" spans="1:2">
       <c r="A1167" t="s">
+        <v>2004</v>
+      </c>
+      <c r="B1167" t="s">
         <v>2005</v>
-      </c>
-      <c r="B1167" t="s">
-        <v>2006</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
       <c r="A1168" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B1168" t="s">
         <v>2007</v>
@@ -15758,19 +15761,27 @@
         <v>2008</v>
       </c>
       <c r="B1169" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="1170" spans="1:2">
       <c r="A1170" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B1170" t="s">
         <v>2010</v>
       </c>
     </row>
+    <row r="1171" spans="1:2">
+      <c r="A1171" t="s">
+        <v>2011</v>
+      </c>
+      <c r="B1171" t="s">
+        <v>2011</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1170"/>
+  <autoFilter ref="A1:B1171"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/pt/headTags.xlsx
+++ b/lang/pt/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1172</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1173</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2014">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2016">
   <si>
     <t>en</t>
   </si>
@@ -3872,6 +3872,12 @@
   </si>
   <si>
     <t>Mortal Kombat</t>
+  </si>
+  <si>
+    <t>Mounts of Mayhem</t>
+  </si>
+  <si>
+    <t>Montarias do Caos</t>
   </si>
   <si>
     <t>Mouthwashing</t>
@@ -6405,7 +6411,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1172"/>
+  <dimension ref="A1:B1173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -12351,28 +12357,28 @@
         <v>1287</v>
       </c>
       <c r="B742" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="743" spans="1:2">
       <c r="A743" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="B743" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="744" spans="1:2">
       <c r="A744" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="B744" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="745" spans="1:2">
       <c r="A745" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="B745" t="s">
         <v>1291</v>
@@ -12439,20 +12445,20 @@
         <v>1306</v>
       </c>
       <c r="B753" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="754" spans="1:2">
       <c r="A754" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="B754" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="755" spans="1:2">
       <c r="A755" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="B755" t="s">
         <v>1309</v>
@@ -12471,12 +12477,12 @@
         <v>1312</v>
       </c>
       <c r="B757" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="758" spans="1:2">
       <c r="A758" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="B758" t="s">
         <v>1314</v>
@@ -12487,20 +12493,20 @@
         <v>1315</v>
       </c>
       <c r="B759" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="760" spans="1:2">
       <c r="A760" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="B760" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="761" spans="1:2">
       <c r="A761" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="B761" t="s">
         <v>1318</v>
@@ -12543,12 +12549,12 @@
         <v>1327</v>
       </c>
       <c r="B766" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="767" spans="1:2">
       <c r="A767" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="B767" t="s">
         <v>1329</v>
@@ -12583,12 +12589,12 @@
         <v>1336</v>
       </c>
       <c r="B771" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="772" spans="1:2">
       <c r="A772" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="B772" t="s">
         <v>1338</v>
@@ -12655,20 +12661,20 @@
         <v>1353</v>
       </c>
       <c r="B780" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="781" spans="1:2">
       <c r="A781" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="B781" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="782" spans="1:2">
       <c r="A782" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="B782" t="s">
         <v>1356</v>
@@ -12695,12 +12701,12 @@
         <v>1361</v>
       </c>
       <c r="B785" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="786" spans="1:2">
       <c r="A786" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="B786" t="s">
         <v>1363</v>
@@ -12711,20 +12717,20 @@
         <v>1364</v>
       </c>
       <c r="B787" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="788" spans="1:2">
       <c r="A788" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="B788" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="789" spans="1:2">
       <c r="A789" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="B789" t="s">
         <v>1367</v>
@@ -12735,36 +12741,36 @@
         <v>1368</v>
       </c>
       <c r="B790" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="791" spans="1:2">
       <c r="A791" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="B791" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="792" spans="1:2">
       <c r="A792" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="B792" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="793" spans="1:2">
       <c r="A793" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="B793" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="794" spans="1:2">
       <c r="A794" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="B794" t="s">
         <v>1373</v>
@@ -12783,12 +12789,12 @@
         <v>1376</v>
       </c>
       <c r="B796" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="797" spans="1:2">
       <c r="A797" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="B797" t="s">
         <v>1378</v>
@@ -12847,20 +12853,20 @@
         <v>1391</v>
       </c>
       <c r="B804" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="805" spans="1:2">
       <c r="A805" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="B805" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="806" spans="1:2">
       <c r="A806" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="B806" t="s">
         <v>1394</v>
@@ -12959,12 +12965,12 @@
         <v>1417</v>
       </c>
       <c r="B818" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="819" spans="1:2">
       <c r="A819" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="B819" t="s">
         <v>1419</v>
@@ -12975,12 +12981,12 @@
         <v>1420</v>
       </c>
       <c r="B820" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="821" spans="1:2">
       <c r="A821" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="B821" t="s">
         <v>1422</v>
@@ -12991,12 +12997,12 @@
         <v>1423</v>
       </c>
       <c r="B822" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="823" spans="1:2">
       <c r="A823" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="B823" t="s">
         <v>1425</v>
@@ -13007,28 +13013,28 @@
         <v>1426</v>
       </c>
       <c r="B824" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="825" spans="1:2">
       <c r="A825" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="B825" t="s">
-        <v>807</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="826" spans="1:2">
       <c r="A826" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="B826" t="s">
-        <v>1428</v>
+        <v>807</v>
       </c>
     </row>
     <row r="827" spans="1:2">
       <c r="A827" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="B827" t="s">
         <v>1430</v>
@@ -13039,36 +13045,36 @@
         <v>1431</v>
       </c>
       <c r="B828" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="829" spans="1:2">
       <c r="A829" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="B829" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="830" spans="1:2">
       <c r="A830" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="B830" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="831" spans="1:2">
       <c r="A831" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="B831" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="832" spans="1:2">
       <c r="A832" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="B832" t="s">
         <v>1436</v>
@@ -13127,20 +13133,20 @@
         <v>1449</v>
       </c>
       <c r="B839" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="840" spans="1:2">
       <c r="A840" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="B840" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="841" spans="1:2">
       <c r="A841" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="B841" t="s">
         <v>1452</v>
@@ -13263,20 +13269,20 @@
         <v>1481</v>
       </c>
       <c r="B856" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="857" spans="1:2">
       <c r="A857" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="B857" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="858" spans="1:2">
       <c r="A858" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="B858" t="s">
         <v>1484</v>
@@ -13287,12 +13293,12 @@
         <v>1485</v>
       </c>
       <c r="B859" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="860" spans="1:2">
       <c r="A860" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="B860" t="s">
         <v>1487</v>
@@ -13303,20 +13309,20 @@
         <v>1488</v>
       </c>
       <c r="B861" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="862" spans="1:2">
       <c r="A862" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="B862" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="863" spans="1:2">
       <c r="A863" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="B863" t="s">
         <v>1491</v>
@@ -13327,12 +13333,12 @@
         <v>1492</v>
       </c>
       <c r="B864" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="865" spans="1:2">
       <c r="A865" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="B865" t="s">
         <v>1494</v>
@@ -13423,12 +13429,12 @@
         <v>1515</v>
       </c>
       <c r="B876" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="877" spans="1:2">
       <c r="A877" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="B877" t="s">
         <v>1517</v>
@@ -13455,20 +13461,20 @@
         <v>1522</v>
       </c>
       <c r="B880" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="881" spans="1:2">
       <c r="A881" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="B881" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="882" spans="1:2">
       <c r="A882" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="B882" t="s">
         <v>1525</v>
@@ -13479,12 +13485,12 @@
         <v>1526</v>
       </c>
       <c r="B883" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="884" spans="1:2">
       <c r="A884" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="B884" t="s">
         <v>1528</v>
@@ -13495,12 +13501,12 @@
         <v>1529</v>
       </c>
       <c r="B885" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="886" spans="1:2">
       <c r="A886" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="B886" t="s">
         <v>1531</v>
@@ -13511,12 +13517,12 @@
         <v>1532</v>
       </c>
       <c r="B887" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="888" spans="1:2">
       <c r="A888" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="B888" t="s">
         <v>1534</v>
@@ -13567,12 +13573,12 @@
         <v>1545</v>
       </c>
       <c r="B894" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="895" spans="1:2">
       <c r="A895" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="B895" t="s">
         <v>1547</v>
@@ -13623,12 +13629,12 @@
         <v>1558</v>
       </c>
       <c r="B901" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="902" spans="1:2">
       <c r="A902" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="B902" t="s">
         <v>1560</v>
@@ -13639,20 +13645,20 @@
         <v>1561</v>
       </c>
       <c r="B903" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="904" spans="1:2">
       <c r="A904" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="B904" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="905" spans="1:2">
       <c r="A905" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="B905" t="s">
         <v>1564</v>
@@ -13671,12 +13677,12 @@
         <v>1567</v>
       </c>
       <c r="B907" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="908" spans="1:2">
       <c r="A908" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="B908" t="s">
         <v>1569</v>
@@ -13711,20 +13717,20 @@
         <v>1576</v>
       </c>
       <c r="B912" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="913" spans="1:2">
       <c r="A913" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="B913" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="914" spans="1:2">
       <c r="A914" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="B914" t="s">
         <v>1579</v>
@@ -13767,20 +13773,20 @@
         <v>1588</v>
       </c>
       <c r="B919" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="920" spans="1:2">
       <c r="A920" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="B920" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="921" spans="1:2">
       <c r="A921" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="B921" t="s">
         <v>1591</v>
@@ -13815,12 +13821,12 @@
         <v>1598</v>
       </c>
       <c r="B925" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="926" spans="1:2">
       <c r="A926" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="B926" t="s">
         <v>1600</v>
@@ -13839,20 +13845,20 @@
         <v>1603</v>
       </c>
       <c r="B928" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="929" spans="1:2">
       <c r="A929" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="B929" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="930" spans="1:2">
       <c r="A930" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="B930" t="s">
         <v>1606</v>
@@ -13895,12 +13901,12 @@
         <v>1615</v>
       </c>
       <c r="B935" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="936" spans="1:2">
       <c r="A936" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="B936" t="s">
         <v>1617</v>
@@ -13919,28 +13925,28 @@
         <v>1620</v>
       </c>
       <c r="B938" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="939" spans="1:2">
       <c r="A939" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="B939" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="940" spans="1:2">
       <c r="A940" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="B940" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="941" spans="1:2">
       <c r="A941" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="B941" t="s">
         <v>1624</v>
@@ -13967,44 +13973,44 @@
         <v>1629</v>
       </c>
       <c r="B944" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="945" spans="1:2">
       <c r="A945" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="B945" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="946" spans="1:2">
       <c r="A946" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="B946" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="947" spans="1:2">
       <c r="A947" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="B947" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="948" spans="1:2">
       <c r="A948" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="B948" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="949" spans="1:2">
       <c r="A949" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="B949" t="s">
         <v>1635</v>
@@ -14039,20 +14045,20 @@
         <v>1642</v>
       </c>
       <c r="B953" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="954" spans="1:2">
       <c r="A954" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="B954" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="955" spans="1:2">
       <c r="A955" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="B955" t="s">
         <v>1645</v>
@@ -14111,20 +14117,20 @@
         <v>1658</v>
       </c>
       <c r="B962" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="963" spans="1:2">
       <c r="A963" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="B963" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="964" spans="1:2">
       <c r="A964" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="B964" t="s">
         <v>1661</v>
@@ -14143,12 +14149,12 @@
         <v>1664</v>
       </c>
       <c r="B966" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="967" spans="1:2">
       <c r="A967" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="B967" t="s">
         <v>1666</v>
@@ -14231,12 +14237,12 @@
         <v>1685</v>
       </c>
       <c r="B977" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="978" spans="1:2">
       <c r="A978" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="B978" t="s">
         <v>1687</v>
@@ -14271,20 +14277,20 @@
         <v>1694</v>
       </c>
       <c r="B982" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="983" spans="1:2">
       <c r="A983" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="B983" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="984" spans="1:2">
       <c r="A984" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="B984" t="s">
         <v>1697</v>
@@ -14311,12 +14317,12 @@
         <v>1702</v>
       </c>
       <c r="B987" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="988" spans="1:2">
       <c r="A988" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="B988" t="s">
         <v>1704</v>
@@ -14335,12 +14341,12 @@
         <v>1707</v>
       </c>
       <c r="B990" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="991" spans="1:2">
       <c r="A991" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="B991" t="s">
         <v>1709</v>
@@ -14415,28 +14421,28 @@
         <v>1726</v>
       </c>
       <c r="B1000" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="1001" spans="1:2">
       <c r="A1001" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="B1001" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="1002" spans="1:2">
       <c r="A1002" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="B1002" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="1003" spans="1:2">
       <c r="A1003" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="B1003" t="s">
         <v>1730</v>
@@ -14455,28 +14461,28 @@
         <v>1733</v>
       </c>
       <c r="B1005" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="1006" spans="1:2">
       <c r="A1006" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="B1006" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="1007" spans="1:2">
       <c r="A1007" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="B1007" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="1008" spans="1:2">
       <c r="A1008" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="B1008" t="s">
         <v>1737</v>
@@ -14503,12 +14509,12 @@
         <v>1742</v>
       </c>
       <c r="B1011" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="1012" spans="1:2">
       <c r="A1012" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="B1012" t="s">
         <v>1744</v>
@@ -14519,20 +14525,20 @@
         <v>1745</v>
       </c>
       <c r="B1013" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
       <c r="A1014" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="B1014" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="1015" spans="1:2">
       <c r="A1015" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="B1015" t="s">
         <v>1748</v>
@@ -14551,12 +14557,12 @@
         <v>1751</v>
       </c>
       <c r="B1017" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="1018" spans="1:2">
       <c r="A1018" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="B1018" t="s">
         <v>1753</v>
@@ -14583,12 +14589,12 @@
         <v>1758</v>
       </c>
       <c r="B1021" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="1022" spans="1:2">
       <c r="A1022" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="B1022" t="s">
         <v>1760</v>
@@ -14599,20 +14605,20 @@
         <v>1761</v>
       </c>
       <c r="B1023" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="1024" spans="1:2">
       <c r="A1024" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="B1024" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="1025" spans="1:2">
       <c r="A1025" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="B1025" t="s">
         <v>1764</v>
@@ -14623,36 +14629,36 @@
         <v>1765</v>
       </c>
       <c r="B1026" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="1027" spans="1:2">
       <c r="A1027" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="B1027" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="1028" spans="1:2">
       <c r="A1028" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="B1028" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
       <c r="A1029" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="B1029" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="1030" spans="1:2">
       <c r="A1030" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="B1030" t="s">
         <v>1770</v>
@@ -14663,12 +14669,12 @@
         <v>1771</v>
       </c>
       <c r="B1031" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="1032" spans="1:2">
       <c r="A1032" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="B1032" t="s">
         <v>1773</v>
@@ -14687,12 +14693,12 @@
         <v>1776</v>
       </c>
       <c r="B1034" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="1035" spans="1:2">
       <c r="A1035" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="B1035" t="s">
         <v>1778</v>
@@ -14719,12 +14725,12 @@
         <v>1783</v>
       </c>
       <c r="B1038" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="1039" spans="1:2">
       <c r="A1039" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="B1039" t="s">
         <v>1785</v>
@@ -14775,12 +14781,12 @@
         <v>1796</v>
       </c>
       <c r="B1045" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="1046" spans="1:2">
       <c r="A1046" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
       <c r="B1046" t="s">
         <v>1798</v>
@@ -14871,12 +14877,12 @@
         <v>1819</v>
       </c>
       <c r="B1057" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="1058" spans="1:2">
       <c r="A1058" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="B1058" t="s">
         <v>1821</v>
@@ -14967,20 +14973,20 @@
         <v>1842</v>
       </c>
       <c r="B1069" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="1070" spans="1:2">
       <c r="A1070" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="B1070" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="1071" spans="1:2">
       <c r="A1071" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="B1071" t="s">
         <v>1845</v>
@@ -14999,20 +15005,20 @@
         <v>1848</v>
       </c>
       <c r="B1073" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="1074" spans="1:2">
       <c r="A1074" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="B1074" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="1075" spans="1:2">
       <c r="A1075" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="B1075" t="s">
         <v>1851</v>
@@ -15023,12 +15029,12 @@
         <v>1852</v>
       </c>
       <c r="B1076" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="1077" spans="1:2">
       <c r="A1077" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="B1077" t="s">
         <v>1854</v>
@@ -15047,12 +15053,12 @@
         <v>1857</v>
       </c>
       <c r="B1079" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="1080" spans="1:2">
       <c r="A1080" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="B1080" t="s">
         <v>1859</v>
@@ -15079,12 +15085,12 @@
         <v>1864</v>
       </c>
       <c r="B1083" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="1084" spans="1:2">
       <c r="A1084" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="B1084" t="s">
         <v>1866</v>
@@ -15127,12 +15133,12 @@
         <v>1875</v>
       </c>
       <c r="B1089" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="1090" spans="1:2">
       <c r="A1090" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
       <c r="B1090" t="s">
         <v>1877</v>
@@ -15175,12 +15181,12 @@
         <v>1886</v>
       </c>
       <c r="B1095" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1096" spans="1:2">
       <c r="A1096" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="B1096" t="s">
         <v>1888</v>
@@ -15199,12 +15205,12 @@
         <v>1891</v>
       </c>
       <c r="B1098" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="1099" spans="1:2">
       <c r="A1099" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="B1099" t="s">
         <v>1893</v>
@@ -15215,20 +15221,20 @@
         <v>1894</v>
       </c>
       <c r="B1100" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="1101" spans="1:2">
       <c r="A1101" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="B1101" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="1102" spans="1:2">
       <c r="A1102" t="s">
-        <v>1896</v>
+        <v>1897</v>
       </c>
       <c r="B1102" t="s">
         <v>1897</v>
@@ -15327,12 +15333,12 @@
         <v>1920</v>
       </c>
       <c r="B1114" t="s">
-        <v>1920</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="1115" spans="1:2">
       <c r="A1115" t="s">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="B1115" t="s">
         <v>1922</v>
@@ -15359,12 +15365,12 @@
         <v>1927</v>
       </c>
       <c r="B1118" t="s">
-        <v>1927</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="1119" spans="1:2">
       <c r="A1119" t="s">
-        <v>1928</v>
+        <v>1929</v>
       </c>
       <c r="B1119" t="s">
         <v>1929</v>
@@ -15439,44 +15445,44 @@
         <v>1946</v>
       </c>
       <c r="B1128" t="s">
-        <v>1946</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="1129" spans="1:2">
       <c r="A1129" t="s">
-        <v>1947</v>
+        <v>1948</v>
       </c>
       <c r="B1129" t="s">
-        <v>1947</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="1130" spans="1:2">
       <c r="A1130" t="s">
-        <v>1948</v>
+        <v>1949</v>
       </c>
       <c r="B1130" t="s">
-        <v>1948</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="1131" spans="1:2">
       <c r="A1131" t="s">
-        <v>1949</v>
+        <v>1950</v>
       </c>
       <c r="B1131" t="s">
-        <v>1949</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="1132" spans="1:2">
       <c r="A1132" t="s">
-        <v>1950</v>
+        <v>1951</v>
       </c>
       <c r="B1132" t="s">
-        <v>1950</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="1133" spans="1:2">
       <c r="A1133" t="s">
-        <v>1951</v>
+        <v>1952</v>
       </c>
       <c r="B1133" t="s">
         <v>1952</v>
@@ -15495,20 +15501,20 @@
         <v>1955</v>
       </c>
       <c r="B1135" t="s">
-        <v>1955</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="1136" spans="1:2">
       <c r="A1136" t="s">
-        <v>1956</v>
+        <v>1957</v>
       </c>
       <c r="B1136" t="s">
-        <v>1956</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="1137" spans="1:2">
       <c r="A1137" t="s">
-        <v>1957</v>
+        <v>1958</v>
       </c>
       <c r="B1137" t="s">
         <v>1958</v>
@@ -15583,12 +15589,12 @@
         <v>1975</v>
       </c>
       <c r="B1146" t="s">
-        <v>1975</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="1147" spans="1:2">
       <c r="A1147" t="s">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="B1147" t="s">
         <v>1977</v>
@@ -15599,12 +15605,12 @@
         <v>1978</v>
       </c>
       <c r="B1148" t="s">
-        <v>1978</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="1149" spans="1:2">
       <c r="A1149" t="s">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="B1149" t="s">
         <v>1980</v>
@@ -15639,44 +15645,44 @@
         <v>1987</v>
       </c>
       <c r="B1153" t="s">
-        <v>1987</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="1154" spans="1:2">
       <c r="A1154" t="s">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="B1154" t="s">
-        <v>1988</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="1155" spans="1:2">
       <c r="A1155" t="s">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="B1155" t="s">
-        <v>1989</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="1156" spans="1:2">
       <c r="A1156" t="s">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="B1156" t="s">
-        <v>1990</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="1157" spans="1:2">
       <c r="A1157" t="s">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="B1157" t="s">
-        <v>1991</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="1158" spans="1:2">
       <c r="A1158" t="s">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="B1158" t="s">
         <v>1993</v>
@@ -15695,20 +15701,20 @@
         <v>1996</v>
       </c>
       <c r="B1160" t="s">
-        <v>1996</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="1161" spans="1:2">
       <c r="A1161" t="s">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="B1161" t="s">
-        <v>1997</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="1162" spans="1:2">
       <c r="A1162" t="s">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="B1162" t="s">
         <v>1999</v>
@@ -15719,36 +15725,36 @@
         <v>2000</v>
       </c>
       <c r="B1163" t="s">
-        <v>2000</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="1164" spans="1:2">
       <c r="A1164" t="s">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B1164" t="s">
-        <v>2001</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
       <c r="A1165" t="s">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B1165" t="s">
-        <v>2002</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="1166" spans="1:2">
       <c r="A1166" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B1166" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="1167" spans="1:2">
       <c r="A1167" t="s">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B1167" t="s">
         <v>2005</v>
@@ -15767,12 +15773,12 @@
         <v>2008</v>
       </c>
       <c r="B1169" t="s">
-        <v>2008</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="1170" spans="1:2">
       <c r="A1170" t="s">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B1170" t="s">
         <v>2010</v>
@@ -15783,19 +15789,27 @@
         <v>2011</v>
       </c>
       <c r="B1171" t="s">
-        <v>2011</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="1172" spans="1:2">
       <c r="A1172" t="s">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B1172" t="s">
         <v>2013</v>
       </c>
     </row>
+    <row r="1173" spans="1:2">
+      <c r="A1173" t="s">
+        <v>2014</v>
+      </c>
+      <c r="B1173" t="s">
+        <v>2015</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1172"/>
+  <autoFilter ref="A1:B1173"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/pt/headTags.xlsx
+++ b/lang/pt/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1173</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1174</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2016">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2018">
   <si>
     <t>en</t>
   </si>
@@ -2210,6 +2210,12 @@
   </si>
   <si>
     <t>Tipo de letra (Rainbow)</t>
+  </si>
+  <si>
+    <t>Font (Red Chiseled Sandstone)</t>
+  </si>
+  <si>
+    <t>Fonte (Arenito vermelho cinzelado)</t>
   </si>
   <si>
     <t>Font (Red)</t>
@@ -6411,7 +6417,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1173"/>
+  <dimension ref="A1:B1174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -9861,12 +9867,12 @@
         <v>759</v>
       </c>
       <c r="B430" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B431" t="s">
         <v>761</v>
@@ -9885,12 +9891,12 @@
         <v>764</v>
       </c>
       <c r="B433" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B434" t="s">
         <v>766</v>
@@ -9965,12 +9971,12 @@
         <v>783</v>
       </c>
       <c r="B443" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="444" spans="1:2">
       <c r="A444" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B444" t="s">
         <v>785</v>
@@ -9981,12 +9987,12 @@
         <v>786</v>
       </c>
       <c r="B445" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B446" t="s">
         <v>788</v>
@@ -9997,12 +10003,12 @@
         <v>789</v>
       </c>
       <c r="B447" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="448" spans="1:2">
       <c r="A448" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B448" t="s">
         <v>791</v>
@@ -10013,12 +10019,12 @@
         <v>792</v>
       </c>
       <c r="B449" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="450" spans="1:2">
       <c r="A450" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B450" t="s">
         <v>794</v>
@@ -10037,12 +10043,12 @@
         <v>797</v>
       </c>
       <c r="B452" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B453" t="s">
         <v>799</v>
@@ -10117,12 +10123,12 @@
         <v>816</v>
       </c>
       <c r="B462" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B463" t="s">
         <v>818</v>
@@ -10133,20 +10139,20 @@
         <v>819</v>
       </c>
       <c r="B464" t="s">
-        <v>544</v>
+        <v>820</v>
       </c>
     </row>
     <row r="465" spans="1:2">
       <c r="A465" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="B465" t="s">
-        <v>820</v>
+        <v>544</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="B466" t="s">
         <v>822</v>
@@ -10173,20 +10179,20 @@
         <v>827</v>
       </c>
       <c r="B469" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
     <row r="470" spans="1:2">
       <c r="A470" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B470" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="471" spans="1:2">
       <c r="A471" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B471" t="s">
         <v>830</v>
@@ -10197,20 +10203,20 @@
         <v>831</v>
       </c>
       <c r="B472" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="473" spans="1:2">
       <c r="A473" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B473" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B474" t="s">
         <v>834</v>
@@ -10221,12 +10227,12 @@
         <v>835</v>
       </c>
       <c r="B475" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="476" spans="1:2">
       <c r="A476" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B476" t="s">
         <v>837</v>
@@ -10245,12 +10251,12 @@
         <v>840</v>
       </c>
       <c r="B478" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="479" spans="1:2">
       <c r="A479" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B479" t="s">
         <v>842</v>
@@ -10261,12 +10267,12 @@
         <v>843</v>
       </c>
       <c r="B480" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
     <row r="481" spans="1:2">
       <c r="A481" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B481" t="s">
         <v>845</v>
@@ -10285,12 +10291,12 @@
         <v>848</v>
       </c>
       <c r="B483" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B484" t="s">
         <v>850</v>
@@ -10301,36 +10307,36 @@
         <v>851</v>
       </c>
       <c r="B485" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="486" spans="1:2">
       <c r="A486" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="B486" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
     <row r="487" spans="1:2">
       <c r="A487" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B487" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
     <row r="488" spans="1:2">
       <c r="A488" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B488" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
     </row>
     <row r="489" spans="1:2">
       <c r="A489" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B489" t="s">
         <v>856</v>
@@ -10485,12 +10491,12 @@
         <v>893</v>
       </c>
       <c r="B508" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B509" t="s">
         <v>895</v>
@@ -10509,12 +10515,12 @@
         <v>898</v>
       </c>
       <c r="B511" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B512" t="s">
         <v>900</v>
@@ -10525,12 +10531,12 @@
         <v>901</v>
       </c>
       <c r="B513" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B514" t="s">
         <v>903</v>
@@ -10565,12 +10571,12 @@
         <v>910</v>
       </c>
       <c r="B518" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B519" t="s">
         <v>912</v>
@@ -10685,20 +10691,20 @@
         <v>939</v>
       </c>
       <c r="B533" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B534" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
     </row>
     <row r="535" spans="1:2">
       <c r="A535" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B535" t="s">
         <v>942</v>
@@ -10717,12 +10723,12 @@
         <v>945</v>
       </c>
       <c r="B537" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B538" t="s">
         <v>947</v>
@@ -10773,20 +10779,20 @@
         <v>958</v>
       </c>
       <c r="B544" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
     </row>
     <row r="545" spans="1:2">
       <c r="A545" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B545" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="B546" t="s">
         <v>961</v>
@@ -10797,12 +10803,12 @@
         <v>962</v>
       </c>
       <c r="B547" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="B548" t="s">
         <v>964</v>
@@ -10813,12 +10819,12 @@
         <v>965</v>
       </c>
       <c r="B549" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="B550" t="s">
         <v>967</v>
@@ -10845,12 +10851,12 @@
         <v>972</v>
       </c>
       <c r="B553" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="554" spans="1:2">
       <c r="A554" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="B554" t="s">
         <v>974</v>
@@ -10909,20 +10915,20 @@
         <v>987</v>
       </c>
       <c r="B561" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="B562" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="B563" t="s">
         <v>990</v>
@@ -10973,12 +10979,12 @@
         <v>1001</v>
       </c>
       <c r="B569" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B570" t="s">
         <v>1003</v>
@@ -10997,20 +11003,20 @@
         <v>1006</v>
       </c>
       <c r="B572" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="573" spans="1:2">
       <c r="A573" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B573" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="574" spans="1:2">
       <c r="A574" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B574" t="s">
         <v>1009</v>
@@ -11029,20 +11035,20 @@
         <v>1012</v>
       </c>
       <c r="B576" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="577" spans="1:2">
       <c r="A577" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="B577" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="578" spans="1:2">
       <c r="A578" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B578" t="s">
         <v>1015</v>
@@ -11061,12 +11067,12 @@
         <v>1018</v>
       </c>
       <c r="B580" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="581" spans="1:2">
       <c r="A581" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="B581" t="s">
         <v>1020</v>
@@ -11077,20 +11083,20 @@
         <v>1021</v>
       </c>
       <c r="B582" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="583" spans="1:2">
       <c r="A583" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="B583" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="584" spans="1:2">
       <c r="A584" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B584" t="s">
         <v>1024</v>
@@ -11109,20 +11115,20 @@
         <v>1027</v>
       </c>
       <c r="B586" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="587" spans="1:2">
       <c r="A587" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="B587" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="588" spans="1:2">
       <c r="A588" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="B588" t="s">
         <v>1030</v>
@@ -11149,12 +11155,12 @@
         <v>1035</v>
       </c>
       <c r="B591" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="B592" t="s">
         <v>1037</v>
@@ -11221,12 +11227,12 @@
         <v>1052</v>
       </c>
       <c r="B600" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="601" spans="1:2">
       <c r="A601" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="B601" t="s">
         <v>1054</v>
@@ -11245,12 +11251,12 @@
         <v>1057</v>
       </c>
       <c r="B603" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="604" spans="1:2">
       <c r="A604" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="B604" t="s">
         <v>1059</v>
@@ -11301,20 +11307,20 @@
         <v>1070</v>
       </c>
       <c r="B610" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="611" spans="1:2">
       <c r="A611" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="B611" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="612" spans="1:2">
       <c r="A612" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="B612" t="s">
         <v>1073</v>
@@ -11381,12 +11387,12 @@
         <v>1088</v>
       </c>
       <c r="B620" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="621" spans="1:2">
       <c r="A621" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="B621" t="s">
         <v>1090</v>
@@ -11397,12 +11403,12 @@
         <v>1091</v>
       </c>
       <c r="B622" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="623" spans="1:2">
       <c r="A623" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="B623" t="s">
         <v>1093</v>
@@ -11437,12 +11443,12 @@
         <v>1100</v>
       </c>
       <c r="B627" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="628" spans="1:2">
       <c r="A628" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="B628" t="s">
         <v>1102</v>
@@ -11453,20 +11459,20 @@
         <v>1103</v>
       </c>
       <c r="B629" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="630" spans="1:2">
       <c r="A630" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="B630" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="631" spans="1:2">
       <c r="A631" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="B631" t="s">
         <v>1106</v>
@@ -11485,44 +11491,44 @@
         <v>1109</v>
       </c>
       <c r="B633" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="634" spans="1:2">
       <c r="A634" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="B634" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="635" spans="1:2">
       <c r="A635" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="B635" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="636" spans="1:2">
       <c r="A636" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="B636" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="637" spans="1:2">
       <c r="A637" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="B637" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="638" spans="1:2">
       <c r="A638" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="B638" t="s">
         <v>1115</v>
@@ -11533,36 +11539,36 @@
         <v>1116</v>
       </c>
       <c r="B639" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="640" spans="1:2">
       <c r="A640" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="B640" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="641" spans="1:2">
       <c r="A641" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="B641" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="642" spans="1:2">
       <c r="A642" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="B642" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="643" spans="1:2">
       <c r="A643" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="B643" t="s">
         <v>1121</v>
@@ -11605,20 +11611,20 @@
         <v>1130</v>
       </c>
       <c r="B648" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="649" spans="1:2">
       <c r="A649" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="B649" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="650" spans="1:2">
       <c r="A650" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="B650" t="s">
         <v>1133</v>
@@ -11629,12 +11635,12 @@
         <v>1134</v>
       </c>
       <c r="B651" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="652" spans="1:2">
       <c r="A652" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="B652" t="s">
         <v>1136</v>
@@ -11653,12 +11659,12 @@
         <v>1139</v>
       </c>
       <c r="B654" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="655" spans="1:2">
       <c r="A655" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="B655" t="s">
         <v>1141</v>
@@ -11717,12 +11723,12 @@
         <v>1154</v>
       </c>
       <c r="B662" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="663" spans="1:2">
       <c r="A663" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="B663" t="s">
         <v>1156</v>
@@ -11741,12 +11747,12 @@
         <v>1159</v>
       </c>
       <c r="B665" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="666" spans="1:2">
       <c r="A666" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="B666" t="s">
         <v>1161</v>
@@ -11781,12 +11787,12 @@
         <v>1168</v>
       </c>
       <c r="B670" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="671" spans="1:2">
       <c r="A671" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="B671" t="s">
         <v>1170</v>
@@ -11805,12 +11811,12 @@
         <v>1173</v>
       </c>
       <c r="B673" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="674" spans="1:2">
       <c r="A674" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="B674" t="s">
         <v>1175</v>
@@ -11829,12 +11835,12 @@
         <v>1178</v>
       </c>
       <c r="B676" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="677" spans="1:2">
       <c r="A677" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="B677" t="s">
         <v>1180</v>
@@ -11861,20 +11867,20 @@
         <v>1185</v>
       </c>
       <c r="B680" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="681" spans="1:2">
       <c r="A681" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="B681" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="682" spans="1:2">
       <c r="A682" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="B682" t="s">
         <v>1188</v>
@@ -11933,12 +11939,12 @@
         <v>1201</v>
       </c>
       <c r="B689" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="690" spans="1:2">
       <c r="A690" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="B690" t="s">
         <v>1203</v>
@@ -11957,12 +11963,12 @@
         <v>1206</v>
       </c>
       <c r="B692" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="693" spans="1:2">
       <c r="A693" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="B693" t="s">
         <v>1208</v>
@@ -11981,12 +11987,12 @@
         <v>1211</v>
       </c>
       <c r="B695" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="696" spans="1:2">
       <c r="A696" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="B696" t="s">
         <v>1213</v>
@@ -12005,12 +12011,12 @@
         <v>1216</v>
       </c>
       <c r="B698" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="699" spans="1:2">
       <c r="A699" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="B699" t="s">
         <v>1218</v>
@@ -12021,20 +12027,20 @@
         <v>1219</v>
       </c>
       <c r="B700" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="701" spans="1:2">
       <c r="A701" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="B701" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="702" spans="1:2">
       <c r="A702" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="B702" t="s">
         <v>1222</v>
@@ -12045,60 +12051,60 @@
         <v>1223</v>
       </c>
       <c r="B703" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="704" spans="1:2">
       <c r="A704" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="B704" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="705" spans="1:2">
       <c r="A705" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="B705" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="706" spans="1:2">
       <c r="A706" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B706" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="707" spans="1:2">
       <c r="A707" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="B707" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="708" spans="1:2">
       <c r="A708" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="B708" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="709" spans="1:2">
       <c r="A709" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="B709" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="710" spans="1:2">
       <c r="A710" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="B710" t="s">
         <v>1231</v>
@@ -12125,12 +12131,12 @@
         <v>1236</v>
       </c>
       <c r="B713" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="714" spans="1:2">
       <c r="A714" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="B714" t="s">
         <v>1238</v>
@@ -12157,12 +12163,12 @@
         <v>1243</v>
       </c>
       <c r="B717" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="718" spans="1:2">
       <c r="A718" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="B718" t="s">
         <v>1245</v>
@@ -12253,12 +12259,12 @@
         <v>1266</v>
       </c>
       <c r="B729" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="730" spans="1:2">
       <c r="A730" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="B730" t="s">
         <v>1268</v>
@@ -12285,12 +12291,12 @@
         <v>1273</v>
       </c>
       <c r="B733" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="734" spans="1:2">
       <c r="A734" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B734" t="s">
         <v>1275</v>
@@ -12309,12 +12315,12 @@
         <v>1278</v>
       </c>
       <c r="B736" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="737" spans="1:2">
       <c r="A737" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="B737" t="s">
         <v>1280</v>
@@ -12333,20 +12339,20 @@
         <v>1283</v>
       </c>
       <c r="B739" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="740" spans="1:2">
       <c r="A740" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B740" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="741" spans="1:2">
       <c r="A741" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="B741" t="s">
         <v>1286</v>
@@ -12365,28 +12371,28 @@
         <v>1289</v>
       </c>
       <c r="B743" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="744" spans="1:2">
       <c r="A744" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="B744" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="745" spans="1:2">
       <c r="A745" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="B745" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="746" spans="1:2">
       <c r="A746" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="B746" t="s">
         <v>1293</v>
@@ -12453,20 +12459,20 @@
         <v>1308</v>
       </c>
       <c r="B754" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="755" spans="1:2">
       <c r="A755" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="B755" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="756" spans="1:2">
       <c r="A756" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="B756" t="s">
         <v>1311</v>
@@ -12485,12 +12491,12 @@
         <v>1314</v>
       </c>
       <c r="B758" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="759" spans="1:2">
       <c r="A759" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="B759" t="s">
         <v>1316</v>
@@ -12501,20 +12507,20 @@
         <v>1317</v>
       </c>
       <c r="B760" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="761" spans="1:2">
       <c r="A761" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="B761" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="762" spans="1:2">
       <c r="A762" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="B762" t="s">
         <v>1320</v>
@@ -12557,12 +12563,12 @@
         <v>1329</v>
       </c>
       <c r="B767" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="768" spans="1:2">
       <c r="A768" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="B768" t="s">
         <v>1331</v>
@@ -12597,12 +12603,12 @@
         <v>1338</v>
       </c>
       <c r="B772" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="773" spans="1:2">
       <c r="A773" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="B773" t="s">
         <v>1340</v>
@@ -12669,20 +12675,20 @@
         <v>1355</v>
       </c>
       <c r="B781" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="782" spans="1:2">
       <c r="A782" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="B782" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="783" spans="1:2">
       <c r="A783" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="B783" t="s">
         <v>1358</v>
@@ -12709,12 +12715,12 @@
         <v>1363</v>
       </c>
       <c r="B786" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="787" spans="1:2">
       <c r="A787" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="B787" t="s">
         <v>1365</v>
@@ -12725,20 +12731,20 @@
         <v>1366</v>
       </c>
       <c r="B788" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="789" spans="1:2">
       <c r="A789" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="B789" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="790" spans="1:2">
       <c r="A790" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="B790" t="s">
         <v>1369</v>
@@ -12749,36 +12755,36 @@
         <v>1370</v>
       </c>
       <c r="B791" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="792" spans="1:2">
       <c r="A792" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="B792" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="793" spans="1:2">
       <c r="A793" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="B793" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="794" spans="1:2">
       <c r="A794" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="B794" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="795" spans="1:2">
       <c r="A795" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="B795" t="s">
         <v>1375</v>
@@ -12797,12 +12803,12 @@
         <v>1378</v>
       </c>
       <c r="B797" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="798" spans="1:2">
       <c r="A798" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="B798" t="s">
         <v>1380</v>
@@ -12861,20 +12867,20 @@
         <v>1393</v>
       </c>
       <c r="B805" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="806" spans="1:2">
       <c r="A806" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="B806" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="807" spans="1:2">
       <c r="A807" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="B807" t="s">
         <v>1396</v>
@@ -12973,12 +12979,12 @@
         <v>1419</v>
       </c>
       <c r="B819" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="820" spans="1:2">
       <c r="A820" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="B820" t="s">
         <v>1421</v>
@@ -12989,12 +12995,12 @@
         <v>1422</v>
       </c>
       <c r="B821" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="822" spans="1:2">
       <c r="A822" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="B822" t="s">
         <v>1424</v>
@@ -13005,12 +13011,12 @@
         <v>1425</v>
       </c>
       <c r="B823" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="824" spans="1:2">
       <c r="A824" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="B824" t="s">
         <v>1427</v>
@@ -13021,28 +13027,28 @@
         <v>1428</v>
       </c>
       <c r="B825" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="826" spans="1:2">
       <c r="A826" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="B826" t="s">
-        <v>807</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="827" spans="1:2">
       <c r="A827" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="B827" t="s">
-        <v>1430</v>
+        <v>809</v>
       </c>
     </row>
     <row r="828" spans="1:2">
       <c r="A828" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="B828" t="s">
         <v>1432</v>
@@ -13053,36 +13059,36 @@
         <v>1433</v>
       </c>
       <c r="B829" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="830" spans="1:2">
       <c r="A830" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="B830" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="831" spans="1:2">
       <c r="A831" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="B831" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="832" spans="1:2">
       <c r="A832" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="B832" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="833" spans="1:2">
       <c r="A833" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="B833" t="s">
         <v>1438</v>
@@ -13141,20 +13147,20 @@
         <v>1451</v>
       </c>
       <c r="B840" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="841" spans="1:2">
       <c r="A841" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="B841" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="842" spans="1:2">
       <c r="A842" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="B842" t="s">
         <v>1454</v>
@@ -13277,20 +13283,20 @@
         <v>1483</v>
       </c>
       <c r="B857" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="858" spans="1:2">
       <c r="A858" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="B858" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="859" spans="1:2">
       <c r="A859" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="B859" t="s">
         <v>1486</v>
@@ -13301,12 +13307,12 @@
         <v>1487</v>
       </c>
       <c r="B860" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="861" spans="1:2">
       <c r="A861" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="B861" t="s">
         <v>1489</v>
@@ -13317,20 +13323,20 @@
         <v>1490</v>
       </c>
       <c r="B862" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="863" spans="1:2">
       <c r="A863" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="B863" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="864" spans="1:2">
       <c r="A864" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="B864" t="s">
         <v>1493</v>
@@ -13341,12 +13347,12 @@
         <v>1494</v>
       </c>
       <c r="B865" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="866" spans="1:2">
       <c r="A866" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="B866" t="s">
         <v>1496</v>
@@ -13437,12 +13443,12 @@
         <v>1517</v>
       </c>
       <c r="B877" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="878" spans="1:2">
       <c r="A878" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="B878" t="s">
         <v>1519</v>
@@ -13469,20 +13475,20 @@
         <v>1524</v>
       </c>
       <c r="B881" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="882" spans="1:2">
       <c r="A882" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="B882" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="883" spans="1:2">
       <c r="A883" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="B883" t="s">
         <v>1527</v>
@@ -13493,12 +13499,12 @@
         <v>1528</v>
       </c>
       <c r="B884" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="885" spans="1:2">
       <c r="A885" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="B885" t="s">
         <v>1530</v>
@@ -13509,12 +13515,12 @@
         <v>1531</v>
       </c>
       <c r="B886" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="887" spans="1:2">
       <c r="A887" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="B887" t="s">
         <v>1533</v>
@@ -13525,12 +13531,12 @@
         <v>1534</v>
       </c>
       <c r="B888" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="889" spans="1:2">
       <c r="A889" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="B889" t="s">
         <v>1536</v>
@@ -13581,12 +13587,12 @@
         <v>1547</v>
       </c>
       <c r="B895" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="896" spans="1:2">
       <c r="A896" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="B896" t="s">
         <v>1549</v>
@@ -13637,12 +13643,12 @@
         <v>1560</v>
       </c>
       <c r="B902" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="903" spans="1:2">
       <c r="A903" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="B903" t="s">
         <v>1562</v>
@@ -13653,20 +13659,20 @@
         <v>1563</v>
       </c>
       <c r="B904" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="905" spans="1:2">
       <c r="A905" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="B905" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="906" spans="1:2">
       <c r="A906" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="B906" t="s">
         <v>1566</v>
@@ -13685,12 +13691,12 @@
         <v>1569</v>
       </c>
       <c r="B908" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="909" spans="1:2">
       <c r="A909" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="B909" t="s">
         <v>1571</v>
@@ -13725,20 +13731,20 @@
         <v>1578</v>
       </c>
       <c r="B913" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="914" spans="1:2">
       <c r="A914" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="B914" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="915" spans="1:2">
       <c r="A915" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="B915" t="s">
         <v>1581</v>
@@ -13781,20 +13787,20 @@
         <v>1590</v>
       </c>
       <c r="B920" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="921" spans="1:2">
       <c r="A921" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="B921" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="922" spans="1:2">
       <c r="A922" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="B922" t="s">
         <v>1593</v>
@@ -13829,12 +13835,12 @@
         <v>1600</v>
       </c>
       <c r="B926" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="927" spans="1:2">
       <c r="A927" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="B927" t="s">
         <v>1602</v>
@@ -13853,20 +13859,20 @@
         <v>1605</v>
       </c>
       <c r="B929" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="930" spans="1:2">
       <c r="A930" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="B930" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="931" spans="1:2">
       <c r="A931" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="B931" t="s">
         <v>1608</v>
@@ -13909,12 +13915,12 @@
         <v>1617</v>
       </c>
       <c r="B936" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="937" spans="1:2">
       <c r="A937" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="B937" t="s">
         <v>1619</v>
@@ -13933,28 +13939,28 @@
         <v>1622</v>
       </c>
       <c r="B939" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="940" spans="1:2">
       <c r="A940" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="B940" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="941" spans="1:2">
       <c r="A941" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="B941" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="942" spans="1:2">
       <c r="A942" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="B942" t="s">
         <v>1626</v>
@@ -13981,44 +13987,44 @@
         <v>1631</v>
       </c>
       <c r="B945" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="946" spans="1:2">
       <c r="A946" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="B946" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="947" spans="1:2">
       <c r="A947" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="B947" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="948" spans="1:2">
       <c r="A948" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="B948" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="949" spans="1:2">
       <c r="A949" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="B949" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="950" spans="1:2">
       <c r="A950" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="B950" t="s">
         <v>1637</v>
@@ -14053,20 +14059,20 @@
         <v>1644</v>
       </c>
       <c r="B954" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="955" spans="1:2">
       <c r="A955" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="B955" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="956" spans="1:2">
       <c r="A956" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="B956" t="s">
         <v>1647</v>
@@ -14125,20 +14131,20 @@
         <v>1660</v>
       </c>
       <c r="B963" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="964" spans="1:2">
       <c r="A964" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="B964" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="965" spans="1:2">
       <c r="A965" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="B965" t="s">
         <v>1663</v>
@@ -14157,12 +14163,12 @@
         <v>1666</v>
       </c>
       <c r="B967" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="968" spans="1:2">
       <c r="A968" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="B968" t="s">
         <v>1668</v>
@@ -14245,12 +14251,12 @@
         <v>1687</v>
       </c>
       <c r="B978" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="979" spans="1:2">
       <c r="A979" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="B979" t="s">
         <v>1689</v>
@@ -14285,20 +14291,20 @@
         <v>1696</v>
       </c>
       <c r="B983" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="984" spans="1:2">
       <c r="A984" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="B984" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="985" spans="1:2">
       <c r="A985" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="B985" t="s">
         <v>1699</v>
@@ -14325,12 +14331,12 @@
         <v>1704</v>
       </c>
       <c r="B988" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="989" spans="1:2">
       <c r="A989" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="B989" t="s">
         <v>1706</v>
@@ -14349,12 +14355,12 @@
         <v>1709</v>
       </c>
       <c r="B991" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="992" spans="1:2">
       <c r="A992" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="B992" t="s">
         <v>1711</v>
@@ -14429,28 +14435,28 @@
         <v>1728</v>
       </c>
       <c r="B1001" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="1002" spans="1:2">
       <c r="A1002" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="B1002" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="1003" spans="1:2">
       <c r="A1003" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="B1003" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="1004" spans="1:2">
       <c r="A1004" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="B1004" t="s">
         <v>1732</v>
@@ -14469,28 +14475,28 @@
         <v>1735</v>
       </c>
       <c r="B1006" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="1007" spans="1:2">
       <c r="A1007" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="B1007" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="1008" spans="1:2">
       <c r="A1008" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B1008" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="1009" spans="1:2">
       <c r="A1009" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="B1009" t="s">
         <v>1739</v>
@@ -14517,12 +14523,12 @@
         <v>1744</v>
       </c>
       <c r="B1012" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="1013" spans="1:2">
       <c r="A1013" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="B1013" t="s">
         <v>1746</v>
@@ -14533,20 +14539,20 @@
         <v>1747</v>
       </c>
       <c r="B1014" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="1015" spans="1:2">
       <c r="A1015" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="B1015" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="1016" spans="1:2">
       <c r="A1016" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="B1016" t="s">
         <v>1750</v>
@@ -14565,12 +14571,12 @@
         <v>1753</v>
       </c>
       <c r="B1018" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="1019" spans="1:2">
       <c r="A1019" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="B1019" t="s">
         <v>1755</v>
@@ -14597,12 +14603,12 @@
         <v>1760</v>
       </c>
       <c r="B1022" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="1023" spans="1:2">
       <c r="A1023" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="B1023" t="s">
         <v>1762</v>
@@ -14613,20 +14619,20 @@
         <v>1763</v>
       </c>
       <c r="B1024" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="1025" spans="1:2">
       <c r="A1025" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="B1025" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="1026" spans="1:2">
       <c r="A1026" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="B1026" t="s">
         <v>1766</v>
@@ -14637,36 +14643,36 @@
         <v>1767</v>
       </c>
       <c r="B1027" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="1028" spans="1:2">
       <c r="A1028" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="B1028" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
       <c r="A1029" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="B1029" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="1030" spans="1:2">
       <c r="A1030" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="B1030" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
       <c r="A1031" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="B1031" t="s">
         <v>1772</v>
@@ -14677,12 +14683,12 @@
         <v>1773</v>
       </c>
       <c r="B1032" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="1033" spans="1:2">
       <c r="A1033" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="B1033" t="s">
         <v>1775</v>
@@ -14701,12 +14707,12 @@
         <v>1778</v>
       </c>
       <c r="B1035" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="1036" spans="1:2">
       <c r="A1036" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="B1036" t="s">
         <v>1780</v>
@@ -14733,12 +14739,12 @@
         <v>1785</v>
       </c>
       <c r="B1039" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="1040" spans="1:2">
       <c r="A1040" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="B1040" t="s">
         <v>1787</v>
@@ -14789,12 +14795,12 @@
         <v>1798</v>
       </c>
       <c r="B1046" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="1047" spans="1:2">
       <c r="A1047" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="B1047" t="s">
         <v>1800</v>
@@ -14885,12 +14891,12 @@
         <v>1821</v>
       </c>
       <c r="B1058" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="1059" spans="1:2">
       <c r="A1059" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="B1059" t="s">
         <v>1823</v>
@@ -14981,20 +14987,20 @@
         <v>1844</v>
       </c>
       <c r="B1070" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="1071" spans="1:2">
       <c r="A1071" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="B1071" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="1072" spans="1:2">
       <c r="A1072" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="B1072" t="s">
         <v>1847</v>
@@ -15013,20 +15019,20 @@
         <v>1850</v>
       </c>
       <c r="B1074" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="1075" spans="1:2">
       <c r="A1075" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="B1075" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="1076" spans="1:2">
       <c r="A1076" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="B1076" t="s">
         <v>1853</v>
@@ -15037,12 +15043,12 @@
         <v>1854</v>
       </c>
       <c r="B1077" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="1078" spans="1:2">
       <c r="A1078" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="B1078" t="s">
         <v>1856</v>
@@ -15061,12 +15067,12 @@
         <v>1859</v>
       </c>
       <c r="B1080" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="1081" spans="1:2">
       <c r="A1081" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="B1081" t="s">
         <v>1861</v>
@@ -15093,12 +15099,12 @@
         <v>1866</v>
       </c>
       <c r="B1084" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="1085" spans="1:2">
       <c r="A1085" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="B1085" t="s">
         <v>1868</v>
@@ -15141,12 +15147,12 @@
         <v>1877</v>
       </c>
       <c r="B1090" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="1091" spans="1:2">
       <c r="A1091" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="B1091" t="s">
         <v>1879</v>
@@ -15189,12 +15195,12 @@
         <v>1888</v>
       </c>
       <c r="B1096" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="1097" spans="1:2">
       <c r="A1097" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
       <c r="B1097" t="s">
         <v>1890</v>
@@ -15213,12 +15219,12 @@
         <v>1893</v>
       </c>
       <c r="B1099" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="1100" spans="1:2">
       <c r="A1100" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="B1100" t="s">
         <v>1895</v>
@@ -15229,20 +15235,20 @@
         <v>1896</v>
       </c>
       <c r="B1101" t="s">
-        <v>1896</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="1102" spans="1:2">
       <c r="A1102" t="s">
-        <v>1897</v>
+        <v>1898</v>
       </c>
       <c r="B1102" t="s">
-        <v>1897</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="1103" spans="1:2">
       <c r="A1103" t="s">
-        <v>1898</v>
+        <v>1899</v>
       </c>
       <c r="B1103" t="s">
         <v>1899</v>
@@ -15341,12 +15347,12 @@
         <v>1922</v>
       </c>
       <c r="B1115" t="s">
-        <v>1922</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="1116" spans="1:2">
       <c r="A1116" t="s">
-        <v>1923</v>
+        <v>1924</v>
       </c>
       <c r="B1116" t="s">
         <v>1924</v>
@@ -15373,12 +15379,12 @@
         <v>1929</v>
       </c>
       <c r="B1119" t="s">
-        <v>1929</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1120" spans="1:2">
       <c r="A1120" t="s">
-        <v>1930</v>
+        <v>1931</v>
       </c>
       <c r="B1120" t="s">
         <v>1931</v>
@@ -15453,44 +15459,44 @@
         <v>1948</v>
       </c>
       <c r="B1129" t="s">
-        <v>1948</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="1130" spans="1:2">
       <c r="A1130" t="s">
-        <v>1949</v>
+        <v>1950</v>
       </c>
       <c r="B1130" t="s">
-        <v>1949</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="1131" spans="1:2">
       <c r="A1131" t="s">
-        <v>1950</v>
+        <v>1951</v>
       </c>
       <c r="B1131" t="s">
-        <v>1950</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="1132" spans="1:2">
       <c r="A1132" t="s">
-        <v>1951</v>
+        <v>1952</v>
       </c>
       <c r="B1132" t="s">
-        <v>1951</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="1133" spans="1:2">
       <c r="A1133" t="s">
-        <v>1952</v>
+        <v>1953</v>
       </c>
       <c r="B1133" t="s">
-        <v>1952</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
       <c r="A1134" t="s">
-        <v>1953</v>
+        <v>1954</v>
       </c>
       <c r="B1134" t="s">
         <v>1954</v>
@@ -15509,20 +15515,20 @@
         <v>1957</v>
       </c>
       <c r="B1136" t="s">
-        <v>1957</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="1137" spans="1:2">
       <c r="A1137" t="s">
-        <v>1958</v>
+        <v>1959</v>
       </c>
       <c r="B1137" t="s">
-        <v>1958</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="1138" spans="1:2">
       <c r="A1138" t="s">
-        <v>1959</v>
+        <v>1960</v>
       </c>
       <c r="B1138" t="s">
         <v>1960</v>
@@ -15597,12 +15603,12 @@
         <v>1977</v>
       </c>
       <c r="B1147" t="s">
-        <v>1977</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="1148" spans="1:2">
       <c r="A1148" t="s">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="B1148" t="s">
         <v>1979</v>
@@ -15613,12 +15619,12 @@
         <v>1980</v>
       </c>
       <c r="B1149" t="s">
-        <v>1980</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="1150" spans="1:2">
       <c r="A1150" t="s">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="B1150" t="s">
         <v>1982</v>
@@ -15653,44 +15659,44 @@
         <v>1989</v>
       </c>
       <c r="B1154" t="s">
-        <v>1989</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="1155" spans="1:2">
       <c r="A1155" t="s">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="B1155" t="s">
-        <v>1990</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="1156" spans="1:2">
       <c r="A1156" t="s">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="B1156" t="s">
-        <v>1991</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="1157" spans="1:2">
       <c r="A1157" t="s">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="B1157" t="s">
-        <v>1992</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="1158" spans="1:2">
       <c r="A1158" t="s">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="B1158" t="s">
-        <v>1993</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="1159" spans="1:2">
       <c r="A1159" t="s">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="B1159" t="s">
         <v>1995</v>
@@ -15709,20 +15715,20 @@
         <v>1998</v>
       </c>
       <c r="B1161" t="s">
-        <v>1998</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="1162" spans="1:2">
       <c r="A1162" t="s">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="B1162" t="s">
-        <v>1999</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="1163" spans="1:2">
       <c r="A1163" t="s">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="B1163" t="s">
         <v>2001</v>
@@ -15733,36 +15739,36 @@
         <v>2002</v>
       </c>
       <c r="B1164" t="s">
-        <v>2002</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
       <c r="A1165" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B1165" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="1166" spans="1:2">
       <c r="A1166" t="s">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B1166" t="s">
-        <v>2004</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="1167" spans="1:2">
       <c r="A1167" t="s">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B1167" t="s">
-        <v>2005</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
       <c r="A1168" t="s">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B1168" t="s">
         <v>2007</v>
@@ -15781,12 +15787,12 @@
         <v>2010</v>
       </c>
       <c r="B1170" t="s">
-        <v>2010</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="1171" spans="1:2">
       <c r="A1171" t="s">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B1171" t="s">
         <v>2012</v>
@@ -15797,19 +15803,27 @@
         <v>2013</v>
       </c>
       <c r="B1172" t="s">
-        <v>2013</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="1173" spans="1:2">
       <c r="A1173" t="s">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B1173" t="s">
         <v>2015</v>
       </c>
     </row>
+    <row r="1174" spans="1:2">
+      <c r="A1174" t="s">
+        <v>2016</v>
+      </c>
+      <c r="B1174" t="s">
+        <v>2017</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1173"/>
+  <autoFilter ref="A1:B1174"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/pt/headTags.xlsx
+++ b/lang/pt/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1174</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1175</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2018">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2020">
   <si>
     <t>en</t>
   </si>
@@ -5702,6 +5702,12 @@
   </si>
   <si>
     <t>Floresta do Crepúsculo</t>
+  </si>
+  <si>
+    <t>Twisted Wonderland</t>
+  </si>
+  <si>
+    <t>País das Maravilhas retorcido</t>
   </si>
   <si>
     <t>Ultrakill</t>
@@ -6417,7 +6423,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1174"/>
+  <dimension ref="A1:B1175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -15227,12 +15233,12 @@
         <v>1895</v>
       </c>
       <c r="B1100" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="1101" spans="1:2">
       <c r="A1101" t="s">
-        <v>1896</v>
+        <v>1897</v>
       </c>
       <c r="B1101" t="s">
         <v>1897</v>
@@ -15243,20 +15249,20 @@
         <v>1898</v>
       </c>
       <c r="B1102" t="s">
-        <v>1898</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="1103" spans="1:2">
       <c r="A1103" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="B1103" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="1104" spans="1:2">
       <c r="A1104" t="s">
-        <v>1900</v>
+        <v>1901</v>
       </c>
       <c r="B1104" t="s">
         <v>1901</v>
@@ -15355,12 +15361,12 @@
         <v>1924</v>
       </c>
       <c r="B1116" t="s">
-        <v>1924</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="1117" spans="1:2">
       <c r="A1117" t="s">
-        <v>1925</v>
+        <v>1926</v>
       </c>
       <c r="B1117" t="s">
         <v>1926</v>
@@ -15387,12 +15393,12 @@
         <v>1931</v>
       </c>
       <c r="B1120" t="s">
-        <v>1931</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="1121" spans="1:2">
       <c r="A1121" t="s">
-        <v>1932</v>
+        <v>1933</v>
       </c>
       <c r="B1121" t="s">
         <v>1933</v>
@@ -15467,44 +15473,44 @@
         <v>1950</v>
       </c>
       <c r="B1130" t="s">
-        <v>1950</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="1131" spans="1:2">
       <c r="A1131" t="s">
-        <v>1951</v>
+        <v>1952</v>
       </c>
       <c r="B1131" t="s">
-        <v>1951</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="1132" spans="1:2">
       <c r="A1132" t="s">
-        <v>1952</v>
+        <v>1953</v>
       </c>
       <c r="B1132" t="s">
-        <v>1952</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="1133" spans="1:2">
       <c r="A1133" t="s">
-        <v>1953</v>
+        <v>1954</v>
       </c>
       <c r="B1133" t="s">
-        <v>1953</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
       <c r="A1134" t="s">
-        <v>1954</v>
+        <v>1955</v>
       </c>
       <c r="B1134" t="s">
-        <v>1954</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="1135" spans="1:2">
       <c r="A1135" t="s">
-        <v>1955</v>
+        <v>1956</v>
       </c>
       <c r="B1135" t="s">
         <v>1956</v>
@@ -15523,20 +15529,20 @@
         <v>1959</v>
       </c>
       <c r="B1137" t="s">
-        <v>1959</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="1138" spans="1:2">
       <c r="A1138" t="s">
-        <v>1960</v>
+        <v>1961</v>
       </c>
       <c r="B1138" t="s">
-        <v>1960</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
       <c r="A1139" t="s">
-        <v>1961</v>
+        <v>1962</v>
       </c>
       <c r="B1139" t="s">
         <v>1962</v>
@@ -15611,12 +15617,12 @@
         <v>1979</v>
       </c>
       <c r="B1148" t="s">
-        <v>1979</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="1149" spans="1:2">
       <c r="A1149" t="s">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="B1149" t="s">
         <v>1981</v>
@@ -15627,12 +15633,12 @@
         <v>1982</v>
       </c>
       <c r="B1150" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="1151" spans="1:2">
       <c r="A1151" t="s">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="B1151" t="s">
         <v>1984</v>
@@ -15667,44 +15673,44 @@
         <v>1991</v>
       </c>
       <c r="B1155" t="s">
-        <v>1991</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="1156" spans="1:2">
       <c r="A1156" t="s">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="B1156" t="s">
-        <v>1992</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="1157" spans="1:2">
       <c r="A1157" t="s">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="B1157" t="s">
-        <v>1993</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="1158" spans="1:2">
       <c r="A1158" t="s">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="B1158" t="s">
-        <v>1994</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="1159" spans="1:2">
       <c r="A1159" t="s">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="B1159" t="s">
-        <v>1995</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="1160" spans="1:2">
       <c r="A1160" t="s">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="B1160" t="s">
         <v>1997</v>
@@ -15723,20 +15729,20 @@
         <v>2000</v>
       </c>
       <c r="B1162" t="s">
-        <v>2000</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="1163" spans="1:2">
       <c r="A1163" t="s">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B1163" t="s">
-        <v>2001</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="1164" spans="1:2">
       <c r="A1164" t="s">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B1164" t="s">
         <v>2003</v>
@@ -15747,36 +15753,36 @@
         <v>2004</v>
       </c>
       <c r="B1165" t="s">
-        <v>2004</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="1166" spans="1:2">
       <c r="A1166" t="s">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B1166" t="s">
-        <v>2005</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="1167" spans="1:2">
       <c r="A1167" t="s">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B1167" t="s">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
       <c r="A1168" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B1168" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="1169" spans="1:2">
       <c r="A1169" t="s">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B1169" t="s">
         <v>2009</v>
@@ -15795,12 +15801,12 @@
         <v>2012</v>
       </c>
       <c r="B1171" t="s">
-        <v>2012</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="1172" spans="1:2">
       <c r="A1172" t="s">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B1172" t="s">
         <v>2014</v>
@@ -15811,19 +15817,27 @@
         <v>2015</v>
       </c>
       <c r="B1173" t="s">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="1174" spans="1:2">
       <c r="A1174" t="s">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B1174" t="s">
         <v>2017</v>
       </c>
     </row>
+    <row r="1175" spans="1:2">
+      <c r="A1175" t="s">
+        <v>2018</v>
+      </c>
+      <c r="B1175" t="s">
+        <v>2019</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1174"/>
+  <autoFilter ref="A1:B1175"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/pt/headTags.xlsx
+++ b/lang/pt/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1175</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1176</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2020">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2022">
   <si>
     <t>en</t>
   </si>
@@ -3089,6 +3089,12 @@
   </si>
   <si>
     <t>Hypixel (Minion)</t>
+  </si>
+  <si>
+    <t>Hypixel (Mutations) Tag</t>
+  </si>
+  <si>
+    <t>Etiqueta Hypixel (Mutações)</t>
   </si>
   <si>
     <t>Hypixel (NPC)</t>
@@ -6423,7 +6429,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1175"/>
+  <dimension ref="A1:B1176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -11105,12 +11111,12 @@
         <v>1024</v>
       </c>
       <c r="B584" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="585" spans="1:2">
       <c r="A585" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="B585" t="s">
         <v>1026</v>
@@ -11129,20 +11135,20 @@
         <v>1029</v>
       </c>
       <c r="B587" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="588" spans="1:2">
       <c r="A588" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="B588" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="589" spans="1:2">
       <c r="A589" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="B589" t="s">
         <v>1032</v>
@@ -11169,12 +11175,12 @@
         <v>1037</v>
       </c>
       <c r="B592" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="593" spans="1:2">
       <c r="A593" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="B593" t="s">
         <v>1039</v>
@@ -11241,12 +11247,12 @@
         <v>1054</v>
       </c>
       <c r="B601" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="602" spans="1:2">
       <c r="A602" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="B602" t="s">
         <v>1056</v>
@@ -11265,12 +11271,12 @@
         <v>1059</v>
       </c>
       <c r="B604" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="605" spans="1:2">
       <c r="A605" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="B605" t="s">
         <v>1061</v>
@@ -11321,20 +11327,20 @@
         <v>1072</v>
       </c>
       <c r="B611" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="612" spans="1:2">
       <c r="A612" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="B612" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="613" spans="1:2">
       <c r="A613" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="B613" t="s">
         <v>1075</v>
@@ -11401,12 +11407,12 @@
         <v>1090</v>
       </c>
       <c r="B621" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="622" spans="1:2">
       <c r="A622" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="B622" t="s">
         <v>1092</v>
@@ -11417,12 +11423,12 @@
         <v>1093</v>
       </c>
       <c r="B623" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="624" spans="1:2">
       <c r="A624" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B624" t="s">
         <v>1095</v>
@@ -11457,12 +11463,12 @@
         <v>1102</v>
       </c>
       <c r="B628" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="629" spans="1:2">
       <c r="A629" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="B629" t="s">
         <v>1104</v>
@@ -11473,20 +11479,20 @@
         <v>1105</v>
       </c>
       <c r="B630" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="631" spans="1:2">
       <c r="A631" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="B631" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="632" spans="1:2">
       <c r="A632" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="B632" t="s">
         <v>1108</v>
@@ -11505,44 +11511,44 @@
         <v>1111</v>
       </c>
       <c r="B634" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="635" spans="1:2">
       <c r="A635" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="B635" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="636" spans="1:2">
       <c r="A636" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="B636" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="637" spans="1:2">
       <c r="A637" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="B637" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="638" spans="1:2">
       <c r="A638" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="B638" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="639" spans="1:2">
       <c r="A639" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="B639" t="s">
         <v>1117</v>
@@ -11553,36 +11559,36 @@
         <v>1118</v>
       </c>
       <c r="B640" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="641" spans="1:2">
       <c r="A641" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="B641" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="642" spans="1:2">
       <c r="A642" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="B642" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="643" spans="1:2">
       <c r="A643" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="B643" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="644" spans="1:2">
       <c r="A644" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="B644" t="s">
         <v>1123</v>
@@ -11625,20 +11631,20 @@
         <v>1132</v>
       </c>
       <c r="B649" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="650" spans="1:2">
       <c r="A650" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="B650" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="651" spans="1:2">
       <c r="A651" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="B651" t="s">
         <v>1135</v>
@@ -11649,12 +11655,12 @@
         <v>1136</v>
       </c>
       <c r="B652" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="653" spans="1:2">
       <c r="A653" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="B653" t="s">
         <v>1138</v>
@@ -11673,12 +11679,12 @@
         <v>1141</v>
       </c>
       <c r="B655" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="656" spans="1:2">
       <c r="A656" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="B656" t="s">
         <v>1143</v>
@@ -11737,12 +11743,12 @@
         <v>1156</v>
       </c>
       <c r="B663" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="664" spans="1:2">
       <c r="A664" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="B664" t="s">
         <v>1158</v>
@@ -11761,12 +11767,12 @@
         <v>1161</v>
       </c>
       <c r="B666" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="667" spans="1:2">
       <c r="A667" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="B667" t="s">
         <v>1163</v>
@@ -11801,12 +11807,12 @@
         <v>1170</v>
       </c>
       <c r="B671" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="672" spans="1:2">
       <c r="A672" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="B672" t="s">
         <v>1172</v>
@@ -11825,12 +11831,12 @@
         <v>1175</v>
       </c>
       <c r="B674" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="675" spans="1:2">
       <c r="A675" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="B675" t="s">
         <v>1177</v>
@@ -11849,12 +11855,12 @@
         <v>1180</v>
       </c>
       <c r="B677" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="678" spans="1:2">
       <c r="A678" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="B678" t="s">
         <v>1182</v>
@@ -11881,20 +11887,20 @@
         <v>1187</v>
       </c>
       <c r="B681" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="682" spans="1:2">
       <c r="A682" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="B682" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="683" spans="1:2">
       <c r="A683" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="B683" t="s">
         <v>1190</v>
@@ -11953,12 +11959,12 @@
         <v>1203</v>
       </c>
       <c r="B690" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="691" spans="1:2">
       <c r="A691" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="B691" t="s">
         <v>1205</v>
@@ -11977,12 +11983,12 @@
         <v>1208</v>
       </c>
       <c r="B693" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="694" spans="1:2">
       <c r="A694" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="B694" t="s">
         <v>1210</v>
@@ -12001,12 +12007,12 @@
         <v>1213</v>
       </c>
       <c r="B696" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="697" spans="1:2">
       <c r="A697" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B697" t="s">
         <v>1215</v>
@@ -12025,12 +12031,12 @@
         <v>1218</v>
       </c>
       <c r="B699" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="700" spans="1:2">
       <c r="A700" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="B700" t="s">
         <v>1220</v>
@@ -12041,20 +12047,20 @@
         <v>1221</v>
       </c>
       <c r="B701" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="702" spans="1:2">
       <c r="A702" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="B702" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="703" spans="1:2">
       <c r="A703" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="B703" t="s">
         <v>1224</v>
@@ -12065,60 +12071,60 @@
         <v>1225</v>
       </c>
       <c r="B704" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="705" spans="1:2">
       <c r="A705" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B705" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="706" spans="1:2">
       <c r="A706" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="B706" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="707" spans="1:2">
       <c r="A707" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="B707" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="708" spans="1:2">
       <c r="A708" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="B708" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="709" spans="1:2">
       <c r="A709" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="B709" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="710" spans="1:2">
       <c r="A710" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="B710" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="711" spans="1:2">
       <c r="A711" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="B711" t="s">
         <v>1233</v>
@@ -12145,12 +12151,12 @@
         <v>1238</v>
       </c>
       <c r="B714" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="715" spans="1:2">
       <c r="A715" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="B715" t="s">
         <v>1240</v>
@@ -12177,12 +12183,12 @@
         <v>1245</v>
       </c>
       <c r="B718" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="719" spans="1:2">
       <c r="A719" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="B719" t="s">
         <v>1247</v>
@@ -12273,12 +12279,12 @@
         <v>1268</v>
       </c>
       <c r="B730" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="731" spans="1:2">
       <c r="A731" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="B731" t="s">
         <v>1270</v>
@@ -12305,12 +12311,12 @@
         <v>1275</v>
       </c>
       <c r="B734" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="735" spans="1:2">
       <c r="A735" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="B735" t="s">
         <v>1277</v>
@@ -12329,12 +12335,12 @@
         <v>1280</v>
       </c>
       <c r="B737" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="738" spans="1:2">
       <c r="A738" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="B738" t="s">
         <v>1282</v>
@@ -12353,20 +12359,20 @@
         <v>1285</v>
       </c>
       <c r="B740" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="741" spans="1:2">
       <c r="A741" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="B741" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="742" spans="1:2">
       <c r="A742" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="B742" t="s">
         <v>1288</v>
@@ -12385,28 +12391,28 @@
         <v>1291</v>
       </c>
       <c r="B744" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="745" spans="1:2">
       <c r="A745" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="B745" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="746" spans="1:2">
       <c r="A746" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="B746" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="747" spans="1:2">
       <c r="A747" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="B747" t="s">
         <v>1295</v>
@@ -12473,20 +12479,20 @@
         <v>1310</v>
       </c>
       <c r="B755" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="756" spans="1:2">
       <c r="A756" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="B756" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="757" spans="1:2">
       <c r="A757" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="B757" t="s">
         <v>1313</v>
@@ -12505,12 +12511,12 @@
         <v>1316</v>
       </c>
       <c r="B759" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="760" spans="1:2">
       <c r="A760" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="B760" t="s">
         <v>1318</v>
@@ -12521,20 +12527,20 @@
         <v>1319</v>
       </c>
       <c r="B761" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="762" spans="1:2">
       <c r="A762" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="B762" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="763" spans="1:2">
       <c r="A763" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="B763" t="s">
         <v>1322</v>
@@ -12577,12 +12583,12 @@
         <v>1331</v>
       </c>
       <c r="B768" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="769" spans="1:2">
       <c r="A769" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="B769" t="s">
         <v>1333</v>
@@ -12617,12 +12623,12 @@
         <v>1340</v>
       </c>
       <c r="B773" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="774" spans="1:2">
       <c r="A774" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="B774" t="s">
         <v>1342</v>
@@ -12689,20 +12695,20 @@
         <v>1357</v>
       </c>
       <c r="B782" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="783" spans="1:2">
       <c r="A783" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B783" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="784" spans="1:2">
       <c r="A784" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="B784" t="s">
         <v>1360</v>
@@ -12729,12 +12735,12 @@
         <v>1365</v>
       </c>
       <c r="B787" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="788" spans="1:2">
       <c r="A788" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="B788" t="s">
         <v>1367</v>
@@ -12745,20 +12751,20 @@
         <v>1368</v>
       </c>
       <c r="B789" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="790" spans="1:2">
       <c r="A790" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="B790" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="791" spans="1:2">
       <c r="A791" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="B791" t="s">
         <v>1371</v>
@@ -12769,36 +12775,36 @@
         <v>1372</v>
       </c>
       <c r="B792" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="793" spans="1:2">
       <c r="A793" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="B793" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="794" spans="1:2">
       <c r="A794" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="B794" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="795" spans="1:2">
       <c r="A795" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="B795" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="796" spans="1:2">
       <c r="A796" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="B796" t="s">
         <v>1377</v>
@@ -12817,12 +12823,12 @@
         <v>1380</v>
       </c>
       <c r="B798" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="799" spans="1:2">
       <c r="A799" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="B799" t="s">
         <v>1382</v>
@@ -12881,20 +12887,20 @@
         <v>1395</v>
       </c>
       <c r="B806" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="807" spans="1:2">
       <c r="A807" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="B807" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="808" spans="1:2">
       <c r="A808" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="B808" t="s">
         <v>1398</v>
@@ -12993,12 +12999,12 @@
         <v>1421</v>
       </c>
       <c r="B820" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="821" spans="1:2">
       <c r="A821" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="B821" t="s">
         <v>1423</v>
@@ -13009,12 +13015,12 @@
         <v>1424</v>
       </c>
       <c r="B822" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="823" spans="1:2">
       <c r="A823" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="B823" t="s">
         <v>1426</v>
@@ -13025,12 +13031,12 @@
         <v>1427</v>
       </c>
       <c r="B824" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="825" spans="1:2">
       <c r="A825" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="B825" t="s">
         <v>1429</v>
@@ -13041,28 +13047,28 @@
         <v>1430</v>
       </c>
       <c r="B826" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="827" spans="1:2">
       <c r="A827" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="B827" t="s">
-        <v>809</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="828" spans="1:2">
       <c r="A828" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="B828" t="s">
-        <v>1432</v>
+        <v>809</v>
       </c>
     </row>
     <row r="829" spans="1:2">
       <c r="A829" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="B829" t="s">
         <v>1434</v>
@@ -13073,36 +13079,36 @@
         <v>1435</v>
       </c>
       <c r="B830" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="831" spans="1:2">
       <c r="A831" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="B831" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="832" spans="1:2">
       <c r="A832" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="B832" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="833" spans="1:2">
       <c r="A833" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="B833" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="834" spans="1:2">
       <c r="A834" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="B834" t="s">
         <v>1440</v>
@@ -13161,20 +13167,20 @@
         <v>1453</v>
       </c>
       <c r="B841" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="842" spans="1:2">
       <c r="A842" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="B842" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="843" spans="1:2">
       <c r="A843" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="B843" t="s">
         <v>1456</v>
@@ -13297,20 +13303,20 @@
         <v>1485</v>
       </c>
       <c r="B858" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="859" spans="1:2">
       <c r="A859" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="B859" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="860" spans="1:2">
       <c r="A860" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="B860" t="s">
         <v>1488</v>
@@ -13321,12 +13327,12 @@
         <v>1489</v>
       </c>
       <c r="B861" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="862" spans="1:2">
       <c r="A862" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="B862" t="s">
         <v>1491</v>
@@ -13337,20 +13343,20 @@
         <v>1492</v>
       </c>
       <c r="B863" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="864" spans="1:2">
       <c r="A864" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="B864" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="865" spans="1:2">
       <c r="A865" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="B865" t="s">
         <v>1495</v>
@@ -13361,12 +13367,12 @@
         <v>1496</v>
       </c>
       <c r="B866" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="867" spans="1:2">
       <c r="A867" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="B867" t="s">
         <v>1498</v>
@@ -13457,12 +13463,12 @@
         <v>1519</v>
       </c>
       <c r="B878" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="879" spans="1:2">
       <c r="A879" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="B879" t="s">
         <v>1521</v>
@@ -13489,20 +13495,20 @@
         <v>1526</v>
       </c>
       <c r="B882" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="883" spans="1:2">
       <c r="A883" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="B883" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="884" spans="1:2">
       <c r="A884" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="B884" t="s">
         <v>1529</v>
@@ -13513,12 +13519,12 @@
         <v>1530</v>
       </c>
       <c r="B885" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="886" spans="1:2">
       <c r="A886" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="B886" t="s">
         <v>1532</v>
@@ -13529,12 +13535,12 @@
         <v>1533</v>
       </c>
       <c r="B887" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="888" spans="1:2">
       <c r="A888" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="B888" t="s">
         <v>1535</v>
@@ -13545,12 +13551,12 @@
         <v>1536</v>
       </c>
       <c r="B889" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="890" spans="1:2">
       <c r="A890" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="B890" t="s">
         <v>1538</v>
@@ -13601,12 +13607,12 @@
         <v>1549</v>
       </c>
       <c r="B896" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="897" spans="1:2">
       <c r="A897" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="B897" t="s">
         <v>1551</v>
@@ -13657,12 +13663,12 @@
         <v>1562</v>
       </c>
       <c r="B903" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="904" spans="1:2">
       <c r="A904" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="B904" t="s">
         <v>1564</v>
@@ -13673,20 +13679,20 @@
         <v>1565</v>
       </c>
       <c r="B905" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="906" spans="1:2">
       <c r="A906" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="B906" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="907" spans="1:2">
       <c r="A907" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="B907" t="s">
         <v>1568</v>
@@ -13705,12 +13711,12 @@
         <v>1571</v>
       </c>
       <c r="B909" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="910" spans="1:2">
       <c r="A910" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="B910" t="s">
         <v>1573</v>
@@ -13745,20 +13751,20 @@
         <v>1580</v>
       </c>
       <c r="B914" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="915" spans="1:2">
       <c r="A915" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="B915" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="916" spans="1:2">
       <c r="A916" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="B916" t="s">
         <v>1583</v>
@@ -13801,20 +13807,20 @@
         <v>1592</v>
       </c>
       <c r="B921" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="922" spans="1:2">
       <c r="A922" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="B922" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="923" spans="1:2">
       <c r="A923" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="B923" t="s">
         <v>1595</v>
@@ -13849,12 +13855,12 @@
         <v>1602</v>
       </c>
       <c r="B927" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="928" spans="1:2">
       <c r="A928" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="B928" t="s">
         <v>1604</v>
@@ -13873,20 +13879,20 @@
         <v>1607</v>
       </c>
       <c r="B930" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="931" spans="1:2">
       <c r="A931" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="B931" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="932" spans="1:2">
       <c r="A932" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="B932" t="s">
         <v>1610</v>
@@ -13929,12 +13935,12 @@
         <v>1619</v>
       </c>
       <c r="B937" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="938" spans="1:2">
       <c r="A938" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="B938" t="s">
         <v>1621</v>
@@ -13953,28 +13959,28 @@
         <v>1624</v>
       </c>
       <c r="B940" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="941" spans="1:2">
       <c r="A941" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="B941" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="942" spans="1:2">
       <c r="A942" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="B942" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="943" spans="1:2">
       <c r="A943" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="B943" t="s">
         <v>1628</v>
@@ -14001,44 +14007,44 @@
         <v>1633</v>
       </c>
       <c r="B946" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="947" spans="1:2">
       <c r="A947" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="B947" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="948" spans="1:2">
       <c r="A948" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="B948" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="949" spans="1:2">
       <c r="A949" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="B949" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="950" spans="1:2">
       <c r="A950" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="B950" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="951" spans="1:2">
       <c r="A951" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="B951" t="s">
         <v>1639</v>
@@ -14073,20 +14079,20 @@
         <v>1646</v>
       </c>
       <c r="B955" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="956" spans="1:2">
       <c r="A956" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="B956" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="957" spans="1:2">
       <c r="A957" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="B957" t="s">
         <v>1649</v>
@@ -14145,20 +14151,20 @@
         <v>1662</v>
       </c>
       <c r="B964" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="965" spans="1:2">
       <c r="A965" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B965" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="966" spans="1:2">
       <c r="A966" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="B966" t="s">
         <v>1665</v>
@@ -14177,12 +14183,12 @@
         <v>1668</v>
       </c>
       <c r="B968" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="969" spans="1:2">
       <c r="A969" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="B969" t="s">
         <v>1670</v>
@@ -14265,12 +14271,12 @@
         <v>1689</v>
       </c>
       <c r="B979" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="980" spans="1:2">
       <c r="A980" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="B980" t="s">
         <v>1691</v>
@@ -14305,20 +14311,20 @@
         <v>1698</v>
       </c>
       <c r="B984" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="985" spans="1:2">
       <c r="A985" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="B985" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="986" spans="1:2">
       <c r="A986" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="B986" t="s">
         <v>1701</v>
@@ -14345,12 +14351,12 @@
         <v>1706</v>
       </c>
       <c r="B989" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="990" spans="1:2">
       <c r="A990" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="B990" t="s">
         <v>1708</v>
@@ -14369,12 +14375,12 @@
         <v>1711</v>
       </c>
       <c r="B992" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="993" spans="1:2">
       <c r="A993" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="B993" t="s">
         <v>1713</v>
@@ -14449,28 +14455,28 @@
         <v>1730</v>
       </c>
       <c r="B1002" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="1003" spans="1:2">
       <c r="A1003" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="B1003" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="1004" spans="1:2">
       <c r="A1004" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="B1004" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="1005" spans="1:2">
       <c r="A1005" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="B1005" t="s">
         <v>1734</v>
@@ -14489,28 +14495,28 @@
         <v>1737</v>
       </c>
       <c r="B1007" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="1008" spans="1:2">
       <c r="A1008" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="B1008" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="1009" spans="1:2">
       <c r="A1009" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="B1009" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="1010" spans="1:2">
       <c r="A1010" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="B1010" t="s">
         <v>1741</v>
@@ -14537,12 +14543,12 @@
         <v>1746</v>
       </c>
       <c r="B1013" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
       <c r="A1014" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="B1014" t="s">
         <v>1748</v>
@@ -14553,20 +14559,20 @@
         <v>1749</v>
       </c>
       <c r="B1015" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="1016" spans="1:2">
       <c r="A1016" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="B1016" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="1017" spans="1:2">
       <c r="A1017" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B1017" t="s">
         <v>1752</v>
@@ -14585,12 +14591,12 @@
         <v>1755</v>
       </c>
       <c r="B1019" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="1020" spans="1:2">
       <c r="A1020" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="B1020" t="s">
         <v>1757</v>
@@ -14617,12 +14623,12 @@
         <v>1762</v>
       </c>
       <c r="B1023" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="1024" spans="1:2">
       <c r="A1024" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="B1024" t="s">
         <v>1764</v>
@@ -14633,20 +14639,20 @@
         <v>1765</v>
       </c>
       <c r="B1025" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="1026" spans="1:2">
       <c r="A1026" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="B1026" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="1027" spans="1:2">
       <c r="A1027" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="B1027" t="s">
         <v>1768</v>
@@ -14657,36 +14663,36 @@
         <v>1769</v>
       </c>
       <c r="B1028" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
       <c r="A1029" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="B1029" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="1030" spans="1:2">
       <c r="A1030" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="B1030" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
       <c r="A1031" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="B1031" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="1032" spans="1:2">
       <c r="A1032" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="B1032" t="s">
         <v>1774</v>
@@ -14697,12 +14703,12 @@
         <v>1775</v>
       </c>
       <c r="B1033" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="1034" spans="1:2">
       <c r="A1034" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="B1034" t="s">
         <v>1777</v>
@@ -14721,12 +14727,12 @@
         <v>1780</v>
       </c>
       <c r="B1036" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="1037" spans="1:2">
       <c r="A1037" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="B1037" t="s">
         <v>1782</v>
@@ -14753,12 +14759,12 @@
         <v>1787</v>
       </c>
       <c r="B1040" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="1041" spans="1:2">
       <c r="A1041" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="B1041" t="s">
         <v>1789</v>
@@ -14809,12 +14815,12 @@
         <v>1800</v>
       </c>
       <c r="B1047" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="1048" spans="1:2">
       <c r="A1048" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="B1048" t="s">
         <v>1802</v>
@@ -14905,12 +14911,12 @@
         <v>1823</v>
       </c>
       <c r="B1059" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="1060" spans="1:2">
       <c r="A1060" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="B1060" t="s">
         <v>1825</v>
@@ -15001,20 +15007,20 @@
         <v>1846</v>
       </c>
       <c r="B1071" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="1072" spans="1:2">
       <c r="A1072" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="B1072" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="1073" spans="1:2">
       <c r="A1073" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="B1073" t="s">
         <v>1849</v>
@@ -15033,20 +15039,20 @@
         <v>1852</v>
       </c>
       <c r="B1075" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="1076" spans="1:2">
       <c r="A1076" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="B1076" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="1077" spans="1:2">
       <c r="A1077" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="B1077" t="s">
         <v>1855</v>
@@ -15057,12 +15063,12 @@
         <v>1856</v>
       </c>
       <c r="B1078" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="1079" spans="1:2">
       <c r="A1079" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="B1079" t="s">
         <v>1858</v>
@@ -15081,12 +15087,12 @@
         <v>1861</v>
       </c>
       <c r="B1081" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="1082" spans="1:2">
       <c r="A1082" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="B1082" t="s">
         <v>1863</v>
@@ -15113,12 +15119,12 @@
         <v>1868</v>
       </c>
       <c r="B1085" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="1086" spans="1:2">
       <c r="A1086" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
       <c r="B1086" t="s">
         <v>1870</v>
@@ -15161,12 +15167,12 @@
         <v>1879</v>
       </c>
       <c r="B1091" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="1092" spans="1:2">
       <c r="A1092" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="B1092" t="s">
         <v>1881</v>
@@ -15209,12 +15215,12 @@
         <v>1890</v>
       </c>
       <c r="B1097" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="1098" spans="1:2">
       <c r="A1098" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="B1098" t="s">
         <v>1892</v>
@@ -15241,12 +15247,12 @@
         <v>1897</v>
       </c>
       <c r="B1101" t="s">
-        <v>1897</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="1102" spans="1:2">
       <c r="A1102" t="s">
-        <v>1898</v>
+        <v>1899</v>
       </c>
       <c r="B1102" t="s">
         <v>1899</v>
@@ -15257,20 +15263,20 @@
         <v>1900</v>
       </c>
       <c r="B1103" t="s">
-        <v>1900</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="1104" spans="1:2">
       <c r="A1104" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
       <c r="B1104" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="1105" spans="1:2">
       <c r="A1105" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="B1105" t="s">
         <v>1903</v>
@@ -15369,12 +15375,12 @@
         <v>1926</v>
       </c>
       <c r="B1117" t="s">
-        <v>1926</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="1118" spans="1:2">
       <c r="A1118" t="s">
-        <v>1927</v>
+        <v>1928</v>
       </c>
       <c r="B1118" t="s">
         <v>1928</v>
@@ -15401,12 +15407,12 @@
         <v>1933</v>
       </c>
       <c r="B1121" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="1122" spans="1:2">
       <c r="A1122" t="s">
-        <v>1934</v>
+        <v>1935</v>
       </c>
       <c r="B1122" t="s">
         <v>1935</v>
@@ -15481,44 +15487,44 @@
         <v>1952</v>
       </c>
       <c r="B1131" t="s">
-        <v>1952</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="1132" spans="1:2">
       <c r="A1132" t="s">
-        <v>1953</v>
+        <v>1954</v>
       </c>
       <c r="B1132" t="s">
-        <v>1953</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="1133" spans="1:2">
       <c r="A1133" t="s">
-        <v>1954</v>
+        <v>1955</v>
       </c>
       <c r="B1133" t="s">
-        <v>1954</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
       <c r="A1134" t="s">
-        <v>1955</v>
+        <v>1956</v>
       </c>
       <c r="B1134" t="s">
-        <v>1955</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="1135" spans="1:2">
       <c r="A1135" t="s">
-        <v>1956</v>
+        <v>1957</v>
       </c>
       <c r="B1135" t="s">
-        <v>1956</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="1136" spans="1:2">
       <c r="A1136" t="s">
-        <v>1957</v>
+        <v>1958</v>
       </c>
       <c r="B1136" t="s">
         <v>1958</v>
@@ -15537,20 +15543,20 @@
         <v>1961</v>
       </c>
       <c r="B1138" t="s">
-        <v>1961</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
       <c r="A1139" t="s">
-        <v>1962</v>
+        <v>1963</v>
       </c>
       <c r="B1139" t="s">
-        <v>1962</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="1140" spans="1:2">
       <c r="A1140" t="s">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="B1140" t="s">
         <v>1964</v>
@@ -15625,12 +15631,12 @@
         <v>1981</v>
       </c>
       <c r="B1149" t="s">
-        <v>1981</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="1150" spans="1:2">
       <c r="A1150" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="B1150" t="s">
         <v>1983</v>
@@ -15641,12 +15647,12 @@
         <v>1984</v>
       </c>
       <c r="B1151" t="s">
-        <v>1984</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="1152" spans="1:2">
       <c r="A1152" t="s">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="B1152" t="s">
         <v>1986</v>
@@ -15681,44 +15687,44 @@
         <v>1993</v>
       </c>
       <c r="B1156" t="s">
-        <v>1993</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="1157" spans="1:2">
       <c r="A1157" t="s">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="B1157" t="s">
-        <v>1994</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="1158" spans="1:2">
       <c r="A1158" t="s">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="B1158" t="s">
-        <v>1995</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="1159" spans="1:2">
       <c r="A1159" t="s">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="B1159" t="s">
-        <v>1996</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="1160" spans="1:2">
       <c r="A1160" t="s">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="B1160" t="s">
-        <v>1997</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="1161" spans="1:2">
       <c r="A1161" t="s">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="B1161" t="s">
         <v>1999</v>
@@ -15737,20 +15743,20 @@
         <v>2002</v>
       </c>
       <c r="B1163" t="s">
-        <v>2002</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="1164" spans="1:2">
       <c r="A1164" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B1164" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
       <c r="A1165" t="s">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B1165" t="s">
         <v>2005</v>
@@ -15761,36 +15767,36 @@
         <v>2006</v>
       </c>
       <c r="B1166" t="s">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="1167" spans="1:2">
       <c r="A1167" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B1167" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
       <c r="A1168" t="s">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B1168" t="s">
-        <v>2008</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="1169" spans="1:2">
       <c r="A1169" t="s">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B1169" t="s">
-        <v>2009</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="1170" spans="1:2">
       <c r="A1170" t="s">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B1170" t="s">
         <v>2011</v>
@@ -15809,12 +15815,12 @@
         <v>2014</v>
       </c>
       <c r="B1172" t="s">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="1173" spans="1:2">
       <c r="A1173" t="s">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B1173" t="s">
         <v>2016</v>
@@ -15825,19 +15831,27 @@
         <v>2017</v>
       </c>
       <c r="B1174" t="s">
-        <v>2017</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="1175" spans="1:2">
       <c r="A1175" t="s">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B1175" t="s">
         <v>2019</v>
       </c>
     </row>
+    <row r="1176" spans="1:2">
+      <c r="A1176" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B1176" t="s">
+        <v>2021</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1175"/>
+  <autoFilter ref="A1:B1176"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/pt/headTags.xlsx
+++ b/lang/pt/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1176</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1177</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2022">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2024">
   <si>
     <t>en</t>
   </si>
@@ -3091,2992 +3091,2998 @@
     <t>Hypixel (Minion)</t>
   </si>
   <si>
+    <t>Hypixel (Mutations)</t>
+  </si>
+  <si>
+    <t>Hypixel (Mutações)</t>
+  </si>
+  <si>
+    <t>Hypixel (NPC)</t>
+  </si>
+  <si>
+    <t>Hypixel (Pets)</t>
+  </si>
+  <si>
+    <t>Hypixel (Animais de estimação)</t>
+  </si>
+  <si>
+    <t>Hypixel (Reforge Stone)</t>
+  </si>
+  <si>
+    <t>Hipixel (Pedra de Reforja)</t>
+  </si>
+  <si>
+    <t>Hypixel (Sacks)</t>
+  </si>
+  <si>
+    <t>Hypixel (Skins)</t>
+  </si>
+  <si>
+    <t>Hypixel (Talismans)</t>
+  </si>
+  <si>
+    <t>Hypixel (Talismãs)</t>
+  </si>
+  <si>
+    <t>Hypixel (Trophy Fish)</t>
+  </si>
+  <si>
+    <t>Hypixel (Peixe Troféu)</t>
+  </si>
+  <si>
+    <t>Hōseki no Kuni (Land of the Lustrous)</t>
+  </si>
+  <si>
+    <t>Hōseki no Kuni (Terra dos Lustrosos)</t>
+  </si>
+  <si>
+    <t>Ib</t>
+  </si>
+  <si>
+    <t>Ice Age</t>
+  </si>
+  <si>
+    <t>A Idade do Gelo</t>
+  </si>
+  <si>
+    <t>Ice Climber</t>
+  </si>
+  <si>
+    <t>Alpinista de gelo</t>
+  </si>
+  <si>
+    <t>Ice Cream</t>
+  </si>
+  <si>
+    <t>Gelado</t>
+  </si>
+  <si>
+    <t>Icons (GUI)</t>
+  </si>
+  <si>
+    <t>Ícones (GUI)</t>
+  </si>
+  <si>
+    <t>Icons (Ironblock)</t>
+  </si>
+  <si>
+    <t>Ícones (Ironblock)</t>
+  </si>
+  <si>
+    <t>Icons (Other)</t>
+  </si>
+  <si>
+    <t>Ícones (Outros)</t>
+  </si>
+  <si>
+    <t>Icons (white background)</t>
+  </si>
+  <si>
+    <t>Ícones (fundo branco)</t>
+  </si>
+  <si>
+    <t>Identity V</t>
+  </si>
+  <si>
+    <t>Identidade V</t>
+  </si>
+  <si>
+    <t>Illager</t>
+  </si>
+  <si>
+    <t>Inazuma Eleven</t>
+  </si>
+  <si>
+    <t>Inazuma Onze</t>
+  </si>
+  <si>
+    <t>Incredibles</t>
+  </si>
+  <si>
+    <t>Os Incríveis</t>
+  </si>
+  <si>
+    <t>Indiana Jones</t>
+  </si>
+  <si>
+    <t>Indigo Park</t>
+  </si>
+  <si>
+    <t>Parque Indigo</t>
+  </si>
+  <si>
+    <t>Injuries</t>
+  </si>
+  <si>
+    <t>Lesões</t>
+  </si>
+  <si>
+    <t>Inner Layer Block</t>
+  </si>
+  <si>
+    <t>Bloco da camada interna</t>
+  </si>
+  <si>
+    <t>Inscryption</t>
+  </si>
+  <si>
+    <t>Encriptação</t>
+  </si>
+  <si>
+    <t>Insect</t>
+  </si>
+  <si>
+    <t>Inseto</t>
+  </si>
+  <si>
+    <t>Inside Out</t>
+  </si>
+  <si>
+    <t>De dentro para fora</t>
+  </si>
+  <si>
+    <t>Inu Yasha</t>
+  </si>
+  <si>
+    <t>Invader Zim</t>
+  </si>
+  <si>
+    <t>Invincible</t>
+  </si>
+  <si>
+    <t>Invencível</t>
+  </si>
+  <si>
+    <t>Iron Man</t>
+  </si>
+  <si>
+    <t>Homem de Ferro</t>
+  </si>
+  <si>
+    <t>It</t>
+  </si>
+  <si>
+    <t>É</t>
+  </si>
+  <si>
+    <t>Jak and Daxter</t>
+  </si>
+  <si>
+    <t>Jak e Daxter</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Japão</t>
+  </si>
+  <si>
+    <t>Jar</t>
+  </si>
+  <si>
+    <t>Jarro</t>
+  </si>
+  <si>
+    <t>Jewelry</t>
+  </si>
+  <si>
+    <t>Jóias</t>
+  </si>
+  <si>
+    <t>JoJo's Bizarre Adventure</t>
+  </si>
+  <si>
+    <t>A Aventura Bizarra de JoJo</t>
+  </si>
+  <si>
+    <t>JoJo's Bizarre Adventure (Stand)</t>
+  </si>
+  <si>
+    <t>Journey</t>
+  </si>
+  <si>
+    <t>Viagem</t>
+  </si>
+  <si>
+    <t>Jujutsu Kaisen</t>
+  </si>
+  <si>
+    <t>Jump King</t>
+  </si>
+  <si>
+    <t>Rei do salto</t>
+  </si>
+  <si>
+    <t>Jurassic Park</t>
+  </si>
+  <si>
+    <t>Parque Jurássico</t>
+  </si>
+  <si>
+    <t>Justice League</t>
+  </si>
+  <si>
+    <t>Liga da Justiça</t>
+  </si>
+  <si>
+    <t>Kaiju Paradise</t>
+  </si>
+  <si>
+    <t>Paraíso Kaiju</t>
+  </si>
+  <si>
+    <t>Kakegurui</t>
+  </si>
+  <si>
+    <t>Karate Kid</t>
+  </si>
+  <si>
+    <t>Karaté Kid</t>
+  </si>
+  <si>
+    <t>Katamari Damacy</t>
+  </si>
+  <si>
+    <t>Kid Icarus</t>
+  </si>
+  <si>
+    <t>Kiki's Delivery Service</t>
+  </si>
+  <si>
+    <t>Serviço de entregas do Kiki</t>
+  </si>
+  <si>
+    <t>Kill la Kill</t>
+  </si>
+  <si>
+    <t>Matar para matar</t>
+  </si>
+  <si>
+    <t>Killzone</t>
+  </si>
+  <si>
+    <t>Kim Possible</t>
+  </si>
+  <si>
+    <t>Kimetsu no Yaiba</t>
+  </si>
+  <si>
+    <t>Kingdom Hearts</t>
+  </si>
+  <si>
+    <t>Kirby</t>
+  </si>
+  <si>
+    <t>Kitchen</t>
+  </si>
+  <si>
+    <t>Cozinha</t>
+  </si>
+  <si>
+    <t>KonoSuba</t>
+  </si>
+  <si>
+    <t>Koopalings</t>
+  </si>
+  <si>
+    <t>Kung Fu Panda</t>
+  </si>
+  <si>
+    <t>Kuroko no Basuke</t>
+  </si>
+  <si>
+    <t>Lamp Shade</t>
+  </si>
+  <si>
+    <t>Abajur</t>
+  </si>
+  <si>
+    <t>Landscape</t>
+  </si>
+  <si>
+    <t>Paisagem</t>
+  </si>
+  <si>
+    <t>Lantern</t>
+  </si>
+  <si>
+    <t>Lanterna</t>
+  </si>
+  <si>
+    <t>Laputa: Castle in the Sky</t>
+  </si>
+  <si>
+    <t>Laputa: Castelo no Céu</t>
+  </si>
+  <si>
+    <t>LazyTown</t>
+  </si>
+  <si>
+    <t>Cidade Preguiçosa</t>
+  </si>
+  <si>
+    <t>League of Legends</t>
+  </si>
+  <si>
+    <t>Left 4 Dead</t>
+  </si>
+  <si>
+    <t>Legendary Pokemon</t>
+  </si>
+  <si>
+    <t>Pokémon lendários</t>
+  </si>
+  <si>
+    <t>Lego</t>
+  </si>
+  <si>
+    <t>Lethal League</t>
+  </si>
+  <si>
+    <t>Liga Mortal</t>
+  </si>
+  <si>
+    <t>Library of Ruina</t>
+  </si>
+  <si>
+    <t>Biblioteca de Ruina</t>
+  </si>
+  <si>
+    <t>Life is Strange</t>
+  </si>
+  <si>
+    <t>Lilo &amp; Stitch</t>
+  </si>
+  <si>
+    <t>Lilo e Stitch</t>
+  </si>
+  <si>
+    <t>Limbus Company</t>
+  </si>
+  <si>
+    <t>Empresa Limbus</t>
+  </si>
+  <si>
+    <t>Lion King</t>
+  </si>
+  <si>
+    <t>Rei Leão</t>
+  </si>
+  <si>
+    <t>Little Big Planet</t>
+  </si>
+  <si>
+    <t>Pequeno Grande Planeta</t>
+  </si>
+  <si>
+    <t>Little Mermaid</t>
+  </si>
+  <si>
+    <t>Pequena Sereia</t>
+  </si>
+  <si>
+    <t>Little Nightmares</t>
+  </si>
+  <si>
+    <t>Pequenos pesadelos</t>
+  </si>
+  <si>
+    <t>Little Shop of Horrors</t>
+  </si>
+  <si>
+    <t>Pequena Loja dos Horrores</t>
+  </si>
+  <si>
+    <t>Little Witch Academia</t>
+  </si>
+  <si>
+    <t>Llama</t>
+  </si>
+  <si>
+    <t>Lhama</t>
+  </si>
+  <si>
+    <t>Logo</t>
+  </si>
+  <si>
+    <t>Logótipo</t>
+  </si>
+  <si>
+    <t>Looney Tunes</t>
+  </si>
+  <si>
+    <t>Lord of the Rings</t>
+  </si>
+  <si>
+    <t>O Senhor dos Anéis</t>
+  </si>
+  <si>
+    <t>Love Live!</t>
+  </si>
+  <si>
+    <t>Amar ao vivo!</t>
+  </si>
+  <si>
+    <t>Lovestruck Creature</t>
+  </si>
+  <si>
+    <t>Criatura apaixonada</t>
+  </si>
+  <si>
+    <t>Lovestruck Person</t>
+  </si>
+  <si>
+    <t>Pessoa apaixonada</t>
+  </si>
+  <si>
+    <t>Lucky Luke</t>
+  </si>
+  <si>
+    <t>Machine Part</t>
+  </si>
+  <si>
+    <t>Peça da máquina</t>
+  </si>
+  <si>
+    <t>Mad Father</t>
+  </si>
+  <si>
+    <t>Pai Louco</t>
+  </si>
+  <si>
+    <t>Mad Max</t>
+  </si>
+  <si>
+    <t>Made in Abyss</t>
+  </si>
+  <si>
+    <t>Feito no Abismo</t>
+  </si>
+  <si>
+    <t>Madness Combat</t>
+  </si>
+  <si>
+    <t>Combate à loucura</t>
+  </si>
+  <si>
+    <t>Madoka Magica</t>
+  </si>
+  <si>
+    <t>Makeup</t>
+  </si>
+  <si>
+    <t>Maquilhagem</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Masculino</t>
+  </si>
+  <si>
+    <t>Mao Mao Heroes of Pure Heart</t>
+  </si>
+  <si>
+    <t>Mao Mao Heróis de Coração Puro</t>
+  </si>
+  <si>
+    <t>MapleStory</t>
+  </si>
+  <si>
+    <t>Marvel</t>
+  </si>
+  <si>
+    <t>Mary and the Witch's Flower</t>
+  </si>
+  <si>
+    <t>Maria e a flor da bruxa</t>
+  </si>
+  <si>
+    <t>Mascot</t>
+  </si>
+  <si>
+    <t>Mascote</t>
+  </si>
+  <si>
+    <t>Mask</t>
+  </si>
+  <si>
+    <t>Máscara</t>
+  </si>
+  <si>
+    <t>Mask (full)</t>
+  </si>
+  <si>
+    <t>Máscara (completa)</t>
+  </si>
+  <si>
+    <t>Mask (functional)</t>
+  </si>
+  <si>
+    <t>Máscara (funcional)</t>
+  </si>
+  <si>
+    <t>Mask (health)</t>
+  </si>
+  <si>
+    <t>Máscara (saúde)</t>
+  </si>
+  <si>
+    <t>Mask (Minecraft mob)</t>
+  </si>
+  <si>
+    <t>Máscara (mob do Minecraft)</t>
+  </si>
+  <si>
+    <t>Mass Effect</t>
+  </si>
+  <si>
+    <t>Masters of the Universe</t>
+  </si>
+  <si>
+    <t>Mestres do Universo</t>
+  </si>
+  <si>
+    <t>Mathematical Symbol</t>
+  </si>
+  <si>
+    <t>Símbolo matemático</t>
+  </si>
+  <si>
+    <t>Mc Donalds</t>
+  </si>
+  <si>
+    <t>Meal</t>
+  </si>
+  <si>
+    <t>Refeição</t>
+  </si>
+  <si>
+    <t>Meat</t>
+  </si>
+  <si>
+    <t>Carne</t>
+  </si>
+  <si>
+    <t>Medieval</t>
+  </si>
+  <si>
+    <t>Medieval Tavern</t>
+  </si>
+  <si>
+    <t>Taberna Medieval</t>
+  </si>
+  <si>
+    <t>Medieval Warfare Helmet</t>
+  </si>
+  <si>
+    <t>Capacete de guerra medieval</t>
+  </si>
+  <si>
+    <t>MediEvil</t>
+  </si>
+  <si>
+    <t>Mega Evolution</t>
+  </si>
+  <si>
+    <t>Mega Evolução</t>
+  </si>
+  <si>
+    <t>Megaman</t>
+  </si>
+  <si>
+    <t>Megami Tensei</t>
+  </si>
+  <si>
+    <t>Mekakucity Actors</t>
+  </si>
+  <si>
+    <t>Actores de Mekakucity</t>
+  </si>
+  <si>
+    <t>Meme</t>
+  </si>
+  <si>
+    <t>Meme (Doge)</t>
+  </si>
+  <si>
+    <t>Meme (Pepe)</t>
+  </si>
+  <si>
+    <t>Metal</t>
+  </si>
+  <si>
+    <t>Metal Gear</t>
+  </si>
+  <si>
+    <t>Metro</t>
+  </si>
+  <si>
+    <t>Metroid</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>México</t>
+  </si>
+  <si>
+    <t>Mickey Mouse</t>
+  </si>
+  <si>
+    <t>Rato Mickey</t>
+  </si>
+  <si>
+    <t>Military Equipment</t>
+  </si>
+  <si>
+    <t>Equipamento militar</t>
+  </si>
+  <si>
+    <t>Minecraft April Fools</t>
+  </si>
+  <si>
+    <t>Minecraft Bedrock Edition</t>
+  </si>
+  <si>
+    <t>Edição Minecraft Bedrock</t>
+  </si>
+  <si>
+    <t>Minecraft Dungeons</t>
+  </si>
+  <si>
+    <t>Masmorras do Minecraft</t>
+  </si>
+  <si>
+    <t>Minecraft Earth</t>
+  </si>
+  <si>
+    <t>Minecraft Terra</t>
+  </si>
+  <si>
+    <t>Minecraft Education Edition</t>
+  </si>
+  <si>
+    <t>Minecraft Legends</t>
+  </si>
+  <si>
+    <t>Lendas do Minecraft</t>
+  </si>
+  <si>
+    <t>Minecraft Live</t>
+  </si>
+  <si>
+    <t>Minecraft em direto</t>
+  </si>
+  <si>
+    <t>Minecraft Movie</t>
+  </si>
+  <si>
+    <t>Filme Minecraft</t>
+  </si>
+  <si>
+    <t>Minecraft Story Mode</t>
+  </si>
+  <si>
+    <t>Modo História do Minecraft</t>
+  </si>
+  <si>
+    <t>Miner</t>
+  </si>
+  <si>
+    <t>Mineiro</t>
+  </si>
+  <si>
+    <t>Minesweeper</t>
+  </si>
+  <si>
+    <t>Campo minado</t>
+  </si>
+  <si>
+    <t>Miraculous: Tales of Ladybug &amp; Cat Noir</t>
+  </si>
+  <si>
+    <t>Miraculous: Contos de Ladybug e Cat Noir</t>
+  </si>
+  <si>
+    <t>Mirai Nikki (Future Diary)</t>
+  </si>
+  <si>
+    <t>Mirai Nikki (Diário do Futuro)</t>
+  </si>
+  <si>
+    <t>Mirror's Edge</t>
+  </si>
+  <si>
+    <t>A Borda do Espelho</t>
+  </si>
+  <si>
+    <t>Miss Kobayashi's Dragon Maid</t>
+  </si>
+  <si>
+    <t>A criada de dragão da Miss Kobayashi</t>
+  </si>
+  <si>
+    <t>Mizuno's Resource Pack</t>
+  </si>
+  <si>
+    <t>Pacote de recursos da Mizuno</t>
+  </si>
+  <si>
+    <t>Moana</t>
+  </si>
+  <si>
+    <t>Modern Warfare Helmet</t>
+  </si>
+  <si>
+    <t>Capacete Modern Warfare</t>
+  </si>
+  <si>
+    <t>Money</t>
+  </si>
+  <si>
+    <t>Dinheiro</t>
+  </si>
+  <si>
+    <t>Money Heist</t>
+  </si>
+  <si>
+    <t>Roubo de dinheiro</t>
+  </si>
+  <si>
+    <t>Monitor</t>
+  </si>
+  <si>
+    <t>Monkey Island</t>
+  </si>
+  <si>
+    <t>Ilha dos Macacos</t>
+  </si>
+  <si>
+    <t>Monocle</t>
+  </si>
+  <si>
+    <t>Monóculo</t>
+  </si>
+  <si>
+    <t>Monster High</t>
+  </si>
+  <si>
+    <t>Monster Hunter</t>
+  </si>
+  <si>
+    <t>Caçador de Monstros</t>
+  </si>
+  <si>
+    <t>Monsters Inc</t>
+  </si>
+  <si>
+    <t>Monstros Inc</t>
+  </si>
+  <si>
+    <t>Moomin</t>
+  </si>
+  <si>
+    <t>Mortal Kombat</t>
+  </si>
+  <si>
+    <t>Mounts of Mayhem</t>
+  </si>
+  <si>
+    <t>Montarias do Caos</t>
+  </si>
+  <si>
+    <t>Mouthwashing</t>
+  </si>
+  <si>
+    <t>Lavagem da boca</t>
+  </si>
+  <si>
+    <t>Mr. Bean</t>
+  </si>
+  <si>
+    <t>Mulan</t>
+  </si>
+  <si>
+    <t>Mundo Gaturro</t>
+  </si>
+  <si>
+    <t>Muppets</t>
+  </si>
+  <si>
+    <t>Marretas</t>
+  </si>
+  <si>
+    <t>Murder Drones</t>
+  </si>
+  <si>
+    <t>Drones assassinos</t>
+  </si>
+  <si>
+    <t>Mushroom</t>
+  </si>
+  <si>
+    <t>Cogumelo</t>
+  </si>
+  <si>
+    <t>Mushroom (Biome)</t>
+  </si>
+  <si>
+    <t>Cogumelo (Bioma)</t>
+  </si>
+  <si>
+    <t>Mushroom (Headwear)</t>
+  </si>
+  <si>
+    <t>Cogumelo (Chapéus)</t>
+  </si>
+  <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t>Música</t>
+  </si>
+  <si>
+    <t>Mustache</t>
+  </si>
+  <si>
+    <t>Bigode</t>
+  </si>
+  <si>
+    <t>My Deer Friend Nokotan</t>
+  </si>
+  <si>
+    <t>O meu amigo veado Nokotan</t>
+  </si>
+  <si>
+    <t>My Hero Academia</t>
+  </si>
+  <si>
+    <t>My Little Pony</t>
+  </si>
+  <si>
+    <t>My Neighbor Totoro</t>
+  </si>
+  <si>
+    <t>O meu vizinho Totoro</t>
+  </si>
+  <si>
+    <t>My Singing Monsters</t>
+  </si>
+  <si>
+    <t>Os meus monstros cantores</t>
+  </si>
+  <si>
+    <t>Naruto</t>
+  </si>
+  <si>
+    <t>Nausicaä of the Valley of the Wind</t>
+  </si>
+  <si>
+    <t>Nausicaä do Vale do Vento</t>
+  </si>
+  <si>
+    <t>Nekopara</t>
+  </si>
+  <si>
+    <t>Neon Genesis Evangelion</t>
+  </si>
+  <si>
+    <t>Nether (inspired)</t>
+  </si>
+  <si>
+    <t>Nether (inspirado)</t>
+  </si>
+  <si>
+    <t>Nether (vanilla)</t>
+  </si>
+  <si>
+    <t>Nether (baunilha)</t>
+  </si>
+  <si>
+    <t>Neutral Creature</t>
+  </si>
+  <si>
+    <t>Criatura neutra</t>
+  </si>
+  <si>
+    <t>Neutral Person</t>
+  </si>
+  <si>
+    <t>Pessoa neutra</t>
+  </si>
+  <si>
+    <t>New Year's Eve</t>
+  </si>
+  <si>
+    <t>Véspera de Ano Novo</t>
+  </si>
+  <si>
+    <t>NieR: Automata</t>
+  </si>
+  <si>
+    <t>Night in the Woods</t>
+  </si>
+  <si>
+    <t>Noite no bosque</t>
+  </si>
+  <si>
+    <t>Nightmare Before Christmas</t>
+  </si>
+  <si>
+    <t>Pesadelo antes do Natal</t>
+  </si>
+  <si>
+    <t>Ninja Turtles</t>
+  </si>
+  <si>
+    <t>Tartarugas Ninja</t>
+  </si>
+  <si>
+    <t>No Game No Life</t>
+  </si>
+  <si>
+    <t>Sem jogo, sem vida</t>
+  </si>
+  <si>
+    <t>No Man's Sky</t>
+  </si>
+  <si>
+    <t>Noel's House Party</t>
+  </si>
+  <si>
+    <t>Festa na casa do Noel</t>
+  </si>
+  <si>
+    <t>Norse Mythology</t>
+  </si>
+  <si>
+    <t>Mitologia nórdica</t>
+  </si>
+  <si>
+    <t>NPC (Education Edition)</t>
+  </si>
+  <si>
+    <t>NPC (Edição Educacional)</t>
+  </si>
+  <si>
+    <t>Nuclear Fallout</t>
+  </si>
+  <si>
+    <t>Queda de energia nuclear</t>
+  </si>
+  <si>
+    <t>Nuclear Throne</t>
+  </si>
+  <si>
+    <t>Trono nuclear</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Número</t>
+  </si>
+  <si>
+    <t>Nut</t>
+  </si>
+  <si>
+    <t>Porca</t>
+  </si>
+  <si>
+    <t>Ocean</t>
+  </si>
+  <si>
+    <t>Oceano</t>
+  </si>
+  <si>
+    <t>Octodad</t>
+  </si>
+  <si>
+    <t>Oddworld</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>DESLIGADO</t>
+  </si>
+  <si>
+    <t>Officer Cap</t>
+  </si>
+  <si>
+    <t>Boné de oficial</t>
+  </si>
+  <si>
+    <t>Oggy and the Cockroaches</t>
+  </si>
+  <si>
+    <t>Oggy e as baratas</t>
+  </si>
+  <si>
+    <t>Okegom</t>
+  </si>
+  <si>
+    <t>Old</t>
+  </si>
+  <si>
+    <t>Antiga</t>
+  </si>
+  <si>
+    <t>Oliver &amp; Co</t>
+  </si>
+  <si>
+    <t>Omori</t>
+  </si>
+  <si>
+    <t>One Piece</t>
+  </si>
+  <si>
+    <t>Uma peça</t>
+  </si>
+  <si>
+    <t>One Punch Man</t>
+  </si>
+  <si>
+    <t>OneShot</t>
+  </si>
+  <si>
+    <t>Ongezellig</t>
+  </si>
+  <si>
+    <t>Onii-chan wa Oshimai</t>
+  </si>
+  <si>
+    <t>Open Source Objects</t>
+  </si>
+  <si>
+    <t>Objectos de código aberto</t>
+  </si>
+  <si>
+    <t>Orb</t>
+  </si>
+  <si>
+    <t>Orbe</t>
+  </si>
+  <si>
+    <t>Orc</t>
+  </si>
+  <si>
+    <t>Ore</t>
+  </si>
+  <si>
+    <t>Minério</t>
+  </si>
+  <si>
+    <t>Organs and Bodyparts</t>
+  </si>
+  <si>
+    <t>Órgãos e partes do corpo</t>
+  </si>
+  <si>
+    <t>Other Headgear</t>
+  </si>
+  <si>
+    <t>Outros chapéus</t>
+  </si>
+  <si>
+    <t>Other Illumination</t>
+  </si>
+  <si>
+    <t>Outra iluminação</t>
+  </si>
+  <si>
+    <t>Other Mystic Creature</t>
+  </si>
+  <si>
+    <t>Outra criatura mística</t>
+  </si>
+  <si>
+    <t>Outer Layer Block</t>
+  </si>
+  <si>
+    <t>Bloco da camada exterior</t>
+  </si>
+  <si>
+    <t>Overlord</t>
+  </si>
+  <si>
+    <t>Soberano</t>
+  </si>
+  <si>
+    <t>Overwatch</t>
+  </si>
+  <si>
+    <t>Pac-Man</t>
+  </si>
+  <si>
+    <t>Pacific Rim</t>
+  </si>
+  <si>
+    <t>A Orla do Pacífico</t>
+  </si>
+  <si>
+    <t>Pacifier</t>
+  </si>
+  <si>
+    <t>Chupeta</t>
+  </si>
+  <si>
+    <t>Painted Face</t>
+  </si>
+  <si>
+    <t>Rosto pintado</t>
+  </si>
+  <si>
+    <t>Pale Garden (inspired)</t>
+  </si>
+  <si>
+    <t>Pale Garden (inspirado)</t>
+  </si>
+  <si>
+    <t>Panda Bear</t>
+  </si>
+  <si>
+    <t>Urso Panda</t>
+  </si>
+  <si>
+    <t>Pans Labyrinth</t>
+  </si>
+  <si>
+    <t>Labirinto de Panelas</t>
+  </si>
+  <si>
+    <t>Papers Please</t>
+  </si>
+  <si>
+    <t>Documentos por favor</t>
+  </si>
+  <si>
+    <t>PaRappa the Rapper</t>
+  </si>
+  <si>
+    <t>PaRappa, o Rapper</t>
+  </si>
+  <si>
+    <t>Party</t>
+  </si>
+  <si>
+    <t>Festa</t>
+  </si>
+  <si>
+    <t>Pastries and Sweets</t>
+  </si>
+  <si>
+    <t>Pastelaria e doces</t>
+  </si>
+  <si>
+    <t>Paw Patrol</t>
+  </si>
+  <si>
+    <t>Patrulha da Pata</t>
+  </si>
+  <si>
+    <t>Payday</t>
+  </si>
+  <si>
+    <t>Dia de pagamento</t>
+  </si>
+  <si>
+    <t>Peanuts (Snoopy)</t>
+  </si>
+  <si>
+    <t>Penguin</t>
+  </si>
+  <si>
+    <t>Pinguim</t>
+  </si>
+  <si>
+    <t>Peppa Pig</t>
+  </si>
+  <si>
+    <t>Periodic Table of Elements</t>
+  </si>
+  <si>
+    <t>Tabela Periódica dos Elementos</t>
+  </si>
+  <si>
+    <t>Persona</t>
+  </si>
+  <si>
+    <t>Pet Equipment</t>
+  </si>
+  <si>
+    <t>Equipamento para animais de estimação</t>
+  </si>
+  <si>
+    <t>Peter Pan</t>
+  </si>
+  <si>
+    <t>Phantom</t>
+  </si>
+  <si>
+    <t>Phineas &amp; Ferb</t>
+  </si>
+  <si>
+    <t>Pig</t>
+  </si>
+  <si>
+    <t>Porco</t>
+  </si>
+  <si>
+    <t>Piglin</t>
+  </si>
+  <si>
+    <t>Pigman</t>
+  </si>
+  <si>
+    <t>Pikmin</t>
+  </si>
+  <si>
+    <t>Pingu</t>
+  </si>
+  <si>
+    <t>Pink Panther</t>
+  </si>
+  <si>
+    <t>Pantera cor-de-rosa</t>
+  </si>
+  <si>
+    <t>Pinky and the Brain</t>
+  </si>
+  <si>
+    <t>O mindinho e o cérebro</t>
+  </si>
+  <si>
+    <t>Pinocchio</t>
+  </si>
+  <si>
+    <t>Pinóquio</t>
+  </si>
+  <si>
+    <t>Pirates of the Caribbean</t>
+  </si>
+  <si>
+    <t>Piratas das Caraíbas</t>
+  </si>
+  <si>
+    <t>Pizza Tower</t>
+  </si>
+  <si>
+    <t>Torre de pizza</t>
+  </si>
+  <si>
+    <t>Planet</t>
+  </si>
+  <si>
+    <t>Planeta</t>
+  </si>
+  <si>
+    <t>Plants vs. Zombies</t>
+  </si>
+  <si>
+    <t>Plantas vs. Zombies</t>
+  </si>
+  <si>
+    <t>Playerunknown's Battlegrounds</t>
+  </si>
+  <si>
+    <t>Pocahontas</t>
+  </si>
+  <si>
+    <t>Pokeball</t>
+  </si>
+  <si>
+    <t>Pokebola</t>
+  </si>
+  <si>
+    <t>Pokemon</t>
+  </si>
+  <si>
+    <t>Pokémon</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 1</t>
+  </si>
+  <si>
+    <t>Pokémon Geração 1</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 2</t>
+  </si>
+  <si>
+    <t>Pokémon Geração 2</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 3</t>
+  </si>
+  <si>
+    <t>Pokémon Geração 3</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 4</t>
+  </si>
+  <si>
+    <t>Pokémon Geração 4</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 5</t>
+  </si>
+  <si>
+    <t>Pokémon Geração 5</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 6</t>
+  </si>
+  <si>
+    <t>Pokémon Geração 6</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 7</t>
+  </si>
+  <si>
+    <t>Pokémon Geração 7</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 8</t>
+  </si>
+  <si>
+    <t>Pokémon Geração 8</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 9</t>
+  </si>
+  <si>
+    <t>Pokémon Geração 9</t>
+  </si>
+  <si>
+    <t>Pokemon Items</t>
+  </si>
+  <si>
+    <t>Itens Pokémon</t>
+  </si>
+  <si>
+    <t>Pokemon Trainer</t>
+  </si>
+  <si>
+    <t>Treinador de Pokémon</t>
+  </si>
+  <si>
+    <t>Polar Bear</t>
+  </si>
+  <si>
+    <t>Urso Polar</t>
+  </si>
+  <si>
+    <t>Police</t>
+  </si>
+  <si>
+    <t>Polícia</t>
+  </si>
+  <si>
+    <t>Pom Poko</t>
+  </si>
+  <si>
+    <t>Ponyo</t>
+  </si>
+  <si>
+    <t>Pop Team Epic</t>
+  </si>
+  <si>
+    <t>Equipa Pop Epic</t>
+  </si>
+  <si>
+    <t>POPGOES</t>
+  </si>
+  <si>
+    <t>Poppy Playtime</t>
+  </si>
+  <si>
+    <t>Hora de brincar da papoila</t>
+  </si>
+  <si>
+    <t>Porco Rosso</t>
+  </si>
+  <si>
+    <t>Portal</t>
+  </si>
+  <si>
+    <t>Postman Pat</t>
+  </si>
+  <si>
+    <t>Carteiro Pat</t>
+  </si>
+  <si>
+    <t>Power Rangers</t>
+  </si>
+  <si>
+    <t>Powerpuff Girls</t>
+  </si>
+  <si>
+    <t>As Meninas Superpoderosas</t>
+  </si>
+  <si>
+    <t>Predator</t>
+  </si>
+  <si>
+    <t>Predador</t>
+  </si>
+  <si>
+    <t>Present</t>
+  </si>
+  <si>
+    <t>Presente</t>
+  </si>
+  <si>
+    <t>Pride</t>
+  </si>
+  <si>
+    <t>Orgulho</t>
+  </si>
+  <si>
+    <t>Primate</t>
+  </si>
+  <si>
+    <t>Primata</t>
+  </si>
+  <si>
+    <t>Princess Mononoke</t>
+  </si>
+  <si>
+    <t>Princesa Mononoke</t>
+  </si>
+  <si>
+    <t>Prof Layton</t>
+  </si>
+  <si>
+    <t>Prof. Layton</t>
+  </si>
+  <si>
+    <t>Pumpkin</t>
+  </si>
+  <si>
+    <t>Abóbora</t>
+  </si>
+  <si>
+    <t>Pumpkin (Lit)</t>
+  </si>
+  <si>
+    <t>Abóbora (Lit)</t>
+  </si>
+  <si>
+    <t>Punctuation Mark</t>
+  </si>
+  <si>
+    <t>Marcador de pontuação</t>
+  </si>
+  <si>
+    <t>Quake</t>
+  </si>
+  <si>
+    <t>Terramoto</t>
+  </si>
+  <si>
+    <t>R.E.P.O.</t>
+  </si>
+  <si>
+    <t>Rabbit</t>
+  </si>
+  <si>
+    <t>Coelho</t>
+  </si>
+  <si>
+    <t>Railway</t>
+  </si>
+  <si>
+    <t>Caminho de ferro</t>
+  </si>
+  <si>
+    <t>Rain World</t>
+  </si>
+  <si>
+    <t>Mundo da chuva</t>
+  </si>
+  <si>
+    <t>Ratatouille</t>
+  </si>
+  <si>
+    <t>Ratchet &amp; Clank</t>
+  </si>
+  <si>
+    <t>Re:Creators</t>
+  </si>
+  <si>
+    <t>Re:Criadores</t>
+  </si>
+  <si>
+    <t>Re:Zero</t>
+  </si>
+  <si>
+    <t>Realm of the Mad God</t>
+  </si>
+  <si>
+    <t>Reino do Deus Louco</t>
+  </si>
+  <si>
+    <t>Red Dead Redemption</t>
+  </si>
+  <si>
+    <t>Red Riding Hood</t>
+  </si>
+  <si>
+    <t>Capuchinho Vermelho</t>
+  </si>
+  <si>
+    <t>Redstone</t>
+  </si>
+  <si>
+    <t>Regional Form Pokemon</t>
+  </si>
+  <si>
+    <t>Pokémon de Forma Regional</t>
+  </si>
+  <si>
+    <t>Regretavator</t>
+  </si>
+  <si>
+    <t>Regretavador</t>
+  </si>
+  <si>
+    <t>Regular Show</t>
+  </si>
+  <si>
+    <t>Programa regular</t>
+  </si>
+  <si>
+    <t>Religion</t>
+  </si>
+  <si>
+    <t>Religião</t>
+  </si>
+  <si>
+    <t>Reptile</t>
+  </si>
+  <si>
+    <t>Réptil</t>
+  </si>
+  <si>
+    <t>Rescue Rangers</t>
+  </si>
+  <si>
+    <t>Guardas florestais de resgate</t>
+  </si>
+  <si>
+    <t>Resident Evil</t>
+  </si>
+  <si>
+    <t>Rhythm Heaven</t>
+  </si>
+  <si>
+    <t>Ritmo do céu</t>
+  </si>
+  <si>
+    <t>Ribbon</t>
+  </si>
+  <si>
+    <t>Fita</t>
+  </si>
+  <si>
+    <t>Rick and Morty</t>
+  </si>
+  <si>
+    <t>Rick e Morty</t>
+  </si>
+  <si>
+    <t>Risk of Rain</t>
+  </si>
+  <si>
+    <t>Risco de chuva</t>
+  </si>
+  <si>
+    <t>Rival of Aether</t>
+  </si>
+  <si>
+    <t>Rival de Aether</t>
+  </si>
+  <si>
+    <t>River</t>
+  </si>
+  <si>
+    <t>Rio</t>
+  </si>
+  <si>
+    <t>Riverdale</t>
+  </si>
+  <si>
+    <t>Robin Hood</t>
+  </si>
+  <si>
+    <t>Robin dos Bosques</t>
+  </si>
+  <si>
+    <t>Roblox</t>
+  </si>
+  <si>
+    <t>RoboCop</t>
+  </si>
+  <si>
+    <t>Robot</t>
+  </si>
+  <si>
+    <t>Robô</t>
+  </si>
+  <si>
+    <t>Rocky</t>
+  </si>
+  <si>
+    <t>Rochoso</t>
+  </si>
+  <si>
+    <t>Rocky Horror Picture Show</t>
+  </si>
+  <si>
+    <t>Rodent</t>
+  </si>
+  <si>
+    <t>Roedor</t>
+  </si>
+  <si>
+    <t>Rotated Entity</t>
+  </si>
+  <si>
+    <t>Entidade rotativa</t>
+  </si>
+  <si>
+    <t>Royal Headgear</t>
+  </si>
+  <si>
+    <t>Capacete real</t>
+  </si>
+  <si>
+    <t>Rune</t>
+  </si>
+  <si>
+    <t>Runa</t>
+  </si>
+  <si>
+    <t>Runescape</t>
+  </si>
+  <si>
+    <t>RWBY</t>
+  </si>
+  <si>
+    <t>Sackboy: A Big Adventure</t>
+  </si>
+  <si>
+    <t>Sackboy: Uma Grande Aventura</t>
+  </si>
+  <si>
+    <t>Sad Creature</t>
+  </si>
+  <si>
+    <t>Criatura triste</t>
+  </si>
+  <si>
+    <t>Sad Person</t>
+  </si>
+  <si>
+    <t>Pessoa triste</t>
+  </si>
+  <si>
+    <t>Safari (Other)</t>
+  </si>
+  <si>
+    <t>Safari (Outro)</t>
+  </si>
+  <si>
+    <t>Saga of Tanya the Evil</t>
+  </si>
+  <si>
+    <t>Saga de Tanya, a Malvada</t>
+  </si>
+  <si>
+    <t>Sailor Moon</t>
+  </si>
+  <si>
+    <t>Sakurasou no Pet na Kanojo</t>
+  </si>
+  <si>
+    <t>Samurai Helmet</t>
+  </si>
+  <si>
+    <t>Capacete de samurai</t>
+  </si>
+  <si>
+    <t>Satisfactory</t>
+  </si>
+  <si>
+    <t>Satisfatório</t>
+  </si>
+  <si>
+    <t>Saw</t>
+  </si>
+  <si>
+    <t>Serra</t>
+  </si>
+  <si>
+    <t>Scarf</t>
+  </si>
+  <si>
+    <t>Cachecol</t>
+  </si>
+  <si>
+    <t>Scooby-Doo</t>
+  </si>
+  <si>
+    <t>SCP Containment Breach</t>
+  </si>
+  <si>
+    <t>Violação da contenção do SCP</t>
+  </si>
+  <si>
+    <t>Scream</t>
+  </si>
+  <si>
+    <t>Gritar</t>
+  </si>
+  <si>
+    <t>Scribblenauts</t>
+  </si>
+  <si>
+    <t>Sea of Thieves</t>
+  </si>
+  <si>
+    <t>Seafarer</t>
+  </si>
+  <si>
+    <t>Marinheiro</t>
+  </si>
+  <si>
+    <t>Seraph of the End</t>
+  </si>
+  <si>
+    <t>Serafim do Fim</t>
+  </si>
+  <si>
+    <t>Serial Experiments Lain</t>
+  </si>
+  <si>
+    <t>Experiências em série Lain</t>
+  </si>
+  <si>
+    <t>Sesame Street</t>
+  </si>
+  <si>
+    <t>Rua Sésamo</t>
+  </si>
+  <si>
+    <t>Seven Deadly Sins</t>
+  </si>
+  <si>
+    <t>Sete Pecados Mortais</t>
+  </si>
+  <si>
+    <t>Shadow of the Colossus</t>
+  </si>
+  <si>
+    <t>Shadows of Mordor</t>
+  </si>
+  <si>
+    <t>Sombras de Mordor</t>
+  </si>
+  <si>
+    <t>Sheep</t>
+  </si>
+  <si>
+    <t>Ovinos</t>
+  </si>
+  <si>
+    <t>Sherlock Holmes</t>
+  </si>
+  <si>
+    <t>Shigatsu wa Kimi no Uso</t>
+  </si>
+  <si>
+    <t>Shimoneta</t>
+  </si>
+  <si>
+    <t>Shiny Pokemon</t>
+  </si>
+  <si>
+    <t>Pokémon Brilhantes</t>
+  </si>
+  <si>
+    <t>Shipping</t>
+  </si>
+  <si>
+    <t>Expedição</t>
+  </si>
+  <si>
+    <t>Shovel Knight</t>
+  </si>
+  <si>
+    <t>Cavaleiro de Pá</t>
+  </si>
+  <si>
+    <t>Shrek</t>
+  </si>
+  <si>
+    <t>Shulker</t>
+  </si>
+  <si>
+    <t>Silent Hill</t>
+  </si>
+  <si>
+    <t>SilvaGunner</t>
+  </si>
+  <si>
+    <t>Simpsons</t>
+  </si>
+  <si>
+    <t>Skeleton</t>
+  </si>
+  <si>
+    <t>Esqueleto</t>
+  </si>
+  <si>
+    <t>Skeleton (Vanilla)</t>
+  </si>
+  <si>
+    <t>Esqueleto (Baunilha)</t>
+  </si>
+  <si>
+    <t>Skeptical Creature</t>
+  </si>
+  <si>
+    <t>Criatura cética</t>
+  </si>
+  <si>
+    <t>Skeptical Person</t>
+  </si>
+  <si>
+    <t>Pessoa cética</t>
+  </si>
+  <si>
+    <t>Skullgirls</t>
+  </si>
+  <si>
+    <t>Skyrim</t>
+  </si>
+  <si>
+    <t>Sleeping Beauty</t>
+  </si>
+  <si>
+    <t>A Bela Adormecida</t>
+  </si>
+  <si>
+    <t>Sleeping Creature</t>
+  </si>
+  <si>
+    <t>Criatura adormecida</t>
+  </si>
+  <si>
+    <t>Sleeping Person</t>
+  </si>
+  <si>
+    <t>Pessoa que dorme</t>
+  </si>
+  <si>
+    <t>Sliced</t>
+  </si>
+  <si>
+    <t>Fatiado</t>
+  </si>
+  <si>
+    <t>Slime</t>
+  </si>
+  <si>
+    <t>Lodo</t>
+  </si>
+  <si>
+    <t>Slime (Vanilla)</t>
+  </si>
+  <si>
+    <t>Lodo (Baunilha)</t>
+  </si>
+  <si>
+    <t>Slime Rancher</t>
+  </si>
+  <si>
+    <t>Rancheiro de limo</t>
+  </si>
+  <si>
+    <t>Slimefun</t>
+  </si>
+  <si>
+    <t>Sly Cooper</t>
+  </si>
+  <si>
+    <t>Smite Gods</t>
+  </si>
+  <si>
+    <t>Deuses do golpe</t>
+  </si>
+  <si>
+    <t>Smoking</t>
+  </si>
+  <si>
+    <t>Fumar</t>
+  </si>
+  <si>
+    <t>Smurfs</t>
+  </si>
+  <si>
+    <t>Snow Fight</t>
+  </si>
+  <si>
+    <t>Luta na neve</t>
+  </si>
+  <si>
+    <t>Snow Sculpture</t>
+  </si>
+  <si>
+    <t>Escultura de neve</t>
+  </si>
+  <si>
+    <t>Snow White and the Seven Dwarfs</t>
+  </si>
+  <si>
+    <t>Branca de Neve e os Sete Anões</t>
+  </si>
+  <si>
+    <t>Songs of War</t>
+  </si>
+  <si>
+    <t>Canções de guerra</t>
+  </si>
+  <si>
+    <t>Sonic the Hedgehog</t>
+  </si>
+  <si>
+    <t>Sonic, o Ouriço</t>
+  </si>
+  <si>
+    <t>Soul Knight</t>
+  </si>
+  <si>
+    <t>Cavaleiro das Almas</t>
+  </si>
+  <si>
+    <t>South Park</t>
+  </si>
+  <si>
+    <t>Parque Sul</t>
+  </si>
+  <si>
+    <t>Space Travel</t>
+  </si>
+  <si>
+    <t>Viagens espaciais</t>
+  </si>
+  <si>
+    <t>Spawn Egg</t>
+  </si>
+  <si>
+    <t>Ovo de desova</t>
+  </si>
+  <si>
+    <t>Spawner</t>
+  </si>
+  <si>
+    <t>Criador</t>
+  </si>
+  <si>
+    <t>Spelunky</t>
+  </si>
+  <si>
+    <t>Spider</t>
+  </si>
+  <si>
+    <t>Aranha</t>
+  </si>
+  <si>
+    <t>Spider (Vanilla)</t>
+  </si>
+  <si>
+    <t>Aranha (Baunilha)</t>
+  </si>
+  <si>
+    <t>Spiderman</t>
+  </si>
+  <si>
+    <t>Homem-Aranha</t>
+  </si>
+  <si>
+    <t>Spirited Away</t>
+  </si>
+  <si>
+    <t>A Viagem de Chihiro</t>
+  </si>
+  <si>
+    <t>Splatoon</t>
+  </si>
+  <si>
+    <t>Spongebob Squarepants</t>
+  </si>
+  <si>
+    <t>Spooky's Jump Scare Mansion</t>
+  </si>
+  <si>
+    <t>Mansão assustadora de saltos do Spooky</t>
+  </si>
+  <si>
+    <t>Spore</t>
+  </si>
+  <si>
+    <t>Esporo</t>
+  </si>
+  <si>
+    <t>Sport</t>
+  </si>
+  <si>
+    <t>Desporto</t>
+  </si>
+  <si>
+    <t>Spreads</t>
+  </si>
+  <si>
+    <t>Spring to Life</t>
+  </si>
+  <si>
+    <t>primavera para a vida</t>
+  </si>
+  <si>
+    <t>Spy x Family</t>
+  </si>
+  <si>
+    <t>Espião x Família</t>
+  </si>
+  <si>
+    <t>Spyro</t>
+  </si>
+  <si>
+    <t>Squid Game</t>
+  </si>
+  <si>
+    <t>Jogo da lula</t>
+  </si>
+  <si>
+    <t>St. Patrick's Day</t>
+  </si>
+  <si>
+    <t>Dia de São Patrício</t>
+  </si>
+  <si>
+    <t>StackUp</t>
+  </si>
+  <si>
+    <t>Empilhar</t>
+  </si>
+  <si>
+    <t>Star Fox</t>
+  </si>
+  <si>
+    <t>Raposa Estelar</t>
+  </si>
+  <si>
+    <t>Star Trek</t>
+  </si>
+  <si>
+    <t>Caminho das Estrelas</t>
+  </si>
+  <si>
+    <t>Star vs the Forces of Evil</t>
+  </si>
+  <si>
+    <t>A Estrela contra as Forças do Mal</t>
+  </si>
+  <si>
+    <t>Star Wars</t>
+  </si>
+  <si>
+    <t>Guerra das Estrelas</t>
+  </si>
+  <si>
+    <t>Star Wars Helmet</t>
+  </si>
+  <si>
+    <t>Capacete da Guerra das Estrelas</t>
+  </si>
+  <si>
+    <t>Star Wars Trooper Helmet</t>
+  </si>
+  <si>
+    <t>Capacete de soldado da Guerra das Estrelas</t>
+  </si>
+  <si>
+    <t>Starbucks</t>
+  </si>
+  <si>
+    <t>StarCraft</t>
+  </si>
+  <si>
+    <t>Stardew Valley</t>
+  </si>
+  <si>
+    <t>Starter Pokemon</t>
+  </si>
+  <si>
+    <t>Pokémon inicial</t>
+  </si>
+  <si>
+    <t>Stationery</t>
+  </si>
+  <si>
+    <t>Artigos de papelaria</t>
+  </si>
+  <si>
+    <t>Steampunk</t>
+  </si>
+  <si>
+    <t>Steins;Gate</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
+    <t>Steven Universe</t>
+  </si>
+  <si>
+    <t>Steven Universo</t>
+  </si>
+  <si>
+    <t>Stone</t>
+  </si>
+  <si>
+    <t>Pedra</t>
+  </si>
+  <si>
+    <t>Storage (other)</t>
+  </si>
+  <si>
+    <t>Armazenamento (outros)</t>
+  </si>
+  <si>
+    <t>Stranger Things</t>
+  </si>
+  <si>
+    <t>Street Fighter</t>
+  </si>
+  <si>
+    <t>Lutador de rua</t>
+  </si>
+  <si>
+    <t>Strider</t>
+  </si>
+  <si>
+    <t>Subnautica</t>
+  </si>
+  <si>
+    <t>Summer</t>
+  </si>
+  <si>
+    <t>verão</t>
+  </si>
+  <si>
+    <t>Sunglasses</t>
+  </si>
+  <si>
+    <t>Óculos de sol</t>
+  </si>
+  <si>
+    <t>Super Mario</t>
+  </si>
+  <si>
+    <t>Supernatural</t>
+  </si>
+  <si>
+    <t>Sobrenatural</t>
+  </si>
+  <si>
+    <t>Surprised Creature</t>
+  </si>
+  <si>
+    <t>Criatura Surpreendida</t>
+  </si>
+  <si>
+    <t>Surprised Person</t>
+  </si>
+  <si>
+    <t>Pessoa surpreendida</t>
+  </si>
+  <si>
+    <t>Sushi</t>
+  </si>
+  <si>
+    <t>Swamp</t>
+  </si>
+  <si>
+    <t>Pântano</t>
+  </si>
+  <si>
+    <t>Sword Art Online</t>
+  </si>
+  <si>
+    <t>TaleSpin</t>
+  </si>
+  <si>
+    <t>Tangled</t>
+  </si>
+  <si>
+    <t>Enrolados</t>
+  </si>
+  <si>
+    <t>Tattletail</t>
+  </si>
+  <si>
+    <t>Team Fortress 2</t>
+  </si>
+  <si>
+    <t>Teletubbies</t>
+  </si>
+  <si>
+    <t>Terraria</t>
+  </si>
+  <si>
+    <t>Terraria (Calamity)</t>
+  </si>
+  <si>
+    <t>Terraria (Calamidade)</t>
+  </si>
+  <si>
+    <t>Tetris</t>
+  </si>
+  <si>
+    <t>Thanksgiving</t>
+  </si>
+  <si>
+    <t>Ação de Graças</t>
+  </si>
+  <si>
+    <t>That Time I Got Reincarnated as a Slime</t>
+  </si>
+  <si>
+    <t>Aquela vez em que reencarnei como um Slime</t>
+  </si>
+  <si>
+    <t>Thaumcraft</t>
+  </si>
+  <si>
+    <t>The Adventures of Tintin</t>
+  </si>
+  <si>
+    <t>As Aventuras de Tintin</t>
+  </si>
+  <si>
+    <t>The Amazing Digital Circus</t>
+  </si>
+  <si>
+    <t>O incrível circo digital</t>
+  </si>
+  <si>
+    <t>The Amazing World of Gumball</t>
+  </si>
+  <si>
+    <t>O Incrível Mundo de Gumball</t>
+  </si>
+  <si>
+    <t>The Binding of Isaac</t>
+  </si>
+  <si>
+    <t>The Boys</t>
+  </si>
+  <si>
+    <t>Os rapazes</t>
+  </si>
+  <si>
+    <t>The Cat Returns</t>
+  </si>
+  <si>
+    <t>O gato regressa</t>
+  </si>
+  <si>
+    <t>The Conjuring</t>
+  </si>
+  <si>
+    <t>A Conjuração</t>
+  </si>
+  <si>
+    <t>The Copper Age</t>
+  </si>
+  <si>
+    <t>A Idade do Cobre</t>
+  </si>
+  <si>
+    <t>The Emperor's New Groove</t>
+  </si>
+  <si>
+    <t>O novo ritmo do imperador</t>
+  </si>
+  <si>
+    <t>The English Ensemble Stars</t>
+  </si>
+  <si>
+    <t>As estrelas do ensemble inglês</t>
+  </si>
+  <si>
+    <t>The Fairly OddParents</t>
+  </si>
+  <si>
+    <t>The Finals</t>
+  </si>
+  <si>
+    <t>As finais</t>
+  </si>
+  <si>
+    <t>The Flash</t>
+  </si>
+  <si>
+    <t>O Flash</t>
+  </si>
+  <si>
+    <t>The Flintstones</t>
+  </si>
+  <si>
+    <t>Os Flintstones</t>
+  </si>
+  <si>
+    <t>The Fly</t>
+  </si>
+  <si>
+    <t>A Mosca</t>
+  </si>
+  <si>
+    <t>The Garden Awakens</t>
+  </si>
+  <si>
+    <t>O jardim desperta</t>
+  </si>
+  <si>
+    <t>The Good Dinosaur</t>
+  </si>
+  <si>
+    <t>O Bom Dinossauro</t>
+  </si>
+  <si>
+    <t>The Great Mouse Detective</t>
+  </si>
+  <si>
+    <t>O Grande Rato Detetive</t>
+  </si>
+  <si>
+    <t>The Grim Adventures of Billy &amp; Mandy</t>
+  </si>
+  <si>
+    <t>As aventuras sinistras de Billy e Mandy</t>
+  </si>
+  <si>
+    <t>The Hunchback of Notre Dame</t>
+  </si>
+  <si>
+    <t>O Corcunda de Notre Dame</t>
+  </si>
+  <si>
+    <t>The Iron Giant</t>
+  </si>
+  <si>
+    <t>O Gigante de Ferro</t>
+  </si>
+  <si>
+    <t>The Last Guardian</t>
+  </si>
+  <si>
+    <t>O Último Guardião</t>
+  </si>
+  <si>
+    <t>The Last of Us</t>
+  </si>
+  <si>
+    <t>The Legend of Zelda</t>
+  </si>
+  <si>
+    <t>A Lenda de Zelda</t>
+  </si>
+  <si>
+    <t>The Lorax</t>
+  </si>
+  <si>
+    <t>O Lorax</t>
+  </si>
+  <si>
+    <t>The Neverhood</t>
+  </si>
+  <si>
+    <t>O Nunca</t>
+  </si>
+  <si>
+    <t>The Owl House</t>
+  </si>
+  <si>
+    <t>A Casa da Coruja</t>
+  </si>
+  <si>
+    <t>The Princess and the Frog</t>
+  </si>
+  <si>
+    <t>A Princesa e o Sapo</t>
+  </si>
+  <si>
+    <t>The Ren &amp; Stimpy Show</t>
+  </si>
+  <si>
+    <t>O programa Ren &amp; Stimpy</t>
+  </si>
+  <si>
+    <t>The Road to El Dorado</t>
+  </si>
+  <si>
+    <t>O caminho para El Dorado</t>
+  </si>
+  <si>
+    <t>The Texas Chainsaw Massacre</t>
+  </si>
+  <si>
+    <t>O Massacre da Serra Elétrica</t>
+  </si>
+  <si>
+    <t>The Three Caballeros</t>
+  </si>
+  <si>
+    <t>Os Três Caballeros</t>
+  </si>
+  <si>
+    <t>The Walten Files</t>
+  </si>
+  <si>
+    <t>Os Ficheiros Walten</t>
+  </si>
+  <si>
+    <t>The Woody Woodpecker Show</t>
+  </si>
+  <si>
+    <t>O espetáculo do Pica-pau</t>
+  </si>
+  <si>
+    <t>Thomas &amp; Friends</t>
+  </si>
+  <si>
+    <t>Thor</t>
+  </si>
+  <si>
+    <t>Those Nights at Rachel's</t>
+  </si>
+  <si>
+    <t>Aquelas noites na casa da Rachel</t>
+  </si>
+  <si>
+    <t>Tinker's Construct</t>
+  </si>
+  <si>
+    <t>Construção do funileiro</t>
+  </si>
+  <si>
+    <t>Titanfall</t>
+  </si>
+  <si>
+    <t>Tokyo Ghoul</t>
+  </si>
+  <si>
+    <t>Tom and Jerry</t>
+  </si>
+  <si>
+    <t>Tom e Jerry</t>
+  </si>
+  <si>
+    <t>Tomb Raider</t>
+  </si>
+  <si>
+    <t>Tomorrow's Pioneers</t>
+  </si>
+  <si>
+    <t>Os pioneiros de amanhã</t>
+  </si>
+  <si>
+    <t>Tooth Gap</t>
+  </si>
+  <si>
+    <t>Lacuna dentária</t>
+  </si>
+  <si>
+    <t>Toradora</t>
+  </si>
+  <si>
+    <t>Total Drama Island</t>
+  </si>
+  <si>
+    <t>Ilha do Drama Total</t>
+  </si>
+  <si>
+    <t>Touhou Project</t>
+  </si>
+  <si>
+    <t>Projeto Touhou</t>
+  </si>
+  <si>
+    <t>Toy</t>
+  </si>
+  <si>
+    <t>Brinquedo</t>
+  </si>
+  <si>
+    <t>Toy Story</t>
+  </si>
+  <si>
+    <t>Traffic</t>
+  </si>
+  <si>
+    <t>Tráfego</t>
+  </si>
+  <si>
+    <t>Traffic Light</t>
+  </si>
+  <si>
+    <t>Semáforo</t>
+  </si>
+  <si>
+    <t>Traffic Sign</t>
+  </si>
+  <si>
+    <t>Sinal de trânsito</t>
+  </si>
+  <si>
+    <t>Trails and Tales</t>
+  </si>
+  <si>
+    <t>Trilhos e contos</t>
+  </si>
+  <si>
+    <t>Transformers</t>
+  </si>
+  <si>
+    <t>Transformadores</t>
+  </si>
+  <si>
+    <t>Transformice</t>
+  </si>
+  <si>
+    <t>Transparent Head</t>
+  </si>
+  <si>
+    <t>Cabeça transparente</t>
+  </si>
+  <si>
+    <t>Trash Can</t>
+  </si>
+  <si>
+    <t>Caixote do lixo</t>
+  </si>
+  <si>
+    <t>Treasure</t>
+  </si>
+  <si>
+    <t>Tesouro</t>
+  </si>
+  <si>
+    <t>Treasure Planet</t>
+  </si>
+  <si>
+    <t>Planeta do Tesouro</t>
+  </si>
+  <si>
+    <t>Tricky Trials Update</t>
+  </si>
+  <si>
+    <t>Atualização do Tricky Trials</t>
+  </si>
+  <si>
+    <t>Tron</t>
+  </si>
+  <si>
+    <t>Turtle</t>
+  </si>
+  <si>
+    <t>Tartaruga</t>
+  </si>
+  <si>
+    <t>Twilight Forest</t>
+  </si>
+  <si>
+    <t>Floresta do Crepúsculo</t>
+  </si>
+  <si>
+    <t>Twisted Wonderland</t>
+  </si>
+  <si>
+    <t>País das Maravilhas retorcido</t>
+  </si>
+  <si>
+    <t>Ultrakill</t>
+  </si>
+  <si>
+    <t>Umineko - When They Cry</t>
+  </si>
+  <si>
+    <t>Umineko - Quando Choram</t>
+  </si>
+  <si>
+    <t>Undertale</t>
+  </si>
+  <si>
+    <t>Undertale AU</t>
+  </si>
+  <si>
+    <t>Undertale Yellow</t>
+  </si>
+  <si>
+    <t>Undertale Amarelo</t>
+  </si>
+  <si>
+    <t>Universal Symbol</t>
+  </si>
+  <si>
+    <t>Símbolo Universal</t>
+  </si>
+  <si>
+    <t>Up</t>
+  </si>
+  <si>
+    <t>Para cima</t>
+  </si>
+  <si>
+    <t>Urban Wildlife</t>
+  </si>
+  <si>
+    <t>Vida selvagem urbana</t>
+  </si>
+  <si>
+    <t>V for Vendetta</t>
+  </si>
+  <si>
+    <t>V de Vingança</t>
+  </si>
+  <si>
+    <t>Valentines</t>
+  </si>
+  <si>
+    <t>Namorados</t>
+  </si>
+  <si>
+    <t>Valorant</t>
+  </si>
+  <si>
+    <t>Valorante</t>
+  </si>
+  <si>
+    <t>Vanilla (removed)</t>
+  </si>
+  <si>
+    <t>Baunilha (removido)</t>
+  </si>
+  <si>
+    <t>Vanilla Block</t>
+  </si>
+  <si>
+    <t>Bloco de baunilha</t>
+  </si>
+  <si>
+    <t>Vanilla Food</t>
+  </si>
+  <si>
+    <t>Alimentos à base de baunilha</t>
+  </si>
+  <si>
+    <t>Vanilla Helmet</t>
+  </si>
+  <si>
+    <t>Capacete Vanilla</t>
+  </si>
+  <si>
+    <t>Vanilla Item</t>
+  </si>
+  <si>
+    <t>Baunilha Item</t>
+  </si>
+  <si>
+    <t>Vanilla Mob</t>
+  </si>
+  <si>
+    <t>Vault Hunters</t>
+  </si>
+  <si>
+    <t>Caçadores de abóbadas</t>
+  </si>
+  <si>
+    <t>Vegetable</t>
+  </si>
+  <si>
+    <t>Vegetais</t>
+  </si>
+  <si>
+    <t>Vehicle</t>
+  </si>
+  <si>
+    <t>Veículo</t>
+  </si>
+  <si>
+    <t>Vikings</t>
+  </si>
+  <si>
+    <t>Villager</t>
+  </si>
+  <si>
+    <t>Aldeão</t>
+  </si>
+  <si>
+    <t>Villager (Desert)</t>
+  </si>
+  <si>
+    <t>Aldeão (Deserto)</t>
+  </si>
+  <si>
+    <t>Villager (Jungle)</t>
+  </si>
+  <si>
+    <t>Aldeão (Selva)</t>
+  </si>
+  <si>
+    <t>Villager (Plains)</t>
+  </si>
+  <si>
+    <t>Aldeão (Planícies)</t>
+  </si>
+  <si>
+    <t>Villager (Savanna)</t>
+  </si>
+  <si>
+    <t>Aldeão (Savana)</t>
+  </si>
+  <si>
+    <t>Villager (Snowy Tundra)</t>
+  </si>
+  <si>
+    <t>Aldeão (Tundra nevada)</t>
+  </si>
+  <si>
+    <t>Villager (Swamp)</t>
+  </si>
+  <si>
+    <t>Aldeão (Pântano)</t>
+  </si>
+  <si>
+    <t>Villager (Taiga)</t>
+  </si>
+  <si>
+    <t>Aldeão (Taiga)</t>
+  </si>
+  <si>
+    <t>Virtual Youtuber</t>
+  </si>
+  <si>
+    <t>Youtuber virtual</t>
+  </si>
+  <si>
+    <t>Vocaloid</t>
+  </si>
+  <si>
+    <t>Voltron</t>
+  </si>
+  <si>
+    <t>Wakfu</t>
+  </si>
+  <si>
+    <t>Walking Dead</t>
+  </si>
+  <si>
+    <t>Wall-E</t>
+  </si>
+  <si>
+    <t>Wallace and Gromit</t>
+  </si>
+  <si>
+    <t>Wallace e Gromit</t>
+  </si>
+  <si>
+    <t>War of the Worlds</t>
+  </si>
+  <si>
+    <t>Guerra dos Mundos</t>
+  </si>
+  <si>
+    <t>Warcraft</t>
+  </si>
+  <si>
+    <t>Warframe</t>
+  </si>
+  <si>
+    <t>Warhammer</t>
+  </si>
+  <si>
+    <t>Martelo de guerra</t>
+  </si>
+  <si>
+    <t>Warrior Cats</t>
+  </si>
+  <si>
+    <t>Gatos guerreiros</t>
+  </si>
+  <si>
+    <t>We Bear Bears</t>
+  </si>
+  <si>
+    <t>Nós, os ursos</t>
+  </si>
+  <si>
+    <t>We Happy Few</t>
+  </si>
+  <si>
+    <t>Nós, os Felizes</t>
+  </si>
+  <si>
+    <t>Weather</t>
+  </si>
+  <si>
+    <t>Tempo</t>
+  </si>
+  <si>
+    <t>Welcome Home</t>
+  </si>
+  <si>
+    <t>Bem-vindo a casa</t>
+  </si>
+  <si>
+    <t>Who is this?</t>
+  </si>
+  <si>
+    <t>Quem é este?</t>
+  </si>
+  <si>
+    <t>Wild Update</t>
+  </si>
+  <si>
+    <t>Atualização selvagem</t>
+  </si>
+  <si>
+    <t>Wings of Fire</t>
+  </si>
+  <si>
+    <t>Asas de fogo</t>
+  </si>
+  <si>
+    <t>Winnie the Pooh</t>
+  </si>
+  <si>
+    <t>Winter</t>
+  </si>
+  <si>
+    <t>inverno</t>
+  </si>
+  <si>
+    <t>Witcher</t>
+  </si>
+  <si>
+    <t>Wonderful Wonder World</t>
+  </si>
+  <si>
+    <t>Mundo maravilhoso</t>
+  </si>
+  <si>
+    <t>Wood</t>
+  </si>
+  <si>
+    <t>Madeira</t>
+  </si>
+  <si>
+    <t>Wool</t>
+  </si>
+  <si>
+    <t>Lã</t>
+  </si>
+  <si>
+    <t>Work Safety Helmet</t>
+  </si>
+  <si>
+    <t>Capacete de segurança no trabalho</t>
+  </si>
+  <si>
+    <t>Wreck It Ralph</t>
+  </si>
+  <si>
+    <t>Wybel</t>
+  </si>
+  <si>
+    <t>Wynncraft</t>
+  </si>
+  <si>
+    <t>X-Men</t>
+  </si>
+  <si>
+    <t>Xenoblade Chronicles</t>
+  </si>
+  <si>
+    <t>Yandere Simulator</t>
+  </si>
+  <si>
+    <t>Simulador Yandere</t>
+  </si>
+  <si>
+    <t>Yellow Submarine</t>
+  </si>
+  <si>
+    <t>Submarino Amarelo</t>
+  </si>
+  <si>
+    <t>Yokai</t>
+  </si>
+  <si>
+    <t>Yooka Laylee</t>
+  </si>
+  <si>
+    <t>Young</t>
+  </si>
+  <si>
+    <t>Jovem</t>
+  </si>
+  <si>
+    <t>Youtube</t>
+  </si>
+  <si>
+    <t>Yu-Gi-Oh</t>
+  </si>
+  <si>
+    <t>Yume Nikki</t>
+  </si>
+  <si>
+    <t>Zero no Tsukaima</t>
+  </si>
+  <si>
+    <t>Zero Wing</t>
+  </si>
+  <si>
+    <t>Asa Zero</t>
+  </si>
+  <si>
+    <t>Zodiac Sign</t>
+  </si>
+  <si>
+    <t>Signo do Zodíaco</t>
+  </si>
+  <si>
+    <t>Zombie</t>
+  </si>
+  <si>
+    <t>Zombie (Vanilla)</t>
+  </si>
+  <si>
+    <t>Zombie (Baunilha)</t>
+  </si>
+  <si>
+    <t>Zootopia</t>
+  </si>
+  <si>
     <t>Hypixel (Mutations) Tag</t>
   </si>
   <si>
     <t>Etiqueta Hypixel (Mutações)</t>
-  </si>
-  <si>
-    <t>Hypixel (NPC)</t>
-  </si>
-  <si>
-    <t>Hypixel (Pets)</t>
-  </si>
-  <si>
-    <t>Hypixel (Animais de estimação)</t>
-  </si>
-  <si>
-    <t>Hypixel (Reforge Stone)</t>
-  </si>
-  <si>
-    <t>Hipixel (Pedra de Reforja)</t>
-  </si>
-  <si>
-    <t>Hypixel (Sacks)</t>
-  </si>
-  <si>
-    <t>Hypixel (Skins)</t>
-  </si>
-  <si>
-    <t>Hypixel (Talismans)</t>
-  </si>
-  <si>
-    <t>Hypixel (Talismãs)</t>
-  </si>
-  <si>
-    <t>Hypixel (Trophy Fish)</t>
-  </si>
-  <si>
-    <t>Hypixel (Peixe Troféu)</t>
-  </si>
-  <si>
-    <t>Hōseki no Kuni (Land of the Lustrous)</t>
-  </si>
-  <si>
-    <t>Hōseki no Kuni (Terra dos Lustrosos)</t>
-  </si>
-  <si>
-    <t>Ib</t>
-  </si>
-  <si>
-    <t>Ice Age</t>
-  </si>
-  <si>
-    <t>A Idade do Gelo</t>
-  </si>
-  <si>
-    <t>Ice Climber</t>
-  </si>
-  <si>
-    <t>Alpinista de gelo</t>
-  </si>
-  <si>
-    <t>Ice Cream</t>
-  </si>
-  <si>
-    <t>Gelado</t>
-  </si>
-  <si>
-    <t>Icons (GUI)</t>
-  </si>
-  <si>
-    <t>Ícones (GUI)</t>
-  </si>
-  <si>
-    <t>Icons (Ironblock)</t>
-  </si>
-  <si>
-    <t>Ícones (Ironblock)</t>
-  </si>
-  <si>
-    <t>Icons (Other)</t>
-  </si>
-  <si>
-    <t>Ícones (Outros)</t>
-  </si>
-  <si>
-    <t>Icons (white background)</t>
-  </si>
-  <si>
-    <t>Ícones (fundo branco)</t>
-  </si>
-  <si>
-    <t>Identity V</t>
-  </si>
-  <si>
-    <t>Identidade V</t>
-  </si>
-  <si>
-    <t>Illager</t>
-  </si>
-  <si>
-    <t>Inazuma Eleven</t>
-  </si>
-  <si>
-    <t>Inazuma Onze</t>
-  </si>
-  <si>
-    <t>Incredibles</t>
-  </si>
-  <si>
-    <t>Os Incríveis</t>
-  </si>
-  <si>
-    <t>Indiana Jones</t>
-  </si>
-  <si>
-    <t>Indigo Park</t>
-  </si>
-  <si>
-    <t>Parque Indigo</t>
-  </si>
-  <si>
-    <t>Injuries</t>
-  </si>
-  <si>
-    <t>Lesões</t>
-  </si>
-  <si>
-    <t>Inner Layer Block</t>
-  </si>
-  <si>
-    <t>Bloco da camada interna</t>
-  </si>
-  <si>
-    <t>Inscryption</t>
-  </si>
-  <si>
-    <t>Encriptação</t>
-  </si>
-  <si>
-    <t>Insect</t>
-  </si>
-  <si>
-    <t>Inseto</t>
-  </si>
-  <si>
-    <t>Inside Out</t>
-  </si>
-  <si>
-    <t>De dentro para fora</t>
-  </si>
-  <si>
-    <t>Inu Yasha</t>
-  </si>
-  <si>
-    <t>Invader Zim</t>
-  </si>
-  <si>
-    <t>Invincible</t>
-  </si>
-  <si>
-    <t>Invencível</t>
-  </si>
-  <si>
-    <t>Iron Man</t>
-  </si>
-  <si>
-    <t>Homem de Ferro</t>
-  </si>
-  <si>
-    <t>It</t>
-  </si>
-  <si>
-    <t>É</t>
-  </si>
-  <si>
-    <t>Jak and Daxter</t>
-  </si>
-  <si>
-    <t>Jak e Daxter</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Japão</t>
-  </si>
-  <si>
-    <t>Jar</t>
-  </si>
-  <si>
-    <t>Jarro</t>
-  </si>
-  <si>
-    <t>Jewelry</t>
-  </si>
-  <si>
-    <t>Jóias</t>
-  </si>
-  <si>
-    <t>JoJo's Bizarre Adventure</t>
-  </si>
-  <si>
-    <t>A Aventura Bizarra de JoJo</t>
-  </si>
-  <si>
-    <t>JoJo's Bizarre Adventure (Stand)</t>
-  </si>
-  <si>
-    <t>Journey</t>
-  </si>
-  <si>
-    <t>Viagem</t>
-  </si>
-  <si>
-    <t>Jujutsu Kaisen</t>
-  </si>
-  <si>
-    <t>Jump King</t>
-  </si>
-  <si>
-    <t>Rei do salto</t>
-  </si>
-  <si>
-    <t>Jurassic Park</t>
-  </si>
-  <si>
-    <t>Parque Jurássico</t>
-  </si>
-  <si>
-    <t>Justice League</t>
-  </si>
-  <si>
-    <t>Liga da Justiça</t>
-  </si>
-  <si>
-    <t>Kaiju Paradise</t>
-  </si>
-  <si>
-    <t>Paraíso Kaiju</t>
-  </si>
-  <si>
-    <t>Kakegurui</t>
-  </si>
-  <si>
-    <t>Karate Kid</t>
-  </si>
-  <si>
-    <t>Karaté Kid</t>
-  </si>
-  <si>
-    <t>Katamari Damacy</t>
-  </si>
-  <si>
-    <t>Kid Icarus</t>
-  </si>
-  <si>
-    <t>Kiki's Delivery Service</t>
-  </si>
-  <si>
-    <t>Serviço de entregas do Kiki</t>
-  </si>
-  <si>
-    <t>Kill la Kill</t>
-  </si>
-  <si>
-    <t>Matar para matar</t>
-  </si>
-  <si>
-    <t>Killzone</t>
-  </si>
-  <si>
-    <t>Kim Possible</t>
-  </si>
-  <si>
-    <t>Kimetsu no Yaiba</t>
-  </si>
-  <si>
-    <t>Kingdom Hearts</t>
-  </si>
-  <si>
-    <t>Kirby</t>
-  </si>
-  <si>
-    <t>Kitchen</t>
-  </si>
-  <si>
-    <t>Cozinha</t>
-  </si>
-  <si>
-    <t>KonoSuba</t>
-  </si>
-  <si>
-    <t>Koopalings</t>
-  </si>
-  <si>
-    <t>Kung Fu Panda</t>
-  </si>
-  <si>
-    <t>Kuroko no Basuke</t>
-  </si>
-  <si>
-    <t>Lamp Shade</t>
-  </si>
-  <si>
-    <t>Abajur</t>
-  </si>
-  <si>
-    <t>Landscape</t>
-  </si>
-  <si>
-    <t>Paisagem</t>
-  </si>
-  <si>
-    <t>Lantern</t>
-  </si>
-  <si>
-    <t>Lanterna</t>
-  </si>
-  <si>
-    <t>Laputa: Castle in the Sky</t>
-  </si>
-  <si>
-    <t>Laputa: Castelo no Céu</t>
-  </si>
-  <si>
-    <t>LazyTown</t>
-  </si>
-  <si>
-    <t>Cidade Preguiçosa</t>
-  </si>
-  <si>
-    <t>League of Legends</t>
-  </si>
-  <si>
-    <t>Left 4 Dead</t>
-  </si>
-  <si>
-    <t>Legendary Pokemon</t>
-  </si>
-  <si>
-    <t>Pokémon lendários</t>
-  </si>
-  <si>
-    <t>Lego</t>
-  </si>
-  <si>
-    <t>Lethal League</t>
-  </si>
-  <si>
-    <t>Liga Mortal</t>
-  </si>
-  <si>
-    <t>Library of Ruina</t>
-  </si>
-  <si>
-    <t>Biblioteca de Ruina</t>
-  </si>
-  <si>
-    <t>Life is Strange</t>
-  </si>
-  <si>
-    <t>Lilo &amp; Stitch</t>
-  </si>
-  <si>
-    <t>Lilo e Stitch</t>
-  </si>
-  <si>
-    <t>Limbus Company</t>
-  </si>
-  <si>
-    <t>Empresa Limbus</t>
-  </si>
-  <si>
-    <t>Lion King</t>
-  </si>
-  <si>
-    <t>Rei Leão</t>
-  </si>
-  <si>
-    <t>Little Big Planet</t>
-  </si>
-  <si>
-    <t>Pequeno Grande Planeta</t>
-  </si>
-  <si>
-    <t>Little Mermaid</t>
-  </si>
-  <si>
-    <t>Pequena Sereia</t>
-  </si>
-  <si>
-    <t>Little Nightmares</t>
-  </si>
-  <si>
-    <t>Pequenos pesadelos</t>
-  </si>
-  <si>
-    <t>Little Shop of Horrors</t>
-  </si>
-  <si>
-    <t>Pequena Loja dos Horrores</t>
-  </si>
-  <si>
-    <t>Little Witch Academia</t>
-  </si>
-  <si>
-    <t>Llama</t>
-  </si>
-  <si>
-    <t>Lhama</t>
-  </si>
-  <si>
-    <t>Logo</t>
-  </si>
-  <si>
-    <t>Logótipo</t>
-  </si>
-  <si>
-    <t>Looney Tunes</t>
-  </si>
-  <si>
-    <t>Lord of the Rings</t>
-  </si>
-  <si>
-    <t>O Senhor dos Anéis</t>
-  </si>
-  <si>
-    <t>Love Live!</t>
-  </si>
-  <si>
-    <t>Amar ao vivo!</t>
-  </si>
-  <si>
-    <t>Lovestruck Creature</t>
-  </si>
-  <si>
-    <t>Criatura apaixonada</t>
-  </si>
-  <si>
-    <t>Lovestruck Person</t>
-  </si>
-  <si>
-    <t>Pessoa apaixonada</t>
-  </si>
-  <si>
-    <t>Lucky Luke</t>
-  </si>
-  <si>
-    <t>Machine Part</t>
-  </si>
-  <si>
-    <t>Peça da máquina</t>
-  </si>
-  <si>
-    <t>Mad Father</t>
-  </si>
-  <si>
-    <t>Pai Louco</t>
-  </si>
-  <si>
-    <t>Mad Max</t>
-  </si>
-  <si>
-    <t>Made in Abyss</t>
-  </si>
-  <si>
-    <t>Feito no Abismo</t>
-  </si>
-  <si>
-    <t>Madness Combat</t>
-  </si>
-  <si>
-    <t>Combate à loucura</t>
-  </si>
-  <si>
-    <t>Madoka Magica</t>
-  </si>
-  <si>
-    <t>Makeup</t>
-  </si>
-  <si>
-    <t>Maquilhagem</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Masculino</t>
-  </si>
-  <si>
-    <t>Mao Mao Heroes of Pure Heart</t>
-  </si>
-  <si>
-    <t>Mao Mao Heróis de Coração Puro</t>
-  </si>
-  <si>
-    <t>MapleStory</t>
-  </si>
-  <si>
-    <t>Marvel</t>
-  </si>
-  <si>
-    <t>Mary and the Witch's Flower</t>
-  </si>
-  <si>
-    <t>Maria e a flor da bruxa</t>
-  </si>
-  <si>
-    <t>Mascot</t>
-  </si>
-  <si>
-    <t>Mascote</t>
-  </si>
-  <si>
-    <t>Mask</t>
-  </si>
-  <si>
-    <t>Máscara</t>
-  </si>
-  <si>
-    <t>Mask (full)</t>
-  </si>
-  <si>
-    <t>Máscara (completa)</t>
-  </si>
-  <si>
-    <t>Mask (functional)</t>
-  </si>
-  <si>
-    <t>Máscara (funcional)</t>
-  </si>
-  <si>
-    <t>Mask (health)</t>
-  </si>
-  <si>
-    <t>Máscara (saúde)</t>
-  </si>
-  <si>
-    <t>Mask (Minecraft mob)</t>
-  </si>
-  <si>
-    <t>Máscara (mob do Minecraft)</t>
-  </si>
-  <si>
-    <t>Mass Effect</t>
-  </si>
-  <si>
-    <t>Masters of the Universe</t>
-  </si>
-  <si>
-    <t>Mestres do Universo</t>
-  </si>
-  <si>
-    <t>Mathematical Symbol</t>
-  </si>
-  <si>
-    <t>Símbolo matemático</t>
-  </si>
-  <si>
-    <t>Mc Donalds</t>
-  </si>
-  <si>
-    <t>Meal</t>
-  </si>
-  <si>
-    <t>Refeição</t>
-  </si>
-  <si>
-    <t>Meat</t>
-  </si>
-  <si>
-    <t>Carne</t>
-  </si>
-  <si>
-    <t>Medieval</t>
-  </si>
-  <si>
-    <t>Medieval Tavern</t>
-  </si>
-  <si>
-    <t>Taberna Medieval</t>
-  </si>
-  <si>
-    <t>Medieval Warfare Helmet</t>
-  </si>
-  <si>
-    <t>Capacete de guerra medieval</t>
-  </si>
-  <si>
-    <t>MediEvil</t>
-  </si>
-  <si>
-    <t>Mega Evolution</t>
-  </si>
-  <si>
-    <t>Mega Evolução</t>
-  </si>
-  <si>
-    <t>Megaman</t>
-  </si>
-  <si>
-    <t>Megami Tensei</t>
-  </si>
-  <si>
-    <t>Mekakucity Actors</t>
-  </si>
-  <si>
-    <t>Actores de Mekakucity</t>
-  </si>
-  <si>
-    <t>Meme</t>
-  </si>
-  <si>
-    <t>Meme (Doge)</t>
-  </si>
-  <si>
-    <t>Meme (Pepe)</t>
-  </si>
-  <si>
-    <t>Metal</t>
-  </si>
-  <si>
-    <t>Metal Gear</t>
-  </si>
-  <si>
-    <t>Metro</t>
-  </si>
-  <si>
-    <t>Metroid</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>México</t>
-  </si>
-  <si>
-    <t>Mickey Mouse</t>
-  </si>
-  <si>
-    <t>Rato Mickey</t>
-  </si>
-  <si>
-    <t>Military Equipment</t>
-  </si>
-  <si>
-    <t>Equipamento militar</t>
-  </si>
-  <si>
-    <t>Minecraft April Fools</t>
-  </si>
-  <si>
-    <t>Minecraft Bedrock Edition</t>
-  </si>
-  <si>
-    <t>Edição Minecraft Bedrock</t>
-  </si>
-  <si>
-    <t>Minecraft Dungeons</t>
-  </si>
-  <si>
-    <t>Masmorras do Minecraft</t>
-  </si>
-  <si>
-    <t>Minecraft Earth</t>
-  </si>
-  <si>
-    <t>Minecraft Terra</t>
-  </si>
-  <si>
-    <t>Minecraft Education Edition</t>
-  </si>
-  <si>
-    <t>Minecraft Legends</t>
-  </si>
-  <si>
-    <t>Lendas do Minecraft</t>
-  </si>
-  <si>
-    <t>Minecraft Live</t>
-  </si>
-  <si>
-    <t>Minecraft em direto</t>
-  </si>
-  <si>
-    <t>Minecraft Movie</t>
-  </si>
-  <si>
-    <t>Filme Minecraft</t>
-  </si>
-  <si>
-    <t>Minecraft Story Mode</t>
-  </si>
-  <si>
-    <t>Modo História do Minecraft</t>
-  </si>
-  <si>
-    <t>Miner</t>
-  </si>
-  <si>
-    <t>Mineiro</t>
-  </si>
-  <si>
-    <t>Minesweeper</t>
-  </si>
-  <si>
-    <t>Campo minado</t>
-  </si>
-  <si>
-    <t>Miraculous: Tales of Ladybug &amp; Cat Noir</t>
-  </si>
-  <si>
-    <t>Miraculous: Contos de Ladybug e Cat Noir</t>
-  </si>
-  <si>
-    <t>Mirai Nikki (Future Diary)</t>
-  </si>
-  <si>
-    <t>Mirai Nikki (Diário do Futuro)</t>
-  </si>
-  <si>
-    <t>Mirror's Edge</t>
-  </si>
-  <si>
-    <t>A Borda do Espelho</t>
-  </si>
-  <si>
-    <t>Miss Kobayashi's Dragon Maid</t>
-  </si>
-  <si>
-    <t>A criada de dragão da Miss Kobayashi</t>
-  </si>
-  <si>
-    <t>Mizuno's Resource Pack</t>
-  </si>
-  <si>
-    <t>Pacote de recursos da Mizuno</t>
-  </si>
-  <si>
-    <t>Moana</t>
-  </si>
-  <si>
-    <t>Modern Warfare Helmet</t>
-  </si>
-  <si>
-    <t>Capacete Modern Warfare</t>
-  </si>
-  <si>
-    <t>Money</t>
-  </si>
-  <si>
-    <t>Dinheiro</t>
-  </si>
-  <si>
-    <t>Money Heist</t>
-  </si>
-  <si>
-    <t>Roubo de dinheiro</t>
-  </si>
-  <si>
-    <t>Monitor</t>
-  </si>
-  <si>
-    <t>Monkey Island</t>
-  </si>
-  <si>
-    <t>Ilha dos Macacos</t>
-  </si>
-  <si>
-    <t>Monocle</t>
-  </si>
-  <si>
-    <t>Monóculo</t>
-  </si>
-  <si>
-    <t>Monster High</t>
-  </si>
-  <si>
-    <t>Monster Hunter</t>
-  </si>
-  <si>
-    <t>Caçador de Monstros</t>
-  </si>
-  <si>
-    <t>Monsters Inc</t>
-  </si>
-  <si>
-    <t>Monstros Inc</t>
-  </si>
-  <si>
-    <t>Moomin</t>
-  </si>
-  <si>
-    <t>Mortal Kombat</t>
-  </si>
-  <si>
-    <t>Mounts of Mayhem</t>
-  </si>
-  <si>
-    <t>Montarias do Caos</t>
-  </si>
-  <si>
-    <t>Mouthwashing</t>
-  </si>
-  <si>
-    <t>Lavagem da boca</t>
-  </si>
-  <si>
-    <t>Mr. Bean</t>
-  </si>
-  <si>
-    <t>Mulan</t>
-  </si>
-  <si>
-    <t>Mundo Gaturro</t>
-  </si>
-  <si>
-    <t>Muppets</t>
-  </si>
-  <si>
-    <t>Marretas</t>
-  </si>
-  <si>
-    <t>Murder Drones</t>
-  </si>
-  <si>
-    <t>Drones assassinos</t>
-  </si>
-  <si>
-    <t>Mushroom</t>
-  </si>
-  <si>
-    <t>Cogumelo</t>
-  </si>
-  <si>
-    <t>Mushroom (Biome)</t>
-  </si>
-  <si>
-    <t>Cogumelo (Bioma)</t>
-  </si>
-  <si>
-    <t>Mushroom (Headwear)</t>
-  </si>
-  <si>
-    <t>Cogumelo (Chapéus)</t>
-  </si>
-  <si>
-    <t>Music</t>
-  </si>
-  <si>
-    <t>Música</t>
-  </si>
-  <si>
-    <t>Mustache</t>
-  </si>
-  <si>
-    <t>Bigode</t>
-  </si>
-  <si>
-    <t>My Deer Friend Nokotan</t>
-  </si>
-  <si>
-    <t>O meu amigo veado Nokotan</t>
-  </si>
-  <si>
-    <t>My Hero Academia</t>
-  </si>
-  <si>
-    <t>My Little Pony</t>
-  </si>
-  <si>
-    <t>My Neighbor Totoro</t>
-  </si>
-  <si>
-    <t>O meu vizinho Totoro</t>
-  </si>
-  <si>
-    <t>My Singing Monsters</t>
-  </si>
-  <si>
-    <t>Os meus monstros cantores</t>
-  </si>
-  <si>
-    <t>Naruto</t>
-  </si>
-  <si>
-    <t>Nausicaä of the Valley of the Wind</t>
-  </si>
-  <si>
-    <t>Nausicaä do Vale do Vento</t>
-  </si>
-  <si>
-    <t>Nekopara</t>
-  </si>
-  <si>
-    <t>Neon Genesis Evangelion</t>
-  </si>
-  <si>
-    <t>Nether (inspired)</t>
-  </si>
-  <si>
-    <t>Nether (inspirado)</t>
-  </si>
-  <si>
-    <t>Nether (vanilla)</t>
-  </si>
-  <si>
-    <t>Nether (baunilha)</t>
-  </si>
-  <si>
-    <t>Neutral Creature</t>
-  </si>
-  <si>
-    <t>Criatura neutra</t>
-  </si>
-  <si>
-    <t>Neutral Person</t>
-  </si>
-  <si>
-    <t>Pessoa neutra</t>
-  </si>
-  <si>
-    <t>New Year's Eve</t>
-  </si>
-  <si>
-    <t>Véspera de Ano Novo</t>
-  </si>
-  <si>
-    <t>NieR: Automata</t>
-  </si>
-  <si>
-    <t>Night in the Woods</t>
-  </si>
-  <si>
-    <t>Noite no bosque</t>
-  </si>
-  <si>
-    <t>Nightmare Before Christmas</t>
-  </si>
-  <si>
-    <t>Pesadelo antes do Natal</t>
-  </si>
-  <si>
-    <t>Ninja Turtles</t>
-  </si>
-  <si>
-    <t>Tartarugas Ninja</t>
-  </si>
-  <si>
-    <t>No Game No Life</t>
-  </si>
-  <si>
-    <t>Sem jogo, sem vida</t>
-  </si>
-  <si>
-    <t>No Man's Sky</t>
-  </si>
-  <si>
-    <t>Noel's House Party</t>
-  </si>
-  <si>
-    <t>Festa na casa do Noel</t>
-  </si>
-  <si>
-    <t>Norse Mythology</t>
-  </si>
-  <si>
-    <t>Mitologia nórdica</t>
-  </si>
-  <si>
-    <t>NPC (Education Edition)</t>
-  </si>
-  <si>
-    <t>NPC (Edição Educacional)</t>
-  </si>
-  <si>
-    <t>Nuclear Fallout</t>
-  </si>
-  <si>
-    <t>Queda de energia nuclear</t>
-  </si>
-  <si>
-    <t>Nuclear Throne</t>
-  </si>
-  <si>
-    <t>Trono nuclear</t>
-  </si>
-  <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t>Número</t>
-  </si>
-  <si>
-    <t>Nut</t>
-  </si>
-  <si>
-    <t>Porca</t>
-  </si>
-  <si>
-    <t>Ocean</t>
-  </si>
-  <si>
-    <t>Oceano</t>
-  </si>
-  <si>
-    <t>Octodad</t>
-  </si>
-  <si>
-    <t>Oddworld</t>
-  </si>
-  <si>
-    <t>OFF</t>
-  </si>
-  <si>
-    <t>DESLIGADO</t>
-  </si>
-  <si>
-    <t>Officer Cap</t>
-  </si>
-  <si>
-    <t>Boné de oficial</t>
-  </si>
-  <si>
-    <t>Oggy and the Cockroaches</t>
-  </si>
-  <si>
-    <t>Oggy e as baratas</t>
-  </si>
-  <si>
-    <t>Okegom</t>
-  </si>
-  <si>
-    <t>Old</t>
-  </si>
-  <si>
-    <t>Antiga</t>
-  </si>
-  <si>
-    <t>Oliver &amp; Co</t>
-  </si>
-  <si>
-    <t>Omori</t>
-  </si>
-  <si>
-    <t>One Piece</t>
-  </si>
-  <si>
-    <t>Uma peça</t>
-  </si>
-  <si>
-    <t>One Punch Man</t>
-  </si>
-  <si>
-    <t>OneShot</t>
-  </si>
-  <si>
-    <t>Ongezellig</t>
-  </si>
-  <si>
-    <t>Onii-chan wa Oshimai</t>
-  </si>
-  <si>
-    <t>Open Source Objects</t>
-  </si>
-  <si>
-    <t>Objectos de código aberto</t>
-  </si>
-  <si>
-    <t>Orb</t>
-  </si>
-  <si>
-    <t>Orbe</t>
-  </si>
-  <si>
-    <t>Orc</t>
-  </si>
-  <si>
-    <t>Ore</t>
-  </si>
-  <si>
-    <t>Minério</t>
-  </si>
-  <si>
-    <t>Organs and Bodyparts</t>
-  </si>
-  <si>
-    <t>Órgãos e partes do corpo</t>
-  </si>
-  <si>
-    <t>Other Headgear</t>
-  </si>
-  <si>
-    <t>Outros chapéus</t>
-  </si>
-  <si>
-    <t>Other Illumination</t>
-  </si>
-  <si>
-    <t>Outra iluminação</t>
-  </si>
-  <si>
-    <t>Other Mystic Creature</t>
-  </si>
-  <si>
-    <t>Outra criatura mística</t>
-  </si>
-  <si>
-    <t>Outer Layer Block</t>
-  </si>
-  <si>
-    <t>Bloco da camada exterior</t>
-  </si>
-  <si>
-    <t>Overlord</t>
-  </si>
-  <si>
-    <t>Soberano</t>
-  </si>
-  <si>
-    <t>Overwatch</t>
-  </si>
-  <si>
-    <t>Pac-Man</t>
-  </si>
-  <si>
-    <t>Pacific Rim</t>
-  </si>
-  <si>
-    <t>A Orla do Pacífico</t>
-  </si>
-  <si>
-    <t>Pacifier</t>
-  </si>
-  <si>
-    <t>Chupeta</t>
-  </si>
-  <si>
-    <t>Painted Face</t>
-  </si>
-  <si>
-    <t>Rosto pintado</t>
-  </si>
-  <si>
-    <t>Pale Garden (inspired)</t>
-  </si>
-  <si>
-    <t>Pale Garden (inspirado)</t>
-  </si>
-  <si>
-    <t>Panda Bear</t>
-  </si>
-  <si>
-    <t>Urso Panda</t>
-  </si>
-  <si>
-    <t>Pans Labyrinth</t>
-  </si>
-  <si>
-    <t>Labirinto de Panelas</t>
-  </si>
-  <si>
-    <t>Papers Please</t>
-  </si>
-  <si>
-    <t>Documentos por favor</t>
-  </si>
-  <si>
-    <t>PaRappa the Rapper</t>
-  </si>
-  <si>
-    <t>PaRappa, o Rapper</t>
-  </si>
-  <si>
-    <t>Party</t>
-  </si>
-  <si>
-    <t>Festa</t>
-  </si>
-  <si>
-    <t>Pastries and Sweets</t>
-  </si>
-  <si>
-    <t>Pastelaria e doces</t>
-  </si>
-  <si>
-    <t>Paw Patrol</t>
-  </si>
-  <si>
-    <t>Patrulha da Pata</t>
-  </si>
-  <si>
-    <t>Payday</t>
-  </si>
-  <si>
-    <t>Dia de pagamento</t>
-  </si>
-  <si>
-    <t>Peanuts (Snoopy)</t>
-  </si>
-  <si>
-    <t>Penguin</t>
-  </si>
-  <si>
-    <t>Pinguim</t>
-  </si>
-  <si>
-    <t>Peppa Pig</t>
-  </si>
-  <si>
-    <t>Periodic Table of Elements</t>
-  </si>
-  <si>
-    <t>Tabela Periódica dos Elementos</t>
-  </si>
-  <si>
-    <t>Persona</t>
-  </si>
-  <si>
-    <t>Pet Equipment</t>
-  </si>
-  <si>
-    <t>Equipamento para animais de estimação</t>
-  </si>
-  <si>
-    <t>Peter Pan</t>
-  </si>
-  <si>
-    <t>Phantom</t>
-  </si>
-  <si>
-    <t>Phineas &amp; Ferb</t>
-  </si>
-  <si>
-    <t>Pig</t>
-  </si>
-  <si>
-    <t>Porco</t>
-  </si>
-  <si>
-    <t>Piglin</t>
-  </si>
-  <si>
-    <t>Pigman</t>
-  </si>
-  <si>
-    <t>Pikmin</t>
-  </si>
-  <si>
-    <t>Pingu</t>
-  </si>
-  <si>
-    <t>Pink Panther</t>
-  </si>
-  <si>
-    <t>Pantera cor-de-rosa</t>
-  </si>
-  <si>
-    <t>Pinky and the Brain</t>
-  </si>
-  <si>
-    <t>O mindinho e o cérebro</t>
-  </si>
-  <si>
-    <t>Pinocchio</t>
-  </si>
-  <si>
-    <t>Pinóquio</t>
-  </si>
-  <si>
-    <t>Pirates of the Caribbean</t>
-  </si>
-  <si>
-    <t>Piratas das Caraíbas</t>
-  </si>
-  <si>
-    <t>Pizza Tower</t>
-  </si>
-  <si>
-    <t>Torre de pizza</t>
-  </si>
-  <si>
-    <t>Planet</t>
-  </si>
-  <si>
-    <t>Planeta</t>
-  </si>
-  <si>
-    <t>Plants vs. Zombies</t>
-  </si>
-  <si>
-    <t>Plantas vs. Zombies</t>
-  </si>
-  <si>
-    <t>Playerunknown's Battlegrounds</t>
-  </si>
-  <si>
-    <t>Pocahontas</t>
-  </si>
-  <si>
-    <t>Pokeball</t>
-  </si>
-  <si>
-    <t>Pokebola</t>
-  </si>
-  <si>
-    <t>Pokemon</t>
-  </si>
-  <si>
-    <t>Pokémon</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 1</t>
-  </si>
-  <si>
-    <t>Pokémon Geração 1</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 2</t>
-  </si>
-  <si>
-    <t>Pokémon Geração 2</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 3</t>
-  </si>
-  <si>
-    <t>Pokémon Geração 3</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 4</t>
-  </si>
-  <si>
-    <t>Pokémon Geração 4</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 5</t>
-  </si>
-  <si>
-    <t>Pokémon Geração 5</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 6</t>
-  </si>
-  <si>
-    <t>Pokémon Geração 6</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 7</t>
-  </si>
-  <si>
-    <t>Pokémon Geração 7</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 8</t>
-  </si>
-  <si>
-    <t>Pokémon Geração 8</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 9</t>
-  </si>
-  <si>
-    <t>Pokémon Geração 9</t>
-  </si>
-  <si>
-    <t>Pokemon Items</t>
-  </si>
-  <si>
-    <t>Itens Pokémon</t>
-  </si>
-  <si>
-    <t>Pokemon Trainer</t>
-  </si>
-  <si>
-    <t>Treinador de Pokémon</t>
-  </si>
-  <si>
-    <t>Polar Bear</t>
-  </si>
-  <si>
-    <t>Urso Polar</t>
-  </si>
-  <si>
-    <t>Police</t>
-  </si>
-  <si>
-    <t>Polícia</t>
-  </si>
-  <si>
-    <t>Pom Poko</t>
-  </si>
-  <si>
-    <t>Ponyo</t>
-  </si>
-  <si>
-    <t>Pop Team Epic</t>
-  </si>
-  <si>
-    <t>Equipa Pop Epic</t>
-  </si>
-  <si>
-    <t>POPGOES</t>
-  </si>
-  <si>
-    <t>Poppy Playtime</t>
-  </si>
-  <si>
-    <t>Hora de brincar da papoila</t>
-  </si>
-  <si>
-    <t>Porco Rosso</t>
-  </si>
-  <si>
-    <t>Portal</t>
-  </si>
-  <si>
-    <t>Postman Pat</t>
-  </si>
-  <si>
-    <t>Carteiro Pat</t>
-  </si>
-  <si>
-    <t>Power Rangers</t>
-  </si>
-  <si>
-    <t>Powerpuff Girls</t>
-  </si>
-  <si>
-    <t>As Meninas Superpoderosas</t>
-  </si>
-  <si>
-    <t>Predator</t>
-  </si>
-  <si>
-    <t>Predador</t>
-  </si>
-  <si>
-    <t>Present</t>
-  </si>
-  <si>
-    <t>Presente</t>
-  </si>
-  <si>
-    <t>Pride</t>
-  </si>
-  <si>
-    <t>Orgulho</t>
-  </si>
-  <si>
-    <t>Primate</t>
-  </si>
-  <si>
-    <t>Primata</t>
-  </si>
-  <si>
-    <t>Princess Mononoke</t>
-  </si>
-  <si>
-    <t>Princesa Mononoke</t>
-  </si>
-  <si>
-    <t>Prof Layton</t>
-  </si>
-  <si>
-    <t>Prof. Layton</t>
-  </si>
-  <si>
-    <t>Pumpkin</t>
-  </si>
-  <si>
-    <t>Abóbora</t>
-  </si>
-  <si>
-    <t>Pumpkin (Lit)</t>
-  </si>
-  <si>
-    <t>Abóbora (Lit)</t>
-  </si>
-  <si>
-    <t>Punctuation Mark</t>
-  </si>
-  <si>
-    <t>Marcador de pontuação</t>
-  </si>
-  <si>
-    <t>Quake</t>
-  </si>
-  <si>
-    <t>Terramoto</t>
-  </si>
-  <si>
-    <t>R.E.P.O.</t>
-  </si>
-  <si>
-    <t>Rabbit</t>
-  </si>
-  <si>
-    <t>Coelho</t>
-  </si>
-  <si>
-    <t>Railway</t>
-  </si>
-  <si>
-    <t>Caminho de ferro</t>
-  </si>
-  <si>
-    <t>Rain World</t>
-  </si>
-  <si>
-    <t>Mundo da chuva</t>
-  </si>
-  <si>
-    <t>Ratatouille</t>
-  </si>
-  <si>
-    <t>Ratchet &amp; Clank</t>
-  </si>
-  <si>
-    <t>Re:Creators</t>
-  </si>
-  <si>
-    <t>Re:Criadores</t>
-  </si>
-  <si>
-    <t>Re:Zero</t>
-  </si>
-  <si>
-    <t>Realm of the Mad God</t>
-  </si>
-  <si>
-    <t>Reino do Deus Louco</t>
-  </si>
-  <si>
-    <t>Red Dead Redemption</t>
-  </si>
-  <si>
-    <t>Red Riding Hood</t>
-  </si>
-  <si>
-    <t>Capuchinho Vermelho</t>
-  </si>
-  <si>
-    <t>Redstone</t>
-  </si>
-  <si>
-    <t>Regional Form Pokemon</t>
-  </si>
-  <si>
-    <t>Pokémon de Forma Regional</t>
-  </si>
-  <si>
-    <t>Regretavator</t>
-  </si>
-  <si>
-    <t>Regretavador</t>
-  </si>
-  <si>
-    <t>Regular Show</t>
-  </si>
-  <si>
-    <t>Programa regular</t>
-  </si>
-  <si>
-    <t>Religion</t>
-  </si>
-  <si>
-    <t>Religião</t>
-  </si>
-  <si>
-    <t>Reptile</t>
-  </si>
-  <si>
-    <t>Réptil</t>
-  </si>
-  <si>
-    <t>Rescue Rangers</t>
-  </si>
-  <si>
-    <t>Guardas florestais de resgate</t>
-  </si>
-  <si>
-    <t>Resident Evil</t>
-  </si>
-  <si>
-    <t>Rhythm Heaven</t>
-  </si>
-  <si>
-    <t>Ritmo do céu</t>
-  </si>
-  <si>
-    <t>Ribbon</t>
-  </si>
-  <si>
-    <t>Fita</t>
-  </si>
-  <si>
-    <t>Rick and Morty</t>
-  </si>
-  <si>
-    <t>Rick e Morty</t>
-  </si>
-  <si>
-    <t>Risk of Rain</t>
-  </si>
-  <si>
-    <t>Risco de chuva</t>
-  </si>
-  <si>
-    <t>Rival of Aether</t>
-  </si>
-  <si>
-    <t>Rival de Aether</t>
-  </si>
-  <si>
-    <t>River</t>
-  </si>
-  <si>
-    <t>Rio</t>
-  </si>
-  <si>
-    <t>Riverdale</t>
-  </si>
-  <si>
-    <t>Robin Hood</t>
-  </si>
-  <si>
-    <t>Robin dos Bosques</t>
-  </si>
-  <si>
-    <t>Roblox</t>
-  </si>
-  <si>
-    <t>RoboCop</t>
-  </si>
-  <si>
-    <t>Robot</t>
-  </si>
-  <si>
-    <t>Robô</t>
-  </si>
-  <si>
-    <t>Rocky</t>
-  </si>
-  <si>
-    <t>Rochoso</t>
-  </si>
-  <si>
-    <t>Rocky Horror Picture Show</t>
-  </si>
-  <si>
-    <t>Rodent</t>
-  </si>
-  <si>
-    <t>Roedor</t>
-  </si>
-  <si>
-    <t>Rotated Entity</t>
-  </si>
-  <si>
-    <t>Entidade rotativa</t>
-  </si>
-  <si>
-    <t>Royal Headgear</t>
-  </si>
-  <si>
-    <t>Capacete real</t>
-  </si>
-  <si>
-    <t>Rune</t>
-  </si>
-  <si>
-    <t>Runa</t>
-  </si>
-  <si>
-    <t>Runescape</t>
-  </si>
-  <si>
-    <t>RWBY</t>
-  </si>
-  <si>
-    <t>Sackboy: A Big Adventure</t>
-  </si>
-  <si>
-    <t>Sackboy: Uma Grande Aventura</t>
-  </si>
-  <si>
-    <t>Sad Creature</t>
-  </si>
-  <si>
-    <t>Criatura triste</t>
-  </si>
-  <si>
-    <t>Sad Person</t>
-  </si>
-  <si>
-    <t>Pessoa triste</t>
-  </si>
-  <si>
-    <t>Safari (Other)</t>
-  </si>
-  <si>
-    <t>Safari (Outro)</t>
-  </si>
-  <si>
-    <t>Saga of Tanya the Evil</t>
-  </si>
-  <si>
-    <t>Saga de Tanya, a Malvada</t>
-  </si>
-  <si>
-    <t>Sailor Moon</t>
-  </si>
-  <si>
-    <t>Sakurasou no Pet na Kanojo</t>
-  </si>
-  <si>
-    <t>Samurai Helmet</t>
-  </si>
-  <si>
-    <t>Capacete de samurai</t>
-  </si>
-  <si>
-    <t>Satisfactory</t>
-  </si>
-  <si>
-    <t>Satisfatório</t>
-  </si>
-  <si>
-    <t>Saw</t>
-  </si>
-  <si>
-    <t>Serra</t>
-  </si>
-  <si>
-    <t>Scarf</t>
-  </si>
-  <si>
-    <t>Cachecol</t>
-  </si>
-  <si>
-    <t>Scooby-Doo</t>
-  </si>
-  <si>
-    <t>SCP Containment Breach</t>
-  </si>
-  <si>
-    <t>Violação da contenção do SCP</t>
-  </si>
-  <si>
-    <t>Scream</t>
-  </si>
-  <si>
-    <t>Gritar</t>
-  </si>
-  <si>
-    <t>Scribblenauts</t>
-  </si>
-  <si>
-    <t>Sea of Thieves</t>
-  </si>
-  <si>
-    <t>Seafarer</t>
-  </si>
-  <si>
-    <t>Marinheiro</t>
-  </si>
-  <si>
-    <t>Seraph of the End</t>
-  </si>
-  <si>
-    <t>Serafim do Fim</t>
-  </si>
-  <si>
-    <t>Serial Experiments Lain</t>
-  </si>
-  <si>
-    <t>Experiências em série Lain</t>
-  </si>
-  <si>
-    <t>Sesame Street</t>
-  </si>
-  <si>
-    <t>Rua Sésamo</t>
-  </si>
-  <si>
-    <t>Seven Deadly Sins</t>
-  </si>
-  <si>
-    <t>Sete Pecados Mortais</t>
-  </si>
-  <si>
-    <t>Shadow of the Colossus</t>
-  </si>
-  <si>
-    <t>Shadows of Mordor</t>
-  </si>
-  <si>
-    <t>Sombras de Mordor</t>
-  </si>
-  <si>
-    <t>Sheep</t>
-  </si>
-  <si>
-    <t>Ovinos</t>
-  </si>
-  <si>
-    <t>Sherlock Holmes</t>
-  </si>
-  <si>
-    <t>Shigatsu wa Kimi no Uso</t>
-  </si>
-  <si>
-    <t>Shimoneta</t>
-  </si>
-  <si>
-    <t>Shiny Pokemon</t>
-  </si>
-  <si>
-    <t>Pokémon Brilhantes</t>
-  </si>
-  <si>
-    <t>Shipping</t>
-  </si>
-  <si>
-    <t>Expedição</t>
-  </si>
-  <si>
-    <t>Shovel Knight</t>
-  </si>
-  <si>
-    <t>Cavaleiro de Pá</t>
-  </si>
-  <si>
-    <t>Shrek</t>
-  </si>
-  <si>
-    <t>Shulker</t>
-  </si>
-  <si>
-    <t>Silent Hill</t>
-  </si>
-  <si>
-    <t>SilvaGunner</t>
-  </si>
-  <si>
-    <t>Simpsons</t>
-  </si>
-  <si>
-    <t>Skeleton</t>
-  </si>
-  <si>
-    <t>Esqueleto</t>
-  </si>
-  <si>
-    <t>Skeleton (Vanilla)</t>
-  </si>
-  <si>
-    <t>Esqueleto (Baunilha)</t>
-  </si>
-  <si>
-    <t>Skeptical Creature</t>
-  </si>
-  <si>
-    <t>Criatura cética</t>
-  </si>
-  <si>
-    <t>Skeptical Person</t>
-  </si>
-  <si>
-    <t>Pessoa cética</t>
-  </si>
-  <si>
-    <t>Skullgirls</t>
-  </si>
-  <si>
-    <t>Skyrim</t>
-  </si>
-  <si>
-    <t>Sleeping Beauty</t>
-  </si>
-  <si>
-    <t>A Bela Adormecida</t>
-  </si>
-  <si>
-    <t>Sleeping Creature</t>
-  </si>
-  <si>
-    <t>Criatura adormecida</t>
-  </si>
-  <si>
-    <t>Sleeping Person</t>
-  </si>
-  <si>
-    <t>Pessoa que dorme</t>
-  </si>
-  <si>
-    <t>Sliced</t>
-  </si>
-  <si>
-    <t>Fatiado</t>
-  </si>
-  <si>
-    <t>Slime</t>
-  </si>
-  <si>
-    <t>Lodo</t>
-  </si>
-  <si>
-    <t>Slime (Vanilla)</t>
-  </si>
-  <si>
-    <t>Lodo (Baunilha)</t>
-  </si>
-  <si>
-    <t>Slime Rancher</t>
-  </si>
-  <si>
-    <t>Rancheiro de limo</t>
-  </si>
-  <si>
-    <t>Slimefun</t>
-  </si>
-  <si>
-    <t>Sly Cooper</t>
-  </si>
-  <si>
-    <t>Smite Gods</t>
-  </si>
-  <si>
-    <t>Deuses do golpe</t>
-  </si>
-  <si>
-    <t>Smoking</t>
-  </si>
-  <si>
-    <t>Fumar</t>
-  </si>
-  <si>
-    <t>Smurfs</t>
-  </si>
-  <si>
-    <t>Snow Fight</t>
-  </si>
-  <si>
-    <t>Luta na neve</t>
-  </si>
-  <si>
-    <t>Snow Sculpture</t>
-  </si>
-  <si>
-    <t>Escultura de neve</t>
-  </si>
-  <si>
-    <t>Snow White and the Seven Dwarfs</t>
-  </si>
-  <si>
-    <t>Branca de Neve e os Sete Anões</t>
-  </si>
-  <si>
-    <t>Songs of War</t>
-  </si>
-  <si>
-    <t>Canções de guerra</t>
-  </si>
-  <si>
-    <t>Sonic the Hedgehog</t>
-  </si>
-  <si>
-    <t>Sonic, o Ouriço</t>
-  </si>
-  <si>
-    <t>Soul Knight</t>
-  </si>
-  <si>
-    <t>Cavaleiro das Almas</t>
-  </si>
-  <si>
-    <t>South Park</t>
-  </si>
-  <si>
-    <t>Parque Sul</t>
-  </si>
-  <si>
-    <t>Space Travel</t>
-  </si>
-  <si>
-    <t>Viagens espaciais</t>
-  </si>
-  <si>
-    <t>Spawn Egg</t>
-  </si>
-  <si>
-    <t>Ovo de desova</t>
-  </si>
-  <si>
-    <t>Spawner</t>
-  </si>
-  <si>
-    <t>Criador</t>
-  </si>
-  <si>
-    <t>Spelunky</t>
-  </si>
-  <si>
-    <t>Spider</t>
-  </si>
-  <si>
-    <t>Aranha</t>
-  </si>
-  <si>
-    <t>Spider (Vanilla)</t>
-  </si>
-  <si>
-    <t>Aranha (Baunilha)</t>
-  </si>
-  <si>
-    <t>Spiderman</t>
-  </si>
-  <si>
-    <t>Homem-Aranha</t>
-  </si>
-  <si>
-    <t>Spirited Away</t>
-  </si>
-  <si>
-    <t>A Viagem de Chihiro</t>
-  </si>
-  <si>
-    <t>Splatoon</t>
-  </si>
-  <si>
-    <t>Spongebob Squarepants</t>
-  </si>
-  <si>
-    <t>Spooky's Jump Scare Mansion</t>
-  </si>
-  <si>
-    <t>Mansão assustadora de saltos do Spooky</t>
-  </si>
-  <si>
-    <t>Spore</t>
-  </si>
-  <si>
-    <t>Esporo</t>
-  </si>
-  <si>
-    <t>Sport</t>
-  </si>
-  <si>
-    <t>Desporto</t>
-  </si>
-  <si>
-    <t>Spreads</t>
-  </si>
-  <si>
-    <t>Spring to Life</t>
-  </si>
-  <si>
-    <t>primavera para a vida</t>
-  </si>
-  <si>
-    <t>Spy x Family</t>
-  </si>
-  <si>
-    <t>Espião x Família</t>
-  </si>
-  <si>
-    <t>Spyro</t>
-  </si>
-  <si>
-    <t>Squid Game</t>
-  </si>
-  <si>
-    <t>Jogo da lula</t>
-  </si>
-  <si>
-    <t>St. Patrick's Day</t>
-  </si>
-  <si>
-    <t>Dia de São Patrício</t>
-  </si>
-  <si>
-    <t>StackUp</t>
-  </si>
-  <si>
-    <t>Empilhar</t>
-  </si>
-  <si>
-    <t>Star Fox</t>
-  </si>
-  <si>
-    <t>Raposa Estelar</t>
-  </si>
-  <si>
-    <t>Star Trek</t>
-  </si>
-  <si>
-    <t>Caminho das Estrelas</t>
-  </si>
-  <si>
-    <t>Star vs the Forces of Evil</t>
-  </si>
-  <si>
-    <t>A Estrela contra as Forças do Mal</t>
-  </si>
-  <si>
-    <t>Star Wars</t>
-  </si>
-  <si>
-    <t>Guerra das Estrelas</t>
-  </si>
-  <si>
-    <t>Star Wars Helmet</t>
-  </si>
-  <si>
-    <t>Capacete da Guerra das Estrelas</t>
-  </si>
-  <si>
-    <t>Star Wars Trooper Helmet</t>
-  </si>
-  <si>
-    <t>Capacete de soldado da Guerra das Estrelas</t>
-  </si>
-  <si>
-    <t>Starbucks</t>
-  </si>
-  <si>
-    <t>StarCraft</t>
-  </si>
-  <si>
-    <t>Stardew Valley</t>
-  </si>
-  <si>
-    <t>Starter Pokemon</t>
-  </si>
-  <si>
-    <t>Pokémon inicial</t>
-  </si>
-  <si>
-    <t>Stationery</t>
-  </si>
-  <si>
-    <t>Artigos de papelaria</t>
-  </si>
-  <si>
-    <t>Steampunk</t>
-  </si>
-  <si>
-    <t>Steins;Gate</t>
-  </si>
-  <si>
-    <t>Steve</t>
-  </si>
-  <si>
-    <t>Steven Universe</t>
-  </si>
-  <si>
-    <t>Steven Universo</t>
-  </si>
-  <si>
-    <t>Stone</t>
-  </si>
-  <si>
-    <t>Pedra</t>
-  </si>
-  <si>
-    <t>Storage (other)</t>
-  </si>
-  <si>
-    <t>Armazenamento (outros)</t>
-  </si>
-  <si>
-    <t>Stranger Things</t>
-  </si>
-  <si>
-    <t>Street Fighter</t>
-  </si>
-  <si>
-    <t>Lutador de rua</t>
-  </si>
-  <si>
-    <t>Strider</t>
-  </si>
-  <si>
-    <t>Subnautica</t>
-  </si>
-  <si>
-    <t>Summer</t>
-  </si>
-  <si>
-    <t>verão</t>
-  </si>
-  <si>
-    <t>Sunglasses</t>
-  </si>
-  <si>
-    <t>Óculos de sol</t>
-  </si>
-  <si>
-    <t>Super Mario</t>
-  </si>
-  <si>
-    <t>Supernatural</t>
-  </si>
-  <si>
-    <t>Sobrenatural</t>
-  </si>
-  <si>
-    <t>Surprised Creature</t>
-  </si>
-  <si>
-    <t>Criatura Surpreendida</t>
-  </si>
-  <si>
-    <t>Surprised Person</t>
-  </si>
-  <si>
-    <t>Pessoa surpreendida</t>
-  </si>
-  <si>
-    <t>Sushi</t>
-  </si>
-  <si>
-    <t>Swamp</t>
-  </si>
-  <si>
-    <t>Pântano</t>
-  </si>
-  <si>
-    <t>Sword Art Online</t>
-  </si>
-  <si>
-    <t>TaleSpin</t>
-  </si>
-  <si>
-    <t>Tangled</t>
-  </si>
-  <si>
-    <t>Enrolados</t>
-  </si>
-  <si>
-    <t>Tattletail</t>
-  </si>
-  <si>
-    <t>Team Fortress 2</t>
-  </si>
-  <si>
-    <t>Teletubbies</t>
-  </si>
-  <si>
-    <t>Terraria</t>
-  </si>
-  <si>
-    <t>Terraria (Calamity)</t>
-  </si>
-  <si>
-    <t>Terraria (Calamidade)</t>
-  </si>
-  <si>
-    <t>Tetris</t>
-  </si>
-  <si>
-    <t>Thanksgiving</t>
-  </si>
-  <si>
-    <t>Ação de Graças</t>
-  </si>
-  <si>
-    <t>That Time I Got Reincarnated as a Slime</t>
-  </si>
-  <si>
-    <t>Aquela vez em que reencarnei como um Slime</t>
-  </si>
-  <si>
-    <t>Thaumcraft</t>
-  </si>
-  <si>
-    <t>The Adventures of Tintin</t>
-  </si>
-  <si>
-    <t>As Aventuras de Tintin</t>
-  </si>
-  <si>
-    <t>The Amazing Digital Circus</t>
-  </si>
-  <si>
-    <t>O incrível circo digital</t>
-  </si>
-  <si>
-    <t>The Amazing World of Gumball</t>
-  </si>
-  <si>
-    <t>O Incrível Mundo de Gumball</t>
-  </si>
-  <si>
-    <t>The Binding of Isaac</t>
-  </si>
-  <si>
-    <t>The Boys</t>
-  </si>
-  <si>
-    <t>Os rapazes</t>
-  </si>
-  <si>
-    <t>The Cat Returns</t>
-  </si>
-  <si>
-    <t>O gato regressa</t>
-  </si>
-  <si>
-    <t>The Conjuring</t>
-  </si>
-  <si>
-    <t>A Conjuração</t>
-  </si>
-  <si>
-    <t>The Copper Age</t>
-  </si>
-  <si>
-    <t>A Idade do Cobre</t>
-  </si>
-  <si>
-    <t>The Emperor's New Groove</t>
-  </si>
-  <si>
-    <t>O novo ritmo do imperador</t>
-  </si>
-  <si>
-    <t>The English Ensemble Stars</t>
-  </si>
-  <si>
-    <t>As estrelas do ensemble inglês</t>
-  </si>
-  <si>
-    <t>The Fairly OddParents</t>
-  </si>
-  <si>
-    <t>The Finals</t>
-  </si>
-  <si>
-    <t>As finais</t>
-  </si>
-  <si>
-    <t>The Flash</t>
-  </si>
-  <si>
-    <t>O Flash</t>
-  </si>
-  <si>
-    <t>The Flintstones</t>
-  </si>
-  <si>
-    <t>Os Flintstones</t>
-  </si>
-  <si>
-    <t>The Fly</t>
-  </si>
-  <si>
-    <t>A Mosca</t>
-  </si>
-  <si>
-    <t>The Garden Awakens</t>
-  </si>
-  <si>
-    <t>O jardim desperta</t>
-  </si>
-  <si>
-    <t>The Good Dinosaur</t>
-  </si>
-  <si>
-    <t>O Bom Dinossauro</t>
-  </si>
-  <si>
-    <t>The Great Mouse Detective</t>
-  </si>
-  <si>
-    <t>O Grande Rato Detetive</t>
-  </si>
-  <si>
-    <t>The Grim Adventures of Billy &amp; Mandy</t>
-  </si>
-  <si>
-    <t>As aventuras sinistras de Billy e Mandy</t>
-  </si>
-  <si>
-    <t>The Hunchback of Notre Dame</t>
-  </si>
-  <si>
-    <t>O Corcunda de Notre Dame</t>
-  </si>
-  <si>
-    <t>The Iron Giant</t>
-  </si>
-  <si>
-    <t>O Gigante de Ferro</t>
-  </si>
-  <si>
-    <t>The Last Guardian</t>
-  </si>
-  <si>
-    <t>O Último Guardião</t>
-  </si>
-  <si>
-    <t>The Last of Us</t>
-  </si>
-  <si>
-    <t>The Legend of Zelda</t>
-  </si>
-  <si>
-    <t>A Lenda de Zelda</t>
-  </si>
-  <si>
-    <t>The Lorax</t>
-  </si>
-  <si>
-    <t>O Lorax</t>
-  </si>
-  <si>
-    <t>The Neverhood</t>
-  </si>
-  <si>
-    <t>O Nunca</t>
-  </si>
-  <si>
-    <t>The Owl House</t>
-  </si>
-  <si>
-    <t>A Casa da Coruja</t>
-  </si>
-  <si>
-    <t>The Princess and the Frog</t>
-  </si>
-  <si>
-    <t>A Princesa e o Sapo</t>
-  </si>
-  <si>
-    <t>The Ren &amp; Stimpy Show</t>
-  </si>
-  <si>
-    <t>O programa Ren &amp; Stimpy</t>
-  </si>
-  <si>
-    <t>The Road to El Dorado</t>
-  </si>
-  <si>
-    <t>O caminho para El Dorado</t>
-  </si>
-  <si>
-    <t>The Texas Chainsaw Massacre</t>
-  </si>
-  <si>
-    <t>O Massacre da Serra Elétrica</t>
-  </si>
-  <si>
-    <t>The Three Caballeros</t>
-  </si>
-  <si>
-    <t>Os Três Caballeros</t>
-  </si>
-  <si>
-    <t>The Walten Files</t>
-  </si>
-  <si>
-    <t>Os Ficheiros Walten</t>
-  </si>
-  <si>
-    <t>The Woody Woodpecker Show</t>
-  </si>
-  <si>
-    <t>O espetáculo do Pica-pau</t>
-  </si>
-  <si>
-    <t>Thomas &amp; Friends</t>
-  </si>
-  <si>
-    <t>Thor</t>
-  </si>
-  <si>
-    <t>Those Nights at Rachel's</t>
-  </si>
-  <si>
-    <t>Aquelas noites na casa da Rachel</t>
-  </si>
-  <si>
-    <t>Tinker's Construct</t>
-  </si>
-  <si>
-    <t>Construção do funileiro</t>
-  </si>
-  <si>
-    <t>Titanfall</t>
-  </si>
-  <si>
-    <t>Tokyo Ghoul</t>
-  </si>
-  <si>
-    <t>Tom and Jerry</t>
-  </si>
-  <si>
-    <t>Tom e Jerry</t>
-  </si>
-  <si>
-    <t>Tomb Raider</t>
-  </si>
-  <si>
-    <t>Tomorrow's Pioneers</t>
-  </si>
-  <si>
-    <t>Os pioneiros de amanhã</t>
-  </si>
-  <si>
-    <t>Tooth Gap</t>
-  </si>
-  <si>
-    <t>Lacuna dentária</t>
-  </si>
-  <si>
-    <t>Toradora</t>
-  </si>
-  <si>
-    <t>Total Drama Island</t>
-  </si>
-  <si>
-    <t>Ilha do Drama Total</t>
-  </si>
-  <si>
-    <t>Touhou Project</t>
-  </si>
-  <si>
-    <t>Projeto Touhou</t>
-  </si>
-  <si>
-    <t>Toy</t>
-  </si>
-  <si>
-    <t>Brinquedo</t>
-  </si>
-  <si>
-    <t>Toy Story</t>
-  </si>
-  <si>
-    <t>Traffic</t>
-  </si>
-  <si>
-    <t>Tráfego</t>
-  </si>
-  <si>
-    <t>Traffic Light</t>
-  </si>
-  <si>
-    <t>Semáforo</t>
-  </si>
-  <si>
-    <t>Traffic Sign</t>
-  </si>
-  <si>
-    <t>Sinal de trânsito</t>
-  </si>
-  <si>
-    <t>Trails and Tales</t>
-  </si>
-  <si>
-    <t>Trilhos e contos</t>
-  </si>
-  <si>
-    <t>Transformers</t>
-  </si>
-  <si>
-    <t>Transformadores</t>
-  </si>
-  <si>
-    <t>Transformice</t>
-  </si>
-  <si>
-    <t>Transparent Head</t>
-  </si>
-  <si>
-    <t>Cabeça transparente</t>
-  </si>
-  <si>
-    <t>Trash Can</t>
-  </si>
-  <si>
-    <t>Caixote do lixo</t>
-  </si>
-  <si>
-    <t>Treasure</t>
-  </si>
-  <si>
-    <t>Tesouro</t>
-  </si>
-  <si>
-    <t>Treasure Planet</t>
-  </si>
-  <si>
-    <t>Planeta do Tesouro</t>
-  </si>
-  <si>
-    <t>Tricky Trials Update</t>
-  </si>
-  <si>
-    <t>Atualização do Tricky Trials</t>
-  </si>
-  <si>
-    <t>Tron</t>
-  </si>
-  <si>
-    <t>Turtle</t>
-  </si>
-  <si>
-    <t>Tartaruga</t>
-  </si>
-  <si>
-    <t>Twilight Forest</t>
-  </si>
-  <si>
-    <t>Floresta do Crepúsculo</t>
-  </si>
-  <si>
-    <t>Twisted Wonderland</t>
-  </si>
-  <si>
-    <t>País das Maravilhas retorcido</t>
-  </si>
-  <si>
-    <t>Ultrakill</t>
-  </si>
-  <si>
-    <t>Umineko - When They Cry</t>
-  </si>
-  <si>
-    <t>Umineko - Quando Choram</t>
-  </si>
-  <si>
-    <t>Undertale</t>
-  </si>
-  <si>
-    <t>Undertale AU</t>
-  </si>
-  <si>
-    <t>Undertale Yellow</t>
-  </si>
-  <si>
-    <t>Undertale Amarelo</t>
-  </si>
-  <si>
-    <t>Universal Symbol</t>
-  </si>
-  <si>
-    <t>Símbolo Universal</t>
-  </si>
-  <si>
-    <t>Up</t>
-  </si>
-  <si>
-    <t>Para cima</t>
-  </si>
-  <si>
-    <t>Urban Wildlife</t>
-  </si>
-  <si>
-    <t>Vida selvagem urbana</t>
-  </si>
-  <si>
-    <t>V for Vendetta</t>
-  </si>
-  <si>
-    <t>V de Vingança</t>
-  </si>
-  <si>
-    <t>Valentines</t>
-  </si>
-  <si>
-    <t>Namorados</t>
-  </si>
-  <si>
-    <t>Valorant</t>
-  </si>
-  <si>
-    <t>Valorante</t>
-  </si>
-  <si>
-    <t>Vanilla (removed)</t>
-  </si>
-  <si>
-    <t>Baunilha (removido)</t>
-  </si>
-  <si>
-    <t>Vanilla Block</t>
-  </si>
-  <si>
-    <t>Bloco de baunilha</t>
-  </si>
-  <si>
-    <t>Vanilla Food</t>
-  </si>
-  <si>
-    <t>Alimentos à base de baunilha</t>
-  </si>
-  <si>
-    <t>Vanilla Helmet</t>
-  </si>
-  <si>
-    <t>Capacete Vanilla</t>
-  </si>
-  <si>
-    <t>Vanilla Item</t>
-  </si>
-  <si>
-    <t>Baunilha Item</t>
-  </si>
-  <si>
-    <t>Vanilla Mob</t>
-  </si>
-  <si>
-    <t>Vault Hunters</t>
-  </si>
-  <si>
-    <t>Caçadores de abóbadas</t>
-  </si>
-  <si>
-    <t>Vegetable</t>
-  </si>
-  <si>
-    <t>Vegetais</t>
-  </si>
-  <si>
-    <t>Vehicle</t>
-  </si>
-  <si>
-    <t>Veículo</t>
-  </si>
-  <si>
-    <t>Vikings</t>
-  </si>
-  <si>
-    <t>Villager</t>
-  </si>
-  <si>
-    <t>Aldeão</t>
-  </si>
-  <si>
-    <t>Villager (Desert)</t>
-  </si>
-  <si>
-    <t>Aldeão (Deserto)</t>
-  </si>
-  <si>
-    <t>Villager (Jungle)</t>
-  </si>
-  <si>
-    <t>Aldeão (Selva)</t>
-  </si>
-  <si>
-    <t>Villager (Plains)</t>
-  </si>
-  <si>
-    <t>Aldeão (Planícies)</t>
-  </si>
-  <si>
-    <t>Villager (Savanna)</t>
-  </si>
-  <si>
-    <t>Aldeão (Savana)</t>
-  </si>
-  <si>
-    <t>Villager (Snowy Tundra)</t>
-  </si>
-  <si>
-    <t>Aldeão (Tundra nevada)</t>
-  </si>
-  <si>
-    <t>Villager (Swamp)</t>
-  </si>
-  <si>
-    <t>Aldeão (Pântano)</t>
-  </si>
-  <si>
-    <t>Villager (Taiga)</t>
-  </si>
-  <si>
-    <t>Aldeão (Taiga)</t>
-  </si>
-  <si>
-    <t>Virtual Youtuber</t>
-  </si>
-  <si>
-    <t>Youtuber virtual</t>
-  </si>
-  <si>
-    <t>Vocaloid</t>
-  </si>
-  <si>
-    <t>Voltron</t>
-  </si>
-  <si>
-    <t>Wakfu</t>
-  </si>
-  <si>
-    <t>Walking Dead</t>
-  </si>
-  <si>
-    <t>Wall-E</t>
-  </si>
-  <si>
-    <t>Wallace and Gromit</t>
-  </si>
-  <si>
-    <t>Wallace e Gromit</t>
-  </si>
-  <si>
-    <t>War of the Worlds</t>
-  </si>
-  <si>
-    <t>Guerra dos Mundos</t>
-  </si>
-  <si>
-    <t>Warcraft</t>
-  </si>
-  <si>
-    <t>Warframe</t>
-  </si>
-  <si>
-    <t>Warhammer</t>
-  </si>
-  <si>
-    <t>Martelo de guerra</t>
-  </si>
-  <si>
-    <t>Warrior Cats</t>
-  </si>
-  <si>
-    <t>Gatos guerreiros</t>
-  </si>
-  <si>
-    <t>We Bear Bears</t>
-  </si>
-  <si>
-    <t>Nós, os ursos</t>
-  </si>
-  <si>
-    <t>We Happy Few</t>
-  </si>
-  <si>
-    <t>Nós, os Felizes</t>
-  </si>
-  <si>
-    <t>Weather</t>
-  </si>
-  <si>
-    <t>Tempo</t>
-  </si>
-  <si>
-    <t>Welcome Home</t>
-  </si>
-  <si>
-    <t>Bem-vindo a casa</t>
-  </si>
-  <si>
-    <t>Who is this?</t>
-  </si>
-  <si>
-    <t>Quem é este?</t>
-  </si>
-  <si>
-    <t>Wild Update</t>
-  </si>
-  <si>
-    <t>Atualização selvagem</t>
-  </si>
-  <si>
-    <t>Wings of Fire</t>
-  </si>
-  <si>
-    <t>Asas de fogo</t>
-  </si>
-  <si>
-    <t>Winnie the Pooh</t>
-  </si>
-  <si>
-    <t>Winter</t>
-  </si>
-  <si>
-    <t>inverno</t>
-  </si>
-  <si>
-    <t>Witcher</t>
-  </si>
-  <si>
-    <t>Wonderful Wonder World</t>
-  </si>
-  <si>
-    <t>Mundo maravilhoso</t>
-  </si>
-  <si>
-    <t>Wood</t>
-  </si>
-  <si>
-    <t>Madeira</t>
-  </si>
-  <si>
-    <t>Wool</t>
-  </si>
-  <si>
-    <t>Lã</t>
-  </si>
-  <si>
-    <t>Work Safety Helmet</t>
-  </si>
-  <si>
-    <t>Capacete de segurança no trabalho</t>
-  </si>
-  <si>
-    <t>Wreck It Ralph</t>
-  </si>
-  <si>
-    <t>Wybel</t>
-  </si>
-  <si>
-    <t>Wynncraft</t>
-  </si>
-  <si>
-    <t>X-Men</t>
-  </si>
-  <si>
-    <t>Xenoblade Chronicles</t>
-  </si>
-  <si>
-    <t>Yandere Simulator</t>
-  </si>
-  <si>
-    <t>Simulador Yandere</t>
-  </si>
-  <si>
-    <t>Yellow Submarine</t>
-  </si>
-  <si>
-    <t>Submarino Amarelo</t>
-  </si>
-  <si>
-    <t>Yokai</t>
-  </si>
-  <si>
-    <t>Yooka Laylee</t>
-  </si>
-  <si>
-    <t>Young</t>
-  </si>
-  <si>
-    <t>Jovem</t>
-  </si>
-  <si>
-    <t>Youtube</t>
-  </si>
-  <si>
-    <t>Yu-Gi-Oh</t>
-  </si>
-  <si>
-    <t>Yume Nikki</t>
-  </si>
-  <si>
-    <t>Zero no Tsukaima</t>
-  </si>
-  <si>
-    <t>Zero Wing</t>
-  </si>
-  <si>
-    <t>Asa Zero</t>
-  </si>
-  <si>
-    <t>Zodiac Sign</t>
-  </si>
-  <si>
-    <t>Signo do Zodíaco</t>
-  </si>
-  <si>
-    <t>Zombie</t>
-  </si>
-  <si>
-    <t>Zombie (Vanilla)</t>
-  </si>
-  <si>
-    <t>Zombie (Baunilha)</t>
-  </si>
-  <si>
-    <t>Zootopia</t>
   </si>
   <si>
     <t>Fall Drop</t>
@@ -6429,7 +6435,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1176"/>
+  <dimension ref="A1:B1177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -15850,8 +15856,16 @@
         <v>2021</v>
       </c>
     </row>
+    <row r="1177" spans="1:2">
+      <c r="A1177" t="s">
+        <v>2022</v>
+      </c>
+      <c r="B1177" t="s">
+        <v>2023</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1176"/>
+  <autoFilter ref="A1:B1177"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
